--- a/Corporate Finance.xlsx
+++ b/Corporate Finance.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18660" windowHeight="2760" tabRatio="820" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18660" windowHeight="2760" tabRatio="730" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="18" r:id="rId1"/>
@@ -41,16 +41,18 @@
     <definedName name="Beta_Regression">'Models &amp; inputs'!$F$50</definedName>
     <definedName name="Beta_Standard_Error">'Models &amp; inputs'!$F$51</definedName>
     <definedName name="Beta_Unlevered">Betas_Per_Segment[[#Totals],[Unlevered beta]]</definedName>
-    <definedName name="Company_Debt">'Company data'!$D$13</definedName>
-    <definedName name="Company_EBIT">'Company data'!$D$17</definedName>
-    <definedName name="Company_Equity">'Company data'!$D$14</definedName>
-    <definedName name="Company_Interest_Expenses">'Company data'!$D$18</definedName>
+    <definedName name="Company_Debt">'Company data'!$D$11</definedName>
+    <definedName name="Company_EBIT">'Company data'!$D$16</definedName>
+    <definedName name="Company_Equity">'Company data'!$D$12</definedName>
+    <definedName name="Company_Interest_Expenses">'Company data'!$D$17</definedName>
     <definedName name="Company_Market_Cap">'Company data'!$D$15</definedName>
-    <definedName name="Company_Tax_Rate">'Company data'!$D$88</definedName>
+    <definedName name="Company_Tax_Rate">'Company data'!$D$99</definedName>
+    <definedName name="Company_Type">'Company data'!$F$8</definedName>
     <definedName name="Confidence_interval">Investments!$E$8</definedName>
     <definedName name="Data_Validation_Regions" localSheetId="2">Regions[Regions]</definedName>
     <definedName name="Estimated_Firm_Value">Betas_Per_Segment[[#Totals],[Estimated Value]]</definedName>
-    <definedName name="Industry_Average">'Company data'!$C$51</definedName>
+    <definedName name="Industry_Average">'Company data'!$C$62</definedName>
+    <definedName name="Input_Company_Types">Company_Types[Type of company]</definedName>
     <definedName name="Input_Confidence_Interval" localSheetId="5">Confidence_Intervals[Confidence intervals]</definedName>
     <definedName name="Input_Confidence_Interval">Confidence_Intervals[Confidence intervals]</definedName>
     <definedName name="Input_Industries" localSheetId="5">Industries[Industries]</definedName>
@@ -68,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2752" uniqueCount="505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2794" uniqueCount="528">
   <si>
     <t>S&amp;P</t>
   </si>
@@ -1513,9 +1515,6 @@
     <t>Estimated debt</t>
   </si>
   <si>
-    <t>Strange debt allocator</t>
-  </si>
-  <si>
     <t>Allocated debt</t>
   </si>
   <si>
@@ -1534,9 +1533,6 @@
     <t>Firm value proportion * Levered Beta debt</t>
   </si>
   <si>
-    <t>Internet coverage ratio is</t>
-  </si>
-  <si>
     <t>&gt;</t>
   </si>
   <si>
@@ -1586,18 +1582,94 @@
   </si>
   <si>
     <t>Market cap</t>
+  </si>
+  <si>
+    <t>Special thanks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To </t>
+  </si>
+  <si>
+    <t>To Prof. Aswath Damodran at NYU for collecting and providing the data used for calculations and estimations.</t>
+  </si>
+  <si>
+    <t>Large manufactuing firms</t>
+  </si>
+  <si>
+    <t>For smaller firms</t>
+  </si>
+  <si>
+    <t>greater than</t>
+  </si>
+  <si>
+    <t>Rating is</t>
+  </si>
+  <si>
+    <t>Financial service firms</t>
+  </si>
+  <si>
+    <t>Rental leases or rental commitments</t>
+  </si>
+  <si>
+    <t>Long term government bond rate</t>
+  </si>
+  <si>
+    <t>Estimated cost per debt</t>
+  </si>
+  <si>
+    <t>Estimated default spread</t>
+  </si>
+  <si>
+    <t>Strange debt allocator constant</t>
+  </si>
+  <si>
+    <t>Cost of debt</t>
+  </si>
+  <si>
+    <t>Things that could be added</t>
+  </si>
+  <si>
+    <t>Operational leases from ratings book.</t>
+  </si>
+  <si>
+    <t>Synthetic ratings</t>
+  </si>
+  <si>
+    <t>Type of company</t>
+  </si>
+  <si>
+    <t>Small risky firm</t>
+  </si>
+  <si>
+    <t>Large manufacturing firm</t>
+  </si>
+  <si>
+    <t>Rating table</t>
+  </si>
+  <si>
+    <t>Rating_Large_Firms</t>
+  </si>
+  <si>
+    <t>Rating_Small_Firms</t>
+  </si>
+  <si>
+    <t>Rating_Financial_Firms</t>
+  </si>
+  <si>
+    <t>Financial service</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="0.000%"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
     <numFmt numFmtId="167" formatCode="0.0000%"/>
     <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="169" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -2257,7 +2329,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="15">
+  <cellStyleXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2276,8 +2348,9 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="188">
+  <cellXfs count="191">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -2608,6 +2681,18 @@
     <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="4"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="8" xfId="9" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="18" fillId="18" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2675,11 +2760,8 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="8" xfId="9" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="15">
+  <cellStyles count="16">
     <cellStyle name="Beräkning" xfId="9" builtinId="22"/>
     <cellStyle name="Hyperlänk" xfId="2" builtinId="8"/>
     <cellStyle name="Hyperlänk 2" xfId="7"/>
@@ -2695,6 +2777,7 @@
     <cellStyle name="Tusental 2" xfId="5"/>
     <cellStyle name="Utdata" xfId="10" builtinId="21"/>
     <cellStyle name="Valuta 2" xfId="6"/>
+    <cellStyle name="Valuta 3" xfId="15"/>
   </cellStyles>
   <dxfs count="184">
     <dxf>
@@ -5825,11 +5908,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Betas_Per_Segment" displayName="Betas_Per_Segment" ref="C53:Q61" totalsRowCount="1" totalsRowDxfId="182" tableBorderDxfId="183" headerRowCellStyle="Normal" totalsRowCellStyle="Normal">
-  <autoFilter ref="C53:Q60"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Betas_Per_Segment" displayName="Betas_Per_Segment" ref="C64:Q72" totalsRowCount="1" totalsRowDxfId="182" tableBorderDxfId="183" headerRowCellStyle="Normal" totalsRowCellStyle="Normal">
+  <autoFilter ref="C64:Q71"/>
   <tableColumns count="15">
     <tableColumn id="7" name="Segment" totalsRowLabel="Company" dataDxfId="181" totalsRowDxfId="180" dataCellStyle="Länkad cell">
-      <calculatedColumnFormula>IF(C40="","",C40)</calculatedColumnFormula>
+      <calculatedColumnFormula>IF(C51="","",C51)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="10" name="EV/Sales" dataDxfId="179" totalsRowDxfId="178" dataCellStyle="Beräkning">
       <calculatedColumnFormula>IFERROR(VLOOKUP(Betas_Per_Segment[[#This Row],[Segment]],INDIRECT(VLOOKUP(Industry_Average,Industry_TableConverter[],3,FALSE)),3,FALSE),"")</calculatedColumnFormula>
@@ -5855,7 +5938,7 @@
       <calculatedColumnFormula>IFERROR(Betas_Per_Segment[[#This Row],[Estimated debt]]/SUM(Betas_Per_Segment[Estimated debt])*Company_Debt,"")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" name="Estimated debt" dataDxfId="169" totalsRowDxfId="168" dataCellStyle="Utdata">
-      <calculatedColumnFormula>IFERROR(Betas_Per_Segment[[#This Row],[Estimated Value]]*Betas_Per_Segment[Industry D/E]/$F$51,"")</calculatedColumnFormula>
+      <calculatedColumnFormula>IFERROR(Betas_Per_Segment[[#This Row],[Estimated Value]]*Betas_Per_Segment[Industry D/E]/$F$62,"")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="14" name="Estimated equity" dataDxfId="167" totalsRowDxfId="166" dataCellStyle="Utdata">
       <calculatedColumnFormula>IFERROR(Betas_Per_Segment[[#This Row],[Estimated Value]]-Betas_Per_Segment[[#This Row],[Allocated debt]],"")</calculatedColumnFormula>
@@ -6072,8 +6155,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="23" name="Company_Operations_Region" displayName="Company_Operations_Region" ref="C24:D34" totalsRowShown="0" headerRowCellStyle="Normal" dataCellStyle="Normal">
-  <autoFilter ref="C24:D34"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="23" name="Company_Operations_Region" displayName="Company_Operations_Region" ref="C35:D45" totalsRowShown="0" headerRowCellStyle="Normal" dataCellStyle="Normal">
+  <autoFilter ref="C35:D45"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Region" dataCellStyle="Normal"/>
     <tableColumn id="2" name="Percentage" dataDxfId="159" dataCellStyle="Indata"/>
@@ -6156,6 +6239,22 @@
 </file>
 
 <file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Rating_Financial_Firms" displayName="Rating_Financial_Firms" ref="N142:Q157" totalsRowShown="0" headerRowCellStyle="Normal" dataCellStyle="Normal">
+  <autoFilter ref="N142:Q157"/>
+  <sortState ref="N143:Q157">
+    <sortCondition descending="1" ref="O142:O157"/>
+  </sortState>
+  <tableColumns count="4">
+    <tableColumn id="1" name="greater than" dataCellStyle="Normal"/>
+    <tableColumn id="2" name="&lt;= to" dataCellStyle="Normal"/>
+    <tableColumn id="3" name="Rating is" dataCellStyle="Normal"/>
+    <tableColumn id="4" name="Spread is" dataCellStyle="Normal"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Regions" displayName="Regions" ref="B7:C17" totalsRowShown="0">
   <autoFilter ref="B7:C17"/>
   <sortState ref="B8:B17">
@@ -6169,7 +6268,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table27.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="User_answers" displayName="User_answers" ref="E7:E9" totalsRowShown="0">
   <autoFilter ref="E7:E9"/>
   <tableColumns count="1">
@@ -6179,7 +6278,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table28.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Confidence_Intervals" displayName="Confidence_Intervals" ref="E11:E13" totalsRowShown="0" dataCellStyle="Procent">
   <autoFilter ref="E11:E13"/>
   <tableColumns count="1">
@@ -6189,7 +6288,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table29.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Industries" displayName="Industries" ref="G7:G89" totalsRowShown="0" dataCellStyle="Normal 3">
   <autoFilter ref="G7:G89"/>
   <tableColumns count="1">
@@ -6199,7 +6298,42 @@
 </table>
 </file>
 
-<file path=xl/tables/table29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="28" name="Betas_Per_Segment_Region" displayName="Betas_Per_Segment_Region" ref="C75:L83" totalsRowCount="1" tableBorderDxfId="158">
+  <autoFilter ref="C75:L82"/>
+  <tableColumns count="10">
+    <tableColumn id="1" name="Segment" totalsRowLabel="Company" dataDxfId="157" totalsRowDxfId="156"/>
+    <tableColumn id="18" name="EV/Sales" dataDxfId="155" dataCellStyle="Beräkning">
+      <calculatedColumnFormula>IFERROR(VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],EV_Sales_US[],3,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],3,FALSE)+VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],EV_Sales_China[],3,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],4,FALSE)+VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],EV_Sales_Europe[],3,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],5,FALSE)+VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],EV_Sales_India[],3,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],6,FALSE),"")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="19" name="Estimated Value" totalsRowFunction="custom" dataDxfId="154" dataCellStyle="Beräkning">
+      <calculatedColumnFormula>IFERROR(Betas_Per_Segment_Region[[#This Row],[EV/Sales]]*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],2,FALSE),"")</calculatedColumnFormula>
+      <totalsRowFormula>SUM(Betas_Per_Segment_Region[Estimated Value])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="20" name="Firm Value Proportion" dataCellStyle="Beräkning">
+      <calculatedColumnFormula>IFERROR(Betas_Per_Segment_Region[[#This Row],[Estimated Value]]/Betas_Per_Segment_Region[[#Totals],[Estimated Value]],"")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="15" name="Unlevered beta" totalsRowFunction="custom" dataDxfId="153" totalsRowDxfId="152" dataCellStyle="Utdata">
+      <totalsRowFormula>SUM(Betas_Per_Segment_Region[Firm value proportion * Unlevered Beta])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="16" name="Firm value proportion * Unlevered Beta" dataDxfId="151" dataCellStyle="Beräkning">
+      <calculatedColumnFormula>IFERROR(Betas_Per_Segment_Region[[#This Row],[Firm Value Proportion]]*Betas_Per_Segment_Region[[#This Row],[Unlevered beta]],"")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="17" name="Estimated levered beta" totalsRowFunction="custom" dataDxfId="150" totalsRowDxfId="149" dataCellStyle="Utdata">
+      <calculatedColumnFormula>IFERROR(Betas_Per_Segment_Region[[#This Row],[Unlevered beta]]*(1+(1-Company_Tax_Rate)*(Company_Debt/Company_Equity)),"")</calculatedColumnFormula>
+      <totalsRowFormula>SUM(Betas_Per_Segment_Region[Firm value proportion * Levered Beta])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="22" name="Estimated levered beta using debt allocation" dataCellStyle="Utdata"/>
+    <tableColumn id="23" name="Industry D/E" dataCellStyle="Utdata"/>
+    <tableColumn id="21" name="Firm value proportion * Levered Beta" dataDxfId="148" dataCellStyle="Beräkning">
+      <calculatedColumnFormula>IFERROR(Betas_Per_Segment_Region[[#This Row],[Firm Value Proportion]]*Betas_Per_Segment_Region[[#This Row],[Estimated levered beta]],"")</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table30.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="24" name="Industry_TableConverter" displayName="Industry_TableConverter" ref="B19:D25" totalsRowShown="0" dataCellStyle="Normal">
   <autoFilter ref="B19:D25"/>
   <tableColumns count="3">
@@ -6211,44 +6345,20 @@
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="28" name="Tabell28" displayName="Tabell28" ref="C64:L72" totalsRowCount="1" tableBorderDxfId="158">
-  <autoFilter ref="C64:L71"/>
-  <tableColumns count="10">
-    <tableColumn id="1" name="Segment" totalsRowLabel="Company" dataDxfId="157" totalsRowDxfId="156"/>
-    <tableColumn id="18" name="EV/Sales" dataDxfId="155" dataCellStyle="Beräkning">
-      <calculatedColumnFormula>IFERROR(VLOOKUP(Tabell28[[#This Row],[Segment]],EV_Sales_US[],3,FALSE)*VLOOKUP(Tabell28[[#This Row],[Segment]],Operations_Per_Segment_Region[],3,FALSE)+VLOOKUP(Tabell28[[#This Row],[Segment]],EV_Sales_China[],3,FALSE)*VLOOKUP(Tabell28[[#This Row],[Segment]],Operations_Per_Segment_Region[],4,FALSE)+VLOOKUP(Tabell28[[#This Row],[Segment]],EV_Sales_Europe[],3,FALSE)*VLOOKUP(Tabell28[[#This Row],[Segment]],Operations_Per_Segment_Region[],5,FALSE)+VLOOKUP(Tabell28[[#This Row],[Segment]],EV_Sales_India[],3,FALSE)*VLOOKUP(Tabell28[[#This Row],[Segment]],Operations_Per_Segment_Region[],6,FALSE),"")</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="19" name="Estimated Value" totalsRowFunction="custom" dataDxfId="154" dataCellStyle="Beräkning">
-      <calculatedColumnFormula>IFERROR(Tabell28[[#This Row],[EV/Sales]]*VLOOKUP(Tabell28[[#This Row],[Segment]],Operations_Per_Segment_Region[],2,FALSE),"")</calculatedColumnFormula>
-      <totalsRowFormula>SUM(Tabell28[Estimated Value])</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="20" name="Firm Value Proportion" dataCellStyle="Beräkning">
-      <calculatedColumnFormula>IFERROR(Tabell28[[#This Row],[Estimated Value]]/Tabell28[[#Totals],[Estimated Value]],"")</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="15" name="Unlevered beta" totalsRowFunction="custom" dataDxfId="153" totalsRowDxfId="152" dataCellStyle="Utdata">
-      <totalsRowFormula>SUM(Tabell28[Firm value proportion * Unlevered Beta])</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="16" name="Firm value proportion * Unlevered Beta" dataDxfId="151" dataCellStyle="Beräkning">
-      <calculatedColumnFormula>IFERROR(Tabell28[[#This Row],[Firm Value Proportion]]*Tabell28[[#This Row],[Unlevered beta]],"")</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="17" name="Estimated levered beta" totalsRowFunction="custom" dataDxfId="150" totalsRowDxfId="149" dataCellStyle="Utdata">
-      <calculatedColumnFormula>IFERROR(Tabell28[[#This Row],[Unlevered beta]]*(1+(1-Company_Tax_Rate)*(Company_Debt/Company_Equity)),"")</calculatedColumnFormula>
-      <totalsRowFormula>SUM(Tabell28[Firm value proportion * Levered Beta])</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="22" name="Estimated levered beta using debt allocation" dataCellStyle="Utdata"/>
-    <tableColumn id="23" name="Industry D/E" dataCellStyle="Utdata"/>
-    <tableColumn id="21" name="Firm value proportion * Levered Beta" dataDxfId="148" dataCellStyle="Beräkning">
-      <calculatedColumnFormula>IFERROR(Tabell28[[#This Row],[Firm Value Proportion]]*Tabell28[[#This Row],[Estimated levered beta]],"")</calculatedColumnFormula>
-    </tableColumn>
+<file path=xl/tables/table31.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Company_Types" displayName="Company_Types" ref="I7:J10" totalsRowShown="0">
+  <autoFilter ref="I7:J10"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Type of company"/>
+    <tableColumn id="2" name="Rating table"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="33" name="Operations_Per_Segment_Region" displayName="Operations_Per_Segment_Region" ref="C39:J47" totalsRowShown="0" tableBorderDxfId="147">
-  <autoFilter ref="C39:J47"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="33" name="Operations_Per_Segment_Region" displayName="Operations_Per_Segment_Region" ref="C50:J58" totalsRowShown="0" tableBorderDxfId="147">
+  <autoFilter ref="C50:J58"/>
   <tableColumns count="8">
     <tableColumn id="1" name="Segment" dataDxfId="146" dataCellStyle="Indata"/>
     <tableColumn id="2" name="Revenue" dataDxfId="145" dataCellStyle="Indata"/>
@@ -6648,12 +6758,12 @@
       <c r="B1" s="1"/>
     </row>
     <row r="2" spans="2:14" s="2" customFormat="1" ht="9.75" customHeight="1">
-      <c r="B2" s="164" t="s">
+      <c r="B2" s="168" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="3" spans="2:14" s="2" customFormat="1" ht="57" customHeight="1" thickBot="1">
-      <c r="B3" s="164"/>
+      <c r="B3" s="168"/>
       <c r="C3" s="23"/>
       <c r="D3" s="25" t="s">
         <v>206</v>
@@ -6676,7 +6786,7 @@
       <c r="N3" s="22"/>
     </row>
     <row r="4" spans="2:14" s="2" customFormat="1" ht="9.75" customHeight="1" thickTop="1">
-      <c r="B4" s="164"/>
+      <c r="B4" s="168"/>
     </row>
     <row r="5" spans="2:14" ht="7.5" customHeight="1">
       <c r="B5" s="1"/>
@@ -6699,10 +6809,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Blad5"/>
-  <dimension ref="B1:N76"/>
+  <dimension ref="B1:N81"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E10:E16"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6722,12 +6832,12 @@
       <c r="B1" s="1"/>
     </row>
     <row r="2" spans="2:14" s="2" customFormat="1" ht="9.75" customHeight="1">
-      <c r="B2" s="164" t="s">
+      <c r="B2" s="168" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="3" spans="2:14" s="2" customFormat="1" ht="57" customHeight="1" thickBot="1">
-      <c r="B3" s="164"/>
+      <c r="B3" s="168"/>
       <c r="C3" s="23"/>
       <c r="D3" s="25" t="s">
         <v>206</v>
@@ -6750,7 +6860,7 @@
       <c r="N3" s="22"/>
     </row>
     <row r="4" spans="2:14" s="2" customFormat="1" ht="9.75" customHeight="1" thickTop="1">
-      <c r="B4" s="164"/>
+      <c r="B4" s="168"/>
     </row>
     <row r="5" spans="2:14" ht="7.5" customHeight="1">
       <c r="B5" s="1"/>
@@ -6769,48 +6879,95 @@
       </c>
     </row>
     <row r="10" spans="2:14">
-      <c r="B10" s="165" t="s">
+      <c r="B10" s="169" t="s">
         <v>464</v>
       </c>
-      <c r="C10" s="165"/>
-      <c r="D10" s="165"/>
+      <c r="C10" s="169"/>
+      <c r="D10" s="169"/>
     </row>
     <row r="11" spans="2:14">
-      <c r="B11" s="165" t="s">
+      <c r="B11" s="169" t="s">
         <v>198</v>
       </c>
-      <c r="C11" s="165"/>
-      <c r="D11" s="165"/>
+      <c r="C11" s="169"/>
+      <c r="D11" s="169"/>
     </row>
     <row r="12" spans="2:14">
-      <c r="B12" s="165" t="s">
+      <c r="B12" s="169" t="s">
         <v>465</v>
       </c>
-      <c r="C12" s="165"/>
-      <c r="D12" s="165"/>
+      <c r="C12" s="169"/>
+      <c r="D12" s="169"/>
     </row>
     <row r="13" spans="2:14">
-      <c r="B13" s="165" t="s">
+      <c r="B13" s="169" t="s">
         <v>466</v>
       </c>
-      <c r="C13" s="165"/>
-      <c r="D13" s="165"/>
+      <c r="C13" s="169"/>
+      <c r="D13" s="169"/>
     </row>
     <row r="14" spans="2:14">
-      <c r="B14" s="165" t="s">
+      <c r="B14" s="169" t="s">
         <v>462</v>
       </c>
-      <c r="C14" s="165"/>
-      <c r="D14" s="165"/>
+      <c r="C14" s="169"/>
+      <c r="D14" s="169"/>
     </row>
     <row r="15" spans="2:14">
-      <c r="B15" s="165" t="s">
+      <c r="B15" s="169" t="s">
         <v>468</v>
       </c>
-      <c r="C15" s="165"/>
-      <c r="D15" s="165"/>
-    </row>
-    <row r="76" ht="30.75" customHeight="1"/>
+      <c r="C15" s="169"/>
+      <c r="D15" s="169"/>
+    </row>
+    <row r="16" spans="2:14">
+      <c r="B16" s="165" t="s">
+        <v>519</v>
+      </c>
+      <c r="C16" s="165"/>
+      <c r="D16" s="165"/>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" s="165"/>
+      <c r="C17" s="165"/>
+      <c r="D17" s="165"/>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" s="165"/>
+      <c r="C18" s="165"/>
+      <c r="D18" s="165"/>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" s="165"/>
+      <c r="C19" s="165"/>
+      <c r="D19" s="165"/>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22" s="165" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="B23" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="B24" s="164" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4">
+      <c r="B25" s="164" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="81" ht="30.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="B14:D14"/>
@@ -6833,10 +6990,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:X126"/>
+  <dimension ref="B1:X137"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6863,12 +7020,12 @@
       <c r="C1" s="1"/>
     </row>
     <row r="2" spans="2:15" s="2" customFormat="1" ht="9.75" customHeight="1">
-      <c r="C2" s="164" t="s">
+      <c r="C2" s="168" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="3" spans="2:15" s="2" customFormat="1" ht="57" customHeight="1" thickBot="1">
-      <c r="C3" s="164"/>
+      <c r="C3" s="168"/>
       <c r="D3" s="23"/>
       <c r="E3" s="25" t="s">
         <v>206</v>
@@ -6890,7 +7047,7 @@
       <c r="O3" s="22"/>
     </row>
     <row r="4" spans="2:15" s="2" customFormat="1" ht="9.75" customHeight="1" thickTop="1">
-      <c r="C4" s="164"/>
+      <c r="C4" s="168"/>
     </row>
     <row r="5" spans="2:15" ht="7.5" customHeight="1">
       <c r="C5" s="1"/>
@@ -6899,1310 +7056,1383 @@
       <c r="B7" t="s">
         <v>271</v>
       </c>
+      <c r="F7" t="s">
+        <v>520</v>
+      </c>
     </row>
     <row r="8" spans="2:15">
-      <c r="C8" s="170"/>
-      <c r="D8" s="170"/>
+      <c r="C8" s="174"/>
+      <c r="D8" s="174"/>
+      <c r="F8" s="48" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15">
+      <c r="B10" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15">
+      <c r="C11" s="132" t="s">
+        <v>450</v>
+      </c>
+      <c r="D11" s="48">
+        <v>7500</v>
+      </c>
     </row>
     <row r="12" spans="2:15">
-      <c r="B12" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="13" spans="2:15">
-      <c r="C13" s="132" t="s">
-        <v>450</v>
-      </c>
-      <c r="D13" s="48">
-        <v>7500</v>
-      </c>
-    </row>
-    <row r="14" spans="2:15">
-      <c r="C14" s="163" t="s">
+      <c r="C12" s="163" t="s">
         <v>451</v>
       </c>
-      <c r="D14" s="48">
+      <c r="D12" s="48">
         <v>10000</v>
       </c>
-      <c r="E14" s="136" t="s">
+      <c r="E12" s="136" t="s">
         <v>453</v>
       </c>
-      <c r="F14" s="137">
+      <c r="F12" s="137">
         <f>Company_Debt/Company_Equity</f>
         <v>0.75</v>
       </c>
     </row>
+    <row r="13" spans="2:15">
+      <c r="E13" s="136"/>
+    </row>
+    <row r="14" spans="2:15">
+      <c r="E14" s="136"/>
+    </row>
     <row r="15" spans="2:15">
+      <c r="B15" s="136"/>
       <c r="C15" s="163" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D15" s="48">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="E15" s="136"/>
+      <c r="F15" s="136"/>
     </row>
     <row r="16" spans="2:15">
       <c r="B16" s="136"/>
-      <c r="C16" s="136"/>
-      <c r="D16" s="136"/>
+      <c r="C16" s="132" t="s">
+        <v>498</v>
+      </c>
+      <c r="D16" s="162">
+        <v>1000</v>
+      </c>
       <c r="E16" s="136"/>
       <c r="F16" s="136"/>
     </row>
     <row r="17" spans="2:7">
       <c r="B17" s="136"/>
-      <c r="C17" s="132" t="s">
+      <c r="C17" s="136" t="s">
+        <v>499</v>
+      </c>
+      <c r="D17" s="162">
         <v>500</v>
       </c>
-      <c r="D17" s="162">
-        <v>1000</v>
-      </c>
-      <c r="E17" s="136"/>
-      <c r="F17" s="136"/>
+      <c r="E17" s="136" t="s">
+        <v>500</v>
+      </c>
+      <c r="F17" s="154">
+        <f>IFERROR(Company_EBIT/Company_Interest_Expenses,"")</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="18" spans="2:7">
       <c r="B18" s="136"/>
-      <c r="C18" s="136" t="s">
+      <c r="C18" s="132" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="48"/>
+      <c r="E18" s="136" t="s">
         <v>501</v>
       </c>
-      <c r="D18" s="162">
-        <v>210</v>
-      </c>
-      <c r="E18" s="136" t="s">
-        <v>502</v>
-      </c>
-      <c r="F18" s="154">
-        <f>IFERROR(Company_EBIT/Company_Interest_Expenses,"")</f>
-        <v>4.7619047619047619</v>
+      <c r="F18" s="166" t="str">
+        <f ca="1">INDEX(INDIRECT(VLOOKUP(Company_Type,Company_Types[],2,FALSE)),MATCH(F17,INDIRECT(CONCATENATE(VLOOKUP(Company_Type,Company_Types[],2,FALSE),"[&lt;= to]")),-1),3)</f>
+        <v>B</v>
+      </c>
+      <c r="G18" s="166" t="str">
+        <f ca="1">INDEX(INDIRECT(VLOOKUP(Company_Type,Company_Types[],2,FALSE)),MATCH(F17,INDIRECT(CONCATENATE(VLOOKUP(Company_Type,Company_Types[],2,FALSE),"[&lt;= to]")),-1),4)</f>
+        <v>B2</v>
       </c>
     </row>
     <row r="19" spans="2:7">
-      <c r="C19" s="132"/>
+      <c r="B19" s="136"/>
+      <c r="E19" t="s">
+        <v>514</v>
+      </c>
+      <c r="F19" s="167">
+        <f>IF(Company_Market_Cap&gt;5000000000,INDEX(Rating_Large_Firms[],MATCH(F17,Rating_Large_Firms[&lt;= to],-1),5),INDEX(Rating_Small_Firms[],MATCH(F17,Rating_Small_Firms[&lt;= to],-1),5))</f>
+        <v>0.04</v>
+      </c>
     </row>
     <row r="20" spans="2:7">
-      <c r="C20" s="132" t="s">
-        <v>43</v>
-      </c>
-      <c r="D20" s="48"/>
-      <c r="E20" s="136" t="s">
-        <v>503</v>
-      </c>
-      <c r="F20" s="187" t="str">
-        <f>IF(Company_Market_Cap&gt;5000000000,INDEX(Rating_Large_Firms[],MATCH(F18,Rating_Large_Firms[&lt;= to],-1),3),INDEX(Rating_Small_Firms[],MATCH(F18,Rating_Small_Firms[&lt;= to],-1),3))</f>
-        <v>A-</v>
-      </c>
-      <c r="G20" s="187" t="str">
-        <f>IF(Company_Market_Cap&gt;5000000000,INDEX(Rating_Large_Firms[],MATCH(F18,Rating_Large_Firms[&lt;= to],-1),4),INDEX(Rating_Small_Firms[],MATCH(F18,Rating_Small_Firms[&lt;= to],-1),4))</f>
-        <v>A3</v>
-      </c>
+      <c r="B20" s="136"/>
     </row>
     <row r="21" spans="2:7">
-      <c r="C21" s="132"/>
+      <c r="B21" s="136"/>
     </row>
     <row r="22" spans="2:7">
-      <c r="C22" s="132"/>
+      <c r="B22" s="136"/>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" t="s">
+      <c r="B23" s="136"/>
+    </row>
+    <row r="24" spans="2:7">
+      <c r="B24" s="136"/>
+    </row>
+    <row r="25" spans="2:7">
+      <c r="B25" s="136"/>
+    </row>
+    <row r="26" spans="2:7">
+      <c r="B26" s="136"/>
+    </row>
+    <row r="27" spans="2:7">
+      <c r="B27" s="136"/>
+    </row>
+    <row r="28" spans="2:7">
+      <c r="B28" s="136"/>
+    </row>
+    <row r="29" spans="2:7">
+      <c r="B29" s="136"/>
+    </row>
+    <row r="30" spans="2:7" ht="30">
+      <c r="B30" s="136"/>
+      <c r="C30" s="53" t="s">
+        <v>511</v>
+      </c>
+      <c r="D30" s="162"/>
+    </row>
+    <row r="31" spans="2:7" ht="30">
+      <c r="B31" s="136"/>
+      <c r="C31" s="53" t="s">
+        <v>512</v>
+      </c>
+      <c r="D31" s="162"/>
+    </row>
+    <row r="32" spans="2:7">
+      <c r="B32" s="136"/>
+      <c r="C32" s="136" t="s">
+        <v>516</v>
+      </c>
+      <c r="D32" s="48"/>
+      <c r="E32" s="127" t="s">
+        <v>513</v>
+      </c>
+      <c r="F32" s="138">
+        <f>D31+F19</f>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5">
+      <c r="C33" s="132"/>
+    </row>
+    <row r="34" spans="2:5">
+      <c r="B34" t="s">
         <v>256</v>
       </c>
-      <c r="E23" s="136"/>
-    </row>
-    <row r="24" spans="2:7">
-      <c r="C24" t="s">
+      <c r="E34" s="136"/>
+    </row>
+    <row r="35" spans="2:5">
+      <c r="C35" t="s">
         <v>202</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D35" t="s">
         <v>413</v>
       </c>
-      <c r="E24" s="136"/>
-    </row>
-    <row r="25" spans="2:7">
-      <c r="C25" t="s">
+      <c r="E35" s="136"/>
+    </row>
+    <row r="36" spans="2:5">
+      <c r="C36" t="s">
         <v>232</v>
       </c>
-      <c r="D25" s="135">
+      <c r="D36" s="135">
         <v>0.12</v>
       </c>
-      <c r="E25" s="136"/>
-    </row>
-    <row r="26" spans="2:7">
-      <c r="C26" t="s">
+      <c r="E36" s="136"/>
+    </row>
+    <row r="37" spans="2:5">
+      <c r="C37" t="s">
         <v>238</v>
       </c>
-      <c r="D26" s="135">
+      <c r="D37" s="135">
         <v>0.25</v>
       </c>
-      <c r="E26" s="136"/>
-    </row>
-    <row r="27" spans="2:7">
-      <c r="C27" t="s">
+      <c r="E37" s="136"/>
+    </row>
+    <row r="38" spans="2:5">
+      <c r="C38" t="s">
         <v>237</v>
       </c>
-      <c r="D27" s="135">
+      <c r="D38" s="135">
         <v>0.13</v>
       </c>
-      <c r="E27" s="136"/>
-    </row>
-    <row r="28" spans="2:7">
-      <c r="C28" t="s">
+      <c r="E38" s="136"/>
+    </row>
+    <row r="39" spans="2:5">
+      <c r="C39" t="s">
         <v>233</v>
       </c>
-      <c r="D28" s="135">
+      <c r="D39" s="135">
         <v>0.05</v>
       </c>
-      <c r="E28" s="136"/>
-    </row>
-    <row r="29" spans="2:7">
-      <c r="C29" t="s">
+      <c r="E39" s="136"/>
+    </row>
+    <row r="40" spans="2:5">
+      <c r="C40" t="s">
         <v>235</v>
       </c>
-      <c r="D29" s="135">
+      <c r="D40" s="135">
         <v>0.04</v>
       </c>
-      <c r="E29" s="136"/>
-    </row>
-    <row r="30" spans="2:7">
-      <c r="C30" t="s">
+      <c r="E40" s="136"/>
+    </row>
+    <row r="41" spans="2:5">
+      <c r="C41" t="s">
         <v>236</v>
       </c>
-      <c r="D30" s="135">
+      <c r="D41" s="135">
         <v>0</v>
       </c>
-      <c r="E30" s="136"/>
-    </row>
-    <row r="31" spans="2:7">
-      <c r="C31" t="s">
+      <c r="E41" s="136"/>
+    </row>
+    <row r="42" spans="2:5">
+      <c r="C42" t="s">
         <v>242</v>
       </c>
-      <c r="D31" s="135">
+      <c r="D42" s="135">
         <v>0.08</v>
       </c>
-      <c r="E31" s="136"/>
-    </row>
-    <row r="32" spans="2:7">
-      <c r="C32" t="s">
+      <c r="E42" s="136"/>
+    </row>
+    <row r="43" spans="2:5">
+      <c r="C43" t="s">
         <v>240</v>
       </c>
-      <c r="D32" s="135">
+      <c r="D43" s="135">
         <v>0.33</v>
       </c>
-      <c r="E32" s="136"/>
-    </row>
-    <row r="33" spans="2:10">
-      <c r="C33" t="s">
+      <c r="E43" s="136"/>
+    </row>
+    <row r="44" spans="2:5">
+      <c r="C44" t="s">
         <v>241</v>
       </c>
-      <c r="D33" s="135">
+      <c r="D44" s="135">
         <v>0</v>
       </c>
-      <c r="E33" s="136"/>
-    </row>
-    <row r="34" spans="2:10" ht="15.75" thickBot="1">
-      <c r="C34" t="s">
+      <c r="E44" s="136"/>
+    </row>
+    <row r="45" spans="2:5" ht="15.75" thickBot="1">
+      <c r="C45" t="s">
         <v>239</v>
       </c>
-      <c r="D34" s="135">
+      <c r="D45" s="135">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:10" ht="16.5" thickTop="1" thickBot="1">
-      <c r="C35" s="47" t="s">
+    <row r="46" spans="2:5" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C46" s="47" t="s">
         <v>258</v>
       </c>
-      <c r="D35" s="44">
-        <f>SUM(D25:D34)</f>
+      <c r="D46" s="44">
+        <f>SUM(D36:D45)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:10" ht="15.75" thickTop="1">
-      <c r="C36" s="47"/>
-    </row>
-    <row r="37" spans="2:10">
-      <c r="B37" t="s">
+    <row r="47" spans="2:5" ht="15.75" thickTop="1">
+      <c r="C47" s="47"/>
+    </row>
+    <row r="48" spans="2:5">
+      <c r="B48" t="s">
         <v>470</v>
       </c>
-      <c r="C37" s="47"/>
-    </row>
-    <row r="38" spans="2:10" ht="15.75" thickBot="1">
-      <c r="C38" s="47"/>
-      <c r="E38" s="167" t="s">
+      <c r="C48" s="47"/>
+    </row>
+    <row r="49" spans="2:19" ht="15.75" thickBot="1">
+      <c r="C49" s="47"/>
+      <c r="E49" s="171" t="s">
         <v>472</v>
       </c>
-      <c r="F38" s="167"/>
-      <c r="G38" s="167"/>
-      <c r="H38" s="167"/>
-      <c r="I38" s="167"/>
-    </row>
-    <row r="39" spans="2:10" ht="15.75" thickBot="1">
-      <c r="C39" t="s">
+      <c r="F49" s="171"/>
+      <c r="G49" s="171"/>
+      <c r="H49" s="171"/>
+      <c r="I49" s="171"/>
+    </row>
+    <row r="50" spans="2:19" ht="15.75" thickBot="1">
+      <c r="C50" t="s">
         <v>469</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D50" t="s">
         <v>471</v>
       </c>
-      <c r="E39" s="145" t="s">
+      <c r="E50" s="145" t="s">
         <v>420</v>
       </c>
-      <c r="F39" s="145" t="s">
+      <c r="F50" s="145" t="s">
         <v>282</v>
       </c>
-      <c r="G39" s="145" t="s">
+      <c r="G50" s="145" t="s">
         <v>415</v>
       </c>
-      <c r="H39" s="145" t="s">
+      <c r="H50" s="145" t="s">
         <v>283</v>
       </c>
-      <c r="I39" s="145" t="s">
+      <c r="I50" s="145" t="s">
         <v>408</v>
       </c>
-      <c r="J39" t="s">
+      <c r="J50" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="40" spans="2:10" ht="16.5" thickTop="1" thickBot="1">
-      <c r="C40" s="114" t="s">
+    <row r="51" spans="2:19" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C51" s="114" t="s">
         <v>360</v>
       </c>
-      <c r="D40" s="115">
+      <c r="D51" s="115">
         <v>40000</v>
       </c>
-      <c r="E40" s="133">
+      <c r="E51" s="133">
         <v>0.5</v>
       </c>
-      <c r="F40" s="133"/>
-      <c r="G40" s="133">
+      <c r="F51" s="133"/>
+      <c r="G51" s="133">
         <v>0.5</v>
       </c>
-      <c r="H40" s="133"/>
-      <c r="I40" s="133"/>
-      <c r="J40" s="149">
+      <c r="H51" s="133"/>
+      <c r="I51" s="133"/>
+      <c r="J51" s="149">
         <f>SUM(Operations_Per_Segment_Region[[#This Row],[US]:[Emerging markets]])</f>
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="2:10" ht="16.5" thickTop="1" thickBot="1">
-      <c r="C41" s="114" t="s">
+    <row r="52" spans="2:19" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C52" s="114" t="s">
         <v>323</v>
       </c>
-      <c r="D41" s="115">
+      <c r="D52" s="115">
         <v>10000</v>
       </c>
-      <c r="E41" s="133"/>
-      <c r="F41" s="133"/>
-      <c r="G41" s="133"/>
-      <c r="H41" s="133"/>
-      <c r="I41" s="133"/>
-      <c r="J41" s="149">
+      <c r="E52" s="133"/>
+      <c r="F52" s="133"/>
+      <c r="G52" s="133"/>
+      <c r="H52" s="133"/>
+      <c r="I52" s="133"/>
+      <c r="J52" s="149">
         <f>SUM(Operations_Per_Segment_Region[[#This Row],[US]:[Emerging markets]])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:10" ht="16.5" thickTop="1" thickBot="1">
-      <c r="C42" s="114" t="s">
+    <row r="53" spans="2:19" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C53" s="114" t="s">
         <v>325</v>
       </c>
-      <c r="D42" s="115">
+      <c r="D53" s="115">
         <v>8000</v>
       </c>
-      <c r="E42" s="133"/>
-      <c r="F42" s="133"/>
-      <c r="G42" s="133"/>
-      <c r="H42" s="133"/>
-      <c r="I42" s="133"/>
-      <c r="J42" s="149">
+      <c r="E53" s="133"/>
+      <c r="F53" s="133"/>
+      <c r="G53" s="133"/>
+      <c r="H53" s="133"/>
+      <c r="I53" s="133"/>
+      <c r="J53" s="149">
         <f>SUM(Operations_Per_Segment_Region[[#This Row],[US]:[Emerging markets]])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:10" ht="16.5" thickTop="1" thickBot="1">
-      <c r="C43" s="114"/>
-      <c r="D43" s="115"/>
-      <c r="E43" s="133"/>
-      <c r="F43" s="133"/>
-      <c r="G43" s="133"/>
-      <c r="H43" s="133"/>
-      <c r="I43" s="133"/>
-      <c r="J43" s="149">
+    <row r="54" spans="2:19" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C54" s="114"/>
+      <c r="D54" s="115"/>
+      <c r="E54" s="133"/>
+      <c r="F54" s="133"/>
+      <c r="G54" s="133"/>
+      <c r="H54" s="133"/>
+      <c r="I54" s="133"/>
+      <c r="J54" s="149">
         <f>SUM(Operations_Per_Segment_Region[[#This Row],[US]:[Emerging markets]])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:10" ht="16.5" thickTop="1" thickBot="1">
-      <c r="C44" s="114"/>
-      <c r="D44" s="115"/>
-      <c r="E44" s="133"/>
-      <c r="F44" s="133"/>
-      <c r="G44" s="133"/>
-      <c r="H44" s="133"/>
-      <c r="I44" s="133"/>
-      <c r="J44" s="149">
+    <row r="55" spans="2:19" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C55" s="114"/>
+      <c r="D55" s="115"/>
+      <c r="E55" s="133"/>
+      <c r="F55" s="133"/>
+      <c r="G55" s="133"/>
+      <c r="H55" s="133"/>
+      <c r="I55" s="133"/>
+      <c r="J55" s="149">
         <f>SUM(Operations_Per_Segment_Region[[#This Row],[US]:[Emerging markets]])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:10" ht="16.5" thickTop="1" thickBot="1">
-      <c r="C45" s="116"/>
-      <c r="D45" s="117"/>
-      <c r="E45" s="133"/>
-      <c r="F45" s="133"/>
-      <c r="G45" s="133"/>
-      <c r="H45" s="133"/>
-      <c r="I45" s="133"/>
-      <c r="J45" s="149">
+    <row r="56" spans="2:19" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C56" s="116"/>
+      <c r="D56" s="117"/>
+      <c r="E56" s="133"/>
+      <c r="F56" s="133"/>
+      <c r="G56" s="133"/>
+      <c r="H56" s="133"/>
+      <c r="I56" s="133"/>
+      <c r="J56" s="149">
         <f>SUM(Operations_Per_Segment_Region[[#This Row],[US]:[Emerging markets]])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:10" ht="16.5" thickTop="1" thickBot="1">
-      <c r="C46" s="114"/>
-      <c r="D46" s="114"/>
-      <c r="E46" s="133"/>
-      <c r="F46" s="133"/>
-      <c r="G46" s="133"/>
-      <c r="H46" s="133"/>
-      <c r="I46" s="133"/>
-      <c r="J46" s="149">
+    <row r="57" spans="2:19" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C57" s="114"/>
+      <c r="D57" s="114"/>
+      <c r="E57" s="133"/>
+      <c r="F57" s="133"/>
+      <c r="G57" s="133"/>
+      <c r="H57" s="133"/>
+      <c r="I57" s="133"/>
+      <c r="J57" s="149">
         <f>SUM(Operations_Per_Segment_Region[[#This Row],[US]:[Emerging markets]])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:10" ht="15.75" thickTop="1">
-      <c r="C47" s="146" t="s">
+    <row r="58" spans="2:19" ht="15.75" thickTop="1">
+      <c r="C58" s="146" t="s">
         <v>302</v>
       </c>
-      <c r="D47" s="147">
-        <f>SUM(D40:D46)</f>
+      <c r="D58" s="147">
+        <f>SUM(D51:D57)</f>
         <v>58000</v>
       </c>
-      <c r="J47">
+      <c r="J58">
         <f>SUM(Operations_Per_Segment_Region[[#This Row],[US]:[Emerging markets]])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:24">
-      <c r="B49" t="str">
+    <row r="60" spans="2:19">
+      <c r="B60" t="str">
         <f>CONCATENATE("Betas for each business segment (using ",Industry_Average," for industry averages)")</f>
         <v>Betas for each business segment (using US for industry averages)</v>
       </c>
     </row>
-    <row r="50" spans="2:24">
-      <c r="C50" t="s">
+    <row r="61" spans="2:19">
+      <c r="C61" t="s">
         <v>475</v>
       </c>
-      <c r="F50" t="s">
+      <c r="F61" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="62" spans="2:19">
+      <c r="C62" s="172" t="s">
+        <v>420</v>
+      </c>
+      <c r="D62" s="173"/>
+      <c r="F62" s="48">
+        <v>1.3871</v>
+      </c>
+      <c r="L62" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="63" spans="2:19">
+      <c r="H63" t="s">
+        <v>476</v>
+      </c>
+      <c r="I63" s="113"/>
+      <c r="N63" t="s">
+        <v>430</v>
+      </c>
+      <c r="O63" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="64" spans="2:19" ht="29.25" customHeight="1">
+      <c r="C64" s="157" t="s">
+        <v>469</v>
+      </c>
+      <c r="D64" s="40" t="s">
+        <v>298</v>
+      </c>
+      <c r="E64" s="40" t="s">
+        <v>299</v>
+      </c>
+      <c r="F64" s="40" t="s">
+        <v>300</v>
+      </c>
+      <c r="G64" s="157" t="s">
+        <v>301</v>
+      </c>
+      <c r="H64" s="157" t="s">
+        <v>443</v>
+      </c>
+      <c r="I64" s="157" t="s">
+        <v>457</v>
+      </c>
+      <c r="J64" s="157" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="51" spans="2:24">
-      <c r="C51" s="168" t="s">
-        <v>420</v>
-      </c>
-      <c r="D51" s="169"/>
-      <c r="F51" s="48">
-        <v>1.3871</v>
-      </c>
-      <c r="L51" t="s">
+      <c r="K64" s="157" t="s">
+        <v>479</v>
+      </c>
+      <c r="L64" s="157" t="s">
+        <v>481</v>
+      </c>
+      <c r="M64" s="157" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="52" spans="2:24">
-      <c r="H52" t="s">
-        <v>476</v>
-      </c>
-      <c r="I52" s="113"/>
-      <c r="N52" t="s">
-        <v>430</v>
-      </c>
-      <c r="O52" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="53" spans="2:24" ht="29.25" customHeight="1">
-      <c r="C53" s="157" t="s">
-        <v>469</v>
-      </c>
-      <c r="D53" s="40" t="s">
-        <v>298</v>
-      </c>
-      <c r="E53" s="40" t="s">
-        <v>299</v>
-      </c>
-      <c r="F53" s="40" t="s">
-        <v>300</v>
-      </c>
-      <c r="G53" s="157" t="s">
-        <v>301</v>
-      </c>
-      <c r="H53" s="157" t="s">
-        <v>443</v>
-      </c>
-      <c r="I53" s="157" t="s">
-        <v>457</v>
-      </c>
-      <c r="J53" s="157" t="s">
-        <v>481</v>
-      </c>
-      <c r="K53" s="157" t="s">
-        <v>479</v>
-      </c>
-      <c r="L53" s="157" t="s">
-        <v>482</v>
-      </c>
-      <c r="M53" s="157" t="s">
+      <c r="N64" s="157" t="s">
+        <v>477</v>
+      </c>
+      <c r="O64" s="159" t="s">
+        <v>478</v>
+      </c>
+      <c r="P64" s="159" t="s">
+        <v>485</v>
+      </c>
+      <c r="Q64" s="73" t="s">
         <v>484</v>
       </c>
-      <c r="N53" s="157" t="s">
-        <v>477</v>
-      </c>
-      <c r="O53" s="159" t="s">
-        <v>478</v>
-      </c>
-      <c r="P53" s="159" t="s">
-        <v>486</v>
-      </c>
-      <c r="Q53" s="73" t="s">
-        <v>485</v>
-      </c>
-      <c r="S53" s="79"/>
-    </row>
-    <row r="54" spans="2:24" ht="15" customHeight="1" thickBot="1">
-      <c r="C54" s="148" t="str">
-        <f t="shared" ref="C54:C60" si="0">IF(C40="","",C40)</f>
+      <c r="S64" s="79"/>
+    </row>
+    <row r="65" spans="2:24" ht="15" customHeight="1" thickBot="1">
+      <c r="C65" s="148" t="str">
+        <f t="shared" ref="C65:C71" si="0">IF(C51="","",C51)</f>
         <v>Metals &amp; Mining</v>
       </c>
-      <c r="D54" s="154">
+      <c r="D65" s="154">
         <f ca="1">IFERROR(VLOOKUP(Betas_Per_Segment[[#This Row],[Segment]],INDIRECT(VLOOKUP(Industry_Average,Industry_TableConverter[],3,FALSE)),3,FALSE),"")</f>
         <v>3.6008672528701777</v>
       </c>
-      <c r="E54" s="72">
+      <c r="E65" s="72">
         <f ca="1">IFERROR(Betas_Per_Segment[[#This Row],[EV/Sales]]*VLOOKUP(Betas_Per_Segment[[#This Row],[Segment]],Operations_Per_Segment_Region[],2,FALSE),"")</f>
         <v>144034.6901148071</v>
       </c>
-      <c r="F54" s="138">
+      <c r="F65" s="138">
         <f ca="1">IFERROR(Betas_Per_Segment[[#This Row],[Estimated Value]]/Estimated_Firm_Value,"")</f>
         <v>0.82498375495636911</v>
       </c>
-      <c r="G54" s="125">
+      <c r="G65" s="125">
         <f ca="1">IFERROR(VLOOKUP(Betas_Per_Segment[[#This Row],[Segment]],INDIRECT(VLOOKUP(Industry_Average,Industry_TableConverter[],2,FALSE)),8,FALSE),"")</f>
         <v>0.90451447164101273</v>
       </c>
-      <c r="H54" s="72">
+      <c r="H65" s="72">
         <f ca="1">IFERROR(Betas_Per_Segment[[#This Row],[Unlevered beta]]*Betas_Per_Segment[[#This Row],[Firm Value Proportion]],"")</f>
         <v>0.74620974522677896</v>
       </c>
-      <c r="I54" s="152">
+      <c r="I65" s="152">
         <f ca="1">IFERROR(Betas_Per_Segment[[#This Row],[Unlevered beta]]*(1+(1-Company_Tax_Rate)*(Company_Debt/Company_Equity)),"")</f>
         <v>1.3454652765660065</v>
       </c>
-      <c r="J54" s="152">
+      <c r="J65" s="152">
         <f ca="1">IFERROR(Betas_Per_Segment[[#This Row],[Estimated debt]]/SUM(Betas_Per_Segment[Estimated debt])*Company_Debt,"")</f>
         <v>5983.1411278702999</v>
       </c>
-      <c r="K54" s="152">
-        <f ca="1">IFERROR(Betas_Per_Segment[[#This Row],[Estimated Value]]*Betas_Per_Segment[Industry D/E]/$F$51,"")</f>
+      <c r="K65" s="152">
+        <f ca="1">IFERROR(Betas_Per_Segment[[#This Row],[Estimated Value]]*Betas_Per_Segment[Industry D/E]/$F$62,"")</f>
         <v>50064.218996829528</v>
       </c>
-      <c r="L54" s="152">
+      <c r="L65" s="152">
         <f ca="1">IFERROR(Betas_Per_Segment[[#This Row],[Estimated Value]]-Betas_Per_Segment[[#This Row],[Allocated debt]],"")</f>
         <v>138051.5489869368</v>
       </c>
-      <c r="M54" s="152">
+      <c r="M65" s="152">
         <f ca="1">IFERROR(Betas_Per_Segment[[#This Row],[Estimated equity]]/SUM(Betas_Per_Segment[Estimated equity])*Company_Equity,"")</f>
         <v>8262.0606559176176</v>
       </c>
-      <c r="N54" s="152">
+      <c r="N65" s="152">
         <f ca="1">IFERROR(Betas_Per_Segment[[#This Row],[Unlevered beta]]*(1+(1-Company_Tax_Rate)*Betas_Per_Segment[[#This Row],[Allocated debt]]/Betas_Per_Segment[[#This Row],[Scaled estimated equity ]]),"")</f>
         <v>1.3302792626437849</v>
       </c>
-      <c r="O54" s="152">
+      <c r="O65" s="152">
         <f ca="1">IFERROR(VLOOKUP(Betas_Per_Segment[[#This Row],[Segment]],INDIRECT(VLOOKUP(Industry_Average,Industry_TableConverter[],2,FALSE)),4,FALSE),"")</f>
         <v>0.48213439495131194</v>
       </c>
-      <c r="P54" s="152">
+      <c r="P65" s="152">
         <f ca="1">IFERROR(Betas_Per_Segment[[#This Row],[Firm Value Proportion]]*Betas_Per_Segment[[#This Row],[Estimated levered beta using debt allocation]],"")</f>
         <v>1.0974587812364596</v>
       </c>
-      <c r="Q54" s="72">
+      <c r="Q65" s="72">
         <f ca="1">IFERROR(Betas_Per_Segment[[#This Row],[Estimated levered beta]]*Betas_Per_Segment[[#This Row],[Firm Value Proportion]],"")</f>
         <v>1.1099869960248336</v>
       </c>
-      <c r="R54" s="171" t="s">
+      <c r="R65" s="175" t="s">
         <v>456</v>
       </c>
-      <c r="S54" s="171"/>
-      <c r="T54" s="171"/>
-    </row>
-    <row r="55" spans="2:24" ht="15" customHeight="1" thickTop="1" thickBot="1">
-      <c r="C55" s="148" t="str">
+      <c r="S65" s="175"/>
+      <c r="T65" s="175"/>
+    </row>
+    <row r="66" spans="2:24" ht="15" customHeight="1" thickTop="1" thickBot="1">
+      <c r="C66" s="148" t="str">
         <f t="shared" si="0"/>
         <v>Chemical (Diversified)</v>
       </c>
-      <c r="D55" s="154">
+      <c r="D66" s="154">
         <f ca="1">IFERROR(VLOOKUP(Betas_Per_Segment[[#This Row],[Segment]],INDIRECT(VLOOKUP(Industry_Average,Industry_TableConverter[],3,FALSE)),3,FALSE),"")</f>
         <v>1.6650619259181105</v>
       </c>
-      <c r="E55" s="72">
+      <c r="E66" s="72">
         <f ca="1">IFERROR(Betas_Per_Segment[[#This Row],[EV/Sales]]*VLOOKUP(Betas_Per_Segment[[#This Row],[Segment]],Operations_Per_Segment_Region[],2,FALSE),"")</f>
         <v>16650.619259181105</v>
       </c>
-      <c r="F55" s="138">
+      <c r="F66" s="138">
         <f ca="1">IFERROR(Betas_Per_Segment[[#This Row],[Estimated Value]]/Estimated_Firm_Value,"")</f>
         <v>9.5369319625980303E-2</v>
       </c>
-      <c r="G55" s="125">
+      <c r="G66" s="125">
         <f ca="1">IFERROR(VLOOKUP(Betas_Per_Segment[[#This Row],[Segment]],INDIRECT(VLOOKUP(Industry_Average,Industry_TableConverter[],2,FALSE)),8,FALSE),"")</f>
         <v>1.2160388085910969</v>
       </c>
-      <c r="H55" s="72">
+      <c r="H66" s="72">
         <f ca="1">IFERROR(Betas_Per_Segment[[#This Row],[Unlevered beta]]*Betas_Per_Segment[[#This Row],[Firm Value Proportion]],"")</f>
         <v>0.11597279381412061</v>
       </c>
-      <c r="I55" s="153">
+      <c r="I66" s="153">
         <f ca="1">IFERROR(Betas_Per_Segment[[#This Row],[Unlevered beta]]*(1+(1-Company_Tax_Rate)*(Company_Debt/Company_Equity)),"")</f>
         <v>1.8088577277792568</v>
       </c>
-      <c r="J55" s="153">
+      <c r="J66" s="153">
         <f ca="1">IFERROR(Betas_Per_Segment[[#This Row],[Estimated debt]]/SUM(Betas_Per_Segment[Estimated debt])*Company_Debt,"")</f>
         <v>478.99696683019607</v>
       </c>
-      <c r="K55" s="153">
-        <f ca="1">IFERROR(Betas_Per_Segment[[#This Row],[Estimated Value]]*Betas_Per_Segment[Industry D/E]/$F$51,"")</f>
+      <c r="K66" s="153">
+        <f ca="1">IFERROR(Betas_Per_Segment[[#This Row],[Estimated Value]]*Betas_Per_Segment[Industry D/E]/$F$62,"")</f>
         <v>4008.0299852027606</v>
       </c>
-      <c r="L55" s="153">
+      <c r="L66" s="153">
         <f ca="1">IFERROR(Betas_Per_Segment[[#This Row],[Estimated Value]]-Betas_Per_Segment[[#This Row],[Allocated debt]],"")</f>
         <v>16171.622292350909</v>
       </c>
-      <c r="M55" s="153">
+      <c r="M66" s="153">
         <f ca="1">IFERROR(Betas_Per_Segment[[#This Row],[Estimated equity]]/SUM(Betas_Per_Segment[Estimated equity])*Company_Equity,"")</f>
         <v>967.83357567857308</v>
       </c>
-      <c r="N55" s="153">
+      <c r="N66" s="153">
         <f ca="1">IFERROR(Betas_Per_Segment[[#This Row],[Unlevered beta]]*(1+(1-Company_Tax_Rate)*Betas_Per_Segment[[#This Row],[Allocated debt]]/Betas_Per_Segment[[#This Row],[Scaled estimated equity ]]),"")</f>
         <v>1.607233426214749</v>
       </c>
-      <c r="O55" s="153">
+      <c r="O66" s="153">
         <f ca="1">IFERROR(VLOOKUP(Betas_Per_Segment[[#This Row],[Segment]],INDIRECT(VLOOKUP(Industry_Average,Industry_TableConverter[],2,FALSE)),4,FALSE),"")</f>
         <v>0.33389379133206926</v>
       </c>
-      <c r="P55" s="153">
+      <c r="P66" s="153">
         <f ca="1">IFERROR(Betas_Per_Segment[[#This Row],[Firm Value Proportion]]*Betas_Per_Segment[[#This Row],[Estimated levered beta using debt allocation]],"")</f>
         <v>0.15328075833823382</v>
       </c>
-      <c r="Q55" s="72">
+      <c r="Q66" s="72">
         <f ca="1">IFERROR(Betas_Per_Segment[[#This Row],[Estimated levered beta]]*Betas_Per_Segment[[#This Row],[Firm Value Proportion]],"")</f>
         <v>0.17250953079850442</v>
       </c>
-      <c r="R55" s="171"/>
-      <c r="S55" s="171"/>
-      <c r="T55" s="171"/>
-    </row>
-    <row r="56" spans="2:24" ht="15" customHeight="1" thickTop="1" thickBot="1">
-      <c r="C56" s="148" t="str">
+      <c r="R66" s="175"/>
+      <c r="S66" s="175"/>
+      <c r="T66" s="175"/>
+    </row>
+    <row r="67" spans="2:24" ht="15" customHeight="1" thickTop="1" thickBot="1">
+      <c r="C67" s="148" t="str">
         <f t="shared" si="0"/>
         <v>Coal &amp; Related Energy</v>
       </c>
-      <c r="D56" s="154">
+      <c r="D67" s="154">
         <f ca="1">IFERROR(VLOOKUP(Betas_Per_Segment[[#This Row],[Segment]],INDIRECT(VLOOKUP(Industry_Average,Industry_TableConverter[],3,FALSE)),3,FALSE),"")</f>
         <v>1.7382039573820396</v>
       </c>
-      <c r="E56" s="72">
+      <c r="E67" s="72">
         <f ca="1">IFERROR(Betas_Per_Segment[[#This Row],[EV/Sales]]*VLOOKUP(Betas_Per_Segment[[#This Row],[Segment]],Operations_Per_Segment_Region[],2,FALSE),"")</f>
         <v>13905.631659056316</v>
       </c>
-      <c r="F56" s="138">
+      <c r="F67" s="138">
         <f ca="1">IFERROR(Betas_Per_Segment[[#This Row],[Estimated Value]]/Estimated_Firm_Value,"")</f>
         <v>7.9646925417650505E-2</v>
       </c>
-      <c r="G56" s="125">
+      <c r="G67" s="125">
         <f ca="1">IFERROR(VLOOKUP(Betas_Per_Segment[[#This Row],[Segment]],INDIRECT(VLOOKUP(Industry_Average,Industry_TableConverter[],2,FALSE)),8,FALSE),"")</f>
         <v>0.73477287574552486</v>
       </c>
-      <c r="H56" s="72">
+      <c r="H67" s="72">
         <f ca="1">IFERROR(Betas_Per_Segment[[#This Row],[Unlevered beta]]*Betas_Per_Segment[[#This Row],[Firm Value Proportion]],"")</f>
         <v>5.8522400433416402E-2</v>
       </c>
-      <c r="I56" s="152">
+      <c r="I67" s="152">
         <f ca="1">IFERROR(Betas_Per_Segment[[#This Row],[Unlevered beta]]*(1+(1-Company_Tax_Rate)*(Company_Debt/Company_Equity)),"")</f>
         <v>1.0929746526714683</v>
       </c>
-      <c r="J56" s="152">
+      <c r="J67" s="152">
         <f ca="1">IFERROR(Betas_Per_Segment[[#This Row],[Estimated debt]]/SUM(Betas_Per_Segment[Estimated debt])*Company_Debt,"")</f>
         <v>1037.8619052995036</v>
       </c>
-      <c r="K56" s="152">
-        <f ca="1">IFERROR(Betas_Per_Segment[[#This Row],[Estimated Value]]*Betas_Per_Segment[Industry D/E]/$F$51,"")</f>
+      <c r="K67" s="152">
+        <f ca="1">IFERROR(Betas_Per_Segment[[#This Row],[Estimated Value]]*Betas_Per_Segment[Industry D/E]/$F$62,"")</f>
         <v>8684.3590356485838</v>
       </c>
-      <c r="L56" s="152">
+      <c r="L67" s="152">
         <f ca="1">IFERROR(Betas_Per_Segment[[#This Row],[Estimated Value]]-Betas_Per_Segment[[#This Row],[Allocated debt]],"")</f>
         <v>12867.769753756813</v>
       </c>
-      <c r="M56" s="152">
+      <c r="M67" s="152">
         <f ca="1">IFERROR(Betas_Per_Segment[[#This Row],[Estimated equity]]/SUM(Betas_Per_Segment[Estimated equity])*Company_Equity,"")</f>
         <v>770.10576840380793</v>
       </c>
-      <c r="N56" s="152">
+      <c r="N67" s="152">
         <f ca="1">IFERROR(Betas_Per_Segment[[#This Row],[Unlevered beta]]*(1+(1-Company_Tax_Rate)*Betas_Per_Segment[[#This Row],[Allocated debt]]/Betas_Per_Segment[[#This Row],[Scaled estimated equity ]]),"")</f>
         <v>1.3784316110083095</v>
       </c>
-      <c r="O56" s="152">
+      <c r="O67" s="152">
         <f ca="1">IFERROR(VLOOKUP(Betas_Per_Segment[[#This Row],[Segment]],INDIRECT(VLOOKUP(Industry_Average,Industry_TableConverter[],2,FALSE)),4,FALSE),"")</f>
         <v>0.86627308371877576</v>
       </c>
-      <c r="P56" s="152">
+      <c r="P67" s="152">
         <f ca="1">IFERROR(Betas_Per_Segment[[#This Row],[Firm Value Proportion]]*Betas_Per_Segment[[#This Row],[Estimated levered beta using debt allocation]],"")</f>
         <v>0.10978783971531066</v>
       </c>
-      <c r="Q56" s="72">
+      <c r="Q67" s="72">
         <f ca="1">IFERROR(Betas_Per_Segment[[#This Row],[Estimated levered beta]]*Betas_Per_Segment[[#This Row],[Firm Value Proportion]],"")</f>
         <v>8.7052070644706908E-2</v>
       </c>
     </row>
-    <row r="57" spans="2:24" ht="15" customHeight="1" thickTop="1" thickBot="1">
-      <c r="C57" s="148" t="str">
+    <row r="68" spans="2:24" ht="15" customHeight="1" thickTop="1" thickBot="1">
+      <c r="C68" s="148" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D57" s="154" t="str">
+      <c r="D68" s="154" t="str">
         <f ca="1">IFERROR(VLOOKUP(Betas_Per_Segment[[#This Row],[Segment]],INDIRECT(VLOOKUP(Industry_Average,Industry_TableConverter[],3,FALSE)),3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="E57" s="72" t="str">
+      <c r="E68" s="72" t="str">
         <f ca="1">IFERROR(Betas_Per_Segment[[#This Row],[EV/Sales]]*VLOOKUP(Betas_Per_Segment[[#This Row],[Segment]],Operations_Per_Segment_Region[],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F57" s="138" t="str">
+      <c r="F68" s="138" t="str">
         <f ca="1">IFERROR(Betas_Per_Segment[[#This Row],[Estimated Value]]/Estimated_Firm_Value,"")</f>
         <v/>
       </c>
-      <c r="G57" s="125" t="str">
+      <c r="G68" s="125" t="str">
         <f ca="1">IFERROR(VLOOKUP(Betas_Per_Segment[[#This Row],[Segment]],INDIRECT(VLOOKUP(Industry_Average,Industry_TableConverter[],2,FALSE)),8,FALSE),"")</f>
         <v/>
       </c>
-      <c r="H57" s="72" t="str">
+      <c r="H68" s="72" t="str">
         <f ca="1">IFERROR(Betas_Per_Segment[[#This Row],[Unlevered beta]]*Betas_Per_Segment[[#This Row],[Firm Value Proportion]],"")</f>
         <v/>
       </c>
-      <c r="I57" s="152" t="str">
+      <c r="I68" s="152" t="str">
         <f ca="1">IFERROR(Betas_Per_Segment[[#This Row],[Unlevered beta]]*(1+(1-Company_Tax_Rate)*(Company_Debt/Company_Equity)),"")</f>
         <v/>
       </c>
-      <c r="J57" s="152" t="str">
+      <c r="J68" s="152" t="str">
         <f ca="1">IFERROR(Betas_Per_Segment[[#This Row],[Estimated debt]]/SUM(Betas_Per_Segment[Estimated debt])*Company_Debt,"")</f>
         <v/>
       </c>
-      <c r="K57" s="152" t="str">
-        <f ca="1">IFERROR(Betas_Per_Segment[[#This Row],[Estimated Value]]*Betas_Per_Segment[Industry D/E]/$F$51,"")</f>
-        <v/>
-      </c>
-      <c r="L57" s="152" t="str">
+      <c r="K68" s="152" t="str">
+        <f ca="1">IFERROR(Betas_Per_Segment[[#This Row],[Estimated Value]]*Betas_Per_Segment[Industry D/E]/$F$62,"")</f>
+        <v/>
+      </c>
+      <c r="L68" s="152" t="str">
         <f ca="1">IFERROR(Betas_Per_Segment[[#This Row],[Estimated Value]]-Betas_Per_Segment[[#This Row],[Allocated debt]],"")</f>
         <v/>
       </c>
-      <c r="M57" s="152" t="str">
+      <c r="M68" s="152" t="str">
         <f ca="1">IFERROR(Betas_Per_Segment[[#This Row],[Estimated equity]]/SUM(Betas_Per_Segment[Estimated equity])*Company_Equity,"")</f>
         <v/>
       </c>
-      <c r="N57" s="152" t="str">
+      <c r="N68" s="152" t="str">
         <f ca="1">IFERROR(Betas_Per_Segment[[#This Row],[Unlevered beta]]*(1+(1-Company_Tax_Rate)*Betas_Per_Segment[[#This Row],[Allocated debt]]/Betas_Per_Segment[[#This Row],[Scaled estimated equity ]]),"")</f>
         <v/>
       </c>
-      <c r="O57" s="152" t="str">
+      <c r="O68" s="152" t="str">
         <f ca="1">IFERROR(VLOOKUP(Betas_Per_Segment[[#This Row],[Segment]],INDIRECT(VLOOKUP(Industry_Average,Industry_TableConverter[],2,FALSE)),4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="P57" s="152" t="str">
+      <c r="P68" s="152" t="str">
         <f ca="1">IFERROR(Betas_Per_Segment[[#This Row],[Firm Value Proportion]]*Betas_Per_Segment[[#This Row],[Estimated levered beta using debt allocation]],"")</f>
         <v/>
       </c>
-      <c r="Q57" s="72" t="str">
+      <c r="Q68" s="72" t="str">
         <f ca="1">IFERROR(Betas_Per_Segment[[#This Row],[Estimated levered beta]]*Betas_Per_Segment[[#This Row],[Firm Value Proportion]],"")</f>
         <v/>
       </c>
-      <c r="S57" t="s">
+      <c r="S68" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="58" spans="2:24" ht="15" customHeight="1" thickTop="1" thickBot="1">
-      <c r="C58" s="148" t="str">
+    <row r="69" spans="2:24" ht="15" customHeight="1" thickTop="1" thickBot="1">
+      <c r="C69" s="148" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D58" s="154" t="str">
+      <c r="D69" s="154" t="str">
         <f ca="1">IFERROR(VLOOKUP(Betas_Per_Segment[[#This Row],[Segment]],INDIRECT(VLOOKUP(Industry_Average,Industry_TableConverter[],3,FALSE)),3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="E58" s="72" t="str">
+      <c r="E69" s="72" t="str">
         <f ca="1">IFERROR(Betas_Per_Segment[[#This Row],[EV/Sales]]*VLOOKUP(Betas_Per_Segment[[#This Row],[Segment]],Operations_Per_Segment_Region[],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F58" s="138" t="str">
+      <c r="F69" s="138" t="str">
         <f ca="1">IFERROR(Betas_Per_Segment[[#This Row],[Estimated Value]]/Estimated_Firm_Value,"")</f>
         <v/>
       </c>
-      <c r="G58" s="125" t="str">
+      <c r="G69" s="125" t="str">
         <f ca="1">IFERROR(VLOOKUP(Betas_Per_Segment[[#This Row],[Segment]],INDIRECT(VLOOKUP(Industry_Average,Industry_TableConverter[],2,FALSE)),8,FALSE),"")</f>
         <v/>
       </c>
-      <c r="H58" s="72" t="str">
+      <c r="H69" s="72" t="str">
         <f ca="1">IFERROR(Betas_Per_Segment[[#This Row],[Unlevered beta]]*Betas_Per_Segment[[#This Row],[Firm Value Proportion]],"")</f>
         <v/>
       </c>
-      <c r="I58" s="125" t="str">
+      <c r="I69" s="125" t="str">
         <f ca="1">IFERROR(Betas_Per_Segment[[#This Row],[Unlevered beta]]*(1+(1-Company_Tax_Rate)*(Company_Debt/Company_Equity)),"")</f>
         <v/>
       </c>
-      <c r="J58" s="125" t="str">
+      <c r="J69" s="125" t="str">
         <f ca="1">IFERROR(Betas_Per_Segment[[#This Row],[Estimated debt]]/SUM(Betas_Per_Segment[Estimated debt])*Company_Debt,"")</f>
         <v/>
       </c>
-      <c r="K58" s="125" t="str">
-        <f ca="1">IFERROR(Betas_Per_Segment[[#This Row],[Estimated Value]]*Betas_Per_Segment[Industry D/E]/$F$51,"")</f>
-        <v/>
-      </c>
-      <c r="L58" s="125" t="str">
+      <c r="K69" s="125" t="str">
+        <f ca="1">IFERROR(Betas_Per_Segment[[#This Row],[Estimated Value]]*Betas_Per_Segment[Industry D/E]/$F$62,"")</f>
+        <v/>
+      </c>
+      <c r="L69" s="125" t="str">
         <f ca="1">IFERROR(Betas_Per_Segment[[#This Row],[Estimated Value]]-Betas_Per_Segment[[#This Row],[Allocated debt]],"")</f>
         <v/>
       </c>
-      <c r="M58" s="125" t="str">
+      <c r="M69" s="125" t="str">
         <f ca="1">IFERROR(Betas_Per_Segment[[#This Row],[Estimated equity]]/SUM(Betas_Per_Segment[Estimated equity])*Company_Equity,"")</f>
         <v/>
       </c>
-      <c r="N58" s="125" t="str">
+      <c r="N69" s="125" t="str">
         <f ca="1">IFERROR(Betas_Per_Segment[[#This Row],[Unlevered beta]]*(1+(1-Company_Tax_Rate)*Betas_Per_Segment[[#This Row],[Allocated debt]]/Betas_Per_Segment[[#This Row],[Scaled estimated equity ]]),"")</f>
         <v/>
       </c>
-      <c r="O58" s="125" t="str">
+      <c r="O69" s="125" t="str">
         <f ca="1">IFERROR(VLOOKUP(Betas_Per_Segment[[#This Row],[Segment]],INDIRECT(VLOOKUP(Industry_Average,Industry_TableConverter[],2,FALSE)),4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="P58" s="125" t="str">
+      <c r="P69" s="125" t="str">
         <f ca="1">IFERROR(Betas_Per_Segment[[#This Row],[Firm Value Proportion]]*Betas_Per_Segment[[#This Row],[Estimated levered beta using debt allocation]],"")</f>
         <v/>
       </c>
-      <c r="Q58" s="72" t="str">
+      <c r="Q69" s="72" t="str">
         <f ca="1">IFERROR(Betas_Per_Segment[[#This Row],[Estimated levered beta]]*Betas_Per_Segment[[#This Row],[Firm Value Proportion]],"")</f>
         <v/>
       </c>
     </row>
-    <row r="59" spans="2:24" ht="15" customHeight="1" thickTop="1" thickBot="1">
-      <c r="C59" s="148" t="str">
+    <row r="70" spans="2:24" ht="15" customHeight="1" thickTop="1" thickBot="1">
+      <c r="C70" s="148" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D59" s="154" t="str">
+      <c r="D70" s="154" t="str">
         <f ca="1">IFERROR(VLOOKUP(Betas_Per_Segment[[#This Row],[Segment]],INDIRECT(VLOOKUP(Industry_Average,Industry_TableConverter[],3,FALSE)),3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="E59" s="74" t="str">
+      <c r="E70" s="74" t="str">
         <f ca="1">IFERROR(Betas_Per_Segment[[#This Row],[EV/Sales]]*VLOOKUP(Betas_Per_Segment[[#This Row],[Segment]],Operations_Per_Segment_Region[],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F59" s="139" t="str">
+      <c r="F70" s="139" t="str">
         <f ca="1">IFERROR(Betas_Per_Segment[[#This Row],[Estimated Value]]/Estimated_Firm_Value,"")</f>
         <v/>
       </c>
-      <c r="G59" s="125" t="str">
+      <c r="G70" s="125" t="str">
         <f ca="1">IFERROR(VLOOKUP(Betas_Per_Segment[[#This Row],[Segment]],INDIRECT(VLOOKUP(Industry_Average,Industry_TableConverter[],2,FALSE)),8,FALSE),"")</f>
         <v/>
       </c>
-      <c r="H59" s="72" t="str">
+      <c r="H70" s="72" t="str">
         <f ca="1">IFERROR(Betas_Per_Segment[[#This Row],[Unlevered beta]]*Betas_Per_Segment[[#This Row],[Firm Value Proportion]],"")</f>
         <v/>
       </c>
-      <c r="I59" s="125" t="str">
+      <c r="I70" s="125" t="str">
         <f ca="1">IFERROR(Betas_Per_Segment[[#This Row],[Unlevered beta]]*(1+(1-Company_Tax_Rate)*(Company_Debt/Company_Equity)),"")</f>
         <v/>
       </c>
-      <c r="J59" s="125" t="str">
+      <c r="J70" s="125" t="str">
         <f ca="1">IFERROR(Betas_Per_Segment[[#This Row],[Estimated debt]]/SUM(Betas_Per_Segment[Estimated debt])*Company_Debt,"")</f>
         <v/>
       </c>
-      <c r="K59" s="125" t="str">
-        <f ca="1">IFERROR(Betas_Per_Segment[[#This Row],[Estimated Value]]*Betas_Per_Segment[Industry D/E]/$F$51,"")</f>
-        <v/>
-      </c>
-      <c r="L59" s="125" t="str">
+      <c r="K70" s="125" t="str">
+        <f ca="1">IFERROR(Betas_Per_Segment[[#This Row],[Estimated Value]]*Betas_Per_Segment[Industry D/E]/$F$62,"")</f>
+        <v/>
+      </c>
+      <c r="L70" s="125" t="str">
         <f ca="1">IFERROR(Betas_Per_Segment[[#This Row],[Estimated Value]]-Betas_Per_Segment[[#This Row],[Allocated debt]],"")</f>
         <v/>
       </c>
-      <c r="M59" s="125" t="str">
+      <c r="M70" s="125" t="str">
         <f ca="1">IFERROR(Betas_Per_Segment[[#This Row],[Estimated equity]]/SUM(Betas_Per_Segment[Estimated equity])*Company_Equity,"")</f>
         <v/>
       </c>
-      <c r="N59" s="125" t="str">
+      <c r="N70" s="125" t="str">
         <f ca="1">IFERROR(Betas_Per_Segment[[#This Row],[Unlevered beta]]*(1+(1-Company_Tax_Rate)*Betas_Per_Segment[[#This Row],[Allocated debt]]/Betas_Per_Segment[[#This Row],[Scaled estimated equity ]]),"")</f>
         <v/>
       </c>
-      <c r="O59" s="125" t="str">
+      <c r="O70" s="125" t="str">
         <f ca="1">IFERROR(VLOOKUP(Betas_Per_Segment[[#This Row],[Segment]],INDIRECT(VLOOKUP(Industry_Average,Industry_TableConverter[],2,FALSE)),4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="P59" s="125" t="str">
+      <c r="P70" s="125" t="str">
         <f ca="1">IFERROR(Betas_Per_Segment[[#This Row],[Firm Value Proportion]]*Betas_Per_Segment[[#This Row],[Estimated levered beta using debt allocation]],"")</f>
         <v/>
       </c>
-      <c r="Q59" s="72" t="str">
+      <c r="Q70" s="72" t="str">
         <f ca="1">IFERROR(Betas_Per_Segment[[#This Row],[Estimated levered beta]]*Betas_Per_Segment[[#This Row],[Firm Value Proportion]],"")</f>
         <v/>
       </c>
-      <c r="S59" s="166" t="s">
+      <c r="S70" s="170" t="s">
         <v>460</v>
       </c>
-      <c r="T59" s="166"/>
-      <c r="U59" s="166"/>
-      <c r="V59" s="166"/>
-      <c r="W59" s="166"/>
-      <c r="X59" s="166"/>
-    </row>
-    <row r="60" spans="2:24" ht="15" customHeight="1" thickTop="1" thickBot="1">
-      <c r="C60" s="148" t="str">
+      <c r="T70" s="170"/>
+      <c r="U70" s="170"/>
+      <c r="V70" s="170"/>
+      <c r="W70" s="170"/>
+      <c r="X70" s="170"/>
+    </row>
+    <row r="71" spans="2:24" ht="15" customHeight="1" thickTop="1" thickBot="1">
+      <c r="C71" s="148" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D60" s="154" t="str">
+      <c r="D71" s="154" t="str">
         <f ca="1">IFERROR(VLOOKUP(Betas_Per_Segment[[#This Row],[Segment]],INDIRECT(VLOOKUP(Industry_Average,Industry_TableConverter[],3,FALSE)),3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="E60" s="72" t="str">
+      <c r="E71" s="72" t="str">
         <f ca="1">IFERROR(Betas_Per_Segment[[#This Row],[EV/Sales]]*VLOOKUP(Betas_Per_Segment[[#This Row],[Segment]],Operations_Per_Segment_Region[],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F60" s="138" t="str">
+      <c r="F71" s="138" t="str">
         <f ca="1">IFERROR(Betas_Per_Segment[[#This Row],[Estimated Value]]/Estimated_Firm_Value,"")</f>
         <v/>
       </c>
-      <c r="G60" s="125" t="str">
+      <c r="G71" s="125" t="str">
         <f ca="1">IFERROR(VLOOKUP(Betas_Per_Segment[[#This Row],[Segment]],INDIRECT(VLOOKUP(Industry_Average,Industry_TableConverter[],2,FALSE)),8,FALSE),"")</f>
         <v/>
       </c>
-      <c r="H60" s="72" t="str">
+      <c r="H71" s="72" t="str">
         <f ca="1">IFERROR(Betas_Per_Segment[[#This Row],[Unlevered beta]]*Betas_Per_Segment[[#This Row],[Firm Value Proportion]],"")</f>
         <v/>
       </c>
-      <c r="I60" s="125" t="str">
+      <c r="I71" s="125" t="str">
         <f ca="1">IFERROR(Betas_Per_Segment[[#This Row],[Unlevered beta]]*(1+(1-Company_Tax_Rate)*(Company_Debt/Company_Equity)),"")</f>
         <v/>
       </c>
-      <c r="J60" s="125" t="str">
+      <c r="J71" s="125" t="str">
         <f ca="1">IFERROR(Betas_Per_Segment[[#This Row],[Estimated debt]]/SUM(Betas_Per_Segment[Estimated debt])*Company_Debt,"")</f>
         <v/>
       </c>
-      <c r="K60" s="125" t="str">
-        <f ca="1">IFERROR(Betas_Per_Segment[[#This Row],[Estimated Value]]*Betas_Per_Segment[Industry D/E]/$F$51,"")</f>
-        <v/>
-      </c>
-      <c r="L60" s="125" t="str">
+      <c r="K71" s="125" t="str">
+        <f ca="1">IFERROR(Betas_Per_Segment[[#This Row],[Estimated Value]]*Betas_Per_Segment[Industry D/E]/$F$62,"")</f>
+        <v/>
+      </c>
+      <c r="L71" s="125" t="str">
         <f ca="1">IFERROR(Betas_Per_Segment[[#This Row],[Estimated Value]]-Betas_Per_Segment[[#This Row],[Allocated debt]],"")</f>
         <v/>
       </c>
-      <c r="M60" s="125" t="str">
+      <c r="M71" s="125" t="str">
         <f ca="1">IFERROR(Betas_Per_Segment[[#This Row],[Estimated equity]]/SUM(Betas_Per_Segment[Estimated equity])*Company_Equity,"")</f>
         <v/>
       </c>
-      <c r="N60" s="125"/>
-      <c r="O60" s="125" t="str">
+      <c r="N71" s="125"/>
+      <c r="O71" s="125" t="str">
         <f ca="1">IFERROR(VLOOKUP(Betas_Per_Segment[[#This Row],[Segment]],INDIRECT(VLOOKUP(Industry_Average,Industry_TableConverter[],2,FALSE)),4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="P60" s="125" t="str">
+      <c r="P71" s="125" t="str">
         <f ca="1">IFERROR(Betas_Per_Segment[[#This Row],[Firm Value Proportion]]*Betas_Per_Segment[[#This Row],[Estimated levered beta using debt allocation]],"")</f>
         <v/>
       </c>
-      <c r="Q60" s="72" t="str">
+      <c r="Q71" s="72" t="str">
         <f ca="1">IFERROR(Betas_Per_Segment[[#This Row],[Estimated levered beta]]*Betas_Per_Segment[[#This Row],[Firm Value Proportion]],"")</f>
         <v/>
       </c>
-      <c r="S60" s="166"/>
-      <c r="T60" s="166"/>
-      <c r="U60" s="166"/>
-      <c r="V60" s="166"/>
-      <c r="W60" s="166"/>
-      <c r="X60" s="166"/>
-    </row>
-    <row r="61" spans="2:24" ht="23.25" customHeight="1" thickTop="1">
-      <c r="C61" s="151" t="s">
+      <c r="S71" s="170"/>
+      <c r="T71" s="170"/>
+      <c r="U71" s="170"/>
+      <c r="V71" s="170"/>
+      <c r="W71" s="170"/>
+      <c r="X71" s="170"/>
+    </row>
+    <row r="72" spans="2:24" ht="23.25" customHeight="1" thickTop="1">
+      <c r="C72" s="151" t="s">
         <v>302</v>
       </c>
-      <c r="D61" s="151"/>
-      <c r="E61" s="151">
+      <c r="D72" s="151"/>
+      <c r="E72" s="151">
         <f ca="1">SUBTOTAL(109,Betas_Per_Segment[Estimated Value])</f>
         <v>174590.94103304454</v>
       </c>
-      <c r="F61" s="151"/>
-      <c r="G61" s="161">
+      <c r="F72" s="151"/>
+      <c r="G72" s="161">
         <f ca="1">SUM(Betas_Per_Segment[Firm value proportion * Unlevered Beta])</f>
         <v>0.92070493947431598</v>
       </c>
-      <c r="H61" s="151"/>
-      <c r="I61" s="161">
+      <c r="H72" s="151"/>
+      <c r="I72" s="161">
         <f ca="1">SUM(Betas_Per_Segment[Firm value proportion * Levered Beta2])</f>
         <v>1.369548597468045</v>
       </c>
-      <c r="J61" s="161"/>
-      <c r="K61" s="161"/>
-      <c r="L61" s="161"/>
-      <c r="M61" s="161">
+      <c r="J72" s="161"/>
+      <c r="K72" s="161"/>
+      <c r="L72" s="161"/>
+      <c r="M72" s="161">
         <f ca="1">SUBTOTAL(109,Betas_Per_Segment[[Scaled estimated equity ]])</f>
         <v>9999.9999999999982</v>
       </c>
-      <c r="N61">
+      <c r="N72">
         <f ca="1">SUM(Betas_Per_Segment[Firm value proportion * Levered Beta debt])</f>
         <v>1.3605273792900041</v>
       </c>
-      <c r="O61">
+      <c r="O72">
         <f ca="1">SUM(Betas_Per_Segment[Industry D/E])</f>
         <v>1.6823012700021569</v>
       </c>
-      <c r="Q61" s="151"/>
-    </row>
-    <row r="63" spans="2:24" ht="15.75" thickBot="1">
-      <c r="B63" t="s">
+      <c r="Q72" s="151"/>
+    </row>
+    <row r="74" spans="2:24" ht="15.75" thickBot="1">
+      <c r="B74" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="64" spans="2:24" ht="30.75" customHeight="1">
-      <c r="C64" s="160" t="s">
+    <row r="75" spans="2:24" ht="30.75" customHeight="1">
+      <c r="C75" s="160" t="s">
         <v>469</v>
       </c>
-      <c r="D64" s="40" t="s">
+      <c r="D75" s="40" t="s">
         <v>298</v>
       </c>
-      <c r="E64" s="40" t="s">
+      <c r="E75" s="40" t="s">
         <v>299</v>
       </c>
-      <c r="F64" s="40" t="s">
+      <c r="F75" s="40" t="s">
         <v>300</v>
       </c>
-      <c r="G64" s="40" t="s">
+      <c r="G75" s="40" t="s">
         <v>301</v>
       </c>
-      <c r="H64" s="40" t="s">
+      <c r="H75" s="40" t="s">
         <v>443</v>
       </c>
-      <c r="I64" s="40" t="s">
+      <c r="I75" s="40" t="s">
         <v>457</v>
       </c>
-      <c r="J64" s="159" t="s">
+      <c r="J75" s="159" t="s">
         <v>477</v>
       </c>
-      <c r="K64" s="159" t="s">
+      <c r="K75" s="159" t="s">
         <v>478</v>
       </c>
-      <c r="L64" s="73" t="s">
+      <c r="L75" s="73" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="65" spans="3:12" ht="15.75" thickBot="1">
-      <c r="C65" s="150" t="str">
-        <f>IF(C40="","",C40)</f>
+    <row r="76" spans="2:24" ht="15.75" thickBot="1">
+      <c r="C76" s="150" t="str">
+        <f>IF(C51="","",C51)</f>
         <v>Metals &amp; Mining</v>
       </c>
-      <c r="D65" s="154" t="str">
-        <f>IFERROR(VLOOKUP(Tabell28[[#This Row],[Segment]],EV_Sales_US[],3,FALSE)*VLOOKUP(Tabell28[[#This Row],[Segment]],Operations_Per_Segment_Region[],3,FALSE)+VLOOKUP(Tabell28[[#This Row],[Segment]],EV_Sales_China[],3,FALSE)*VLOOKUP(Tabell28[[#This Row],[Segment]],Operations_Per_Segment_Region[],4,FALSE)+VLOOKUP(Tabell28[[#This Row],[Segment]],EV_Sales_Europe[],3,FALSE)*VLOOKUP(Tabell28[[#This Row],[Segment]],Operations_Per_Segment_Region[],5,FALSE)+VLOOKUP(Tabell28[[#This Row],[Segment]],EV_Sales_India[],3,FALSE)*VLOOKUP(Tabell28[[#This Row],[Segment]],Operations_Per_Segment_Region[],6,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E65" s="72" t="str">
-        <f>IFERROR(Tabell28[[#This Row],[EV/Sales]]*VLOOKUP(Tabell28[[#This Row],[Segment]],Operations_Per_Segment_Region[],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="F65" s="144" t="str">
-        <f>IFERROR(Tabell28[[#This Row],[Estimated Value]]/Tabell28[[#Totals],[Estimated Value]],"")</f>
-        <v/>
-      </c>
-      <c r="G65" s="125">
-        <f>IFERROR(VLOOKUP(Tabell28[[#This Row],[Segment]],Operations_Per_Segment_Region[],3,FALSE)*VLOOKUP(Tabell28[[#This Row],[Segment]],Industry_Average_US[],8,FALSE)+VLOOKUP(Tabell28[[#This Row],[Segment]],Operations_Per_Segment_Region[],4,FALSE)*VLOOKUP(Tabell28[[#This Row],[Segment]],Industry_Average_China[],8,FALSE)+VLOOKUP(Tabell28[[#This Row],[Segment]],Operations_Per_Segment_Region[],5,FALSE)*VLOOKUP(Tabell28[[#This Row],[Segment]],Industry_Average_Europe[],8,FALSE)+VLOOKUP(Tabell28[[#This Row],[Segment]],Operations_Per_Segment_Region[],6,FALSE)*VLOOKUP(Tabell28[[#This Row],[Segment]],Industry_Average_India[],8,FALSE)+VLOOKUP(Tabell28[[#This Row],[Segment]],Operations_Per_Segment_Region[],7,FALSE)*VLOOKUP(Tabell28[[#This Row],[Segment]],Industry_Average_EmergingMarkets[],8,FALSE),"")</f>
+      <c r="D76" s="154" t="str">
+        <f>IFERROR(VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],EV_Sales_US[],3,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],3,FALSE)+VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],EV_Sales_China[],3,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],4,FALSE)+VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],EV_Sales_Europe[],3,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],5,FALSE)+VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],EV_Sales_India[],3,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],6,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="E76" s="72" t="str">
+        <f>IFERROR(Betas_Per_Segment_Region[[#This Row],[EV/Sales]]*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="F76" s="144" t="str">
+        <f>IFERROR(Betas_Per_Segment_Region[[#This Row],[Estimated Value]]/Betas_Per_Segment_Region[[#Totals],[Estimated Value]],"")</f>
+        <v/>
+      </c>
+      <c r="G76" s="125">
+        <f>IFERROR(VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],3,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Industry_Average_US[],8,FALSE)+VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],4,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Industry_Average_China[],8,FALSE)+VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],5,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Industry_Average_Europe[],8,FALSE)+VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],6,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Industry_Average_India[],8,FALSE)+VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],7,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Industry_Average_EmergingMarkets[],8,FALSE),"")</f>
         <v>1.0806756987285682</v>
       </c>
-      <c r="H65" s="155" t="str">
-        <f>IFERROR(Tabell28[[#This Row],[Firm Value Proportion]]*Tabell28[[#This Row],[Unlevered beta]],"")</f>
-        <v/>
-      </c>
-      <c r="I65" s="125">
-        <f>IFERROR(Tabell28[[#This Row],[Unlevered beta]]*(1+(1-Company_Tax_Rate)*(Company_Debt/Company_Equity)),"")</f>
+      <c r="H76" s="155" t="str">
+        <f>IFERROR(Betas_Per_Segment_Region[[#This Row],[Firm Value Proportion]]*Betas_Per_Segment_Region[[#This Row],[Unlevered beta]],"")</f>
+        <v/>
+      </c>
+      <c r="I76" s="125">
+        <f>IFERROR(Betas_Per_Segment_Region[[#This Row],[Unlevered beta]]*(1+(1-Company_Tax_Rate)*(Company_Debt/Company_Equity)),"")</f>
         <v>1.6075051018587452</v>
       </c>
-      <c r="J65" s="125"/>
-      <c r="K65" s="125"/>
-      <c r="L65" s="72" t="str">
-        <f>IFERROR(Tabell28[[#This Row],[Firm Value Proportion]]*Tabell28[[#This Row],[Estimated levered beta]],"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="66" spans="3:12" ht="16.5" thickTop="1" thickBot="1">
-      <c r="C66" s="150" t="str">
-        <f t="shared" ref="C66:C71" si="1">IF(C41="","",C41)</f>
+      <c r="J76" s="125"/>
+      <c r="K76" s="125"/>
+      <c r="L76" s="72" t="str">
+        <f>IFERROR(Betas_Per_Segment_Region[[#This Row],[Firm Value Proportion]]*Betas_Per_Segment_Region[[#This Row],[Estimated levered beta]],"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="2:24" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C77" s="150" t="str">
+        <f t="shared" ref="C77:C82" si="1">IF(C52="","",C52)</f>
         <v>Chemical (Diversified)</v>
       </c>
-      <c r="D66" s="154" t="str">
-        <f>IFERROR(VLOOKUP(Tabell28[[#This Row],[Segment]],EV_Sales_US[],3,FALSE)*VLOOKUP(Tabell28[[#This Row],[Segment]],Operations_Per_Segment_Region[],3,FALSE)+VLOOKUP(Tabell28[[#This Row],[Segment]],EV_Sales_China[],3,FALSE)*VLOOKUP(Tabell28[[#This Row],[Segment]],Operations_Per_Segment_Region[],4,FALSE)+VLOOKUP(Tabell28[[#This Row],[Segment]],EV_Sales_Europe[],3,FALSE)*VLOOKUP(Tabell28[[#This Row],[Segment]],Operations_Per_Segment_Region[],5,FALSE)+VLOOKUP(Tabell28[[#This Row],[Segment]],EV_Sales_India[],3,FALSE)*VLOOKUP(Tabell28[[#This Row],[Segment]],Operations_Per_Segment_Region[],6,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E66" s="72" t="str">
-        <f>IFERROR(Tabell28[[#This Row],[EV/Sales]]*VLOOKUP(Tabell28[[#This Row],[Segment]],Operations_Per_Segment_Region[],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="F66" s="144" t="str">
-        <f>IFERROR(Tabell28[[#This Row],[Estimated Value]]/Tabell28[[#Totals],[Estimated Value]],"")</f>
-        <v/>
-      </c>
-      <c r="G66" s="125">
-        <f>IFERROR(VLOOKUP(Tabell28[[#This Row],[Segment]],Operations_Per_Segment_Region[],3,FALSE)*VLOOKUP(Tabell28[[#This Row],[Segment]],Industry_Average_US[],8,FALSE)+VLOOKUP(Tabell28[[#This Row],[Segment]],Operations_Per_Segment_Region[],4,FALSE)*VLOOKUP(Tabell28[[#This Row],[Segment]],Industry_Average_China[],8,FALSE)+VLOOKUP(Tabell28[[#This Row],[Segment]],Operations_Per_Segment_Region[],5,FALSE)*VLOOKUP(Tabell28[[#This Row],[Segment]],Industry_Average_Europe[],8,FALSE)+VLOOKUP(Tabell28[[#This Row],[Segment]],Operations_Per_Segment_Region[],6,FALSE)*VLOOKUP(Tabell28[[#This Row],[Segment]],Industry_Average_India[],8,FALSE)+VLOOKUP(Tabell28[[#This Row],[Segment]],Operations_Per_Segment_Region[],7,FALSE)*VLOOKUP(Tabell28[[#This Row],[Segment]],Industry_Average_EmergingMarkets[],8,FALSE),"")</f>
+      <c r="D77" s="154" t="str">
+        <f>IFERROR(VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],EV_Sales_US[],3,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],3,FALSE)+VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],EV_Sales_China[],3,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],4,FALSE)+VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],EV_Sales_Europe[],3,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],5,FALSE)+VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],EV_Sales_India[],3,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],6,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="E77" s="72" t="str">
+        <f>IFERROR(Betas_Per_Segment_Region[[#This Row],[EV/Sales]]*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="F77" s="144" t="str">
+        <f>IFERROR(Betas_Per_Segment_Region[[#This Row],[Estimated Value]]/Betas_Per_Segment_Region[[#Totals],[Estimated Value]],"")</f>
+        <v/>
+      </c>
+      <c r="G77" s="125">
+        <f>IFERROR(VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],3,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Industry_Average_US[],8,FALSE)+VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],4,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Industry_Average_China[],8,FALSE)+VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],5,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Industry_Average_Europe[],8,FALSE)+VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],6,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Industry_Average_India[],8,FALSE)+VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],7,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Industry_Average_EmergingMarkets[],8,FALSE),"")</f>
         <v>0</v>
       </c>
-      <c r="H66" s="156" t="str">
-        <f>IFERROR(Tabell28[[#This Row],[Firm Value Proportion]]*Tabell28[[#This Row],[Unlevered beta]],"")</f>
-        <v/>
-      </c>
-      <c r="I66" s="125">
-        <f>IFERROR(Tabell28[[#This Row],[Unlevered beta]]*(1+(1-Company_Tax_Rate)*(Company_Debt/Company_Equity)),"")</f>
+      <c r="H77" s="156" t="str">
+        <f>IFERROR(Betas_Per_Segment_Region[[#This Row],[Firm Value Proportion]]*Betas_Per_Segment_Region[[#This Row],[Unlevered beta]],"")</f>
+        <v/>
+      </c>
+      <c r="I77" s="125">
+        <f>IFERROR(Betas_Per_Segment_Region[[#This Row],[Unlevered beta]]*(1+(1-Company_Tax_Rate)*(Company_Debt/Company_Equity)),"")</f>
         <v>0</v>
       </c>
-      <c r="J66" s="125"/>
-      <c r="K66" s="125"/>
-      <c r="L66" s="72" t="str">
-        <f>IFERROR(Tabell28[[#This Row],[Firm Value Proportion]]*Tabell28[[#This Row],[Estimated levered beta]],"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="67" spans="3:12" ht="16.5" thickTop="1" thickBot="1">
-      <c r="C67" s="150" t="str">
+      <c r="J77" s="125"/>
+      <c r="K77" s="125"/>
+      <c r="L77" s="72" t="str">
+        <f>IFERROR(Betas_Per_Segment_Region[[#This Row],[Firm Value Proportion]]*Betas_Per_Segment_Region[[#This Row],[Estimated levered beta]],"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="2:24" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C78" s="150" t="str">
         <f t="shared" si="1"/>
         <v>Coal &amp; Related Energy</v>
       </c>
-      <c r="D67" s="154" t="str">
-        <f>IFERROR(VLOOKUP(Tabell28[[#This Row],[Segment]],EV_Sales_US[],3,FALSE)*VLOOKUP(Tabell28[[#This Row],[Segment]],Operations_Per_Segment_Region[],3,FALSE)+VLOOKUP(Tabell28[[#This Row],[Segment]],EV_Sales_China[],3,FALSE)*VLOOKUP(Tabell28[[#This Row],[Segment]],Operations_Per_Segment_Region[],4,FALSE)+VLOOKUP(Tabell28[[#This Row],[Segment]],EV_Sales_Europe[],3,FALSE)*VLOOKUP(Tabell28[[#This Row],[Segment]],Operations_Per_Segment_Region[],5,FALSE)+VLOOKUP(Tabell28[[#This Row],[Segment]],EV_Sales_India[],3,FALSE)*VLOOKUP(Tabell28[[#This Row],[Segment]],Operations_Per_Segment_Region[],6,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E67" s="72" t="str">
-        <f>IFERROR(Tabell28[[#This Row],[EV/Sales]]*VLOOKUP(Tabell28[[#This Row],[Segment]],Operations_Per_Segment_Region[],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="F67" s="144" t="str">
-        <f>IFERROR(Tabell28[[#This Row],[Estimated Value]]/Tabell28[[#Totals],[Estimated Value]],"")</f>
-        <v/>
-      </c>
-      <c r="G67" s="125">
-        <f>IFERROR(VLOOKUP(Tabell28[[#This Row],[Segment]],Operations_Per_Segment_Region[],3,FALSE)*VLOOKUP(Tabell28[[#This Row],[Segment]],Industry_Average_US[],8,FALSE)+VLOOKUP(Tabell28[[#This Row],[Segment]],Operations_Per_Segment_Region[],4,FALSE)*VLOOKUP(Tabell28[[#This Row],[Segment]],Industry_Average_China[],8,FALSE)+VLOOKUP(Tabell28[[#This Row],[Segment]],Operations_Per_Segment_Region[],5,FALSE)*VLOOKUP(Tabell28[[#This Row],[Segment]],Industry_Average_Europe[],8,FALSE)+VLOOKUP(Tabell28[[#This Row],[Segment]],Operations_Per_Segment_Region[],6,FALSE)*VLOOKUP(Tabell28[[#This Row],[Segment]],Industry_Average_India[],8,FALSE)+VLOOKUP(Tabell28[[#This Row],[Segment]],Operations_Per_Segment_Region[],7,FALSE)*VLOOKUP(Tabell28[[#This Row],[Segment]],Industry_Average_EmergingMarkets[],8,FALSE),"")</f>
+      <c r="D78" s="154" t="str">
+        <f>IFERROR(VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],EV_Sales_US[],3,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],3,FALSE)+VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],EV_Sales_China[],3,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],4,FALSE)+VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],EV_Sales_Europe[],3,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],5,FALSE)+VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],EV_Sales_India[],3,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],6,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="E78" s="72" t="str">
+        <f>IFERROR(Betas_Per_Segment_Region[[#This Row],[EV/Sales]]*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="F78" s="144" t="str">
+        <f>IFERROR(Betas_Per_Segment_Region[[#This Row],[Estimated Value]]/Betas_Per_Segment_Region[[#Totals],[Estimated Value]],"")</f>
+        <v/>
+      </c>
+      <c r="G78" s="125">
+        <f>IFERROR(VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],3,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Industry_Average_US[],8,FALSE)+VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],4,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Industry_Average_China[],8,FALSE)+VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],5,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Industry_Average_Europe[],8,FALSE)+VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],6,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Industry_Average_India[],8,FALSE)+VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],7,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Industry_Average_EmergingMarkets[],8,FALSE),"")</f>
         <v>0</v>
       </c>
-      <c r="H67" s="156" t="str">
-        <f>IFERROR(Tabell28[[#This Row],[Firm Value Proportion]]*Tabell28[[#This Row],[Unlevered beta]],"")</f>
-        <v/>
-      </c>
-      <c r="I67" s="125">
-        <f>IFERROR(Tabell28[[#This Row],[Unlevered beta]]*(1+(1-Company_Tax_Rate)*(Company_Debt/Company_Equity)),"")</f>
+      <c r="H78" s="156" t="str">
+        <f>IFERROR(Betas_Per_Segment_Region[[#This Row],[Firm Value Proportion]]*Betas_Per_Segment_Region[[#This Row],[Unlevered beta]],"")</f>
+        <v/>
+      </c>
+      <c r="I78" s="125">
+        <f>IFERROR(Betas_Per_Segment_Region[[#This Row],[Unlevered beta]]*(1+(1-Company_Tax_Rate)*(Company_Debt/Company_Equity)),"")</f>
         <v>0</v>
       </c>
-      <c r="J67" s="125"/>
-      <c r="K67" s="125"/>
-      <c r="L67" s="72" t="str">
-        <f>IFERROR(Tabell28[[#This Row],[Firm Value Proportion]]*Tabell28[[#This Row],[Estimated levered beta]],"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="68" spans="3:12" ht="16.5" thickTop="1" thickBot="1">
-      <c r="C68" s="150" t="str">
+      <c r="J78" s="125"/>
+      <c r="K78" s="125"/>
+      <c r="L78" s="72" t="str">
+        <f>IFERROR(Betas_Per_Segment_Region[[#This Row],[Firm Value Proportion]]*Betas_Per_Segment_Region[[#This Row],[Estimated levered beta]],"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="2:24" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C79" s="150" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D68" s="154" t="str">
-        <f>IFERROR(VLOOKUP(Tabell28[[#This Row],[Segment]],EV_Sales_US[],3,FALSE)*VLOOKUP(Tabell28[[#This Row],[Segment]],Operations_Per_Segment_Region[],3,FALSE)+VLOOKUP(Tabell28[[#This Row],[Segment]],EV_Sales_China[],3,FALSE)*VLOOKUP(Tabell28[[#This Row],[Segment]],Operations_Per_Segment_Region[],4,FALSE)+VLOOKUP(Tabell28[[#This Row],[Segment]],EV_Sales_Europe[],3,FALSE)*VLOOKUP(Tabell28[[#This Row],[Segment]],Operations_Per_Segment_Region[],5,FALSE)+VLOOKUP(Tabell28[[#This Row],[Segment]],EV_Sales_India[],3,FALSE)*VLOOKUP(Tabell28[[#This Row],[Segment]],Operations_Per_Segment_Region[],6,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E68" s="72" t="str">
-        <f>IFERROR(Tabell28[[#This Row],[EV/Sales]]*VLOOKUP(Tabell28[[#This Row],[Segment]],Operations_Per_Segment_Region[],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="F68" s="144" t="str">
-        <f>IFERROR(Tabell28[[#This Row],[Estimated Value]]/Tabell28[[#Totals],[Estimated Value]],"")</f>
-        <v/>
-      </c>
-      <c r="G68" s="125" t="str">
-        <f>IFERROR(VLOOKUP(Tabell28[[#This Row],[Segment]],Operations_Per_Segment_Region[],3,FALSE)*VLOOKUP(Tabell28[[#This Row],[Segment]],Industry_Average_US[],8,FALSE)+VLOOKUP(Tabell28[[#This Row],[Segment]],Operations_Per_Segment_Region[],4,FALSE)*VLOOKUP(Tabell28[[#This Row],[Segment]],Industry_Average_China[],8,FALSE)+VLOOKUP(Tabell28[[#This Row],[Segment]],Operations_Per_Segment_Region[],5,FALSE)*VLOOKUP(Tabell28[[#This Row],[Segment]],Industry_Average_Europe[],8,FALSE)+VLOOKUP(Tabell28[[#This Row],[Segment]],Operations_Per_Segment_Region[],6,FALSE)*VLOOKUP(Tabell28[[#This Row],[Segment]],Industry_Average_India[],8,FALSE)+VLOOKUP(Tabell28[[#This Row],[Segment]],Operations_Per_Segment_Region[],7,FALSE)*VLOOKUP(Tabell28[[#This Row],[Segment]],Industry_Average_EmergingMarkets[],8,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="H68" s="156" t="str">
-        <f>IFERROR(Tabell28[[#This Row],[Firm Value Proportion]]*Tabell28[[#This Row],[Unlevered beta]],"")</f>
-        <v/>
-      </c>
-      <c r="I68" s="125" t="str">
-        <f>IFERROR(Tabell28[[#This Row],[Unlevered beta]]*(1+(1-Company_Tax_Rate)*(Company_Debt/Company_Equity)),"")</f>
-        <v/>
-      </c>
-      <c r="J68" s="125"/>
-      <c r="K68" s="125"/>
-      <c r="L68" s="72" t="str">
-        <f>IFERROR(Tabell28[[#This Row],[Firm Value Proportion]]*Tabell28[[#This Row],[Estimated levered beta]],"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="69" spans="3:12" ht="16.5" thickTop="1" thickBot="1">
-      <c r="C69" s="150" t="str">
+      <c r="D79" s="154" t="str">
+        <f>IFERROR(VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],EV_Sales_US[],3,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],3,FALSE)+VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],EV_Sales_China[],3,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],4,FALSE)+VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],EV_Sales_Europe[],3,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],5,FALSE)+VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],EV_Sales_India[],3,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],6,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="E79" s="72" t="str">
+        <f>IFERROR(Betas_Per_Segment_Region[[#This Row],[EV/Sales]]*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="F79" s="144" t="str">
+        <f>IFERROR(Betas_Per_Segment_Region[[#This Row],[Estimated Value]]/Betas_Per_Segment_Region[[#Totals],[Estimated Value]],"")</f>
+        <v/>
+      </c>
+      <c r="G79" s="125" t="str">
+        <f>IFERROR(VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],3,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Industry_Average_US[],8,FALSE)+VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],4,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Industry_Average_China[],8,FALSE)+VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],5,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Industry_Average_Europe[],8,FALSE)+VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],6,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Industry_Average_India[],8,FALSE)+VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],7,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Industry_Average_EmergingMarkets[],8,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="H79" s="156" t="str">
+        <f>IFERROR(Betas_Per_Segment_Region[[#This Row],[Firm Value Proportion]]*Betas_Per_Segment_Region[[#This Row],[Unlevered beta]],"")</f>
+        <v/>
+      </c>
+      <c r="I79" s="125" t="str">
+        <f>IFERROR(Betas_Per_Segment_Region[[#This Row],[Unlevered beta]]*(1+(1-Company_Tax_Rate)*(Company_Debt/Company_Equity)),"")</f>
+        <v/>
+      </c>
+      <c r="J79" s="125"/>
+      <c r="K79" s="125"/>
+      <c r="L79" s="72" t="str">
+        <f>IFERROR(Betas_Per_Segment_Region[[#This Row],[Firm Value Proportion]]*Betas_Per_Segment_Region[[#This Row],[Estimated levered beta]],"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="2:24" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C80" s="150" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D69" s="154" t="str">
-        <f>IFERROR(VLOOKUP(Tabell28[[#This Row],[Segment]],EV_Sales_US[],3,FALSE)*VLOOKUP(Tabell28[[#This Row],[Segment]],Operations_Per_Segment_Region[],3,FALSE)+VLOOKUP(Tabell28[[#This Row],[Segment]],EV_Sales_China[],3,FALSE)*VLOOKUP(Tabell28[[#This Row],[Segment]],Operations_Per_Segment_Region[],4,FALSE)+VLOOKUP(Tabell28[[#This Row],[Segment]],EV_Sales_Europe[],3,FALSE)*VLOOKUP(Tabell28[[#This Row],[Segment]],Operations_Per_Segment_Region[],5,FALSE)+VLOOKUP(Tabell28[[#This Row],[Segment]],EV_Sales_India[],3,FALSE)*VLOOKUP(Tabell28[[#This Row],[Segment]],Operations_Per_Segment_Region[],6,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E69" s="72" t="str">
-        <f>IFERROR(Tabell28[[#This Row],[EV/Sales]]*VLOOKUP(Tabell28[[#This Row],[Segment]],Operations_Per_Segment_Region[],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="F69" s="144" t="str">
-        <f>IFERROR(Tabell28[[#This Row],[Estimated Value]]/Tabell28[[#Totals],[Estimated Value]],"")</f>
-        <v/>
-      </c>
-      <c r="G69" s="125" t="str">
-        <f>IFERROR(VLOOKUP(Tabell28[[#This Row],[Segment]],Operations_Per_Segment_Region[],3,FALSE)*VLOOKUP(Tabell28[[#This Row],[Segment]],Industry_Average_US[],8,FALSE)+VLOOKUP(Tabell28[[#This Row],[Segment]],Operations_Per_Segment_Region[],4,FALSE)*VLOOKUP(Tabell28[[#This Row],[Segment]],Industry_Average_China[],8,FALSE)+VLOOKUP(Tabell28[[#This Row],[Segment]],Operations_Per_Segment_Region[],5,FALSE)*VLOOKUP(Tabell28[[#This Row],[Segment]],Industry_Average_Europe[],8,FALSE)+VLOOKUP(Tabell28[[#This Row],[Segment]],Operations_Per_Segment_Region[],6,FALSE)*VLOOKUP(Tabell28[[#This Row],[Segment]],Industry_Average_India[],8,FALSE)+VLOOKUP(Tabell28[[#This Row],[Segment]],Operations_Per_Segment_Region[],7,FALSE)*VLOOKUP(Tabell28[[#This Row],[Segment]],Industry_Average_EmergingMarkets[],8,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="H69" s="156" t="str">
-        <f>IFERROR(Tabell28[[#This Row],[Firm Value Proportion]]*Tabell28[[#This Row],[Unlevered beta]],"")</f>
-        <v/>
-      </c>
-      <c r="I69" s="125" t="str">
-        <f>IFERROR(Tabell28[[#This Row],[Unlevered beta]]*(1+(1-Company_Tax_Rate)*(Company_Debt/Company_Equity)),"")</f>
-        <v/>
-      </c>
-      <c r="J69" s="125"/>
-      <c r="K69" s="125"/>
-      <c r="L69" s="72" t="str">
-        <f>IFERROR(Tabell28[[#This Row],[Firm Value Proportion]]*Tabell28[[#This Row],[Estimated levered beta]],"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="70" spans="3:12" ht="16.5" thickTop="1" thickBot="1">
-      <c r="C70" s="150" t="str">
+      <c r="D80" s="154" t="str">
+        <f>IFERROR(VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],EV_Sales_US[],3,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],3,FALSE)+VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],EV_Sales_China[],3,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],4,FALSE)+VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],EV_Sales_Europe[],3,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],5,FALSE)+VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],EV_Sales_India[],3,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],6,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="E80" s="72" t="str">
+        <f>IFERROR(Betas_Per_Segment_Region[[#This Row],[EV/Sales]]*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="F80" s="144" t="str">
+        <f>IFERROR(Betas_Per_Segment_Region[[#This Row],[Estimated Value]]/Betas_Per_Segment_Region[[#Totals],[Estimated Value]],"")</f>
+        <v/>
+      </c>
+      <c r="G80" s="125" t="str">
+        <f>IFERROR(VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],3,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Industry_Average_US[],8,FALSE)+VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],4,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Industry_Average_China[],8,FALSE)+VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],5,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Industry_Average_Europe[],8,FALSE)+VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],6,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Industry_Average_India[],8,FALSE)+VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],7,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Industry_Average_EmergingMarkets[],8,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="H80" s="156" t="str">
+        <f>IFERROR(Betas_Per_Segment_Region[[#This Row],[Firm Value Proportion]]*Betas_Per_Segment_Region[[#This Row],[Unlevered beta]],"")</f>
+        <v/>
+      </c>
+      <c r="I80" s="125" t="str">
+        <f>IFERROR(Betas_Per_Segment_Region[[#This Row],[Unlevered beta]]*(1+(1-Company_Tax_Rate)*(Company_Debt/Company_Equity)),"")</f>
+        <v/>
+      </c>
+      <c r="J80" s="125"/>
+      <c r="K80" s="125"/>
+      <c r="L80" s="72" t="str">
+        <f>IFERROR(Betas_Per_Segment_Region[[#This Row],[Firm Value Proportion]]*Betas_Per_Segment_Region[[#This Row],[Estimated levered beta]],"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="3:12" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C81" s="150" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D70" s="154" t="str">
-        <f>IFERROR(VLOOKUP(Tabell28[[#This Row],[Segment]],EV_Sales_US[],3,FALSE)*VLOOKUP(Tabell28[[#This Row],[Segment]],Operations_Per_Segment_Region[],3,FALSE)+VLOOKUP(Tabell28[[#This Row],[Segment]],EV_Sales_China[],3,FALSE)*VLOOKUP(Tabell28[[#This Row],[Segment]],Operations_Per_Segment_Region[],4,FALSE)+VLOOKUP(Tabell28[[#This Row],[Segment]],EV_Sales_Europe[],3,FALSE)*VLOOKUP(Tabell28[[#This Row],[Segment]],Operations_Per_Segment_Region[],5,FALSE)+VLOOKUP(Tabell28[[#This Row],[Segment]],EV_Sales_India[],3,FALSE)*VLOOKUP(Tabell28[[#This Row],[Segment]],Operations_Per_Segment_Region[],6,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E70" s="72" t="str">
-        <f>IFERROR(Tabell28[[#This Row],[EV/Sales]]*VLOOKUP(Tabell28[[#This Row],[Segment]],Operations_Per_Segment_Region[],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="F70" s="144" t="str">
-        <f>IFERROR(Tabell28[[#This Row],[Estimated Value]]/Tabell28[[#Totals],[Estimated Value]],"")</f>
-        <v/>
-      </c>
-      <c r="G70" s="125" t="str">
-        <f>IFERROR(VLOOKUP(Tabell28[[#This Row],[Segment]],Operations_Per_Segment_Region[],3,FALSE)*VLOOKUP(Tabell28[[#This Row],[Segment]],Industry_Average_US[],8,FALSE)+VLOOKUP(Tabell28[[#This Row],[Segment]],Operations_Per_Segment_Region[],4,FALSE)*VLOOKUP(Tabell28[[#This Row],[Segment]],Industry_Average_China[],8,FALSE)+VLOOKUP(Tabell28[[#This Row],[Segment]],Operations_Per_Segment_Region[],5,FALSE)*VLOOKUP(Tabell28[[#This Row],[Segment]],Industry_Average_Europe[],8,FALSE)+VLOOKUP(Tabell28[[#This Row],[Segment]],Operations_Per_Segment_Region[],6,FALSE)*VLOOKUP(Tabell28[[#This Row],[Segment]],Industry_Average_India[],8,FALSE)+VLOOKUP(Tabell28[[#This Row],[Segment]],Operations_Per_Segment_Region[],7,FALSE)*VLOOKUP(Tabell28[[#This Row],[Segment]],Industry_Average_EmergingMarkets[],8,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="H70" s="156" t="str">
-        <f>IFERROR(Tabell28[[#This Row],[Firm Value Proportion]]*Tabell28[[#This Row],[Unlevered beta]],"")</f>
-        <v/>
-      </c>
-      <c r="I70" s="125" t="str">
-        <f>IFERROR(Tabell28[[#This Row],[Unlevered beta]]*(1+(1-Company_Tax_Rate)*(Company_Debt/Company_Equity)),"")</f>
-        <v/>
-      </c>
-      <c r="J70" s="125"/>
-      <c r="K70" s="125"/>
-      <c r="L70" s="72" t="str">
-        <f>IFERROR(Tabell28[[#This Row],[Firm Value Proportion]]*Tabell28[[#This Row],[Estimated levered beta]],"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="71" spans="3:12" ht="16.5" thickTop="1" thickBot="1">
-      <c r="C71" s="150" t="str">
+      <c r="D81" s="154" t="str">
+        <f>IFERROR(VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],EV_Sales_US[],3,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],3,FALSE)+VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],EV_Sales_China[],3,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],4,FALSE)+VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],EV_Sales_Europe[],3,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],5,FALSE)+VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],EV_Sales_India[],3,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],6,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="E81" s="72" t="str">
+        <f>IFERROR(Betas_Per_Segment_Region[[#This Row],[EV/Sales]]*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="F81" s="144" t="str">
+        <f>IFERROR(Betas_Per_Segment_Region[[#This Row],[Estimated Value]]/Betas_Per_Segment_Region[[#Totals],[Estimated Value]],"")</f>
+        <v/>
+      </c>
+      <c r="G81" s="125" t="str">
+        <f>IFERROR(VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],3,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Industry_Average_US[],8,FALSE)+VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],4,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Industry_Average_China[],8,FALSE)+VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],5,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Industry_Average_Europe[],8,FALSE)+VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],6,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Industry_Average_India[],8,FALSE)+VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],7,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Industry_Average_EmergingMarkets[],8,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="H81" s="156" t="str">
+        <f>IFERROR(Betas_Per_Segment_Region[[#This Row],[Firm Value Proportion]]*Betas_Per_Segment_Region[[#This Row],[Unlevered beta]],"")</f>
+        <v/>
+      </c>
+      <c r="I81" s="125" t="str">
+        <f>IFERROR(Betas_Per_Segment_Region[[#This Row],[Unlevered beta]]*(1+(1-Company_Tax_Rate)*(Company_Debt/Company_Equity)),"")</f>
+        <v/>
+      </c>
+      <c r="J81" s="125"/>
+      <c r="K81" s="125"/>
+      <c r="L81" s="72" t="str">
+        <f>IFERROR(Betas_Per_Segment_Region[[#This Row],[Firm Value Proportion]]*Betas_Per_Segment_Region[[#This Row],[Estimated levered beta]],"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="3:12" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C82" s="150" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D71" s="154" t="str">
-        <f>IFERROR(VLOOKUP(Tabell28[[#This Row],[Segment]],EV_Sales_US[],3,FALSE)*VLOOKUP(Tabell28[[#This Row],[Segment]],Operations_Per_Segment_Region[],3,FALSE)+VLOOKUP(Tabell28[[#This Row],[Segment]],EV_Sales_China[],3,FALSE)*VLOOKUP(Tabell28[[#This Row],[Segment]],Operations_Per_Segment_Region[],4,FALSE)+VLOOKUP(Tabell28[[#This Row],[Segment]],EV_Sales_Europe[],3,FALSE)*VLOOKUP(Tabell28[[#This Row],[Segment]],Operations_Per_Segment_Region[],5,FALSE)+VLOOKUP(Tabell28[[#This Row],[Segment]],EV_Sales_India[],3,FALSE)*VLOOKUP(Tabell28[[#This Row],[Segment]],Operations_Per_Segment_Region[],6,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E71" s="72" t="str">
-        <f>IFERROR(Tabell28[[#This Row],[EV/Sales]]*VLOOKUP(Tabell28[[#This Row],[Segment]],Operations_Per_Segment_Region[],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="F71" s="144" t="str">
-        <f>IFERROR(Tabell28[[#This Row],[Estimated Value]]/Tabell28[[#Totals],[Estimated Value]],"")</f>
-        <v/>
-      </c>
-      <c r="G71" s="125" t="str">
-        <f>IFERROR(VLOOKUP(Tabell28[[#This Row],[Segment]],Operations_Per_Segment_Region[],3,FALSE)*VLOOKUP(Tabell28[[#This Row],[Segment]],Industry_Average_US[],8,FALSE)+VLOOKUP(Tabell28[[#This Row],[Segment]],Operations_Per_Segment_Region[],4,FALSE)*VLOOKUP(Tabell28[[#This Row],[Segment]],Industry_Average_China[],8,FALSE)+VLOOKUP(Tabell28[[#This Row],[Segment]],Operations_Per_Segment_Region[],5,FALSE)*VLOOKUP(Tabell28[[#This Row],[Segment]],Industry_Average_Europe[],8,FALSE)+VLOOKUP(Tabell28[[#This Row],[Segment]],Operations_Per_Segment_Region[],6,FALSE)*VLOOKUP(Tabell28[[#This Row],[Segment]],Industry_Average_India[],8,FALSE)+VLOOKUP(Tabell28[[#This Row],[Segment]],Operations_Per_Segment_Region[],7,FALSE)*VLOOKUP(Tabell28[[#This Row],[Segment]],Industry_Average_EmergingMarkets[],8,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="H71" s="156" t="str">
-        <f>IFERROR(Tabell28[[#This Row],[Firm Value Proportion]]*Tabell28[[#This Row],[Unlevered beta]],"")</f>
-        <v/>
-      </c>
-      <c r="I71" s="125" t="str">
-        <f>IFERROR(Tabell28[[#This Row],[Unlevered beta]]*(1+(1-Company_Tax_Rate)*(Company_Debt/Company_Equity)),"")</f>
-        <v/>
-      </c>
-      <c r="J71" s="125"/>
-      <c r="K71" s="125"/>
-      <c r="L71" s="72" t="str">
-        <f>IFERROR(Tabell28[[#This Row],[Firm Value Proportion]]*Tabell28[[#This Row],[Estimated levered beta]],"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="72" spans="3:12" ht="15.75" thickTop="1">
-      <c r="C72" s="5" t="s">
+      <c r="D82" s="154" t="str">
+        <f>IFERROR(VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],EV_Sales_US[],3,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],3,FALSE)+VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],EV_Sales_China[],3,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],4,FALSE)+VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],EV_Sales_Europe[],3,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],5,FALSE)+VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],EV_Sales_India[],3,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],6,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="E82" s="72" t="str">
+        <f>IFERROR(Betas_Per_Segment_Region[[#This Row],[EV/Sales]]*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="F82" s="144" t="str">
+        <f>IFERROR(Betas_Per_Segment_Region[[#This Row],[Estimated Value]]/Betas_Per_Segment_Region[[#Totals],[Estimated Value]],"")</f>
+        <v/>
+      </c>
+      <c r="G82" s="125" t="str">
+        <f>IFERROR(VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],3,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Industry_Average_US[],8,FALSE)+VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],4,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Industry_Average_China[],8,FALSE)+VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],5,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Industry_Average_Europe[],8,FALSE)+VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],6,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Industry_Average_India[],8,FALSE)+VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],7,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Industry_Average_EmergingMarkets[],8,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="H82" s="156" t="str">
+        <f>IFERROR(Betas_Per_Segment_Region[[#This Row],[Firm Value Proportion]]*Betas_Per_Segment_Region[[#This Row],[Unlevered beta]],"")</f>
+        <v/>
+      </c>
+      <c r="I82" s="125" t="str">
+        <f>IFERROR(Betas_Per_Segment_Region[[#This Row],[Unlevered beta]]*(1+(1-Company_Tax_Rate)*(Company_Debt/Company_Equity)),"")</f>
+        <v/>
+      </c>
+      <c r="J82" s="125"/>
+      <c r="K82" s="125"/>
+      <c r="L82" s="72" t="str">
+        <f>IFERROR(Betas_Per_Segment_Region[[#This Row],[Firm Value Proportion]]*Betas_Per_Segment_Region[[#This Row],[Estimated levered beta]],"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="3:12" ht="15.75" thickTop="1">
+      <c r="C83" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="E72">
-        <f>SUM(Tabell28[Estimated Value])</f>
+      <c r="E83">
+        <f>SUM(Betas_Per_Segment_Region[Estimated Value])</f>
         <v>0</v>
       </c>
-      <c r="G72" s="158">
-        <f>SUM(Tabell28[Firm value proportion * Unlevered Beta])</f>
+      <c r="G83" s="158">
+        <f>SUM(Betas_Per_Segment_Region[Firm value proportion * Unlevered Beta])</f>
         <v>0</v>
       </c>
-      <c r="I72" s="158">
-        <f>SUM(Tabell28[Firm value proportion * Levered Beta])</f>
+      <c r="I83" s="158">
+        <f>SUM(Betas_Per_Segment_Region[Firm value proportion * Levered Beta])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="3:12" ht="135">
-      <c r="D73" s="40" t="s">
+    <row r="84" spans="3:12" ht="135">
+      <c r="D84" s="40" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="76" spans="3:12">
-      <c r="C76" s="47"/>
-    </row>
-    <row r="77" spans="3:12">
-      <c r="C77" s="47"/>
-    </row>
-    <row r="87" spans="2:4">
-      <c r="B87" t="s">
+    <row r="87" spans="3:12">
+      <c r="C87" s="47"/>
+    </row>
+    <row r="88" spans="3:12">
+      <c r="C88" s="47"/>
+    </row>
+    <row r="98" spans="2:4">
+      <c r="B98" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="88" spans="2:4">
-      <c r="C88" s="132" t="s">
+    <row r="99" spans="2:4">
+      <c r="C99" s="132" t="s">
         <v>427</v>
       </c>
-      <c r="D88" s="134">
+      <c r="D99" s="134">
         <v>0.35</v>
       </c>
     </row>
-    <row r="126" ht="30.75" customHeight="1"/>
+    <row r="137" ht="30.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="S59:X60"/>
-    <mergeCell ref="E38:I38"/>
+    <mergeCell ref="S70:X71"/>
+    <mergeCell ref="E49:I49"/>
     <mergeCell ref="C2:C4"/>
-    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C62:D62"/>
     <mergeCell ref="C8:D8"/>
-    <mergeCell ref="R54:T55"/>
+    <mergeCell ref="R65:T66"/>
   </mergeCells>
-  <dataValidations count="2">
-    <dataValidation type="decimal" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D35">
+  <dataValidations count="3">
+    <dataValidation type="decimal" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D46">
       <formula1>100</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C40:C46">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C51:C57">
       <formula1>Input_Industries</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F8">
+      <formula1>Input_Company_Types</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -8225,7 +8455,7 @@
           <x14:formula1>
             <xm:f>'Input data &amp; validation'!$B$20:$B$25</xm:f>
           </x14:formula1>
-          <xm:sqref>C51:D51</xm:sqref>
+          <xm:sqref>C62:D62</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -8237,8 +8467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:P100"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B4"/>
+    <sheetView showGridLines="0" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="H54" sqref="H54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8260,12 +8490,12 @@
       <c r="B1" s="1"/>
     </row>
     <row r="2" spans="2:16" s="2" customFormat="1" ht="9.75" customHeight="1">
-      <c r="B2" s="164" t="s">
+      <c r="B2" s="168" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="3" spans="2:16" s="2" customFormat="1" ht="57" customHeight="1" thickBot="1">
-      <c r="B3" s="164"/>
+      <c r="B3" s="168"/>
       <c r="C3" s="23"/>
       <c r="D3" s="23"/>
       <c r="E3" s="25" t="s">
@@ -8289,17 +8519,17 @@
       <c r="P3" s="22"/>
     </row>
     <row r="4" spans="2:16" s="2" customFormat="1" ht="9.75" customHeight="1" thickTop="1">
-      <c r="B4" s="164"/>
+      <c r="B4" s="168"/>
     </row>
     <row r="5" spans="2:16" ht="7.5" customHeight="1">
       <c r="B5" s="1"/>
     </row>
     <row r="7" spans="2:16" ht="24.95" customHeight="1">
-      <c r="C7" s="173" t="s">
+      <c r="C7" s="177" t="s">
         <v>262</v>
       </c>
-      <c r="D7" s="173"/>
-      <c r="E7" s="173"/>
+      <c r="D7" s="177"/>
+      <c r="E7" s="177"/>
     </row>
     <row r="8" spans="2:16">
       <c r="E8" s="45" t="s">
@@ -8310,12 +8540,12 @@
       <c r="B19" s="1"/>
     </row>
     <row r="20" spans="2:16" s="2" customFormat="1" ht="9.75" customHeight="1">
-      <c r="B20" s="164" t="s">
+      <c r="B20" s="168" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="21" spans="2:16" s="2" customFormat="1" ht="57" customHeight="1" thickBot="1">
-      <c r="B21" s="164"/>
+      <c r="B21" s="168"/>
       <c r="C21" s="23"/>
       <c r="D21" s="23"/>
       <c r="E21" s="25" t="s">
@@ -8333,7 +8563,7 @@
       <c r="P21" s="22"/>
     </row>
     <row r="22" spans="2:16" s="2" customFormat="1" ht="9.75" customHeight="1" thickTop="1">
-      <c r="B22" s="164"/>
+      <c r="B22" s="168"/>
     </row>
     <row r="23" spans="2:16" ht="7.5" customHeight="1">
       <c r="B23" s="1"/>
@@ -8386,12 +8616,12 @@
       <c r="B35" s="1"/>
     </row>
     <row r="36" spans="2:16" s="2" customFormat="1" ht="9.75" customHeight="1">
-      <c r="B36" s="164" t="s">
+      <c r="B36" s="168" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="37" spans="2:16" s="2" customFormat="1" ht="57" customHeight="1" thickBot="1">
-      <c r="B37" s="164"/>
+      <c r="B37" s="168"/>
       <c r="C37" s="23"/>
       <c r="D37" s="23"/>
       <c r="E37" s="25" t="s">
@@ -8409,7 +8639,7 @@
       <c r="P37" s="22"/>
     </row>
     <row r="38" spans="2:16" s="2" customFormat="1" ht="9.75" customHeight="1" thickTop="1">
-      <c r="B38" s="164"/>
+      <c r="B38" s="168"/>
     </row>
     <row r="39" spans="2:16" ht="7.5" customHeight="1">
       <c r="B39" s="1"/>
@@ -8498,8 +8728,8 @@
       <c r="H52" s="38"/>
     </row>
     <row r="53" spans="4:8">
-      <c r="F53" s="172"/>
-      <c r="G53" s="172"/>
+      <c r="F53" s="176"/>
+      <c r="G53" s="176"/>
       <c r="H53" s="38"/>
     </row>
     <row r="54" spans="4:8">
@@ -8718,7 +8948,7 @@
     <mergeCell ref="B20:B22"/>
     <mergeCell ref="B36:B38"/>
   </mergeCells>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="decimal" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F65">
       <formula1>100</formula1>
     </dataValidation>
@@ -8766,12 +8996,12 @@
       <c r="B1" s="1"/>
     </row>
     <row r="2" spans="2:14" s="2" customFormat="1" ht="9.75" customHeight="1">
-      <c r="B2" s="180" t="s">
+      <c r="B2" s="184" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="3" spans="2:14" s="2" customFormat="1" ht="57" customHeight="1" thickBot="1">
-      <c r="B3" s="180"/>
+      <c r="B3" s="184"/>
       <c r="C3" s="23"/>
       <c r="D3" s="25" t="s">
         <v>206</v>
@@ -8794,28 +9024,28 @@
       <c r="N3" s="22"/>
     </row>
     <row r="4" spans="2:14" s="2" customFormat="1" ht="9.75" customHeight="1" thickTop="1">
-      <c r="B4" s="180"/>
+      <c r="B4" s="184"/>
     </row>
     <row r="5" spans="2:14" ht="7.5" customHeight="1">
       <c r="B5" s="1"/>
     </row>
     <row r="7" spans="2:14">
-      <c r="B7" s="174" t="s">
+      <c r="B7" s="178" t="s">
         <v>229</v>
       </c>
-      <c r="C7" s="174"/>
-      <c r="D7" s="174"/>
+      <c r="C7" s="178"/>
+      <c r="D7" s="178"/>
       <c r="E7" t="s">
         <v>281</v>
       </c>
       <c r="H7" s="34"/>
     </row>
     <row r="8" spans="2:14" ht="27.75" customHeight="1">
-      <c r="B8" s="175" t="s">
+      <c r="B8" s="179" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="176"/>
-      <c r="D8" s="177"/>
+      <c r="C8" s="180"/>
+      <c r="D8" s="181"/>
       <c r="E8" s="54">
         <v>0.67</v>
       </c>
@@ -8826,18 +9056,18 @@
       </c>
     </row>
     <row r="11" spans="2:14">
-      <c r="B11" s="181" t="s">
+      <c r="B11" s="185" t="s">
         <v>267</v>
       </c>
-      <c r="C11" s="181"/>
-      <c r="D11" s="179" t="s">
+      <c r="C11" s="185"/>
+      <c r="D11" s="183" t="s">
         <v>273</v>
       </c>
-      <c r="E11" s="179"/>
-      <c r="G11" s="178" t="s">
+      <c r="E11" s="183"/>
+      <c r="G11" s="182" t="s">
         <v>277</v>
       </c>
-      <c r="H11" s="178"/>
+      <c r="H11" s="182"/>
     </row>
     <row r="12" spans="2:14">
       <c r="B12" s="35" t="s">
@@ -8975,20 +9205,20 @@
       </c>
     </row>
     <row r="18" spans="2:6">
-      <c r="B18" s="174" t="s">
+      <c r="B18" s="178" t="s">
         <v>272</v>
       </c>
-      <c r="C18" s="174"/>
-      <c r="D18" s="174"/>
+      <c r="C18" s="178"/>
+      <c r="D18" s="178"/>
       <c r="E18" t="s">
         <v>281</v>
       </c>
       <c r="F18" s="50"/>
     </row>
     <row r="19" spans="2:6" ht="31.5">
-      <c r="B19" s="175"/>
-      <c r="C19" s="176"/>
-      <c r="D19" s="177"/>
+      <c r="B19" s="179"/>
+      <c r="C19" s="180"/>
+      <c r="D19" s="181"/>
       <c r="E19" s="54">
         <v>0.67</v>
       </c>
@@ -9071,12 +9301,12 @@
       <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:14" s="2" customFormat="1" ht="9.75" customHeight="1">
-      <c r="B2" s="164" t="s">
+      <c r="B2" s="168" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="3" spans="1:14" s="2" customFormat="1" ht="57" customHeight="1" thickBot="1">
-      <c r="B3" s="164"/>
+      <c r="B3" s="168"/>
       <c r="C3" s="23"/>
       <c r="D3" s="25" t="s">
         <v>206</v>
@@ -9099,7 +9329,7 @@
       <c r="N3" s="22"/>
     </row>
     <row r="4" spans="1:14" s="2" customFormat="1" ht="9.75" customHeight="1" thickTop="1">
-      <c r="B4" s="164"/>
+      <c r="B4" s="168"/>
     </row>
     <row r="5" spans="1:14" ht="7.5" customHeight="1">
       <c r="B5" s="1"/>
@@ -11681,10 +11911,10 @@
       </c>
     </row>
     <row r="108" spans="1:9" ht="30" customHeight="1">
-      <c r="A108" s="182" t="s">
+      <c r="A108" s="186" t="s">
         <v>420</v>
       </c>
-      <c r="B108" s="182"/>
+      <c r="B108" s="186"/>
     </row>
     <row r="109" spans="1:9">
       <c r="B109" s="90" t="s">
@@ -14235,10 +14465,10 @@
       </c>
     </row>
     <row r="208" spans="1:9" ht="30" customHeight="1">
-      <c r="A208" s="182" t="s">
+      <c r="A208" s="186" t="s">
         <v>415</v>
       </c>
-      <c r="B208" s="182"/>
+      <c r="B208" s="186"/>
     </row>
     <row r="209" spans="2:9">
       <c r="B209" s="90" t="s">
@@ -16763,11 +16993,11 @@
       </c>
     </row>
     <row r="307" spans="1:9" ht="30" customHeight="1">
-      <c r="A307" s="183" t="s">
+      <c r="A307" s="187" t="s">
         <v>408</v>
       </c>
-      <c r="B307" s="183"/>
-      <c r="C307" s="183"/>
+      <c r="B307" s="187"/>
+      <c r="C307" s="187"/>
     </row>
     <row r="308" spans="1:9">
       <c r="B308" s="90" t="s">
@@ -19292,10 +19522,10 @@
       </c>
     </row>
     <row r="406" spans="1:9" ht="29.25" customHeight="1">
-      <c r="A406" s="182" t="s">
+      <c r="A406" s="186" t="s">
         <v>282</v>
       </c>
-      <c r="B406" s="182"/>
+      <c r="B406" s="186"/>
     </row>
     <row r="407" spans="1:9">
       <c r="B407" s="90" t="s">
@@ -21768,10 +21998,10 @@
       </c>
     </row>
     <row r="503" spans="1:9" ht="28.5" customHeight="1">
-      <c r="A503" s="182" t="s">
+      <c r="A503" s="186" t="s">
         <v>283</v>
       </c>
-      <c r="B503" s="182"/>
+      <c r="B503" s="186"/>
     </row>
     <row r="504" spans="1:9">
       <c r="B504" s="90" t="s">
@@ -24088,18 +24318,18 @@
       </c>
     </row>
     <row r="594" spans="1:16" ht="34.5" customHeight="1">
-      <c r="A594" s="182" t="s">
+      <c r="A594" s="186" t="s">
         <v>431</v>
       </c>
-      <c r="B594" s="182"/>
-      <c r="C594" s="182"/>
+      <c r="B594" s="186"/>
+      <c r="C594" s="186"/>
     </row>
     <row r="595" spans="1:16" ht="15.75" thickBot="1">
-      <c r="B595" s="172" t="s">
+      <c r="B595" s="176" t="s">
         <v>435</v>
       </c>
-      <c r="C595" s="172"/>
-      <c r="D595" s="172"/>
+      <c r="C595" s="176"/>
+      <c r="D595" s="176"/>
       <c r="F595" t="s">
         <v>282</v>
       </c>
@@ -28489,12 +28719,12 @@
       <c r="B1" s="1"/>
     </row>
     <row r="2" spans="2:39" s="2" customFormat="1" ht="9.75" customHeight="1">
-      <c r="B2" s="164" t="s">
+      <c r="B2" s="168" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="3" spans="2:39" s="2" customFormat="1" ht="57" customHeight="1" thickBot="1">
-      <c r="B3" s="164"/>
+      <c r="B3" s="168"/>
       <c r="C3" s="23"/>
       <c r="D3" s="25" t="s">
         <v>206</v>
@@ -28517,7 +28747,7 @@
       <c r="N3" s="22"/>
     </row>
     <row r="4" spans="2:39" s="2" customFormat="1" ht="9.75" customHeight="1" thickTop="1">
-      <c r="B4" s="164"/>
+      <c r="B4" s="168"/>
     </row>
     <row r="5" spans="2:39" ht="7.5" customHeight="1">
       <c r="B5" s="1"/>
@@ -36018,15 +36248,15 @@
       <c r="E137" s="9"/>
     </row>
     <row r="138" spans="2:24">
-      <c r="C138" s="184" t="s">
+      <c r="C138" s="188" t="s">
         <v>288</v>
       </c>
-      <c r="D138" s="184"/>
-      <c r="E138" s="185" t="s">
+      <c r="D138" s="188"/>
+      <c r="E138" s="189" t="s">
         <v>287</v>
       </c>
-      <c r="F138" s="185"/>
-      <c r="G138" s="185"/>
+      <c r="F138" s="189"/>
+      <c r="G138" s="189"/>
     </row>
     <row r="139" spans="2:24" ht="33" customHeight="1">
       <c r="B139" s="62" t="s">
@@ -36304,13 +36534,13 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Blad7"/>
-  <dimension ref="B1:N157"/>
+  <dimension ref="B1:Q157"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="1" ySplit="8" topLeftCell="D141" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="8" topLeftCell="H142" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="H143" sqref="H143"/>
+      <selection pane="bottomRight" activeCell="R144" sqref="R144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -36323,6 +36553,7 @@
     <col min="11" max="11" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="16.42578125" customWidth="1"/>
     <col min="14" max="15" width="13.85546875" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" customWidth="1"/>
     <col min="17" max="22" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -36330,12 +36561,12 @@
       <c r="B1" s="1"/>
     </row>
     <row r="2" spans="2:14" s="2" customFormat="1" ht="9.75" customHeight="1">
-      <c r="B2" s="164" t="s">
+      <c r="B2" s="168" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="3" spans="2:14" s="2" customFormat="1" ht="57" customHeight="1" thickBot="1">
-      <c r="B3" s="164"/>
+      <c r="B3" s="168"/>
       <c r="C3" s="23"/>
       <c r="D3" s="25" t="s">
         <v>206</v>
@@ -36358,27 +36589,27 @@
       <c r="N3" s="22"/>
     </row>
     <row r="4" spans="2:14" s="2" customFormat="1" ht="9.75" customHeight="1" thickTop="1">
-      <c r="B4" s="164"/>
+      <c r="B4" s="168"/>
     </row>
     <row r="5" spans="2:14" ht="7.5" customHeight="1">
       <c r="B5" s="1"/>
     </row>
     <row r="7" spans="2:14">
-      <c r="B7" s="172" t="s">
+      <c r="B7" s="176" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="172"/>
-      <c r="D7" s="172"/>
-      <c r="F7" s="172" t="s">
+      <c r="C7" s="176"/>
+      <c r="D7" s="176"/>
+      <c r="F7" s="176" t="s">
         <v>2</v>
       </c>
-      <c r="G7" s="172"/>
-      <c r="H7" s="172"/>
-      <c r="J7" s="172" t="s">
+      <c r="G7" s="176"/>
+      <c r="H7" s="176"/>
+      <c r="J7" s="176" t="s">
         <v>1</v>
       </c>
-      <c r="K7" s="172"/>
-      <c r="L7" s="172"/>
+      <c r="K7" s="176"/>
+      <c r="L7" s="176"/>
     </row>
     <row r="8" spans="2:14">
       <c r="B8" t="s">
@@ -39691,7 +39922,7 @@
         <v>41325</v>
       </c>
     </row>
-    <row r="129" spans="2:12">
+    <row r="129" spans="2:17">
       <c r="B129" t="s">
         <v>164</v>
       </c>
@@ -39702,7 +39933,7 @@
         <v>41360</v>
       </c>
     </row>
-    <row r="130" spans="2:12">
+    <row r="130" spans="2:17">
       <c r="B130" t="s">
         <v>165</v>
       </c>
@@ -39713,7 +39944,7 @@
         <v>40876</v>
       </c>
     </row>
-    <row r="131" spans="2:12">
+    <row r="131" spans="2:17">
       <c r="B131" t="s">
         <v>166</v>
       </c>
@@ -39724,7 +39955,7 @@
         <v>41634</v>
       </c>
     </row>
-    <row r="132" spans="2:12">
+    <row r="132" spans="2:17">
       <c r="B132" t="s">
         <v>167</v>
       </c>
@@ -39735,7 +39966,7 @@
         <v>41012</v>
       </c>
     </row>
-    <row r="133" spans="2:12">
+    <row r="133" spans="2:17">
       <c r="B133" t="s">
         <v>168</v>
       </c>
@@ -39746,7 +39977,7 @@
         <v>41435</v>
       </c>
     </row>
-    <row r="134" spans="2:12">
+    <row r="134" spans="2:17">
       <c r="B134" t="s">
         <v>169</v>
       </c>
@@ -39757,7 +39988,7 @@
         <v>41002</v>
       </c>
     </row>
-    <row r="135" spans="2:12">
+    <row r="135" spans="2:17">
       <c r="B135" t="s">
         <v>170</v>
       </c>
@@ -39768,7 +39999,7 @@
         <v>41442</v>
       </c>
     </row>
-    <row r="136" spans="2:12">
+    <row r="136" spans="2:17">
       <c r="B136" t="s">
         <v>171</v>
       </c>
@@ -39779,7 +40010,7 @@
         <v>41779</v>
       </c>
     </row>
-    <row r="137" spans="2:12">
+    <row r="137" spans="2:17">
       <c r="B137" t="s">
         <v>172</v>
       </c>
@@ -39790,44 +40021,62 @@
         <v>40876</v>
       </c>
     </row>
-    <row r="141" spans="2:12">
+    <row r="141" spans="2:17">
       <c r="B141" t="s">
+        <v>506</v>
+      </c>
+      <c r="H141" t="s">
+        <v>507</v>
+      </c>
+      <c r="N141" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="142" spans="2:17">
+      <c r="B142" t="s">
+        <v>486</v>
+      </c>
+      <c r="C142" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="142" spans="2:12">
-      <c r="B142" t="s">
+      <c r="D142" t="s">
+        <v>489</v>
+      </c>
+      <c r="E142" t="s">
+        <v>490</v>
+      </c>
+      <c r="F142" t="s">
         <v>488</v>
       </c>
-      <c r="C142" t="s">
+      <c r="H142" t="s">
+        <v>497</v>
+      </c>
+      <c r="I142" t="s">
+        <v>487</v>
+      </c>
+      <c r="J142" t="s">
         <v>489</v>
       </c>
-      <c r="D142" t="s">
-        <v>491</v>
-      </c>
-      <c r="E142" t="s">
-        <v>492</v>
-      </c>
-      <c r="F142" t="s">
+      <c r="K142" t="s">
         <v>490</v>
       </c>
-      <c r="H142" t="s">
-        <v>499</v>
-      </c>
-      <c r="I142" t="s">
-        <v>489</v>
-      </c>
-      <c r="J142" t="s">
-        <v>491</v>
-      </c>
-      <c r="K142" t="s">
-        <v>492</v>
-      </c>
       <c r="L142" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="143" spans="2:12">
+        <v>488</v>
+      </c>
+      <c r="N142" t="s">
+        <v>508</v>
+      </c>
+      <c r="O142" t="s">
+        <v>487</v>
+      </c>
+      <c r="P142" t="s">
+        <v>509</v>
+      </c>
+      <c r="Q142" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="143" spans="2:17">
       <c r="B143">
         <v>8.5</v>
       </c>
@@ -39858,8 +40107,20 @@
       <c r="L143" s="21">
         <v>4.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="144" spans="2:12">
+      <c r="N143">
+        <v>3</v>
+      </c>
+      <c r="O143">
+        <v>100000</v>
+      </c>
+      <c r="P143" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q143">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="144" spans="2:17">
       <c r="B144">
         <v>6.5</v>
       </c>
@@ -39892,8 +40153,20 @@
       <c r="L144" s="21">
         <v>7.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="145" spans="2:12">
+      <c r="N144">
+        <v>2.5</v>
+      </c>
+      <c r="O144">
+        <v>2.9999899999999999</v>
+      </c>
+      <c r="P144" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q144">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="145" spans="2:17">
       <c r="B145">
         <v>5.5</v>
       </c>
@@ -39926,8 +40199,20 @@
       <c r="L145" s="21">
         <v>8.5000000000000006E-3</v>
       </c>
-    </row>
-    <row r="146" spans="2:12">
+      <c r="N145">
+        <v>2</v>
+      </c>
+      <c r="O145">
+        <v>2.4999899999999999</v>
+      </c>
+      <c r="P145" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q145">
+        <v>8.5000000000000006E-3</v>
+      </c>
+    </row>
+    <row r="146" spans="2:17">
       <c r="B146">
         <v>4.25</v>
       </c>
@@ -39960,8 +40245,20 @@
       <c r="L146" s="21">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="147" spans="2:12">
+      <c r="N146">
+        <v>1.5</v>
+      </c>
+      <c r="O146">
+        <v>1.9999899999999999</v>
+      </c>
+      <c r="P146" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q146">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="147" spans="2:17">
       <c r="B147">
         <v>3</v>
       </c>
@@ -39994,8 +40291,20 @@
       <c r="L147" s="21">
         <v>1.2999999999999999E-2</v>
       </c>
-    </row>
-    <row r="148" spans="2:12">
+      <c r="N147">
+        <v>1.2</v>
+      </c>
+      <c r="O147">
+        <v>1.4999899999999999</v>
+      </c>
+      <c r="P147" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q147">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="148" spans="2:17">
       <c r="B148">
         <v>2.5</v>
       </c>
@@ -40028,8 +40337,20 @@
       <c r="L148" s="21">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="149" spans="2:12">
+      <c r="N148">
+        <v>0.9</v>
+      </c>
+      <c r="O148">
+        <v>1.199999</v>
+      </c>
+      <c r="P148" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q148">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="149" spans="2:17">
       <c r="B149">
         <v>2.25</v>
       </c>
@@ -40062,8 +40383,20 @@
       <c r="L149" s="21">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="150" spans="2:12">
+      <c r="N149">
+        <v>0.75</v>
+      </c>
+      <c r="O149">
+        <v>0.89999899999999999</v>
+      </c>
+      <c r="P149" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q149">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="150" spans="2:17">
       <c r="B150">
         <v>2</v>
       </c>
@@ -40096,8 +40429,20 @@
       <c r="L150" s="21">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="151" spans="2:12">
+      <c r="N150">
+        <v>0.6</v>
+      </c>
+      <c r="O150">
+        <v>0.74999899999999997</v>
+      </c>
+      <c r="P150" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q150">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="151" spans="2:17">
       <c r="B151">
         <v>1.75</v>
       </c>
@@ -40130,8 +40475,20 @@
       <c r="L151" s="21">
         <v>5.5E-2</v>
       </c>
-    </row>
-    <row r="152" spans="2:12">
+      <c r="N151">
+        <v>0.5</v>
+      </c>
+      <c r="O151">
+        <v>0.59999899999999995</v>
+      </c>
+      <c r="P151" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q151">
+        <v>5.5E-2</v>
+      </c>
+    </row>
+    <row r="152" spans="2:17">
       <c r="B152">
         <v>1.5</v>
       </c>
@@ -40164,8 +40521,20 @@
       <c r="L152" s="21">
         <v>6.5000000000000002E-2</v>
       </c>
-    </row>
-    <row r="153" spans="2:12">
+      <c r="N152">
+        <v>0.4</v>
+      </c>
+      <c r="O152">
+        <v>0.49999900000000003</v>
+      </c>
+      <c r="P152" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q152">
+        <v>6.5000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="153" spans="2:17">
       <c r="B153">
         <v>1.25</v>
       </c>
@@ -40198,8 +40567,20 @@
       <c r="L153" s="21">
         <v>7.2499999999999995E-2</v>
       </c>
-    </row>
-    <row r="154" spans="2:12">
+      <c r="N153">
+        <v>0.3</v>
+      </c>
+      <c r="O153">
+        <v>0.39999899999999999</v>
+      </c>
+      <c r="P153" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q153">
+        <v>7.2499999999999995E-2</v>
+      </c>
+    </row>
+    <row r="154" spans="2:17">
       <c r="B154">
         <v>0.8</v>
       </c>
@@ -40232,8 +40613,20 @@
       <c r="L154" s="21">
         <v>8.7499999999999994E-2</v>
       </c>
-    </row>
-    <row r="155" spans="2:12">
+      <c r="N154">
+        <v>0.2</v>
+      </c>
+      <c r="O154">
+        <v>0.29999900000000002</v>
+      </c>
+      <c r="P154" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q154">
+        <v>8.7499999999999994E-2</v>
+      </c>
+    </row>
+    <row r="155" spans="2:17">
       <c r="B155">
         <v>0.65</v>
       </c>
@@ -40242,10 +40635,10 @@
         <v>0.79999900000000002</v>
       </c>
       <c r="D155" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="E155" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="F155" s="21">
         <v>9.5000000000000001E-2</v>
@@ -40258,16 +40651,28 @@
         <v>1.2499990000000001</v>
       </c>
       <c r="J155" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="K155" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="L155" s="21">
         <v>9.5000000000000001E-2</v>
       </c>
-    </row>
-    <row r="156" spans="2:12">
+      <c r="N155">
+        <v>0.1</v>
+      </c>
+      <c r="O155">
+        <v>0.19999900000000001</v>
+      </c>
+      <c r="P155" t="s">
+        <v>491</v>
+      </c>
+      <c r="Q155">
+        <v>9.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="156" spans="2:17">
       <c r="B156">
         <v>0.2</v>
       </c>
@@ -40276,10 +40681,10 @@
         <v>0.64999899999999999</v>
       </c>
       <c r="D156" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E156" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="F156" s="21">
         <v>0.105</v>
@@ -40292,16 +40697,28 @@
         <v>0.79999900000000002</v>
       </c>
       <c r="J156" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="K156" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="L156" s="21">
         <v>0.105</v>
       </c>
-    </row>
-    <row r="157" spans="2:12">
+      <c r="N156">
+        <v>0.05</v>
+      </c>
+      <c r="O156">
+        <v>9.9999000000000005E-2</v>
+      </c>
+      <c r="P156" t="s">
+        <v>492</v>
+      </c>
+      <c r="Q156">
+        <v>0.105</v>
+      </c>
+    </row>
+    <row r="157" spans="2:17">
       <c r="B157">
         <v>-100000</v>
       </c>
@@ -40310,10 +40727,10 @@
         <v>0.19999900000000001</v>
       </c>
       <c r="D157" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E157" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="F157" s="21">
         <v>0.12</v>
@@ -40326,12 +40743,24 @@
         <v>0.49999900000000003</v>
       </c>
       <c r="J157" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="K157" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="L157" s="21">
+        <v>0.12</v>
+      </c>
+      <c r="N157">
+        <v>-100000</v>
+      </c>
+      <c r="O157">
+        <v>4.9999000000000002E-2</v>
+      </c>
+      <c r="P157" t="s">
+        <v>493</v>
+      </c>
+      <c r="Q157">
         <v>0.12</v>
       </c>
     </row>
@@ -40349,12 +40778,13 @@
     <hyperlink ref="E3" location="'Models &amp; inputs'!B3" display="Models &amp;  inputs"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="5">
+  <tableParts count="6">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
     <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
   </tableParts>
 </worksheet>
 </file>
@@ -40363,8 +40793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O89"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20:B25"/>
+    <sheetView showGridLines="0" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -40386,13 +40816,13 @@
       <c r="C1" s="1"/>
     </row>
     <row r="2" spans="2:15" s="2" customFormat="1" ht="9.75" customHeight="1">
-      <c r="B2" s="186" t="s">
+      <c r="B2" s="190" t="s">
         <v>234</v>
       </c>
       <c r="C2" s="68"/>
     </row>
     <row r="3" spans="2:15" s="2" customFormat="1" ht="57" customHeight="1" thickBot="1">
-      <c r="B3" s="186"/>
+      <c r="B3" s="190"/>
       <c r="C3" s="68"/>
       <c r="D3" s="23"/>
       <c r="E3" s="25" t="s">
@@ -40416,7 +40846,7 @@
       <c r="O3" s="22"/>
     </row>
     <row r="4" spans="2:15" s="2" customFormat="1" ht="9.75" customHeight="1" thickTop="1">
-      <c r="B4" s="186"/>
+      <c r="B4" s="190"/>
       <c r="C4" s="68"/>
     </row>
     <row r="5" spans="2:15" ht="7.5" customHeight="1">
@@ -40436,6 +40866,12 @@
       <c r="G7" t="s">
         <v>297</v>
       </c>
+      <c r="I7" t="s">
+        <v>520</v>
+      </c>
+      <c r="J7" t="s">
+        <v>523</v>
+      </c>
     </row>
     <row r="8" spans="2:15" ht="15.75">
       <c r="B8" t="s">
@@ -40447,6 +40883,12 @@
       <c r="G8" s="75" t="s">
         <v>320</v>
       </c>
+      <c r="I8" t="s">
+        <v>522</v>
+      </c>
+      <c r="J8" t="s">
+        <v>524</v>
+      </c>
     </row>
     <row r="9" spans="2:15" ht="15.75">
       <c r="B9" t="s">
@@ -40461,6 +40903,12 @@
       <c r="G9" s="75" t="s">
         <v>321</v>
       </c>
+      <c r="I9" t="s">
+        <v>521</v>
+      </c>
+      <c r="J9" t="s">
+        <v>525</v>
+      </c>
     </row>
     <row r="10" spans="2:15" ht="15.75">
       <c r="B10" t="s">
@@ -40468,6 +40916,12 @@
       </c>
       <c r="G10" s="75" t="s">
         <v>322</v>
+      </c>
+      <c r="I10" t="s">
+        <v>527</v>
+      </c>
+      <c r="J10" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="11" spans="2:15" ht="15.75">
@@ -40978,12 +41432,13 @@
     <hyperlink ref="F3" location="'Models &amp; inputs'!B3" display="Models &amp;  inputs"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="5">
+  <tableParts count="6">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
     <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Corporate Finance.xlsx
+++ b/Corporate Finance.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18660" windowHeight="2760" tabRatio="730" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18660" windowHeight="2760" tabRatio="730" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="18" r:id="rId1"/>
@@ -41,22 +41,24 @@
     <definedName name="Beta_Regression">'Models &amp; inputs'!$F$50</definedName>
     <definedName name="Beta_Standard_Error">'Models &amp; inputs'!$F$51</definedName>
     <definedName name="Beta_Unlevered">Betas_Per_Segment[[#Totals],[Unlevered beta]]</definedName>
-    <definedName name="Company_Debt">'Company data'!$D$11</definedName>
-    <definedName name="Company_EBIT">'Company data'!$D$16</definedName>
-    <definedName name="Company_Equity">'Company data'!$D$12</definedName>
-    <definedName name="Company_Interest_Expenses">'Company data'!$D$17</definedName>
-    <definedName name="Company_Market_Cap">'Company data'!$D$15</definedName>
-    <definedName name="Company_Tax_Rate">'Company data'!$D$99</definedName>
+    <definedName name="Company_Country">'Company data'!$D$10</definedName>
+    <definedName name="Company_Debt">'Company data'!$D$14</definedName>
+    <definedName name="Company_EBIT">'Company data'!$D$19</definedName>
+    <definedName name="Company_Equity">'Company data'!$D$15</definedName>
+    <definedName name="Company_Interest_Expenses">'Company data'!$D$20</definedName>
+    <definedName name="Company_Market_Cap">'Company data'!$D$18</definedName>
+    <definedName name="Company_Tax_Rate">'Company data'!$F$10</definedName>
     <definedName name="Company_Type">'Company data'!$F$8</definedName>
     <definedName name="Confidence_interval">Investments!$E$8</definedName>
     <definedName name="Data_Validation_Regions" localSheetId="2">Regions[Regions]</definedName>
     <definedName name="Estimated_Firm_Value">Betas_Per_Segment[[#Totals],[Estimated Value]]</definedName>
-    <definedName name="Industry_Average">'Company data'!$C$62</definedName>
+    <definedName name="Industry_Average">'Company data'!$C$56</definedName>
     <definedName name="Input_Company_Types">Company_Types[Type of company]</definedName>
     <definedName name="Input_Confidence_Interval" localSheetId="5">Confidence_Intervals[Confidence intervals]</definedName>
     <definedName name="Input_Confidence_Interval">Confidence_Intervals[Confidence intervals]</definedName>
     <definedName name="Input_Industries" localSheetId="5">Industries[Industries]</definedName>
     <definedName name="Input_Industries">Industries[Industries]</definedName>
+    <definedName name="Input_Locations">Locations[Location]</definedName>
     <definedName name="Investments_Country">Investments!$B$8</definedName>
     <definedName name="Total_Revenues">#REF!</definedName>
   </definedNames>
@@ -70,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2794" uniqueCount="528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3099" uniqueCount="683">
   <si>
     <t>S&amp;P</t>
   </si>
@@ -1657,6 +1659,471 @@
   </si>
   <si>
     <t>Financial service</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Afghanistan</t>
+  </si>
+  <si>
+    <t>Albania</t>
+  </si>
+  <si>
+    <t>Algeria</t>
+  </si>
+  <si>
+    <t>Angola</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>Armenia</t>
+  </si>
+  <si>
+    <t>Aruba</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>Bahamas</t>
+  </si>
+  <si>
+    <t>Bahrain</t>
+  </si>
+  <si>
+    <t>Bangladesh</t>
+  </si>
+  <si>
+    <t>Barbados</t>
+  </si>
+  <si>
+    <t>Belarus</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>Bermuda</t>
+  </si>
+  <si>
+    <t>Bolivia</t>
+  </si>
+  <si>
+    <t>Bonaire, Saint Eustatius and Saba</t>
+  </si>
+  <si>
+    <t>Bosnia and Herzegovina</t>
+  </si>
+  <si>
+    <t>Botswana</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>Bulgaria</t>
+  </si>
+  <si>
+    <t>Cambodia</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Cayman Islands</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>Costa Rica</t>
+  </si>
+  <si>
+    <t>Croatia</t>
+  </si>
+  <si>
+    <t>Curacao</t>
+  </si>
+  <si>
+    <t>Cyprus</t>
+  </si>
+  <si>
+    <t>Czech Republic</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>Dominican Republic</t>
+  </si>
+  <si>
+    <t>Ecuador</t>
+  </si>
+  <si>
+    <t>Egypt</t>
+  </si>
+  <si>
+    <t>El Salvador</t>
+  </si>
+  <si>
+    <t>Estonia</t>
+  </si>
+  <si>
+    <t>Fiji</t>
+  </si>
+  <si>
+    <t>Finland</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Ghana</t>
+  </si>
+  <si>
+    <t>Gibraltar</t>
+  </si>
+  <si>
+    <t>Greece</t>
+  </si>
+  <si>
+    <t>Guatemala</t>
+  </si>
+  <si>
+    <t>Guernsey</t>
+  </si>
+  <si>
+    <t>Honduras</t>
+  </si>
+  <si>
+    <t>Hong Kong SAR</t>
+  </si>
+  <si>
+    <t>Hungary</t>
+  </si>
+  <si>
+    <t>Iceland</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>Iraq</t>
+  </si>
+  <si>
+    <t>Ireland</t>
+  </si>
+  <si>
+    <t>Isle of Man</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>Jamaica</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Jersey</t>
+  </si>
+  <si>
+    <t>Jordan</t>
+  </si>
+  <si>
+    <t>Kazakhstan</t>
+  </si>
+  <si>
+    <t>Kenya</t>
+  </si>
+  <si>
+    <t>Korea, Republic of</t>
+  </si>
+  <si>
+    <t>Kuwait</t>
+  </si>
+  <si>
+    <t>Latvia</t>
+  </si>
+  <si>
+    <t>Lebanon</t>
+  </si>
+  <si>
+    <t>Libya</t>
+  </si>
+  <si>
+    <t>Liechtenstein</t>
+  </si>
+  <si>
+    <t>Lithuania</t>
+  </si>
+  <si>
+    <t>Luxembourg</t>
+  </si>
+  <si>
+    <t>Macao SAR</t>
+  </si>
+  <si>
+    <t>Macedonia (FYR)</t>
+  </si>
+  <si>
+    <t>Malawi</t>
+  </si>
+  <si>
+    <t>Malaysia</t>
+  </si>
+  <si>
+    <t>Malta</t>
+  </si>
+  <si>
+    <t>Mauritius</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Montenegro</t>
+  </si>
+  <si>
+    <t>Morocco</t>
+  </si>
+  <si>
+    <t>Mozambique</t>
+  </si>
+  <si>
+    <t>Namibia</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>New Zealand</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>Oman</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>Panama</t>
+  </si>
+  <si>
+    <t>Papua New Guinea</t>
+  </si>
+  <si>
+    <t>Paraguay</t>
+  </si>
+  <si>
+    <t>Peru</t>
+  </si>
+  <si>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>Qatar</t>
+  </si>
+  <si>
+    <t>Romania</t>
+  </si>
+  <si>
+    <t>Russia</t>
+  </si>
+  <si>
+    <t>Samoa</t>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
+  </si>
+  <si>
+    <t>Serbia</t>
+  </si>
+  <si>
+    <t>Sierra Leone</t>
+  </si>
+  <si>
+    <t>Singapore</t>
+  </si>
+  <si>
+    <t>Sint Maarten (Dutch part)</t>
+  </si>
+  <si>
+    <t>Slovakia</t>
+  </si>
+  <si>
+    <t>Slovenia</t>
+  </si>
+  <si>
+    <t>South Africa</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Sri Lanka</t>
+  </si>
+  <si>
+    <t>Sudan</t>
+  </si>
+  <si>
+    <t>Suriname</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>Syrian Arab Republic</t>
+  </si>
+  <si>
+    <t>Taiwan</t>
+  </si>
+  <si>
+    <t>Tanzania</t>
+  </si>
+  <si>
+    <t>Thailand</t>
+  </si>
+  <si>
+    <t>Trinidad and Tobago</t>
+  </si>
+  <si>
+    <t>Tunisia</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>Uganda</t>
+  </si>
+  <si>
+    <t>Ukraine</t>
+  </si>
+  <si>
+    <t>United Arab Emirates</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>Uruguay</t>
+  </si>
+  <si>
+    <t>Vanuatu</t>
+  </si>
+  <si>
+    <t>Venezuela</t>
+  </si>
+  <si>
+    <t>Vietnam</t>
+  </si>
+  <si>
+    <t>Yemen</t>
+  </si>
+  <si>
+    <t>Zambia</t>
+  </si>
+  <si>
+    <t>Zimbabwe</t>
+  </si>
+  <si>
+    <t>Africa average</t>
+  </si>
+  <si>
+    <t>Americas average</t>
+  </si>
+  <si>
+    <t>Asia average</t>
+  </si>
+  <si>
+    <t>Europe average</t>
+  </si>
+  <si>
+    <t>Oceania average</t>
+  </si>
+  <si>
+    <t>North America average</t>
+  </si>
+  <si>
+    <t>Latin America average</t>
+  </si>
+  <si>
+    <t>EU average</t>
+  </si>
+  <si>
+    <t>OECD average</t>
+  </si>
+  <si>
+    <t>Global average</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
+    <t>Tax rate (2014)</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>KPMG, January 2013 survey</t>
   </si>
 </sst>
 </file>
@@ -1671,7 +2138,7 @@
     <numFmt numFmtId="168" formatCode="0.000"/>
     <numFmt numFmtId="169" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1889,6 +2356,14 @@
       <b/>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2350,7 +2825,7 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="169" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="191">
+  <cellXfs count="210">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -2760,6 +3235,29 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" indent="8"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="7" xfId="11" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="11" applyBorder="1"/>
+    <xf numFmtId="10" fontId="21" fillId="0" borderId="10" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="30" fillId="0" borderId="10" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="21" fillId="0" borderId="5" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="30" fillId="0" borderId="5" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="11" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="11" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="11" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="15" xfId="11" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="30" fillId="0" borderId="11" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="30" fillId="0" borderId="16" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="10" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="10" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="11" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" xfId="11" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="16">
     <cellStyle name="Beräkning" xfId="9" builtinId="22"/>
@@ -2779,7 +3277,473 @@
     <cellStyle name="Valuta 2" xfId="6"/>
     <cellStyle name="Valuta 3" xfId="15"/>
   </cellStyles>
-  <dxfs count="184">
+  <dxfs count="202">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
@@ -5908,56 +6872,56 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Betas_Per_Segment" displayName="Betas_Per_Segment" ref="C64:Q72" totalsRowCount="1" totalsRowDxfId="182" tableBorderDxfId="183" headerRowCellStyle="Normal" totalsRowCellStyle="Normal">
-  <autoFilter ref="C64:Q71"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Betas_Per_Segment" displayName="Betas_Per_Segment" ref="C58:Q66" totalsRowCount="1" totalsRowDxfId="200" tableBorderDxfId="201" headerRowCellStyle="Normal" totalsRowCellStyle="Normal">
+  <autoFilter ref="C58:Q65"/>
   <tableColumns count="15">
-    <tableColumn id="7" name="Segment" totalsRowLabel="Company" dataDxfId="181" totalsRowDxfId="180" dataCellStyle="Länkad cell">
-      <calculatedColumnFormula>IF(C51="","",C51)</calculatedColumnFormula>
+    <tableColumn id="7" name="Segment" totalsRowLabel="Company" dataDxfId="199" totalsRowDxfId="198" dataCellStyle="Länkad cell">
+      <calculatedColumnFormula>IF(C45="","",C45)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="EV/Sales" dataDxfId="179" totalsRowDxfId="178" dataCellStyle="Beräkning">
+    <tableColumn id="10" name="EV/Sales" dataDxfId="197" totalsRowDxfId="196" dataCellStyle="Beräkning">
       <calculatedColumnFormula>IFERROR(VLOOKUP(Betas_Per_Segment[[#This Row],[Segment]],INDIRECT(VLOOKUP(Industry_Average,Industry_TableConverter[],3,FALSE)),3,FALSE),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="Estimated Value" totalsRowFunction="sum" dataDxfId="177" totalsRowDxfId="176" dataCellStyle="Beräkning">
+    <tableColumn id="11" name="Estimated Value" totalsRowFunction="sum" dataDxfId="195" totalsRowDxfId="194" dataCellStyle="Beräkning">
       <calculatedColumnFormula>IFERROR(Betas_Per_Segment[[#This Row],[EV/Sales]]*VLOOKUP(Betas_Per_Segment[[#This Row],[Segment]],Operations_Per_Segment_Region[],2,FALSE),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="Firm Value Proportion" totalsRowDxfId="175" dataCellStyle="Procent">
+    <tableColumn id="12" name="Firm Value Proportion" totalsRowDxfId="193" dataCellStyle="Procent">
       <calculatedColumnFormula>IFERROR(Betas_Per_Segment[[#This Row],[Estimated Value]]/Estimated_Firm_Value,"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" name="Unlevered beta" totalsRowFunction="custom" totalsRowDxfId="174" dataCellStyle="Utdata">
+    <tableColumn id="1" name="Unlevered beta" totalsRowFunction="custom" totalsRowDxfId="192" dataCellStyle="Utdata">
       <calculatedColumnFormula>IFERROR(VLOOKUP(Betas_Per_Segment[[#This Row],[Segment]],INDIRECT(VLOOKUP(Industry_Average,Industry_TableConverter[],2,FALSE)),8,FALSE),"")</calculatedColumnFormula>
       <totalsRowFormula>SUM(Betas_Per_Segment[Firm value proportion * Unlevered Beta])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="13" name="Firm value proportion * Unlevered Beta" totalsRowDxfId="173" dataCellStyle="Beräkning">
+    <tableColumn id="13" name="Firm value proportion * Unlevered Beta" totalsRowDxfId="191" dataCellStyle="Beräkning">
       <calculatedColumnFormula>IFERROR(Betas_Per_Segment[[#This Row],[Unlevered beta]]*Betas_Per_Segment[[#This Row],[Firm Value Proportion]],"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Estimated levered beta" totalsRowFunction="custom" totalsRowDxfId="172" dataCellStyle="Utdata">
+    <tableColumn id="2" name="Estimated levered beta" totalsRowFunction="custom" totalsRowDxfId="190" dataCellStyle="Utdata">
       <calculatedColumnFormula>IFERROR(Betas_Per_Segment[[#This Row],[Unlevered beta]]*(1+(1-Company_Tax_Rate)*(Company_Debt/Company_Equity)),"")</calculatedColumnFormula>
       <totalsRowFormula>SUM(Betas_Per_Segment[Firm value proportion * Levered Beta2])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" name="Allocated debt" dataDxfId="171" totalsRowDxfId="170" dataCellStyle="Utdata">
+    <tableColumn id="8" name="Allocated debt" dataDxfId="189" totalsRowDxfId="188" dataCellStyle="Utdata">
       <calculatedColumnFormula>IFERROR(Betas_Per_Segment[[#This Row],[Estimated debt]]/SUM(Betas_Per_Segment[Estimated debt])*Company_Debt,"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Estimated debt" dataDxfId="169" totalsRowDxfId="168" dataCellStyle="Utdata">
-      <calculatedColumnFormula>IFERROR(Betas_Per_Segment[[#This Row],[Estimated Value]]*Betas_Per_Segment[Industry D/E]/$F$62,"")</calculatedColumnFormula>
+    <tableColumn id="6" name="Estimated debt" dataDxfId="187" totalsRowDxfId="186" dataCellStyle="Utdata">
+      <calculatedColumnFormula>IFERROR(Betas_Per_Segment[[#This Row],[Estimated Value]]*Betas_Per_Segment[Industry D/E]/$F$56,"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="Estimated equity" dataDxfId="167" totalsRowDxfId="166" dataCellStyle="Utdata">
+    <tableColumn id="14" name="Estimated equity" dataDxfId="185" totalsRowDxfId="184" dataCellStyle="Utdata">
       <calculatedColumnFormula>IFERROR(Betas_Per_Segment[[#This Row],[Estimated Value]]-Betas_Per_Segment[[#This Row],[Allocated debt]],"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="Scaled estimated equity " totalsRowFunction="sum" dataDxfId="165" totalsRowDxfId="164" dataCellStyle="Utdata">
+    <tableColumn id="15" name="Scaled estimated equity " totalsRowFunction="sum" dataDxfId="183" totalsRowDxfId="182" dataCellStyle="Utdata">
       <calculatedColumnFormula>IFERROR(Betas_Per_Segment[[#This Row],[Estimated equity]]/SUM(Betas_Per_Segment[Estimated equity])*Company_Equity,"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Estimated levered beta using debt allocation" totalsRowFunction="custom" dataDxfId="163" dataCellStyle="Utdata">
+    <tableColumn id="4" name="Estimated levered beta using debt allocation" totalsRowFunction="custom" dataDxfId="181" dataCellStyle="Utdata">
       <calculatedColumnFormula>IFERROR(Betas_Per_Segment[[#This Row],[Unlevered beta]]*(1+(1-Company_Tax_Rate)*Betas_Per_Segment[[#This Row],[Allocated debt]]/Betas_Per_Segment[[#This Row],[Scaled estimated equity ]]),"")</calculatedColumnFormula>
       <totalsRowFormula>SUM(Betas_Per_Segment[Firm value proportion * Levered Beta debt])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" name="Industry D/E" totalsRowFunction="custom" dataDxfId="162" dataCellStyle="Utdata">
+    <tableColumn id="5" name="Industry D/E" totalsRowFunction="custom" dataDxfId="180" dataCellStyle="Utdata">
       <calculatedColumnFormula>IFERROR(VLOOKUP(Betas_Per_Segment[[#This Row],[Segment]],INDIRECT(VLOOKUP(Industry_Average,Industry_TableConverter[],2,FALSE)),4,FALSE),"")</calculatedColumnFormula>
       <totalsRowFormula>SUM(Betas_Per_Segment[Industry D/E])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="16" name="Firm value proportion * Levered Beta debt" dataDxfId="161" dataCellStyle="Utdata">
+    <tableColumn id="16" name="Firm value proportion * Levered Beta debt" dataDxfId="179" dataCellStyle="Utdata">
       <calculatedColumnFormula>IFERROR(Betas_Per_Segment[[#This Row],[Firm Value Proportion]]*Betas_Per_Segment[[#This Row],[Estimated levered beta using debt allocation]],"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Firm value proportion * Levered Beta2" totalsRowDxfId="160" dataCellStyle="Beräkning">
+    <tableColumn id="3" name="Firm value proportion * Levered Beta2" totalsRowDxfId="178" dataCellStyle="Beräkning">
       <calculatedColumnFormula>IFERROR(Betas_Per_Segment[[#This Row],[Estimated levered beta]]*Betas_Per_Segment[[#This Row],[Firm Value Proportion]],"")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5966,34 +6930,34 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="30" name="Industry_Average_China" displayName="Industry_Average_China" ref="B407:I501" totalsRowShown="0" headerRowDxfId="83" dataDxfId="81" headerRowBorderDxfId="82" tableBorderDxfId="80" totalsRowBorderDxfId="79" headerRowCellStyle="Normal 3" dataCellStyle="Normal 3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="30" name="Industry_Average_China" displayName="Industry_Average_China" ref="B407:I501" totalsRowShown="0" headerRowDxfId="101" dataDxfId="99" headerRowBorderDxfId="100" tableBorderDxfId="98" totalsRowBorderDxfId="97" headerRowCellStyle="Normal 3" dataCellStyle="Normal 3">
   <autoFilter ref="B407:I501"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="Industry Name" dataDxfId="78" dataCellStyle="Normal 3"/>
-    <tableColumn id="2" name="Number of firms" dataDxfId="77" dataCellStyle="Normal 3"/>
-    <tableColumn id="3" name="Beta " dataDxfId="76" dataCellStyle="Normal 3"/>
-    <tableColumn id="4" name="D/E Ratio" dataDxfId="75" dataCellStyle="Normal 3"/>
-    <tableColumn id="5" name="Tax rate" dataDxfId="74" dataCellStyle="Normal 3"/>
-    <tableColumn id="6" name="Unlevered beta" dataDxfId="73" dataCellStyle="Normal 3"/>
-    <tableColumn id="7" name="Cash/Firm value" dataDxfId="72" dataCellStyle="Normal 3"/>
-    <tableColumn id="8" name="Unlevered beta corrected for cash" dataDxfId="71" dataCellStyle="Normal 3"/>
+    <tableColumn id="1" name="Industry Name" dataDxfId="96" dataCellStyle="Normal 3"/>
+    <tableColumn id="2" name="Number of firms" dataDxfId="95" dataCellStyle="Normal 3"/>
+    <tableColumn id="3" name="Beta " dataDxfId="94" dataCellStyle="Normal 3"/>
+    <tableColumn id="4" name="D/E Ratio" dataDxfId="93" dataCellStyle="Normal 3"/>
+    <tableColumn id="5" name="Tax rate" dataDxfId="92" dataCellStyle="Normal 3"/>
+    <tableColumn id="6" name="Unlevered beta" dataDxfId="91" dataCellStyle="Normal 3"/>
+    <tableColumn id="7" name="Cash/Firm value" dataDxfId="90" dataCellStyle="Normal 3"/>
+    <tableColumn id="8" name="Unlevered beta corrected for cash" dataDxfId="89" dataCellStyle="Normal 3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="31" name="Industry_Average_India" displayName="Industry_Average_India" ref="B504:I592" totalsRowShown="0" headerRowDxfId="70" dataDxfId="68" headerRowBorderDxfId="69" tableBorderDxfId="67" totalsRowBorderDxfId="66" headerRowCellStyle="Normal 3" dataCellStyle="Normal 3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="31" name="Industry_Average_India" displayName="Industry_Average_India" ref="B504:I592" totalsRowShown="0" headerRowDxfId="88" dataDxfId="86" headerRowBorderDxfId="87" tableBorderDxfId="85" totalsRowBorderDxfId="84" headerRowCellStyle="Normal 3" dataCellStyle="Normal 3">
   <autoFilter ref="B504:I592"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="Industry Name" dataDxfId="65" dataCellStyle="Normal 3"/>
-    <tableColumn id="2" name="Number of firms" dataDxfId="64" dataCellStyle="Normal 3"/>
-    <tableColumn id="3" name="Beta " dataDxfId="63" dataCellStyle="Normal 3"/>
-    <tableColumn id="4" name="D/E Ratio" dataDxfId="62" dataCellStyle="Normal 3"/>
-    <tableColumn id="5" name="Tax rate" dataDxfId="61" dataCellStyle="Normal 3"/>
-    <tableColumn id="6" name="Unlevered beta" dataDxfId="60" dataCellStyle="Normal 3"/>
-    <tableColumn id="7" name="Cash/Firm value" dataDxfId="59" dataCellStyle="Normal 3"/>
-    <tableColumn id="8" name="Unlevered beta corrected for cash" dataDxfId="58" dataCellStyle="Normal 3"/>
+    <tableColumn id="1" name="Industry Name" dataDxfId="83" dataCellStyle="Normal 3"/>
+    <tableColumn id="2" name="Number of firms" dataDxfId="82" dataCellStyle="Normal 3"/>
+    <tableColumn id="3" name="Beta " dataDxfId="81" dataCellStyle="Normal 3"/>
+    <tableColumn id="4" name="D/E Ratio" dataDxfId="80" dataCellStyle="Normal 3"/>
+    <tableColumn id="5" name="Tax rate" dataDxfId="79" dataCellStyle="Normal 3"/>
+    <tableColumn id="6" name="Unlevered beta" dataDxfId="78" dataCellStyle="Normal 3"/>
+    <tableColumn id="7" name="Cash/Firm value" dataDxfId="77" dataCellStyle="Normal 3"/>
+    <tableColumn id="8" name="Unlevered beta corrected for cash" dataDxfId="76" dataCellStyle="Normal 3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6012,11 +6976,11 @@
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="EV_Sales_China" displayName="EV_Sales_China" ref="F596:H693" totalsRowShown="0" headerRowDxfId="57" tableBorderDxfId="56">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="EV_Sales_China" displayName="EV_Sales_China" ref="F596:H693" totalsRowShown="0" headerRowDxfId="75" tableBorderDxfId="74">
   <autoFilter ref="F596:H693"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Industry"/>
-    <tableColumn id="2" name="Average EV/Sales" dataDxfId="55">
+    <tableColumn id="2" name="Average EV/Sales" dataDxfId="73">
       <calculatedColumnFormula array="1">AVERAGEIF([1]!Company_Data_China[Industry Group],F597,[1]!Company_Data_China[EV/Sales])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" name="Median EV/Sales">
@@ -6028,11 +6992,11 @@
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="EV_Sales_Europe" displayName="EV_Sales_Europe" ref="J596:L693" totalsRowShown="0" headerRowDxfId="54" tableBorderDxfId="53">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="EV_Sales_Europe" displayName="EV_Sales_Europe" ref="J596:L693" totalsRowShown="0" headerRowDxfId="72" tableBorderDxfId="71">
   <autoFilter ref="J596:L693"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Industry"/>
-    <tableColumn id="2" name="Average EV/Sales" dataDxfId="52">
+    <tableColumn id="2" name="Average EV/Sales" dataDxfId="70">
       <calculatedColumnFormula>AVERAGEIF([2]!Company_Data_Europe[Industry Group],J597,[2]!Company_Data_Europe[EV/Sales])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" name="Median EV/Sales">
@@ -6044,11 +7008,11 @@
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="EV_Sales_India" displayName="EV_Sales_India" ref="N596:P693" totalsRowShown="0" headerRowDxfId="51" tableBorderDxfId="50">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="EV_Sales_India" displayName="EV_Sales_India" ref="N596:P693" totalsRowShown="0" headerRowDxfId="69" tableBorderDxfId="68">
   <autoFilter ref="N596:P693"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Industry"/>
-    <tableColumn id="2" name="Average EV/Sales" dataDxfId="49">
+    <tableColumn id="2" name="Average EV/Sales" dataDxfId="67">
       <calculatedColumnFormula>AVERAGEIF([3]!Company_Data_India[Industry Group],N597,[3]!Company_Data_India[EV/Sales])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" name="Median EV/Sales">
@@ -6060,12 +7024,12 @@
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Rating_to_spread_Moody" displayName="Rating_to_spread_Moody" ref="AC7:AE26" totalsRowShown="0" headerRowDxfId="48" dataDxfId="47">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Rating_to_spread_Moody" displayName="Rating_to_spread_Moody" ref="AC7:AE26" totalsRowShown="0" headerRowDxfId="66" dataDxfId="65">
   <autoFilter ref="AC7:AE26"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Rating" dataDxfId="46"/>
-    <tableColumn id="2" name="Default spread in basis points" dataDxfId="45"/>
-    <tableColumn id="3" name="%" dataDxfId="44" dataCellStyle="Procent">
+    <tableColumn id="1" name="Rating" dataDxfId="64"/>
+    <tableColumn id="2" name="Default spread in basis points" dataDxfId="63"/>
+    <tableColumn id="3" name="%" dataDxfId="62" dataCellStyle="Procent">
       <calculatedColumnFormula>Rating_to_spread_Moody[[#This Row],[Default spread in basis points]]/10000</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6074,66 +7038,66 @@
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Country_Data" displayName="Country_Data" ref="B7:X136" totalsRowShown="0" headerRowDxfId="43">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Country_Data" displayName="Country_Data" ref="B7:X136" totalsRowShown="0" headerRowDxfId="61">
   <autoFilter ref="B7:X136"/>
   <tableColumns count="23">
-    <tableColumn id="1" name="Entity" dataDxfId="42"/>
-    <tableColumn id="15" name="Region" dataDxfId="41"/>
-    <tableColumn id="25" name="Country risk premium [rating spread]" dataDxfId="40" dataCellStyle="Procent">
+    <tableColumn id="1" name="Entity" dataDxfId="60"/>
+    <tableColumn id="15" name="Region" dataDxfId="59"/>
+    <tableColumn id="25" name="Country risk premium [rating spread]" dataDxfId="58" dataCellStyle="Procent">
       <calculatedColumnFormula>IFERROR(Country_Data[[#This Row],[StD of equity market]]/Country_Data[[#This Row],[StD for bond]]*VLOOKUP(Country_Data[[#This Row],[Moody''s]],Rating_to_spread_Moody[],3,FALSE),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Country risk premium [dollar bonds]" dataDxfId="39">
+    <tableColumn id="8" name="Country risk premium [dollar bonds]" dataDxfId="57">
       <calculatedColumnFormula>IF(Country_Data[[#This Row],[10 year $ yield]]="","",IFERROR(Country_Data[[#This Row],[Default spread on $ bonds]]*Country_Data[[#This Row],[StD of equity market]]/Country_Data[[#This Row],[StD for bond]],"Error"))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="Adjusted_x000a_currency [10 year]" dataDxfId="38">
+    <tableColumn id="12" name="Adjusted_x000a_currency [10 year]" dataDxfId="56">
       <calculatedColumnFormula>IFERROR(Country_Data[[#This Row],[10 year yield]]-VLOOKUP(Country_Data[[#This Row],[Moody''s local]],Rating_to_spread_Moody[],3,FALSE),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Alternate_x000a_ currency" dataDxfId="37"/>
-    <tableColumn id="2" name="S&amp;P" dataDxfId="36">
+    <tableColumn id="7" name="Alternate_x000a_ currency" dataDxfId="55"/>
+    <tableColumn id="2" name="S&amp;P" dataDxfId="54">
       <calculatedColumnFormula>IFERROR(VLOOKUP(Country_Data[[#This Row],[Entity]],Ratings_Raw_SP[],2,FALSE),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Fitch" dataDxfId="35">
+    <tableColumn id="3" name="Fitch" dataDxfId="53">
       <calculatedColumnFormula>IFERROR(VLOOKUP(Country_Data[[#This Row],[Entity]],Ratings_Raw_Fitch[],2,FALSE),"-")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Moody's" dataDxfId="34">
+    <tableColumn id="4" name="Moody's" dataDxfId="52">
       <calculatedColumnFormula>IFERROR(VLOOKUP(Country_Data[[#This Row],[Entity]],Ratings_Raw_Moodys[],2,FALSE),"-")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" name="Moody's local"/>
-    <tableColumn id="13" name=" S&amp;P Local" dataDxfId="33"/>
-    <tableColumn id="14" name="S&amp;P Foreign" dataDxfId="32"/>
-    <tableColumn id="17" name="1 year yield" dataDxfId="31" dataCellStyle="Procent"/>
-    <tableColumn id="20" name="2 year yield" dataDxfId="30" dataCellStyle="Procent"/>
-    <tableColumn id="18" name="5 year yield" dataDxfId="29" dataCellStyle="Procent"/>
-    <tableColumn id="19" name="10 year yield" dataDxfId="28" dataCellStyle="Procent"/>
-    <tableColumn id="21" name="15 year yield" dataDxfId="27" dataCellStyle="Procent"/>
-    <tableColumn id="22" name="20 year yield" dataDxfId="26" dataCellStyle="Procent"/>
-    <tableColumn id="23" name="30 year yield" dataDxfId="25" dataCellStyle="Procent"/>
-    <tableColumn id="24" name="10 year $ yield" dataDxfId="24" dataCellStyle="Procent"/>
-    <tableColumn id="11" name="Default spread on $ bonds" dataDxfId="23" dataCellStyle="Procent">
+    <tableColumn id="13" name=" S&amp;P Local" dataDxfId="51"/>
+    <tableColumn id="14" name="S&amp;P Foreign" dataDxfId="50"/>
+    <tableColumn id="17" name="1 year yield" dataDxfId="49" dataCellStyle="Procent"/>
+    <tableColumn id="20" name="2 year yield" dataDxfId="48" dataCellStyle="Procent"/>
+    <tableColumn id="18" name="5 year yield" dataDxfId="47" dataCellStyle="Procent"/>
+    <tableColumn id="19" name="10 year yield" dataDxfId="46" dataCellStyle="Procent"/>
+    <tableColumn id="21" name="15 year yield" dataDxfId="45" dataCellStyle="Procent"/>
+    <tableColumn id="22" name="20 year yield" dataDxfId="44" dataCellStyle="Procent"/>
+    <tableColumn id="23" name="30 year yield" dataDxfId="43" dataCellStyle="Procent"/>
+    <tableColumn id="24" name="10 year $ yield" dataDxfId="42" dataCellStyle="Procent"/>
+    <tableColumn id="11" name="Default spread on $ bonds" dataDxfId="41" dataCellStyle="Procent">
       <calculatedColumnFormula>IF(Country_Data[[#This Row],[10 year $ yield]]="","",Country_Data[[#This Row],[10 year $ yield]]-VLOOKUP("United States",Country_Data[],15,FALSE))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="StD for bond" dataDxfId="22"/>
-    <tableColumn id="6" name="StD of equity market" dataDxfId="21"/>
+    <tableColumn id="5" name="StD for bond" dataDxfId="40"/>
+    <tableColumn id="6" name="StD of equity market" dataDxfId="39"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Region_Data" displayName="Region_Data" ref="B139:G149" totalsRowShown="0" headerRowDxfId="20" headerRowBorderDxfId="19" tableBorderDxfId="18" totalsRowBorderDxfId="17" headerRowCellStyle="Normal 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Region_Data" displayName="Region_Data" ref="B139:G149" totalsRowShown="0" headerRowDxfId="38" headerRowBorderDxfId="37" tableBorderDxfId="36" totalsRowBorderDxfId="35" headerRowCellStyle="Normal 2">
   <autoFilter ref="B139:G149"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Region" dataDxfId="16" dataCellStyle="Normal 2"/>
-    <tableColumn id="5" name="Country risk premium [rating spread]" dataDxfId="15" dataCellStyle="Procent">
+    <tableColumn id="1" name="Region" dataDxfId="34" dataCellStyle="Normal 2"/>
+    <tableColumn id="5" name="Country risk premium [rating spread]" dataDxfId="33" dataCellStyle="Procent">
       <calculatedColumnFormula>SUMIF(Country_Data[Region],Region_Data[[#This Row],[Region]],Country_Data[Country risk premium '[rating spread']])/COUNTIF(Country_Data[Region],Region_Data[[#This Row],[Region]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Adjusted_x000a_currency [10 year]" dataDxfId="14" dataCellStyle="Procent">
+    <tableColumn id="6" name="Adjusted_x000a_currency [10 year]" dataDxfId="32" dataCellStyle="Procent">
       <calculatedColumnFormula>SUMIF(Country_Data[Region],Region_Data[[#This Row],[Region]],Country_Data[Adjusted
 currency '[10 year']])/COUNTIF(Country_Data[Region],Region_Data[[#This Row],[Region]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Weighted Average: Default Spreads" dataDxfId="13" dataCellStyle="Normal 2"/>
-    <tableColumn id="3" name="Weighted Average: TRP" dataDxfId="12" dataCellStyle="Normal 2"/>
-    <tableColumn id="4" name="Weighted Average: CRP" dataDxfId="11" dataCellStyle="Normal 2"/>
+    <tableColumn id="2" name="Weighted Average: Default Spreads" dataDxfId="31" dataCellStyle="Normal 2"/>
+    <tableColumn id="3" name="Weighted Average: TRP" dataDxfId="30" dataCellStyle="Normal 2"/>
+    <tableColumn id="4" name="Weighted Average: CRP" dataDxfId="29" dataCellStyle="Normal 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6143,29 +7107,48 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Tabell8" displayName="Tabell8" ref="AG7:AL24" totalsRowShown="0">
   <autoFilter ref="AG7:AL24"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Rating [Moody]" dataDxfId="10"/>
+    <tableColumn id="1" name="Rating [Moody]" dataDxfId="28"/>
     <tableColumn id="2" name="Rating []"/>
-    <tableColumn id="3" name="1 year" dataDxfId="9" dataCellStyle="Procent"/>
-    <tableColumn id="4" name="5 year" dataDxfId="8" dataCellStyle="Procent"/>
-    <tableColumn id="5" name="10 year" dataDxfId="7" dataCellStyle="Procent"/>
-    <tableColumn id="6" name="30 year" dataDxfId="6" dataCellStyle="Procent"/>
+    <tableColumn id="3" name="1 year" dataDxfId="27" dataCellStyle="Procent"/>
+    <tableColumn id="4" name="5 year" dataDxfId="26" dataCellStyle="Procent"/>
+    <tableColumn id="5" name="10 year" dataDxfId="25" dataCellStyle="Procent"/>
+    <tableColumn id="6" name="30 year" dataDxfId="24" dataCellStyle="Procent"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="23" name="Company_Operations_Region" displayName="Company_Operations_Region" ref="C35:D45" totalsRowShown="0" headerRowCellStyle="Normal" dataCellStyle="Normal">
-  <autoFilter ref="C35:D45"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="23" name="Company_Operations_Region" displayName="Company_Operations_Region" ref="C29:D39" totalsRowShown="0" headerRowCellStyle="Normal" dataCellStyle="Normal">
+  <autoFilter ref="C29:D39"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Region" dataCellStyle="Normal"/>
-    <tableColumn id="2" name="Percentage" dataDxfId="159" dataCellStyle="Indata"/>
+    <tableColumn id="2" name="Percentage" dataDxfId="177" dataCellStyle="Indata"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Tabell18" displayName="Tabell18" ref="B151:K296" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13" headerRowBorderDxfId="11" tableBorderDxfId="12" totalsRowBorderDxfId="10" headerRowCellStyle="Normal 3" dataCellStyle="Procent 3">
+  <autoFilter ref="B151:K296"/>
+  <tableColumns count="10">
+    <tableColumn id="1" name="Location" dataDxfId="9" dataCellStyle="Normal 3"/>
+    <tableColumn id="2" name="2006" dataDxfId="8" dataCellStyle="Procent 3"/>
+    <tableColumn id="3" name="2007" dataDxfId="7" dataCellStyle="Procent 3"/>
+    <tableColumn id="4" name="2008" dataDxfId="6" dataCellStyle="Procent 3"/>
+    <tableColumn id="5" name="2009" dataDxfId="5" dataCellStyle="Procent 3"/>
+    <tableColumn id="6" name="2010" dataDxfId="4" dataCellStyle="Procent 3"/>
+    <tableColumn id="7" name="2011" dataDxfId="3" dataCellStyle="Procent 3"/>
+    <tableColumn id="8" name="2012" dataDxfId="2" dataCellStyle="Procent 3"/>
+    <tableColumn id="9" name="2013" dataDxfId="1" dataCellStyle="Procent 3"/>
+    <tableColumn id="10" name="2014" dataDxfId="0" dataCellStyle="Procent 3"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Ratings_Raw_SP" displayName="Ratings_Raw_SP" ref="B8:D137" totalsRowShown="0">
   <autoFilter ref="B8:D137"/>
   <sortState ref="B9:D137">
@@ -6174,13 +7157,13 @@
   <tableColumns count="3">
     <tableColumn id="1" name="Entity"/>
     <tableColumn id="2" name="Rating"/>
-    <tableColumn id="3" name="Data from" dataDxfId="5"/>
+    <tableColumn id="3" name="Data from" dataDxfId="23"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Ratings_Raw_Fitch" displayName="Ratings_Raw_Fitch" ref="F8:H112" totalsRowShown="0">
   <autoFilter ref="F8:H112"/>
   <sortState ref="G9:I112">
@@ -6189,13 +7172,13 @@
   <tableColumns count="3">
     <tableColumn id="1" name="Entity"/>
     <tableColumn id="2" name="Rating"/>
-    <tableColumn id="3" name="Data from" dataDxfId="4"/>
+    <tableColumn id="3" name="Data from" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Ratings_Raw_Moodys" displayName="Ratings_Raw_Moodys" ref="J8:L122" totalsRowShown="0">
   <autoFilter ref="J8:L122"/>
   <sortState ref="K9:M122">
@@ -6204,13 +7187,13 @@
   <tableColumns count="3">
     <tableColumn id="1" name="Entity"/>
     <tableColumn id="2" name="Rating"/>
-    <tableColumn id="3" name="Date" dataDxfId="3"/>
+    <tableColumn id="3" name="Date" dataDxfId="21"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="37" name="Rating_Large_Firms" displayName="Rating_Large_Firms" ref="B142:F157" totalsRowShown="0">
   <autoFilter ref="B142:F157"/>
   <tableColumns count="5">
@@ -6218,13 +7201,13 @@
     <tableColumn id="2" name="&lt;= to"/>
     <tableColumn id="3" name="Rating [S&amp;P] is"/>
     <tableColumn id="5" name="Rating [Moody's] is"/>
-    <tableColumn id="4" name="Spread is" dataDxfId="2" dataCellStyle="Procent"/>
+    <tableColumn id="4" name="Spread is" dataDxfId="20" dataCellStyle="Procent"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="38" name="Rating_Small_Firms" displayName="Rating_Small_Firms" ref="H142:L157" totalsRowShown="0">
   <autoFilter ref="H142:L157"/>
   <tableColumns count="5">
@@ -6232,13 +7215,13 @@
     <tableColumn id="2" name="&lt;= to"/>
     <tableColumn id="3" name="Rating [S&amp;P] is"/>
     <tableColumn id="5" name="Rating [Moody's] is"/>
-    <tableColumn id="4" name="Spread is" dataDxfId="1" dataCellStyle="Procent"/>
+    <tableColumn id="4" name="Spread is" dataDxfId="19" dataCellStyle="Procent"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Rating_Financial_Firms" displayName="Rating_Financial_Firms" ref="N142:Q157" totalsRowShown="0" headerRowCellStyle="Normal" dataCellStyle="Normal">
   <autoFilter ref="N142:Q157"/>
   <sortState ref="N143:Q157">
@@ -6254,7 +7237,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table27.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Regions" displayName="Regions" ref="B7:C17" totalsRowShown="0">
   <autoFilter ref="B7:C17"/>
   <sortState ref="B8:B17">
@@ -6268,7 +7251,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table28.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="User_answers" displayName="User_answers" ref="E7:E9" totalsRowShown="0">
   <autoFilter ref="E7:E9"/>
   <tableColumns count="1">
@@ -6278,7 +7261,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table29.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Confidence_Intervals" displayName="Confidence_Intervals" ref="E11:E13" totalsRowShown="0" dataCellStyle="Procent">
   <autoFilter ref="E11:E13"/>
   <tableColumns count="1">
@@ -6288,44 +7271,34 @@
 </table>
 </file>
 
-<file path=xl/tables/table29.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Industries" displayName="Industries" ref="G7:G89" totalsRowShown="0" dataCellStyle="Normal 3">
-  <autoFilter ref="G7:G89"/>
-  <tableColumns count="1">
-    <tableColumn id="1" name="Industries" dataDxfId="0" dataCellStyle="Normal 3"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="28" name="Betas_Per_Segment_Region" displayName="Betas_Per_Segment_Region" ref="C75:L83" totalsRowCount="1" tableBorderDxfId="158">
-  <autoFilter ref="C75:L82"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="28" name="Betas_Per_Segment_Region" displayName="Betas_Per_Segment_Region" ref="C69:L77" totalsRowCount="1" tableBorderDxfId="176">
+  <autoFilter ref="C69:L76"/>
   <tableColumns count="10">
-    <tableColumn id="1" name="Segment" totalsRowLabel="Company" dataDxfId="157" totalsRowDxfId="156"/>
-    <tableColumn id="18" name="EV/Sales" dataDxfId="155" dataCellStyle="Beräkning">
+    <tableColumn id="1" name="Segment" totalsRowLabel="Company" dataDxfId="175" totalsRowDxfId="174"/>
+    <tableColumn id="18" name="EV/Sales" dataDxfId="173" dataCellStyle="Beräkning">
       <calculatedColumnFormula>IFERROR(VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],EV_Sales_US[],3,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],3,FALSE)+VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],EV_Sales_China[],3,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],4,FALSE)+VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],EV_Sales_Europe[],3,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],5,FALSE)+VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],EV_Sales_India[],3,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],6,FALSE),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" name="Estimated Value" totalsRowFunction="custom" dataDxfId="154" dataCellStyle="Beräkning">
+    <tableColumn id="19" name="Estimated Value" totalsRowFunction="custom" dataDxfId="172" dataCellStyle="Beräkning">
       <calculatedColumnFormula>IFERROR(Betas_Per_Segment_Region[[#This Row],[EV/Sales]]*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],2,FALSE),"")</calculatedColumnFormula>
       <totalsRowFormula>SUM(Betas_Per_Segment_Region[Estimated Value])</totalsRowFormula>
     </tableColumn>
     <tableColumn id="20" name="Firm Value Proportion" dataCellStyle="Beräkning">
       <calculatedColumnFormula>IFERROR(Betas_Per_Segment_Region[[#This Row],[Estimated Value]]/Betas_Per_Segment_Region[[#Totals],[Estimated Value]],"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="Unlevered beta" totalsRowFunction="custom" dataDxfId="153" totalsRowDxfId="152" dataCellStyle="Utdata">
+    <tableColumn id="15" name="Unlevered beta" totalsRowFunction="custom" dataDxfId="171" totalsRowDxfId="170" dataCellStyle="Utdata">
       <totalsRowFormula>SUM(Betas_Per_Segment_Region[Firm value proportion * Unlevered Beta])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="16" name="Firm value proportion * Unlevered Beta" dataDxfId="151" dataCellStyle="Beräkning">
+    <tableColumn id="16" name="Firm value proportion * Unlevered Beta" dataDxfId="169" dataCellStyle="Beräkning">
       <calculatedColumnFormula>IFERROR(Betas_Per_Segment_Region[[#This Row],[Firm Value Proportion]]*Betas_Per_Segment_Region[[#This Row],[Unlevered beta]],"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" name="Estimated levered beta" totalsRowFunction="custom" dataDxfId="150" totalsRowDxfId="149" dataCellStyle="Utdata">
+    <tableColumn id="17" name="Estimated levered beta" totalsRowFunction="custom" dataDxfId="168" totalsRowDxfId="167" dataCellStyle="Utdata">
       <calculatedColumnFormula>IFERROR(Betas_Per_Segment_Region[[#This Row],[Unlevered beta]]*(1+(1-Company_Tax_Rate)*(Company_Debt/Company_Equity)),"")</calculatedColumnFormula>
       <totalsRowFormula>SUM(Betas_Per_Segment_Region[Firm value proportion * Levered Beta])</totalsRowFormula>
     </tableColumn>
     <tableColumn id="22" name="Estimated levered beta using debt allocation" dataCellStyle="Utdata"/>
     <tableColumn id="23" name="Industry D/E" dataCellStyle="Utdata"/>
-    <tableColumn id="21" name="Firm value proportion * Levered Beta" dataDxfId="148" dataCellStyle="Beräkning">
+    <tableColumn id="21" name="Firm value proportion * Levered Beta" dataDxfId="166" dataCellStyle="Beräkning">
       <calculatedColumnFormula>IFERROR(Betas_Per_Segment_Region[[#This Row],[Firm Value Proportion]]*Betas_Per_Segment_Region[[#This Row],[Estimated levered beta]],"")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6334,6 +7307,16 @@
 </file>
 
 <file path=xl/tables/table30.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Industries" displayName="Industries" ref="G7:G89" totalsRowShown="0" dataCellStyle="Normal 3">
+  <autoFilter ref="G7:G89"/>
+  <tableColumns count="1">
+    <tableColumn id="1" name="Industries" dataDxfId="18" dataCellStyle="Normal 3"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table31.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="24" name="Industry_TableConverter" displayName="Industry_TableConverter" ref="B19:D25" totalsRowShown="0" dataCellStyle="Normal">
   <autoFilter ref="B19:D25"/>
   <tableColumns count="3">
@@ -6345,7 +7328,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table32.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Company_Types" displayName="Company_Types" ref="I7:J10" totalsRowShown="0">
   <autoFilter ref="I7:J10"/>
   <tableColumns count="2">
@@ -6356,18 +7339,28 @@
 </table>
 </file>
 
+<file path=xl/tables/table33.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Locations" displayName="Locations" ref="I12:I157" totalsRowShown="0" dataDxfId="15" tableBorderDxfId="17" dataCellStyle="Normal 3">
+  <autoFilter ref="I12:I157"/>
+  <tableColumns count="1">
+    <tableColumn id="1" name="Location" dataDxfId="16" dataCellStyle="Normal 3"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="33" name="Operations_Per_Segment_Region" displayName="Operations_Per_Segment_Region" ref="C50:J58" totalsRowShown="0" tableBorderDxfId="147">
-  <autoFilter ref="C50:J58"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="33" name="Operations_Per_Segment_Region" displayName="Operations_Per_Segment_Region" ref="C44:J52" totalsRowShown="0" tableBorderDxfId="165">
+  <autoFilter ref="C44:J52"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="Segment" dataDxfId="146" dataCellStyle="Indata"/>
-    <tableColumn id="2" name="Revenue" dataDxfId="145" dataCellStyle="Indata"/>
+    <tableColumn id="1" name="Segment" dataDxfId="164" dataCellStyle="Indata"/>
+    <tableColumn id="2" name="Revenue" dataDxfId="163" dataCellStyle="Indata"/>
     <tableColumn id="3" name="US"/>
     <tableColumn id="4" name="China"/>
     <tableColumn id="5" name="Europe"/>
     <tableColumn id="6" name="India"/>
     <tableColumn id="7" name="Emerging markets"/>
-    <tableColumn id="8" name="Control" dataDxfId="144">
+    <tableColumn id="8" name="Control" dataDxfId="162">
       <calculatedColumnFormula>SUM(Operations_Per_Segment_Region[[#This Row],[US]:[Emerging markets]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6376,20 +7369,20 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabell5" displayName="Tabell5" ref="B12:H16" totalsRowShown="0" headerRowDxfId="143" dataDxfId="142" dataCellStyle="Procent">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabell5" displayName="Tabell5" ref="B12:H16" totalsRowShown="0" headerRowDxfId="161" dataDxfId="160" dataCellStyle="Procent">
   <autoFilter ref="B12:H16"/>
   <tableColumns count="7">
     <tableColumn id="1" name="Risk premium"/>
-    <tableColumn id="2" name="Risk free rate" dataDxfId="141"/>
-    <tableColumn id="3" name="Risk premium value" dataDxfId="140" dataCellStyle="Procent"/>
-    <tableColumn id="4" name="Risk free rate value" dataDxfId="139" dataCellStyle="Procent"/>
-    <tableColumn id="5" name="Hurdle rate" dataDxfId="138" dataCellStyle="Procent">
+    <tableColumn id="2" name="Risk free rate" dataDxfId="159"/>
+    <tableColumn id="3" name="Risk premium value" dataDxfId="158" dataCellStyle="Procent"/>
+    <tableColumn id="4" name="Risk free rate value" dataDxfId="157" dataCellStyle="Procent"/>
+    <tableColumn id="5" name="Hurdle rate" dataDxfId="156" dataCellStyle="Procent">
       <calculatedColumnFormula>IFERROR(Tabell5[[#This Row],[Risk free rate value]]+Tabell5[[#This Row],[Risk premium value]]*Beta_Value,"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Lower bound" dataDxfId="137" dataCellStyle="Procent">
+    <tableColumn id="6" name="Lower bound" dataDxfId="155" dataCellStyle="Procent">
       <calculatedColumnFormula>IF(Tabell5[[#This Row],[Hurdle rate]]="","",Tabell5[[#This Row],[Hurdle rate]]-IF(Confidence_interval=0.67,Beta_Standard_Error*Tabell5[[#This Row],[Risk premium value]],2*Beta_Standard_Error*Tabell5[[#This Row],[Risk premium value]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Upper bound" dataDxfId="136" dataCellStyle="Procent">
+    <tableColumn id="7" name="Upper bound" dataDxfId="154" dataCellStyle="Procent">
       <calculatedColumnFormula>IF(Tabell5[[#This Row],[Hurdle rate]]="","",Tabell5[[#This Row],[Hurdle rate]]+IF(Confidence_interval=0.67,Beta_Standard_Error*Tabell5[[#This Row],[Risk premium value]],2*Beta_Standard_Error*Tabell5[[#This Row],[Risk premium value]]))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6398,74 +7391,74 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="25" name="Industry_Average_Global" displayName="Industry_Average_Global" ref="B9:I106" totalsRowShown="0" headerRowDxfId="135" dataDxfId="133" headerRowBorderDxfId="134" tableBorderDxfId="132" totalsRowBorderDxfId="131" headerRowCellStyle="Normal 3" dataCellStyle="Normal 3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="25" name="Industry_Average_Global" displayName="Industry_Average_Global" ref="B9:I106" totalsRowShown="0" headerRowDxfId="153" dataDxfId="151" headerRowBorderDxfId="152" tableBorderDxfId="150" totalsRowBorderDxfId="149" headerRowCellStyle="Normal 3" dataCellStyle="Normal 3">
   <autoFilter ref="B9:I106"/>
   <sortState ref="B10:I106">
     <sortCondition ref="B9:B106"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" name="Industry Name" dataDxfId="130" dataCellStyle="Normal 3"/>
-    <tableColumn id="2" name="Number of firms" dataDxfId="129" dataCellStyle="Normal 3"/>
-    <tableColumn id="3" name="Beta " dataDxfId="128" dataCellStyle="Normal 3"/>
-    <tableColumn id="4" name="D/E Ratio" dataDxfId="127" dataCellStyle="Normal 3"/>
-    <tableColumn id="5" name="Tax rate" dataDxfId="126" dataCellStyle="Normal 3"/>
-    <tableColumn id="6" name="Unlevered beta" dataDxfId="125" dataCellStyle="Normal 3"/>
-    <tableColumn id="7" name="Cash/Firm value" dataDxfId="124" dataCellStyle="Normal 3"/>
-    <tableColumn id="8" name="Unlevered beta corrected for cash" dataDxfId="123" dataCellStyle="Normal 3"/>
+    <tableColumn id="1" name="Industry Name" dataDxfId="148" dataCellStyle="Normal 3"/>
+    <tableColumn id="2" name="Number of firms" dataDxfId="147" dataCellStyle="Normal 3"/>
+    <tableColumn id="3" name="Beta " dataDxfId="146" dataCellStyle="Normal 3"/>
+    <tableColumn id="4" name="D/E Ratio" dataDxfId="145" dataCellStyle="Normal 3"/>
+    <tableColumn id="5" name="Tax rate" dataDxfId="144" dataCellStyle="Normal 3"/>
+    <tableColumn id="6" name="Unlevered beta" dataDxfId="143" dataCellStyle="Normal 3"/>
+    <tableColumn id="7" name="Cash/Firm value" dataDxfId="142" dataCellStyle="Normal 3"/>
+    <tableColumn id="8" name="Unlevered beta corrected for cash" dataDxfId="141" dataCellStyle="Normal 3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="26" name="Industry_Average_US" displayName="Industry_Average_US" ref="B109:I206" totalsRowShown="0" headerRowDxfId="122" dataDxfId="120" headerRowBorderDxfId="121" tableBorderDxfId="119" totalsRowBorderDxfId="118" headerRowCellStyle="Normal 3" dataCellStyle="Normal 3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="26" name="Industry_Average_US" displayName="Industry_Average_US" ref="B109:I206" totalsRowShown="0" headerRowDxfId="140" dataDxfId="138" headerRowBorderDxfId="139" tableBorderDxfId="137" totalsRowBorderDxfId="136" headerRowCellStyle="Normal 3" dataCellStyle="Normal 3">
   <autoFilter ref="B109:I206"/>
   <sortState ref="B110:I206">
     <sortCondition ref="B109:B206"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" name="Industry Name" dataDxfId="117" dataCellStyle="Normal 3"/>
-    <tableColumn id="2" name="Number of firms" dataDxfId="116" dataCellStyle="Normal 3"/>
-    <tableColumn id="3" name="Beta " dataDxfId="115" dataCellStyle="Normal 3"/>
-    <tableColumn id="4" name="D/E Ratio" dataDxfId="114" dataCellStyle="Normal 3"/>
-    <tableColumn id="5" name="Tax rate" dataDxfId="113" dataCellStyle="Normal 3"/>
-    <tableColumn id="6" name="Unlevered beta" dataDxfId="112" dataCellStyle="Normal 3"/>
-    <tableColumn id="7" name="Cash/Firm value" dataDxfId="111" dataCellStyle="Normal 3"/>
-    <tableColumn id="8" name="Unlevered beta corrected for cash" dataDxfId="110" dataCellStyle="Normal 3"/>
+    <tableColumn id="1" name="Industry Name" dataDxfId="135" dataCellStyle="Normal 3"/>
+    <tableColumn id="2" name="Number of firms" dataDxfId="134" dataCellStyle="Normal 3"/>
+    <tableColumn id="3" name="Beta " dataDxfId="133" dataCellStyle="Normal 3"/>
+    <tableColumn id="4" name="D/E Ratio" dataDxfId="132" dataCellStyle="Normal 3"/>
+    <tableColumn id="5" name="Tax rate" dataDxfId="131" dataCellStyle="Normal 3"/>
+    <tableColumn id="6" name="Unlevered beta" dataDxfId="130" dataCellStyle="Normal 3"/>
+    <tableColumn id="7" name="Cash/Firm value" dataDxfId="129" dataCellStyle="Normal 3"/>
+    <tableColumn id="8" name="Unlevered beta corrected for cash" dataDxfId="128" dataCellStyle="Normal 3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="27" name="Industry_Average_Europe" displayName="Industry_Average_Europe" ref="B209:I305" totalsRowShown="0" headerRowDxfId="109" dataDxfId="107" headerRowBorderDxfId="108" tableBorderDxfId="106" totalsRowBorderDxfId="105" headerRowCellStyle="Normal 3" dataCellStyle="Normal 3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="27" name="Industry_Average_Europe" displayName="Industry_Average_Europe" ref="B209:I305" totalsRowShown="0" headerRowDxfId="127" dataDxfId="125" headerRowBorderDxfId="126" tableBorderDxfId="124" totalsRowBorderDxfId="123" headerRowCellStyle="Normal 3" dataCellStyle="Normal 3">
   <autoFilter ref="B209:I305"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="Industry Name" dataDxfId="104" dataCellStyle="Normal 3"/>
-    <tableColumn id="2" name="Number of firms" dataDxfId="103" dataCellStyle="Normal 3"/>
-    <tableColumn id="3" name="Beta " dataDxfId="102" dataCellStyle="Normal 3"/>
-    <tableColumn id="4" name="D/E Ratio" dataDxfId="101" dataCellStyle="Normal 3"/>
-    <tableColumn id="5" name="Tax rate" dataDxfId="100" dataCellStyle="Normal 3"/>
-    <tableColumn id="6" name="Unlevered beta" dataDxfId="99" dataCellStyle="Normal 3"/>
-    <tableColumn id="7" name="Cash/Firm value" dataDxfId="98" dataCellStyle="Normal 3"/>
-    <tableColumn id="8" name="Unlevered beta corrected for cash" dataDxfId="97" dataCellStyle="Normal 3"/>
+    <tableColumn id="1" name="Industry Name" dataDxfId="122" dataCellStyle="Normal 3"/>
+    <tableColumn id="2" name="Number of firms" dataDxfId="121" dataCellStyle="Normal 3"/>
+    <tableColumn id="3" name="Beta " dataDxfId="120" dataCellStyle="Normal 3"/>
+    <tableColumn id="4" name="D/E Ratio" dataDxfId="119" dataCellStyle="Normal 3"/>
+    <tableColumn id="5" name="Tax rate" dataDxfId="118" dataCellStyle="Normal 3"/>
+    <tableColumn id="6" name="Unlevered beta" dataDxfId="117" dataCellStyle="Normal 3"/>
+    <tableColumn id="7" name="Cash/Firm value" dataDxfId="116" dataCellStyle="Normal 3"/>
+    <tableColumn id="8" name="Unlevered beta corrected for cash" dataDxfId="115" dataCellStyle="Normal 3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="29" name="Industry_Average_EmergingMarkets" displayName="Industry_Average_EmergingMarkets" ref="B308:I404" totalsRowShown="0" headerRowDxfId="96" dataDxfId="94" headerRowBorderDxfId="95" tableBorderDxfId="93" totalsRowBorderDxfId="92" headerRowCellStyle="Normal 3" dataCellStyle="Normal 3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="29" name="Industry_Average_EmergingMarkets" displayName="Industry_Average_EmergingMarkets" ref="B308:I404" totalsRowShown="0" headerRowDxfId="114" dataDxfId="112" headerRowBorderDxfId="113" tableBorderDxfId="111" totalsRowBorderDxfId="110" headerRowCellStyle="Normal 3" dataCellStyle="Normal 3">
   <autoFilter ref="B308:I404"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="Industry Name" dataDxfId="91" dataCellStyle="Normal 3"/>
-    <tableColumn id="2" name="Number of firms" dataDxfId="90" dataCellStyle="Normal 3"/>
-    <tableColumn id="3" name="Beta " dataDxfId="89" dataCellStyle="Normal 3"/>
-    <tableColumn id="4" name="D/E Ratio" dataDxfId="88" dataCellStyle="Normal 3"/>
-    <tableColumn id="5" name="Tax rate" dataDxfId="87" dataCellStyle="Normal 3"/>
-    <tableColumn id="6" name="Unlevered beta" dataDxfId="86" dataCellStyle="Normal 3"/>
-    <tableColumn id="7" name="Cash/Firm value" dataDxfId="85" dataCellStyle="Normal 3"/>
-    <tableColumn id="8" name="Unlevered beta corrected for cash" dataDxfId="84" dataCellStyle="Normal 3"/>
+    <tableColumn id="1" name="Industry Name" dataDxfId="109" dataCellStyle="Normal 3"/>
+    <tableColumn id="2" name="Number of firms" dataDxfId="108" dataCellStyle="Normal 3"/>
+    <tableColumn id="3" name="Beta " dataDxfId="107" dataCellStyle="Normal 3"/>
+    <tableColumn id="4" name="D/E Ratio" dataDxfId="106" dataCellStyle="Normal 3"/>
+    <tableColumn id="5" name="Tax rate" dataDxfId="105" dataCellStyle="Normal 3"/>
+    <tableColumn id="6" name="Unlevered beta" dataDxfId="104" dataCellStyle="Normal 3"/>
+    <tableColumn id="7" name="Cash/Firm value" dataDxfId="103" dataCellStyle="Normal 3"/>
+    <tableColumn id="8" name="Unlevered beta corrected for cash" dataDxfId="102" dataCellStyle="Normal 3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6990,10 +7983,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:X137"/>
+  <dimension ref="B1:X131"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView showGridLines="0" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7066,1065 +8059,1270 @@
       <c r="F8" s="48" t="s">
         <v>521</v>
       </c>
+      <c r="G8" s="132"/>
     </row>
     <row r="10" spans="2:15">
-      <c r="B10" t="s">
+      <c r="C10" s="191" t="s">
+        <v>528</v>
+      </c>
+      <c r="D10" s="48" t="s">
+        <v>533</v>
+      </c>
+      <c r="E10" s="136" t="s">
+        <v>680</v>
+      </c>
+      <c r="F10" s="134">
+        <f>VLOOKUP(Company_Country,Tabell18[],8,TRUE)</f>
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15">
+      <c r="B13" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="11" spans="2:15">
-      <c r="C11" s="132" t="s">
+    <row r="14" spans="2:15">
+      <c r="C14" s="132" t="s">
         <v>450</v>
       </c>
-      <c r="D11" s="48">
+      <c r="D14" s="48">
         <v>7500</v>
       </c>
     </row>
-    <row r="12" spans="2:15">
-      <c r="C12" s="163" t="s">
+    <row r="15" spans="2:15">
+      <c r="C15" s="163" t="s">
         <v>451</v>
       </c>
-      <c r="D12" s="48">
+      <c r="D15" s="48">
         <v>10000</v>
       </c>
-      <c r="E12" s="136" t="s">
+      <c r="E15" s="136" t="s">
         <v>453</v>
       </c>
-      <c r="F12" s="137">
+      <c r="F15" s="137">
         <f>Company_Debt/Company_Equity</f>
         <v>0.75</v>
       </c>
     </row>
-    <row r="13" spans="2:15">
-      <c r="E13" s="136"/>
-    </row>
-    <row r="14" spans="2:15">
-      <c r="E14" s="136"/>
-    </row>
-    <row r="15" spans="2:15">
-      <c r="B15" s="136"/>
-      <c r="C15" s="163" t="s">
+    <row r="16" spans="2:15">
+      <c r="E16" s="136"/>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="E17" s="136"/>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18" s="136"/>
+      <c r="C18" s="163" t="s">
         <v>502</v>
       </c>
-      <c r="D15" s="48">
+      <c r="D18" s="48">
         <v>10000000000</v>
       </c>
-      <c r="E15" s="136"/>
-      <c r="F15" s="136"/>
-    </row>
-    <row r="16" spans="2:15">
-      <c r="B16" s="136"/>
-      <c r="C16" s="132" t="s">
+      <c r="E18" s="136"/>
+      <c r="F18" s="136"/>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19" s="136"/>
+      <c r="C19" s="132" t="s">
         <v>498</v>
       </c>
-      <c r="D16" s="162">
+      <c r="D19" s="162">
         <v>1000</v>
       </c>
-      <c r="E16" s="136"/>
-      <c r="F16" s="136"/>
-    </row>
-    <row r="17" spans="2:7">
-      <c r="B17" s="136"/>
-      <c r="C17" s="136" t="s">
+      <c r="E19" s="136"/>
+      <c r="F19" s="136"/>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" s="136"/>
+      <c r="C20" s="136" t="s">
         <v>499</v>
       </c>
-      <c r="D17" s="162">
+      <c r="D20" s="162">
         <v>500</v>
       </c>
-      <c r="E17" s="136" t="s">
+      <c r="E20" s="136" t="s">
         <v>500</v>
       </c>
-      <c r="F17" s="154">
+      <c r="F20" s="154">
         <f>IFERROR(Company_EBIT/Company_Interest_Expenses,"")</f>
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="2:7">
-      <c r="B18" s="136"/>
-      <c r="C18" s="132" t="s">
-        <v>43</v>
-      </c>
-      <c r="D18" s="48"/>
-      <c r="E18" s="136" t="s">
-        <v>501</v>
-      </c>
-      <c r="F18" s="166" t="str">
-        <f ca="1">INDEX(INDIRECT(VLOOKUP(Company_Type,Company_Types[],2,FALSE)),MATCH(F17,INDIRECT(CONCATENATE(VLOOKUP(Company_Type,Company_Types[],2,FALSE),"[&lt;= to]")),-1),3)</f>
-        <v>B</v>
-      </c>
-      <c r="G18" s="166" t="str">
-        <f ca="1">INDEX(INDIRECT(VLOOKUP(Company_Type,Company_Types[],2,FALSE)),MATCH(F17,INDIRECT(CONCATENATE(VLOOKUP(Company_Type,Company_Types[],2,FALSE),"[&lt;= to]")),-1),4)</f>
-        <v>B2</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7">
-      <c r="B19" s="136"/>
-      <c r="E19" t="s">
-        <v>514</v>
-      </c>
-      <c r="F19" s="167">
-        <f>IF(Company_Market_Cap&gt;5000000000,INDEX(Rating_Large_Firms[],MATCH(F17,Rating_Large_Firms[&lt;= to],-1),5),INDEX(Rating_Small_Firms[],MATCH(F17,Rating_Small_Firms[&lt;= to],-1),5))</f>
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7">
-      <c r="B20" s="136"/>
-    </row>
     <row r="21" spans="2:7">
       <c r="B21" s="136"/>
+      <c r="C21" s="132" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="48"/>
+      <c r="E21" s="136" t="s">
+        <v>501</v>
+      </c>
+      <c r="F21" s="166" t="str">
+        <f ca="1">INDEX(INDIRECT(VLOOKUP(Company_Type,Company_Types[],2,FALSE)),MATCH(F20,INDIRECT(CONCATENATE(VLOOKUP(Company_Type,Company_Types[],2,FALSE),"[&lt;= to]")),-1),3)</f>
+        <v>B</v>
+      </c>
+      <c r="G21" s="166" t="str">
+        <f ca="1">INDEX(INDIRECT(VLOOKUP(Company_Type,Company_Types[],2,FALSE)),MATCH(F20,INDIRECT(CONCATENATE(VLOOKUP(Company_Type,Company_Types[],2,FALSE),"[&lt;= to]")),-1),4)</f>
+        <v>B2</v>
+      </c>
     </row>
     <row r="22" spans="2:7">
       <c r="B22" s="136"/>
+      <c r="E22" t="s">
+        <v>514</v>
+      </c>
+      <c r="F22" s="167">
+        <f>IF(Company_Market_Cap&gt;5000000000,INDEX(Rating_Large_Firms[],MATCH(F20,Rating_Large_Firms[&lt;= to],-1),5),INDEX(Rating_Small_Firms[],MATCH(F20,Rating_Small_Firms[&lt;= to],-1),5))</f>
+        <v>0.04</v>
+      </c>
     </row>
     <row r="23" spans="2:7">
       <c r="B23" s="136"/>
     </row>
-    <row r="24" spans="2:7">
+    <row r="24" spans="2:7" ht="30">
       <c r="B24" s="136"/>
-    </row>
-    <row r="25" spans="2:7">
+      <c r="C24" s="53" t="s">
+        <v>511</v>
+      </c>
+      <c r="D24" s="162"/>
+    </row>
+    <row r="25" spans="2:7" ht="30">
       <c r="B25" s="136"/>
+      <c r="C25" s="53" t="s">
+        <v>512</v>
+      </c>
+      <c r="D25" s="162"/>
     </row>
     <row r="26" spans="2:7">
       <c r="B26" s="136"/>
+      <c r="C26" s="136" t="s">
+        <v>516</v>
+      </c>
+      <c r="D26" s="48"/>
+      <c r="E26" s="127" t="s">
+        <v>513</v>
+      </c>
+      <c r="F26" s="138">
+        <f>D25+F22</f>
+        <v>0.04</v>
+      </c>
     </row>
     <row r="27" spans="2:7">
-      <c r="B27" s="136"/>
+      <c r="C27" s="132"/>
     </row>
     <row r="28" spans="2:7">
-      <c r="B28" s="136"/>
+      <c r="B28" t="s">
+        <v>256</v>
+      </c>
+      <c r="E28" s="136"/>
     </row>
     <row r="29" spans="2:7">
-      <c r="B29" s="136"/>
-    </row>
-    <row r="30" spans="2:7" ht="30">
-      <c r="B30" s="136"/>
-      <c r="C30" s="53" t="s">
-        <v>511</v>
-      </c>
-      <c r="D30" s="162"/>
-    </row>
-    <row r="31" spans="2:7" ht="30">
-      <c r="B31" s="136"/>
-      <c r="C31" s="53" t="s">
-        <v>512</v>
-      </c>
-      <c r="D31" s="162"/>
+      <c r="C29" t="s">
+        <v>202</v>
+      </c>
+      <c r="D29" t="s">
+        <v>413</v>
+      </c>
+      <c r="E29" s="136"/>
+    </row>
+    <row r="30" spans="2:7">
+      <c r="C30" t="s">
+        <v>232</v>
+      </c>
+      <c r="D30" s="135">
+        <v>0.12</v>
+      </c>
+      <c r="E30" s="136"/>
+    </row>
+    <row r="31" spans="2:7">
+      <c r="C31" t="s">
+        <v>238</v>
+      </c>
+      <c r="D31" s="135">
+        <v>0.25</v>
+      </c>
+      <c r="E31" s="136"/>
     </row>
     <row r="32" spans="2:7">
-      <c r="B32" s="136"/>
-      <c r="C32" s="136" t="s">
-        <v>516</v>
-      </c>
-      <c r="D32" s="48"/>
-      <c r="E32" s="127" t="s">
-        <v>513</v>
-      </c>
-      <c r="F32" s="138">
-        <f>D31+F19</f>
+      <c r="C32" t="s">
+        <v>237</v>
+      </c>
+      <c r="D32" s="135">
+        <v>0.13</v>
+      </c>
+      <c r="E32" s="136"/>
+    </row>
+    <row r="33" spans="2:10">
+      <c r="C33" t="s">
+        <v>233</v>
+      </c>
+      <c r="D33" s="135">
+        <v>0.05</v>
+      </c>
+      <c r="E33" s="136"/>
+    </row>
+    <row r="34" spans="2:10">
+      <c r="C34" t="s">
+        <v>235</v>
+      </c>
+      <c r="D34" s="135">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="33" spans="2:5">
-      <c r="C33" s="132"/>
-    </row>
-    <row r="34" spans="2:5">
-      <c r="B34" t="s">
-        <v>256</v>
-      </c>
       <c r="E34" s="136"/>
     </row>
-    <row r="35" spans="2:5">
+    <row r="35" spans="2:10">
       <c r="C35" t="s">
-        <v>202</v>
-      </c>
-      <c r="D35" t="s">
-        <v>413</v>
+        <v>236</v>
+      </c>
+      <c r="D35" s="135">
+        <v>0</v>
       </c>
       <c r="E35" s="136"/>
     </row>
-    <row r="36" spans="2:5">
+    <row r="36" spans="2:10">
       <c r="C36" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="D36" s="135">
-        <v>0.12</v>
+        <v>0.08</v>
       </c>
       <c r="E36" s="136"/>
     </row>
-    <row r="37" spans="2:5">
+    <row r="37" spans="2:10">
       <c r="C37" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D37" s="135">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="E37" s="136"/>
     </row>
-    <row r="38" spans="2:5">
+    <row r="38" spans="2:10">
       <c r="C38" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="D38" s="135">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="E38" s="136"/>
     </row>
-    <row r="39" spans="2:5">
+    <row r="39" spans="2:10" ht="15.75" thickBot="1">
       <c r="C39" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="D39" s="135">
-        <v>0.05</v>
-      </c>
-      <c r="E39" s="136"/>
-    </row>
-    <row r="40" spans="2:5">
-      <c r="C40" t="s">
-        <v>235</v>
-      </c>
-      <c r="D40" s="135">
-        <v>0.04</v>
-      </c>
-      <c r="E40" s="136"/>
-    </row>
-    <row r="41" spans="2:5">
-      <c r="C41" t="s">
-        <v>236</v>
-      </c>
-      <c r="D41" s="135">
         <v>0</v>
       </c>
-      <c r="E41" s="136"/>
-    </row>
-    <row r="42" spans="2:5">
-      <c r="C42" t="s">
-        <v>242</v>
-      </c>
-      <c r="D42" s="135">
-        <v>0.08</v>
-      </c>
-      <c r="E42" s="136"/>
-    </row>
-    <row r="43" spans="2:5">
-      <c r="C43" t="s">
-        <v>240</v>
-      </c>
-      <c r="D43" s="135">
-        <v>0.33</v>
-      </c>
-      <c r="E43" s="136"/>
-    </row>
-    <row r="44" spans="2:5">
+    </row>
+    <row r="40" spans="2:10" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C40" s="47" t="s">
+        <v>258</v>
+      </c>
+      <c r="D40" s="44">
+        <f>SUM(D30:D39)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" ht="15.75" thickTop="1">
+      <c r="C41" s="47"/>
+    </row>
+    <row r="42" spans="2:10">
+      <c r="B42" t="s">
+        <v>470</v>
+      </c>
+      <c r="C42" s="47"/>
+    </row>
+    <row r="43" spans="2:10" ht="15.75" thickBot="1">
+      <c r="C43" s="47"/>
+      <c r="E43" s="171" t="s">
+        <v>472</v>
+      </c>
+      <c r="F43" s="171"/>
+      <c r="G43" s="171"/>
+      <c r="H43" s="171"/>
+      <c r="I43" s="171"/>
+    </row>
+    <row r="44" spans="2:10" ht="15.75" thickBot="1">
       <c r="C44" t="s">
-        <v>241</v>
-      </c>
-      <c r="D44" s="135">
+        <v>469</v>
+      </c>
+      <c r="D44" t="s">
+        <v>471</v>
+      </c>
+      <c r="E44" s="145" t="s">
+        <v>420</v>
+      </c>
+      <c r="F44" s="145" t="s">
+        <v>282</v>
+      </c>
+      <c r="G44" s="145" t="s">
+        <v>415</v>
+      </c>
+      <c r="H44" s="145" t="s">
+        <v>283</v>
+      </c>
+      <c r="I44" s="145" t="s">
+        <v>408</v>
+      </c>
+      <c r="J44" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C45" s="114" t="s">
+        <v>360</v>
+      </c>
+      <c r="D45" s="115">
+        <v>40000</v>
+      </c>
+      <c r="E45" s="133">
+        <v>0.5</v>
+      </c>
+      <c r="F45" s="133"/>
+      <c r="G45" s="133">
+        <v>0.5</v>
+      </c>
+      <c r="H45" s="133"/>
+      <c r="I45" s="133"/>
+      <c r="J45" s="149">
+        <f>SUM(Operations_Per_Segment_Region[[#This Row],[US]:[Emerging markets]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C46" s="114" t="s">
+        <v>323</v>
+      </c>
+      <c r="D46" s="115">
+        <v>10000</v>
+      </c>
+      <c r="E46" s="133"/>
+      <c r="F46" s="133"/>
+      <c r="G46" s="133"/>
+      <c r="H46" s="133"/>
+      <c r="I46" s="133"/>
+      <c r="J46" s="149">
+        <f>SUM(Operations_Per_Segment_Region[[#This Row],[US]:[Emerging markets]])</f>
         <v>0</v>
       </c>
-      <c r="E44" s="136"/>
-    </row>
-    <row r="45" spans="2:5" ht="15.75" thickBot="1">
-      <c r="C45" t="s">
-        <v>239</v>
-      </c>
-      <c r="D45" s="135">
+    </row>
+    <row r="47" spans="2:10" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C47" s="114" t="s">
+        <v>325</v>
+      </c>
+      <c r="D47" s="115">
+        <v>8000</v>
+      </c>
+      <c r="E47" s="133"/>
+      <c r="F47" s="133"/>
+      <c r="G47" s="133"/>
+      <c r="H47" s="133"/>
+      <c r="I47" s="133"/>
+      <c r="J47" s="149">
+        <f>SUM(Operations_Per_Segment_Region[[#This Row],[US]:[Emerging markets]])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:5" ht="16.5" thickTop="1" thickBot="1">
-      <c r="C46" s="47" t="s">
-        <v>258</v>
-      </c>
-      <c r="D46" s="44">
-        <f>SUM(D36:D45)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="2:5" ht="15.75" thickTop="1">
-      <c r="C47" s="47"/>
-    </row>
-    <row r="48" spans="2:5">
-      <c r="B48" t="s">
-        <v>470</v>
-      </c>
-      <c r="C48" s="47"/>
-    </row>
-    <row r="49" spans="2:19" ht="15.75" thickBot="1">
-      <c r="C49" s="47"/>
-      <c r="E49" s="171" t="s">
-        <v>472</v>
-      </c>
-      <c r="F49" s="171"/>
-      <c r="G49" s="171"/>
-      <c r="H49" s="171"/>
-      <c r="I49" s="171"/>
-    </row>
-    <row r="50" spans="2:19" ht="15.75" thickBot="1">
-      <c r="C50" t="s">
-        <v>469</v>
-      </c>
-      <c r="D50" t="s">
-        <v>471</v>
-      </c>
-      <c r="E50" s="145" t="s">
-        <v>420</v>
-      </c>
-      <c r="F50" s="145" t="s">
-        <v>282</v>
-      </c>
-      <c r="G50" s="145" t="s">
-        <v>415</v>
-      </c>
-      <c r="H50" s="145" t="s">
-        <v>283</v>
-      </c>
-      <c r="I50" s="145" t="s">
-        <v>408</v>
-      </c>
-      <c r="J50" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="51" spans="2:19" ht="16.5" thickTop="1" thickBot="1">
-      <c r="C51" s="114" t="s">
-        <v>360</v>
-      </c>
-      <c r="D51" s="115">
-        <v>40000</v>
-      </c>
-      <c r="E51" s="133">
-        <v>0.5</v>
-      </c>
+    <row r="48" spans="2:10" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C48" s="114"/>
+      <c r="D48" s="115"/>
+      <c r="E48" s="133"/>
+      <c r="F48" s="133"/>
+      <c r="G48" s="133"/>
+      <c r="H48" s="133"/>
+      <c r="I48" s="133"/>
+      <c r="J48" s="149">
+        <f>SUM(Operations_Per_Segment_Region[[#This Row],[US]:[Emerging markets]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:24" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C49" s="114"/>
+      <c r="D49" s="115"/>
+      <c r="E49" s="133"/>
+      <c r="F49" s="133"/>
+      <c r="G49" s="133"/>
+      <c r="H49" s="133"/>
+      <c r="I49" s="133"/>
+      <c r="J49" s="149">
+        <f>SUM(Operations_Per_Segment_Region[[#This Row],[US]:[Emerging markets]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:24" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C50" s="116"/>
+      <c r="D50" s="117"/>
+      <c r="E50" s="133"/>
+      <c r="F50" s="133"/>
+      <c r="G50" s="133"/>
+      <c r="H50" s="133"/>
+      <c r="I50" s="133"/>
+      <c r="J50" s="149">
+        <f>SUM(Operations_Per_Segment_Region[[#This Row],[US]:[Emerging markets]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:24" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C51" s="114"/>
+      <c r="D51" s="114"/>
+      <c r="E51" s="133"/>
       <c r="F51" s="133"/>
-      <c r="G51" s="133">
-        <v>0.5</v>
-      </c>
+      <c r="G51" s="133"/>
       <c r="H51" s="133"/>
       <c r="I51" s="133"/>
       <c r="J51" s="149">
         <f>SUM(Operations_Per_Segment_Region[[#This Row],[US]:[Emerging markets]])</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="2:19" ht="16.5" thickTop="1" thickBot="1">
-      <c r="C52" s="114" t="s">
-        <v>323</v>
-      </c>
-      <c r="D52" s="115">
-        <v>10000</v>
-      </c>
-      <c r="E52" s="133"/>
-      <c r="F52" s="133"/>
-      <c r="G52" s="133"/>
-      <c r="H52" s="133"/>
-      <c r="I52" s="133"/>
-      <c r="J52" s="149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:24" ht="15.75" thickTop="1">
+      <c r="C52" s="146" t="s">
+        <v>302</v>
+      </c>
+      <c r="D52" s="147">
+        <f>SUM(D45:D51)</f>
+        <v>58000</v>
+      </c>
+      <c r="J52">
         <f>SUM(Operations_Per_Segment_Region[[#This Row],[US]:[Emerging markets]])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:19" ht="16.5" thickTop="1" thickBot="1">
-      <c r="C53" s="114" t="s">
-        <v>325</v>
-      </c>
-      <c r="D53" s="115">
-        <v>8000</v>
-      </c>
-      <c r="E53" s="133"/>
-      <c r="F53" s="133"/>
-      <c r="G53" s="133"/>
-      <c r="H53" s="133"/>
-      <c r="I53" s="133"/>
-      <c r="J53" s="149">
-        <f>SUM(Operations_Per_Segment_Region[[#This Row],[US]:[Emerging markets]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="2:19" ht="16.5" thickTop="1" thickBot="1">
-      <c r="C54" s="114"/>
-      <c r="D54" s="115"/>
-      <c r="E54" s="133"/>
-      <c r="F54" s="133"/>
-      <c r="G54" s="133"/>
-      <c r="H54" s="133"/>
-      <c r="I54" s="133"/>
-      <c r="J54" s="149">
-        <f>SUM(Operations_Per_Segment_Region[[#This Row],[US]:[Emerging markets]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="2:19" ht="16.5" thickTop="1" thickBot="1">
-      <c r="C55" s="114"/>
-      <c r="D55" s="115"/>
-      <c r="E55" s="133"/>
-      <c r="F55" s="133"/>
-      <c r="G55" s="133"/>
-      <c r="H55" s="133"/>
-      <c r="I55" s="133"/>
-      <c r="J55" s="149">
-        <f>SUM(Operations_Per_Segment_Region[[#This Row],[US]:[Emerging markets]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="2:19" ht="16.5" thickTop="1" thickBot="1">
-      <c r="C56" s="116"/>
-      <c r="D56" s="117"/>
-      <c r="E56" s="133"/>
-      <c r="F56" s="133"/>
-      <c r="G56" s="133"/>
-      <c r="H56" s="133"/>
-      <c r="I56" s="133"/>
-      <c r="J56" s="149">
-        <f>SUM(Operations_Per_Segment_Region[[#This Row],[US]:[Emerging markets]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="2:19" ht="16.5" thickTop="1" thickBot="1">
-      <c r="C57" s="114"/>
-      <c r="D57" s="114"/>
-      <c r="E57" s="133"/>
-      <c r="F57" s="133"/>
-      <c r="G57" s="133"/>
-      <c r="H57" s="133"/>
-      <c r="I57" s="133"/>
-      <c r="J57" s="149">
-        <f>SUM(Operations_Per_Segment_Region[[#This Row],[US]:[Emerging markets]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="2:19" ht="15.75" thickTop="1">
-      <c r="C58" s="146" t="s">
-        <v>302</v>
-      </c>
-      <c r="D58" s="147">
-        <f>SUM(D51:D57)</f>
-        <v>58000</v>
-      </c>
-      <c r="J58">
-        <f>SUM(Operations_Per_Segment_Region[[#This Row],[US]:[Emerging markets]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="2:19">
-      <c r="B60" t="str">
+    <row r="54" spans="2:24">
+      <c r="B54" t="str">
         <f>CONCATENATE("Betas for each business segment (using ",Industry_Average," for industry averages)")</f>
         <v>Betas for each business segment (using US for industry averages)</v>
       </c>
     </row>
-    <row r="61" spans="2:19">
-      <c r="C61" t="s">
+    <row r="55" spans="2:24">
+      <c r="C55" t="s">
         <v>475</v>
       </c>
-      <c r="F61" t="s">
+      <c r="F55" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="62" spans="2:19">
-      <c r="C62" s="172" t="s">
+    <row r="56" spans="2:24">
+      <c r="C56" s="172" t="s">
         <v>420</v>
       </c>
-      <c r="D62" s="173"/>
-      <c r="F62" s="48">
+      <c r="D56" s="173"/>
+      <c r="F56" s="48">
         <v>1.3871</v>
       </c>
-      <c r="L62" t="s">
+      <c r="L56" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="63" spans="2:19">
-      <c r="H63" t="s">
+    <row r="57" spans="2:24">
+      <c r="H57" t="s">
         <v>476</v>
       </c>
-      <c r="I63" s="113"/>
-      <c r="N63" t="s">
+      <c r="I57" s="113"/>
+      <c r="N57" t="s">
         <v>430</v>
       </c>
-      <c r="O63" t="s">
+      <c r="O57" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="64" spans="2:19" ht="29.25" customHeight="1">
-      <c r="C64" s="157" t="s">
+    <row r="58" spans="2:24" ht="29.25" customHeight="1">
+      <c r="C58" s="157" t="s">
         <v>469</v>
       </c>
-      <c r="D64" s="40" t="s">
+      <c r="D58" s="40" t="s">
         <v>298</v>
       </c>
-      <c r="E64" s="40" t="s">
+      <c r="E58" s="40" t="s">
         <v>299</v>
       </c>
-      <c r="F64" s="40" t="s">
+      <c r="F58" s="40" t="s">
         <v>300</v>
       </c>
-      <c r="G64" s="157" t="s">
+      <c r="G58" s="157" t="s">
         <v>301</v>
       </c>
-      <c r="H64" s="157" t="s">
+      <c r="H58" s="157" t="s">
         <v>443</v>
       </c>
-      <c r="I64" s="157" t="s">
+      <c r="I58" s="157" t="s">
         <v>457</v>
       </c>
-      <c r="J64" s="157" t="s">
+      <c r="J58" s="157" t="s">
         <v>480</v>
       </c>
-      <c r="K64" s="157" t="s">
+      <c r="K58" s="157" t="s">
         <v>479</v>
       </c>
-      <c r="L64" s="157" t="s">
+      <c r="L58" s="157" t="s">
         <v>481</v>
       </c>
-      <c r="M64" s="157" t="s">
+      <c r="M58" s="157" t="s">
         <v>483</v>
       </c>
-      <c r="N64" s="157" t="s">
+      <c r="N58" s="157" t="s">
         <v>477</v>
       </c>
-      <c r="O64" s="159" t="s">
+      <c r="O58" s="159" t="s">
         <v>478</v>
       </c>
-      <c r="P64" s="159" t="s">
+      <c r="P58" s="159" t="s">
         <v>485</v>
       </c>
-      <c r="Q64" s="73" t="s">
+      <c r="Q58" s="73" t="s">
         <v>484</v>
       </c>
-      <c r="S64" s="79"/>
-    </row>
-    <row r="65" spans="2:24" ht="15" customHeight="1" thickBot="1">
-      <c r="C65" s="148" t="str">
-        <f t="shared" ref="C65:C71" si="0">IF(C51="","",C51)</f>
+      <c r="S58" s="79"/>
+    </row>
+    <row r="59" spans="2:24" ht="15" customHeight="1" thickBot="1">
+      <c r="C59" s="148" t="str">
+        <f t="shared" ref="C59:C65" si="0">IF(C45="","",C45)</f>
         <v>Metals &amp; Mining</v>
       </c>
-      <c r="D65" s="154">
+      <c r="D59" s="154">
         <f ca="1">IFERROR(VLOOKUP(Betas_Per_Segment[[#This Row],[Segment]],INDIRECT(VLOOKUP(Industry_Average,Industry_TableConverter[],3,FALSE)),3,FALSE),"")</f>
         <v>3.6008672528701777</v>
       </c>
-      <c r="E65" s="72">
+      <c r="E59" s="72">
         <f ca="1">IFERROR(Betas_Per_Segment[[#This Row],[EV/Sales]]*VLOOKUP(Betas_Per_Segment[[#This Row],[Segment]],Operations_Per_Segment_Region[],2,FALSE),"")</f>
         <v>144034.6901148071</v>
       </c>
-      <c r="F65" s="138">
+      <c r="F59" s="138">
         <f ca="1">IFERROR(Betas_Per_Segment[[#This Row],[Estimated Value]]/Estimated_Firm_Value,"")</f>
         <v>0.82498375495636911</v>
       </c>
-      <c r="G65" s="125">
+      <c r="G59" s="125">
         <f ca="1">IFERROR(VLOOKUP(Betas_Per_Segment[[#This Row],[Segment]],INDIRECT(VLOOKUP(Industry_Average,Industry_TableConverter[],2,FALSE)),8,FALSE),"")</f>
         <v>0.90451447164101273</v>
       </c>
-      <c r="H65" s="72">
+      <c r="H59" s="72">
         <f ca="1">IFERROR(Betas_Per_Segment[[#This Row],[Unlevered beta]]*Betas_Per_Segment[[#This Row],[Firm Value Proportion]],"")</f>
         <v>0.74620974522677896</v>
       </c>
-      <c r="I65" s="152">
+      <c r="I59" s="152">
         <f ca="1">IFERROR(Betas_Per_Segment[[#This Row],[Unlevered beta]]*(1+(1-Company_Tax_Rate)*(Company_Debt/Company_Equity)),"")</f>
         <v>1.3454652765660065</v>
       </c>
-      <c r="J65" s="152">
+      <c r="J59" s="152">
         <f ca="1">IFERROR(Betas_Per_Segment[[#This Row],[Estimated debt]]/SUM(Betas_Per_Segment[Estimated debt])*Company_Debt,"")</f>
         <v>5983.1411278702999</v>
       </c>
-      <c r="K65" s="152">
-        <f ca="1">IFERROR(Betas_Per_Segment[[#This Row],[Estimated Value]]*Betas_Per_Segment[Industry D/E]/$F$62,"")</f>
+      <c r="K59" s="152">
+        <f ca="1">IFERROR(Betas_Per_Segment[[#This Row],[Estimated Value]]*Betas_Per_Segment[Industry D/E]/$F$56,"")</f>
         <v>50064.218996829528</v>
       </c>
-      <c r="L65" s="152">
+      <c r="L59" s="152">
         <f ca="1">IFERROR(Betas_Per_Segment[[#This Row],[Estimated Value]]-Betas_Per_Segment[[#This Row],[Allocated debt]],"")</f>
         <v>138051.5489869368</v>
       </c>
-      <c r="M65" s="152">
+      <c r="M59" s="152">
         <f ca="1">IFERROR(Betas_Per_Segment[[#This Row],[Estimated equity]]/SUM(Betas_Per_Segment[Estimated equity])*Company_Equity,"")</f>
         <v>8262.0606559176176</v>
       </c>
-      <c r="N65" s="152">
+      <c r="N59" s="152">
         <f ca="1">IFERROR(Betas_Per_Segment[[#This Row],[Unlevered beta]]*(1+(1-Company_Tax_Rate)*Betas_Per_Segment[[#This Row],[Allocated debt]]/Betas_Per_Segment[[#This Row],[Scaled estimated equity ]]),"")</f>
         <v>1.3302792626437849</v>
       </c>
-      <c r="O65" s="152">
+      <c r="O59" s="152">
         <f ca="1">IFERROR(VLOOKUP(Betas_Per_Segment[[#This Row],[Segment]],INDIRECT(VLOOKUP(Industry_Average,Industry_TableConverter[],2,FALSE)),4,FALSE),"")</f>
         <v>0.48213439495131194</v>
       </c>
-      <c r="P65" s="152">
+      <c r="P59" s="152">
         <f ca="1">IFERROR(Betas_Per_Segment[[#This Row],[Firm Value Proportion]]*Betas_Per_Segment[[#This Row],[Estimated levered beta using debt allocation]],"")</f>
         <v>1.0974587812364596</v>
       </c>
-      <c r="Q65" s="72">
+      <c r="Q59" s="72">
         <f ca="1">IFERROR(Betas_Per_Segment[[#This Row],[Estimated levered beta]]*Betas_Per_Segment[[#This Row],[Firm Value Proportion]],"")</f>
         <v>1.1099869960248336</v>
       </c>
-      <c r="R65" s="175" t="s">
+      <c r="R59" s="175" t="s">
         <v>456</v>
       </c>
-      <c r="S65" s="175"/>
-      <c r="T65" s="175"/>
-    </row>
-    <row r="66" spans="2:24" ht="15" customHeight="1" thickTop="1" thickBot="1">
-      <c r="C66" s="148" t="str">
+      <c r="S59" s="175"/>
+      <c r="T59" s="175"/>
+    </row>
+    <row r="60" spans="2:24" ht="15" customHeight="1" thickTop="1" thickBot="1">
+      <c r="C60" s="148" t="str">
         <f t="shared" si="0"/>
         <v>Chemical (Diversified)</v>
       </c>
-      <c r="D66" s="154">
+      <c r="D60" s="154">
         <f ca="1">IFERROR(VLOOKUP(Betas_Per_Segment[[#This Row],[Segment]],INDIRECT(VLOOKUP(Industry_Average,Industry_TableConverter[],3,FALSE)),3,FALSE),"")</f>
         <v>1.6650619259181105</v>
       </c>
-      <c r="E66" s="72">
+      <c r="E60" s="72">
         <f ca="1">IFERROR(Betas_Per_Segment[[#This Row],[EV/Sales]]*VLOOKUP(Betas_Per_Segment[[#This Row],[Segment]],Operations_Per_Segment_Region[],2,FALSE),"")</f>
         <v>16650.619259181105</v>
       </c>
-      <c r="F66" s="138">
+      <c r="F60" s="138">
         <f ca="1">IFERROR(Betas_Per_Segment[[#This Row],[Estimated Value]]/Estimated_Firm_Value,"")</f>
         <v>9.5369319625980303E-2</v>
       </c>
-      <c r="G66" s="125">
+      <c r="G60" s="125">
         <f ca="1">IFERROR(VLOOKUP(Betas_Per_Segment[[#This Row],[Segment]],INDIRECT(VLOOKUP(Industry_Average,Industry_TableConverter[],2,FALSE)),8,FALSE),"")</f>
         <v>1.2160388085910969</v>
       </c>
-      <c r="H66" s="72">
+      <c r="H60" s="72">
         <f ca="1">IFERROR(Betas_Per_Segment[[#This Row],[Unlevered beta]]*Betas_Per_Segment[[#This Row],[Firm Value Proportion]],"")</f>
         <v>0.11597279381412061</v>
       </c>
-      <c r="I66" s="153">
+      <c r="I60" s="153">
         <f ca="1">IFERROR(Betas_Per_Segment[[#This Row],[Unlevered beta]]*(1+(1-Company_Tax_Rate)*(Company_Debt/Company_Equity)),"")</f>
         <v>1.8088577277792568</v>
       </c>
-      <c r="J66" s="153">
+      <c r="J60" s="153">
         <f ca="1">IFERROR(Betas_Per_Segment[[#This Row],[Estimated debt]]/SUM(Betas_Per_Segment[Estimated debt])*Company_Debt,"")</f>
         <v>478.99696683019607</v>
       </c>
-      <c r="K66" s="153">
-        <f ca="1">IFERROR(Betas_Per_Segment[[#This Row],[Estimated Value]]*Betas_Per_Segment[Industry D/E]/$F$62,"")</f>
+      <c r="K60" s="153">
+        <f ca="1">IFERROR(Betas_Per_Segment[[#This Row],[Estimated Value]]*Betas_Per_Segment[Industry D/E]/$F$56,"")</f>
         <v>4008.0299852027606</v>
       </c>
-      <c r="L66" s="153">
+      <c r="L60" s="153">
         <f ca="1">IFERROR(Betas_Per_Segment[[#This Row],[Estimated Value]]-Betas_Per_Segment[[#This Row],[Allocated debt]],"")</f>
         <v>16171.622292350909</v>
       </c>
-      <c r="M66" s="153">
+      <c r="M60" s="153">
         <f ca="1">IFERROR(Betas_Per_Segment[[#This Row],[Estimated equity]]/SUM(Betas_Per_Segment[Estimated equity])*Company_Equity,"")</f>
         <v>967.83357567857308</v>
       </c>
-      <c r="N66" s="153">
+      <c r="N60" s="153">
         <f ca="1">IFERROR(Betas_Per_Segment[[#This Row],[Unlevered beta]]*(1+(1-Company_Tax_Rate)*Betas_Per_Segment[[#This Row],[Allocated debt]]/Betas_Per_Segment[[#This Row],[Scaled estimated equity ]]),"")</f>
         <v>1.607233426214749</v>
       </c>
-      <c r="O66" s="153">
+      <c r="O60" s="153">
         <f ca="1">IFERROR(VLOOKUP(Betas_Per_Segment[[#This Row],[Segment]],INDIRECT(VLOOKUP(Industry_Average,Industry_TableConverter[],2,FALSE)),4,FALSE),"")</f>
         <v>0.33389379133206926</v>
       </c>
-      <c r="P66" s="153">
+      <c r="P60" s="153">
         <f ca="1">IFERROR(Betas_Per_Segment[[#This Row],[Firm Value Proportion]]*Betas_Per_Segment[[#This Row],[Estimated levered beta using debt allocation]],"")</f>
         <v>0.15328075833823382</v>
       </c>
-      <c r="Q66" s="72">
+      <c r="Q60" s="72">
         <f ca="1">IFERROR(Betas_Per_Segment[[#This Row],[Estimated levered beta]]*Betas_Per_Segment[[#This Row],[Firm Value Proportion]],"")</f>
         <v>0.17250953079850442</v>
       </c>
-      <c r="R66" s="175"/>
-      <c r="S66" s="175"/>
-      <c r="T66" s="175"/>
-    </row>
-    <row r="67" spans="2:24" ht="15" customHeight="1" thickTop="1" thickBot="1">
-      <c r="C67" s="148" t="str">
+      <c r="R60" s="175"/>
+      <c r="S60" s="175"/>
+      <c r="T60" s="175"/>
+    </row>
+    <row r="61" spans="2:24" ht="15" customHeight="1" thickTop="1" thickBot="1">
+      <c r="C61" s="148" t="str">
         <f t="shared" si="0"/>
         <v>Coal &amp; Related Energy</v>
       </c>
-      <c r="D67" s="154">
+      <c r="D61" s="154">
         <f ca="1">IFERROR(VLOOKUP(Betas_Per_Segment[[#This Row],[Segment]],INDIRECT(VLOOKUP(Industry_Average,Industry_TableConverter[],3,FALSE)),3,FALSE),"")</f>
         <v>1.7382039573820396</v>
       </c>
-      <c r="E67" s="72">
+      <c r="E61" s="72">
         <f ca="1">IFERROR(Betas_Per_Segment[[#This Row],[EV/Sales]]*VLOOKUP(Betas_Per_Segment[[#This Row],[Segment]],Operations_Per_Segment_Region[],2,FALSE),"")</f>
         <v>13905.631659056316</v>
       </c>
-      <c r="F67" s="138">
+      <c r="F61" s="138">
         <f ca="1">IFERROR(Betas_Per_Segment[[#This Row],[Estimated Value]]/Estimated_Firm_Value,"")</f>
         <v>7.9646925417650505E-2</v>
       </c>
-      <c r="G67" s="125">
+      <c r="G61" s="125">
         <f ca="1">IFERROR(VLOOKUP(Betas_Per_Segment[[#This Row],[Segment]],INDIRECT(VLOOKUP(Industry_Average,Industry_TableConverter[],2,FALSE)),8,FALSE),"")</f>
         <v>0.73477287574552486</v>
       </c>
-      <c r="H67" s="72">
+      <c r="H61" s="72">
         <f ca="1">IFERROR(Betas_Per_Segment[[#This Row],[Unlevered beta]]*Betas_Per_Segment[[#This Row],[Firm Value Proportion]],"")</f>
         <v>5.8522400433416402E-2</v>
       </c>
-      <c r="I67" s="152">
+      <c r="I61" s="152">
         <f ca="1">IFERROR(Betas_Per_Segment[[#This Row],[Unlevered beta]]*(1+(1-Company_Tax_Rate)*(Company_Debt/Company_Equity)),"")</f>
         <v>1.0929746526714683</v>
       </c>
-      <c r="J67" s="152">
+      <c r="J61" s="152">
         <f ca="1">IFERROR(Betas_Per_Segment[[#This Row],[Estimated debt]]/SUM(Betas_Per_Segment[Estimated debt])*Company_Debt,"")</f>
         <v>1037.8619052995036</v>
       </c>
-      <c r="K67" s="152">
-        <f ca="1">IFERROR(Betas_Per_Segment[[#This Row],[Estimated Value]]*Betas_Per_Segment[Industry D/E]/$F$62,"")</f>
+      <c r="K61" s="152">
+        <f ca="1">IFERROR(Betas_Per_Segment[[#This Row],[Estimated Value]]*Betas_Per_Segment[Industry D/E]/$F$56,"")</f>
         <v>8684.3590356485838</v>
       </c>
-      <c r="L67" s="152">
+      <c r="L61" s="152">
         <f ca="1">IFERROR(Betas_Per_Segment[[#This Row],[Estimated Value]]-Betas_Per_Segment[[#This Row],[Allocated debt]],"")</f>
         <v>12867.769753756813</v>
       </c>
-      <c r="M67" s="152">
+      <c r="M61" s="152">
         <f ca="1">IFERROR(Betas_Per_Segment[[#This Row],[Estimated equity]]/SUM(Betas_Per_Segment[Estimated equity])*Company_Equity,"")</f>
         <v>770.10576840380793</v>
       </c>
-      <c r="N67" s="152">
+      <c r="N61" s="152">
         <f ca="1">IFERROR(Betas_Per_Segment[[#This Row],[Unlevered beta]]*(1+(1-Company_Tax_Rate)*Betas_Per_Segment[[#This Row],[Allocated debt]]/Betas_Per_Segment[[#This Row],[Scaled estimated equity ]]),"")</f>
         <v>1.3784316110083095</v>
       </c>
-      <c r="O67" s="152">
+      <c r="O61" s="152">
         <f ca="1">IFERROR(VLOOKUP(Betas_Per_Segment[[#This Row],[Segment]],INDIRECT(VLOOKUP(Industry_Average,Industry_TableConverter[],2,FALSE)),4,FALSE),"")</f>
         <v>0.86627308371877576</v>
       </c>
-      <c r="P67" s="152">
+      <c r="P61" s="152">
         <f ca="1">IFERROR(Betas_Per_Segment[[#This Row],[Firm Value Proportion]]*Betas_Per_Segment[[#This Row],[Estimated levered beta using debt allocation]],"")</f>
         <v>0.10978783971531066</v>
       </c>
-      <c r="Q67" s="72">
+      <c r="Q61" s="72">
         <f ca="1">IFERROR(Betas_Per_Segment[[#This Row],[Estimated levered beta]]*Betas_Per_Segment[[#This Row],[Firm Value Proportion]],"")</f>
         <v>8.7052070644706908E-2</v>
       </c>
     </row>
-    <row r="68" spans="2:24" ht="15" customHeight="1" thickTop="1" thickBot="1">
-      <c r="C68" s="148" t="str">
+    <row r="62" spans="2:24" ht="15" customHeight="1" thickTop="1" thickBot="1">
+      <c r="C62" s="148" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D68" s="154" t="str">
+      <c r="D62" s="154" t="str">
         <f ca="1">IFERROR(VLOOKUP(Betas_Per_Segment[[#This Row],[Segment]],INDIRECT(VLOOKUP(Industry_Average,Industry_TableConverter[],3,FALSE)),3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="E68" s="72" t="str">
+      <c r="E62" s="72" t="str">
         <f ca="1">IFERROR(Betas_Per_Segment[[#This Row],[EV/Sales]]*VLOOKUP(Betas_Per_Segment[[#This Row],[Segment]],Operations_Per_Segment_Region[],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F68" s="138" t="str">
+      <c r="F62" s="138" t="str">
         <f ca="1">IFERROR(Betas_Per_Segment[[#This Row],[Estimated Value]]/Estimated_Firm_Value,"")</f>
         <v/>
       </c>
-      <c r="G68" s="125" t="str">
+      <c r="G62" s="125" t="str">
         <f ca="1">IFERROR(VLOOKUP(Betas_Per_Segment[[#This Row],[Segment]],INDIRECT(VLOOKUP(Industry_Average,Industry_TableConverter[],2,FALSE)),8,FALSE),"")</f>
         <v/>
       </c>
-      <c r="H68" s="72" t="str">
+      <c r="H62" s="72" t="str">
         <f ca="1">IFERROR(Betas_Per_Segment[[#This Row],[Unlevered beta]]*Betas_Per_Segment[[#This Row],[Firm Value Proportion]],"")</f>
         <v/>
       </c>
-      <c r="I68" s="152" t="str">
+      <c r="I62" s="152" t="str">
         <f ca="1">IFERROR(Betas_Per_Segment[[#This Row],[Unlevered beta]]*(1+(1-Company_Tax_Rate)*(Company_Debt/Company_Equity)),"")</f>
         <v/>
       </c>
-      <c r="J68" s="152" t="str">
+      <c r="J62" s="152" t="str">
         <f ca="1">IFERROR(Betas_Per_Segment[[#This Row],[Estimated debt]]/SUM(Betas_Per_Segment[Estimated debt])*Company_Debt,"")</f>
         <v/>
       </c>
-      <c r="K68" s="152" t="str">
-        <f ca="1">IFERROR(Betas_Per_Segment[[#This Row],[Estimated Value]]*Betas_Per_Segment[Industry D/E]/$F$62,"")</f>
-        <v/>
-      </c>
-      <c r="L68" s="152" t="str">
+      <c r="K62" s="152" t="str">
+        <f ca="1">IFERROR(Betas_Per_Segment[[#This Row],[Estimated Value]]*Betas_Per_Segment[Industry D/E]/$F$56,"")</f>
+        <v/>
+      </c>
+      <c r="L62" s="152" t="str">
         <f ca="1">IFERROR(Betas_Per_Segment[[#This Row],[Estimated Value]]-Betas_Per_Segment[[#This Row],[Allocated debt]],"")</f>
         <v/>
       </c>
-      <c r="M68" s="152" t="str">
+      <c r="M62" s="152" t="str">
         <f ca="1">IFERROR(Betas_Per_Segment[[#This Row],[Estimated equity]]/SUM(Betas_Per_Segment[Estimated equity])*Company_Equity,"")</f>
         <v/>
       </c>
-      <c r="N68" s="152" t="str">
+      <c r="N62" s="152" t="str">
         <f ca="1">IFERROR(Betas_Per_Segment[[#This Row],[Unlevered beta]]*(1+(1-Company_Tax_Rate)*Betas_Per_Segment[[#This Row],[Allocated debt]]/Betas_Per_Segment[[#This Row],[Scaled estimated equity ]]),"")</f>
         <v/>
       </c>
-      <c r="O68" s="152" t="str">
+      <c r="O62" s="152" t="str">
         <f ca="1">IFERROR(VLOOKUP(Betas_Per_Segment[[#This Row],[Segment]],INDIRECT(VLOOKUP(Industry_Average,Industry_TableConverter[],2,FALSE)),4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="P68" s="152" t="str">
+      <c r="P62" s="152" t="str">
         <f ca="1">IFERROR(Betas_Per_Segment[[#This Row],[Firm Value Proportion]]*Betas_Per_Segment[[#This Row],[Estimated levered beta using debt allocation]],"")</f>
         <v/>
       </c>
-      <c r="Q68" s="72" t="str">
+      <c r="Q62" s="72" t="str">
         <f ca="1">IFERROR(Betas_Per_Segment[[#This Row],[Estimated levered beta]]*Betas_Per_Segment[[#This Row],[Firm Value Proportion]],"")</f>
         <v/>
       </c>
-      <c r="S68" t="s">
+      <c r="S62" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="69" spans="2:24" ht="15" customHeight="1" thickTop="1" thickBot="1">
-      <c r="C69" s="148" t="str">
+    <row r="63" spans="2:24" ht="15" customHeight="1" thickTop="1" thickBot="1">
+      <c r="C63" s="148" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D69" s="154" t="str">
+      <c r="D63" s="154" t="str">
         <f ca="1">IFERROR(VLOOKUP(Betas_Per_Segment[[#This Row],[Segment]],INDIRECT(VLOOKUP(Industry_Average,Industry_TableConverter[],3,FALSE)),3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="E69" s="72" t="str">
+      <c r="E63" s="72" t="str">
         <f ca="1">IFERROR(Betas_Per_Segment[[#This Row],[EV/Sales]]*VLOOKUP(Betas_Per_Segment[[#This Row],[Segment]],Operations_Per_Segment_Region[],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F69" s="138" t="str">
+      <c r="F63" s="138" t="str">
         <f ca="1">IFERROR(Betas_Per_Segment[[#This Row],[Estimated Value]]/Estimated_Firm_Value,"")</f>
         <v/>
       </c>
-      <c r="G69" s="125" t="str">
+      <c r="G63" s="125" t="str">
         <f ca="1">IFERROR(VLOOKUP(Betas_Per_Segment[[#This Row],[Segment]],INDIRECT(VLOOKUP(Industry_Average,Industry_TableConverter[],2,FALSE)),8,FALSE),"")</f>
         <v/>
       </c>
-      <c r="H69" s="72" t="str">
+      <c r="H63" s="72" t="str">
         <f ca="1">IFERROR(Betas_Per_Segment[[#This Row],[Unlevered beta]]*Betas_Per_Segment[[#This Row],[Firm Value Proportion]],"")</f>
         <v/>
       </c>
-      <c r="I69" s="125" t="str">
+      <c r="I63" s="125" t="str">
         <f ca="1">IFERROR(Betas_Per_Segment[[#This Row],[Unlevered beta]]*(1+(1-Company_Tax_Rate)*(Company_Debt/Company_Equity)),"")</f>
         <v/>
       </c>
-      <c r="J69" s="125" t="str">
+      <c r="J63" s="125" t="str">
         <f ca="1">IFERROR(Betas_Per_Segment[[#This Row],[Estimated debt]]/SUM(Betas_Per_Segment[Estimated debt])*Company_Debt,"")</f>
         <v/>
       </c>
-      <c r="K69" s="125" t="str">
-        <f ca="1">IFERROR(Betas_Per_Segment[[#This Row],[Estimated Value]]*Betas_Per_Segment[Industry D/E]/$F$62,"")</f>
-        <v/>
-      </c>
-      <c r="L69" s="125" t="str">
+      <c r="K63" s="125" t="str">
+        <f ca="1">IFERROR(Betas_Per_Segment[[#This Row],[Estimated Value]]*Betas_Per_Segment[Industry D/E]/$F$56,"")</f>
+        <v/>
+      </c>
+      <c r="L63" s="125" t="str">
         <f ca="1">IFERROR(Betas_Per_Segment[[#This Row],[Estimated Value]]-Betas_Per_Segment[[#This Row],[Allocated debt]],"")</f>
         <v/>
       </c>
-      <c r="M69" s="125" t="str">
+      <c r="M63" s="125" t="str">
         <f ca="1">IFERROR(Betas_Per_Segment[[#This Row],[Estimated equity]]/SUM(Betas_Per_Segment[Estimated equity])*Company_Equity,"")</f>
         <v/>
       </c>
-      <c r="N69" s="125" t="str">
+      <c r="N63" s="125" t="str">
         <f ca="1">IFERROR(Betas_Per_Segment[[#This Row],[Unlevered beta]]*(1+(1-Company_Tax_Rate)*Betas_Per_Segment[[#This Row],[Allocated debt]]/Betas_Per_Segment[[#This Row],[Scaled estimated equity ]]),"")</f>
         <v/>
       </c>
-      <c r="O69" s="125" t="str">
+      <c r="O63" s="125" t="str">
         <f ca="1">IFERROR(VLOOKUP(Betas_Per_Segment[[#This Row],[Segment]],INDIRECT(VLOOKUP(Industry_Average,Industry_TableConverter[],2,FALSE)),4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="P69" s="125" t="str">
+      <c r="P63" s="125" t="str">
         <f ca="1">IFERROR(Betas_Per_Segment[[#This Row],[Firm Value Proportion]]*Betas_Per_Segment[[#This Row],[Estimated levered beta using debt allocation]],"")</f>
         <v/>
       </c>
-      <c r="Q69" s="72" t="str">
+      <c r="Q63" s="72" t="str">
         <f ca="1">IFERROR(Betas_Per_Segment[[#This Row],[Estimated levered beta]]*Betas_Per_Segment[[#This Row],[Firm Value Proportion]],"")</f>
         <v/>
       </c>
     </row>
-    <row r="70" spans="2:24" ht="15" customHeight="1" thickTop="1" thickBot="1">
-      <c r="C70" s="148" t="str">
+    <row r="64" spans="2:24" ht="15" customHeight="1" thickTop="1" thickBot="1">
+      <c r="C64" s="148" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D70" s="154" t="str">
+      <c r="D64" s="154" t="str">
         <f ca="1">IFERROR(VLOOKUP(Betas_Per_Segment[[#This Row],[Segment]],INDIRECT(VLOOKUP(Industry_Average,Industry_TableConverter[],3,FALSE)),3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="E70" s="74" t="str">
+      <c r="E64" s="74" t="str">
         <f ca="1">IFERROR(Betas_Per_Segment[[#This Row],[EV/Sales]]*VLOOKUP(Betas_Per_Segment[[#This Row],[Segment]],Operations_Per_Segment_Region[],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F70" s="139" t="str">
+      <c r="F64" s="139" t="str">
         <f ca="1">IFERROR(Betas_Per_Segment[[#This Row],[Estimated Value]]/Estimated_Firm_Value,"")</f>
         <v/>
       </c>
-      <c r="G70" s="125" t="str">
+      <c r="G64" s="125" t="str">
         <f ca="1">IFERROR(VLOOKUP(Betas_Per_Segment[[#This Row],[Segment]],INDIRECT(VLOOKUP(Industry_Average,Industry_TableConverter[],2,FALSE)),8,FALSE),"")</f>
         <v/>
       </c>
-      <c r="H70" s="72" t="str">
+      <c r="H64" s="72" t="str">
         <f ca="1">IFERROR(Betas_Per_Segment[[#This Row],[Unlevered beta]]*Betas_Per_Segment[[#This Row],[Firm Value Proportion]],"")</f>
         <v/>
       </c>
-      <c r="I70" s="125" t="str">
+      <c r="I64" s="125" t="str">
         <f ca="1">IFERROR(Betas_Per_Segment[[#This Row],[Unlevered beta]]*(1+(1-Company_Tax_Rate)*(Company_Debt/Company_Equity)),"")</f>
         <v/>
       </c>
-      <c r="J70" s="125" t="str">
+      <c r="J64" s="125" t="str">
         <f ca="1">IFERROR(Betas_Per_Segment[[#This Row],[Estimated debt]]/SUM(Betas_Per_Segment[Estimated debt])*Company_Debt,"")</f>
         <v/>
       </c>
-      <c r="K70" s="125" t="str">
-        <f ca="1">IFERROR(Betas_Per_Segment[[#This Row],[Estimated Value]]*Betas_Per_Segment[Industry D/E]/$F$62,"")</f>
-        <v/>
-      </c>
-      <c r="L70" s="125" t="str">
+      <c r="K64" s="125" t="str">
+        <f ca="1">IFERROR(Betas_Per_Segment[[#This Row],[Estimated Value]]*Betas_Per_Segment[Industry D/E]/$F$56,"")</f>
+        <v/>
+      </c>
+      <c r="L64" s="125" t="str">
         <f ca="1">IFERROR(Betas_Per_Segment[[#This Row],[Estimated Value]]-Betas_Per_Segment[[#This Row],[Allocated debt]],"")</f>
         <v/>
       </c>
-      <c r="M70" s="125" t="str">
+      <c r="M64" s="125" t="str">
         <f ca="1">IFERROR(Betas_Per_Segment[[#This Row],[Estimated equity]]/SUM(Betas_Per_Segment[Estimated equity])*Company_Equity,"")</f>
         <v/>
       </c>
-      <c r="N70" s="125" t="str">
+      <c r="N64" s="125" t="str">
         <f ca="1">IFERROR(Betas_Per_Segment[[#This Row],[Unlevered beta]]*(1+(1-Company_Tax_Rate)*Betas_Per_Segment[[#This Row],[Allocated debt]]/Betas_Per_Segment[[#This Row],[Scaled estimated equity ]]),"")</f>
         <v/>
       </c>
-      <c r="O70" s="125" t="str">
+      <c r="O64" s="125" t="str">
         <f ca="1">IFERROR(VLOOKUP(Betas_Per_Segment[[#This Row],[Segment]],INDIRECT(VLOOKUP(Industry_Average,Industry_TableConverter[],2,FALSE)),4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="P70" s="125" t="str">
+      <c r="P64" s="125" t="str">
         <f ca="1">IFERROR(Betas_Per_Segment[[#This Row],[Firm Value Proportion]]*Betas_Per_Segment[[#This Row],[Estimated levered beta using debt allocation]],"")</f>
         <v/>
       </c>
-      <c r="Q70" s="72" t="str">
+      <c r="Q64" s="72" t="str">
         <f ca="1">IFERROR(Betas_Per_Segment[[#This Row],[Estimated levered beta]]*Betas_Per_Segment[[#This Row],[Firm Value Proportion]],"")</f>
         <v/>
       </c>
-      <c r="S70" s="170" t="s">
+      <c r="S64" s="170" t="s">
         <v>460</v>
       </c>
-      <c r="T70" s="170"/>
-      <c r="U70" s="170"/>
-      <c r="V70" s="170"/>
-      <c r="W70" s="170"/>
-      <c r="X70" s="170"/>
-    </row>
-    <row r="71" spans="2:24" ht="15" customHeight="1" thickTop="1" thickBot="1">
-      <c r="C71" s="148" t="str">
+      <c r="T64" s="170"/>
+      <c r="U64" s="170"/>
+      <c r="V64" s="170"/>
+      <c r="W64" s="170"/>
+      <c r="X64" s="170"/>
+    </row>
+    <row r="65" spans="2:24" ht="15" customHeight="1" thickTop="1" thickBot="1">
+      <c r="C65" s="148" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D71" s="154" t="str">
+      <c r="D65" s="154" t="str">
         <f ca="1">IFERROR(VLOOKUP(Betas_Per_Segment[[#This Row],[Segment]],INDIRECT(VLOOKUP(Industry_Average,Industry_TableConverter[],3,FALSE)),3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="E71" s="72" t="str">
+      <c r="E65" s="72" t="str">
         <f ca="1">IFERROR(Betas_Per_Segment[[#This Row],[EV/Sales]]*VLOOKUP(Betas_Per_Segment[[#This Row],[Segment]],Operations_Per_Segment_Region[],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F71" s="138" t="str">
+      <c r="F65" s="138" t="str">
         <f ca="1">IFERROR(Betas_Per_Segment[[#This Row],[Estimated Value]]/Estimated_Firm_Value,"")</f>
         <v/>
       </c>
-      <c r="G71" s="125" t="str">
+      <c r="G65" s="125" t="str">
         <f ca="1">IFERROR(VLOOKUP(Betas_Per_Segment[[#This Row],[Segment]],INDIRECT(VLOOKUP(Industry_Average,Industry_TableConverter[],2,FALSE)),8,FALSE),"")</f>
         <v/>
       </c>
-      <c r="H71" s="72" t="str">
+      <c r="H65" s="72" t="str">
         <f ca="1">IFERROR(Betas_Per_Segment[[#This Row],[Unlevered beta]]*Betas_Per_Segment[[#This Row],[Firm Value Proportion]],"")</f>
         <v/>
       </c>
-      <c r="I71" s="125" t="str">
+      <c r="I65" s="125" t="str">
         <f ca="1">IFERROR(Betas_Per_Segment[[#This Row],[Unlevered beta]]*(1+(1-Company_Tax_Rate)*(Company_Debt/Company_Equity)),"")</f>
         <v/>
       </c>
-      <c r="J71" s="125" t="str">
+      <c r="J65" s="125" t="str">
         <f ca="1">IFERROR(Betas_Per_Segment[[#This Row],[Estimated debt]]/SUM(Betas_Per_Segment[Estimated debt])*Company_Debt,"")</f>
         <v/>
       </c>
-      <c r="K71" s="125" t="str">
-        <f ca="1">IFERROR(Betas_Per_Segment[[#This Row],[Estimated Value]]*Betas_Per_Segment[Industry D/E]/$F$62,"")</f>
-        <v/>
-      </c>
-      <c r="L71" s="125" t="str">
+      <c r="K65" s="125" t="str">
+        <f ca="1">IFERROR(Betas_Per_Segment[[#This Row],[Estimated Value]]*Betas_Per_Segment[Industry D/E]/$F$56,"")</f>
+        <v/>
+      </c>
+      <c r="L65" s="125" t="str">
         <f ca="1">IFERROR(Betas_Per_Segment[[#This Row],[Estimated Value]]-Betas_Per_Segment[[#This Row],[Allocated debt]],"")</f>
         <v/>
       </c>
-      <c r="M71" s="125" t="str">
+      <c r="M65" s="125" t="str">
         <f ca="1">IFERROR(Betas_Per_Segment[[#This Row],[Estimated equity]]/SUM(Betas_Per_Segment[Estimated equity])*Company_Equity,"")</f>
         <v/>
       </c>
-      <c r="N71" s="125"/>
-      <c r="O71" s="125" t="str">
+      <c r="N65" s="125"/>
+      <c r="O65" s="125" t="str">
         <f ca="1">IFERROR(VLOOKUP(Betas_Per_Segment[[#This Row],[Segment]],INDIRECT(VLOOKUP(Industry_Average,Industry_TableConverter[],2,FALSE)),4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="P71" s="125" t="str">
+      <c r="P65" s="125" t="str">
         <f ca="1">IFERROR(Betas_Per_Segment[[#This Row],[Firm Value Proportion]]*Betas_Per_Segment[[#This Row],[Estimated levered beta using debt allocation]],"")</f>
         <v/>
       </c>
-      <c r="Q71" s="72" t="str">
+      <c r="Q65" s="72" t="str">
         <f ca="1">IFERROR(Betas_Per_Segment[[#This Row],[Estimated levered beta]]*Betas_Per_Segment[[#This Row],[Firm Value Proportion]],"")</f>
         <v/>
       </c>
-      <c r="S71" s="170"/>
-      <c r="T71" s="170"/>
-      <c r="U71" s="170"/>
-      <c r="V71" s="170"/>
-      <c r="W71" s="170"/>
-      <c r="X71" s="170"/>
-    </row>
-    <row r="72" spans="2:24" ht="23.25" customHeight="1" thickTop="1">
-      <c r="C72" s="151" t="s">
+      <c r="S65" s="170"/>
+      <c r="T65" s="170"/>
+      <c r="U65" s="170"/>
+      <c r="V65" s="170"/>
+      <c r="W65" s="170"/>
+      <c r="X65" s="170"/>
+    </row>
+    <row r="66" spans="2:24" ht="23.25" customHeight="1" thickTop="1">
+      <c r="C66" s="151" t="s">
         <v>302</v>
       </c>
-      <c r="D72" s="151"/>
-      <c r="E72" s="151">
+      <c r="D66" s="151"/>
+      <c r="E66" s="151">
         <f ca="1">SUBTOTAL(109,Betas_Per_Segment[Estimated Value])</f>
         <v>174590.94103304454</v>
       </c>
-      <c r="F72" s="151"/>
-      <c r="G72" s="161">
+      <c r="F66" s="151"/>
+      <c r="G66" s="161">
         <f ca="1">SUM(Betas_Per_Segment[Firm value proportion * Unlevered Beta])</f>
         <v>0.92070493947431598</v>
       </c>
-      <c r="H72" s="151"/>
-      <c r="I72" s="161">
+      <c r="H66" s="151"/>
+      <c r="I66" s="161">
         <f ca="1">SUM(Betas_Per_Segment[Firm value proportion * Levered Beta2])</f>
         <v>1.369548597468045</v>
       </c>
-      <c r="J72" s="161"/>
-      <c r="K72" s="161"/>
-      <c r="L72" s="161"/>
-      <c r="M72" s="161">
+      <c r="J66" s="161"/>
+      <c r="K66" s="161"/>
+      <c r="L66" s="161"/>
+      <c r="M66" s="161">
         <f ca="1">SUBTOTAL(109,Betas_Per_Segment[[Scaled estimated equity ]])</f>
         <v>9999.9999999999982</v>
       </c>
-      <c r="N72">
+      <c r="N66">
         <f ca="1">SUM(Betas_Per_Segment[Firm value proportion * Levered Beta debt])</f>
         <v>1.3605273792900041</v>
       </c>
-      <c r="O72">
+      <c r="O66">
         <f ca="1">SUM(Betas_Per_Segment[Industry D/E])</f>
         <v>1.6823012700021569</v>
       </c>
-      <c r="Q72" s="151"/>
-    </row>
-    <row r="74" spans="2:24" ht="15.75" thickBot="1">
-      <c r="B74" t="s">
+      <c r="Q66" s="151"/>
+    </row>
+    <row r="68" spans="2:24" ht="15.75" thickBot="1">
+      <c r="B68" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="75" spans="2:24" ht="30.75" customHeight="1">
-      <c r="C75" s="160" t="s">
+    <row r="69" spans="2:24" ht="30.75" customHeight="1">
+      <c r="C69" s="160" t="s">
         <v>469</v>
       </c>
-      <c r="D75" s="40" t="s">
+      <c r="D69" s="40" t="s">
         <v>298</v>
       </c>
-      <c r="E75" s="40" t="s">
+      <c r="E69" s="40" t="s">
         <v>299</v>
       </c>
-      <c r="F75" s="40" t="s">
+      <c r="F69" s="40" t="s">
         <v>300</v>
       </c>
-      <c r="G75" s="40" t="s">
+      <c r="G69" s="40" t="s">
         <v>301</v>
       </c>
-      <c r="H75" s="40" t="s">
+      <c r="H69" s="40" t="s">
         <v>443</v>
       </c>
-      <c r="I75" s="40" t="s">
+      <c r="I69" s="40" t="s">
         <v>457</v>
       </c>
-      <c r="J75" s="159" t="s">
+      <c r="J69" s="159" t="s">
         <v>477</v>
       </c>
-      <c r="K75" s="159" t="s">
+      <c r="K69" s="159" t="s">
         <v>478</v>
       </c>
-      <c r="L75" s="73" t="s">
+      <c r="L69" s="73" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="76" spans="2:24" ht="15.75" thickBot="1">
+    <row r="70" spans="2:24" ht="15.75" thickBot="1">
+      <c r="C70" s="150" t="str">
+        <f>IF(C45="","",C45)</f>
+        <v>Metals &amp; Mining</v>
+      </c>
+      <c r="D70" s="154" t="str">
+        <f>IFERROR(VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],EV_Sales_US[],3,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],3,FALSE)+VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],EV_Sales_China[],3,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],4,FALSE)+VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],EV_Sales_Europe[],3,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],5,FALSE)+VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],EV_Sales_India[],3,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],6,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="E70" s="72" t="str">
+        <f>IFERROR(Betas_Per_Segment_Region[[#This Row],[EV/Sales]]*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="F70" s="144" t="str">
+        <f>IFERROR(Betas_Per_Segment_Region[[#This Row],[Estimated Value]]/Betas_Per_Segment_Region[[#Totals],[Estimated Value]],"")</f>
+        <v/>
+      </c>
+      <c r="G70" s="125">
+        <f>IFERROR(VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],3,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Industry_Average_US[],8,FALSE)+VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],4,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Industry_Average_China[],8,FALSE)+VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],5,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Industry_Average_Europe[],8,FALSE)+VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],6,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Industry_Average_India[],8,FALSE)+VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],7,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Industry_Average_EmergingMarkets[],8,FALSE),"")</f>
+        <v>1.0806756987285682</v>
+      </c>
+      <c r="H70" s="155" t="str">
+        <f>IFERROR(Betas_Per_Segment_Region[[#This Row],[Firm Value Proportion]]*Betas_Per_Segment_Region[[#This Row],[Unlevered beta]],"")</f>
+        <v/>
+      </c>
+      <c r="I70" s="125">
+        <f>IFERROR(Betas_Per_Segment_Region[[#This Row],[Unlevered beta]]*(1+(1-Company_Tax_Rate)*(Company_Debt/Company_Equity)),"")</f>
+        <v>1.6075051018587452</v>
+      </c>
+      <c r="J70" s="125"/>
+      <c r="K70" s="125"/>
+      <c r="L70" s="72" t="str">
+        <f>IFERROR(Betas_Per_Segment_Region[[#This Row],[Firm Value Proportion]]*Betas_Per_Segment_Region[[#This Row],[Estimated levered beta]],"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="2:24" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C71" s="150" t="str">
+        <f t="shared" ref="C71:C76" si="1">IF(C46="","",C46)</f>
+        <v>Chemical (Diversified)</v>
+      </c>
+      <c r="D71" s="154" t="str">
+        <f>IFERROR(VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],EV_Sales_US[],3,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],3,FALSE)+VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],EV_Sales_China[],3,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],4,FALSE)+VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],EV_Sales_Europe[],3,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],5,FALSE)+VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],EV_Sales_India[],3,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],6,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="E71" s="72" t="str">
+        <f>IFERROR(Betas_Per_Segment_Region[[#This Row],[EV/Sales]]*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="F71" s="144" t="str">
+        <f>IFERROR(Betas_Per_Segment_Region[[#This Row],[Estimated Value]]/Betas_Per_Segment_Region[[#Totals],[Estimated Value]],"")</f>
+        <v/>
+      </c>
+      <c r="G71" s="125">
+        <f>IFERROR(VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],3,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Industry_Average_US[],8,FALSE)+VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],4,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Industry_Average_China[],8,FALSE)+VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],5,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Industry_Average_Europe[],8,FALSE)+VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],6,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Industry_Average_India[],8,FALSE)+VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],7,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Industry_Average_EmergingMarkets[],8,FALSE),"")</f>
+        <v>0</v>
+      </c>
+      <c r="H71" s="156" t="str">
+        <f>IFERROR(Betas_Per_Segment_Region[[#This Row],[Firm Value Proportion]]*Betas_Per_Segment_Region[[#This Row],[Unlevered beta]],"")</f>
+        <v/>
+      </c>
+      <c r="I71" s="125">
+        <f>IFERROR(Betas_Per_Segment_Region[[#This Row],[Unlevered beta]]*(1+(1-Company_Tax_Rate)*(Company_Debt/Company_Equity)),"")</f>
+        <v>0</v>
+      </c>
+      <c r="J71" s="125"/>
+      <c r="K71" s="125"/>
+      <c r="L71" s="72" t="str">
+        <f>IFERROR(Betas_Per_Segment_Region[[#This Row],[Firm Value Proportion]]*Betas_Per_Segment_Region[[#This Row],[Estimated levered beta]],"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="2:24" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C72" s="150" t="str">
+        <f t="shared" si="1"/>
+        <v>Coal &amp; Related Energy</v>
+      </c>
+      <c r="D72" s="154" t="str">
+        <f>IFERROR(VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],EV_Sales_US[],3,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],3,FALSE)+VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],EV_Sales_China[],3,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],4,FALSE)+VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],EV_Sales_Europe[],3,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],5,FALSE)+VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],EV_Sales_India[],3,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],6,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="E72" s="72" t="str">
+        <f>IFERROR(Betas_Per_Segment_Region[[#This Row],[EV/Sales]]*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="F72" s="144" t="str">
+        <f>IFERROR(Betas_Per_Segment_Region[[#This Row],[Estimated Value]]/Betas_Per_Segment_Region[[#Totals],[Estimated Value]],"")</f>
+        <v/>
+      </c>
+      <c r="G72" s="125">
+        <f>IFERROR(VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],3,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Industry_Average_US[],8,FALSE)+VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],4,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Industry_Average_China[],8,FALSE)+VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],5,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Industry_Average_Europe[],8,FALSE)+VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],6,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Industry_Average_India[],8,FALSE)+VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],7,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Industry_Average_EmergingMarkets[],8,FALSE),"")</f>
+        <v>0</v>
+      </c>
+      <c r="H72" s="156" t="str">
+        <f>IFERROR(Betas_Per_Segment_Region[[#This Row],[Firm Value Proportion]]*Betas_Per_Segment_Region[[#This Row],[Unlevered beta]],"")</f>
+        <v/>
+      </c>
+      <c r="I72" s="125">
+        <f>IFERROR(Betas_Per_Segment_Region[[#This Row],[Unlevered beta]]*(1+(1-Company_Tax_Rate)*(Company_Debt/Company_Equity)),"")</f>
+        <v>0</v>
+      </c>
+      <c r="J72" s="125"/>
+      <c r="K72" s="125"/>
+      <c r="L72" s="72" t="str">
+        <f>IFERROR(Betas_Per_Segment_Region[[#This Row],[Firm Value Proportion]]*Betas_Per_Segment_Region[[#This Row],[Estimated levered beta]],"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="2:24" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C73" s="150" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D73" s="154" t="str">
+        <f>IFERROR(VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],EV_Sales_US[],3,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],3,FALSE)+VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],EV_Sales_China[],3,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],4,FALSE)+VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],EV_Sales_Europe[],3,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],5,FALSE)+VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],EV_Sales_India[],3,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],6,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="E73" s="72" t="str">
+        <f>IFERROR(Betas_Per_Segment_Region[[#This Row],[EV/Sales]]*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="F73" s="144" t="str">
+        <f>IFERROR(Betas_Per_Segment_Region[[#This Row],[Estimated Value]]/Betas_Per_Segment_Region[[#Totals],[Estimated Value]],"")</f>
+        <v/>
+      </c>
+      <c r="G73" s="125" t="str">
+        <f>IFERROR(VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],3,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Industry_Average_US[],8,FALSE)+VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],4,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Industry_Average_China[],8,FALSE)+VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],5,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Industry_Average_Europe[],8,FALSE)+VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],6,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Industry_Average_India[],8,FALSE)+VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],7,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Industry_Average_EmergingMarkets[],8,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="H73" s="156" t="str">
+        <f>IFERROR(Betas_Per_Segment_Region[[#This Row],[Firm Value Proportion]]*Betas_Per_Segment_Region[[#This Row],[Unlevered beta]],"")</f>
+        <v/>
+      </c>
+      <c r="I73" s="125" t="str">
+        <f>IFERROR(Betas_Per_Segment_Region[[#This Row],[Unlevered beta]]*(1+(1-Company_Tax_Rate)*(Company_Debt/Company_Equity)),"")</f>
+        <v/>
+      </c>
+      <c r="J73" s="125"/>
+      <c r="K73" s="125"/>
+      <c r="L73" s="72" t="str">
+        <f>IFERROR(Betas_Per_Segment_Region[[#This Row],[Firm Value Proportion]]*Betas_Per_Segment_Region[[#This Row],[Estimated levered beta]],"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="2:24" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C74" s="150" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D74" s="154" t="str">
+        <f>IFERROR(VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],EV_Sales_US[],3,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],3,FALSE)+VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],EV_Sales_China[],3,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],4,FALSE)+VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],EV_Sales_Europe[],3,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],5,FALSE)+VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],EV_Sales_India[],3,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],6,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="E74" s="72" t="str">
+        <f>IFERROR(Betas_Per_Segment_Region[[#This Row],[EV/Sales]]*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="F74" s="144" t="str">
+        <f>IFERROR(Betas_Per_Segment_Region[[#This Row],[Estimated Value]]/Betas_Per_Segment_Region[[#Totals],[Estimated Value]],"")</f>
+        <v/>
+      </c>
+      <c r="G74" s="125" t="str">
+        <f>IFERROR(VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],3,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Industry_Average_US[],8,FALSE)+VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],4,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Industry_Average_China[],8,FALSE)+VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],5,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Industry_Average_Europe[],8,FALSE)+VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],6,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Industry_Average_India[],8,FALSE)+VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],7,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Industry_Average_EmergingMarkets[],8,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="H74" s="156" t="str">
+        <f>IFERROR(Betas_Per_Segment_Region[[#This Row],[Firm Value Proportion]]*Betas_Per_Segment_Region[[#This Row],[Unlevered beta]],"")</f>
+        <v/>
+      </c>
+      <c r="I74" s="125" t="str">
+        <f>IFERROR(Betas_Per_Segment_Region[[#This Row],[Unlevered beta]]*(1+(1-Company_Tax_Rate)*(Company_Debt/Company_Equity)),"")</f>
+        <v/>
+      </c>
+      <c r="J74" s="125"/>
+      <c r="K74" s="125"/>
+      <c r="L74" s="72" t="str">
+        <f>IFERROR(Betas_Per_Segment_Region[[#This Row],[Firm Value Proportion]]*Betas_Per_Segment_Region[[#This Row],[Estimated levered beta]],"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="2:24" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C75" s="150" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D75" s="154" t="str">
+        <f>IFERROR(VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],EV_Sales_US[],3,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],3,FALSE)+VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],EV_Sales_China[],3,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],4,FALSE)+VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],EV_Sales_Europe[],3,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],5,FALSE)+VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],EV_Sales_India[],3,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],6,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="E75" s="72" t="str">
+        <f>IFERROR(Betas_Per_Segment_Region[[#This Row],[EV/Sales]]*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="F75" s="144" t="str">
+        <f>IFERROR(Betas_Per_Segment_Region[[#This Row],[Estimated Value]]/Betas_Per_Segment_Region[[#Totals],[Estimated Value]],"")</f>
+        <v/>
+      </c>
+      <c r="G75" s="125" t="str">
+        <f>IFERROR(VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],3,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Industry_Average_US[],8,FALSE)+VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],4,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Industry_Average_China[],8,FALSE)+VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],5,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Industry_Average_Europe[],8,FALSE)+VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],6,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Industry_Average_India[],8,FALSE)+VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],7,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Industry_Average_EmergingMarkets[],8,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="H75" s="156" t="str">
+        <f>IFERROR(Betas_Per_Segment_Region[[#This Row],[Firm Value Proportion]]*Betas_Per_Segment_Region[[#This Row],[Unlevered beta]],"")</f>
+        <v/>
+      </c>
+      <c r="I75" s="125" t="str">
+        <f>IFERROR(Betas_Per_Segment_Region[[#This Row],[Unlevered beta]]*(1+(1-Company_Tax_Rate)*(Company_Debt/Company_Equity)),"")</f>
+        <v/>
+      </c>
+      <c r="J75" s="125"/>
+      <c r="K75" s="125"/>
+      <c r="L75" s="72" t="str">
+        <f>IFERROR(Betas_Per_Segment_Region[[#This Row],[Firm Value Proportion]]*Betas_Per_Segment_Region[[#This Row],[Estimated levered beta]],"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="2:24" ht="16.5" thickTop="1" thickBot="1">
       <c r="C76" s="150" t="str">
-        <f>IF(C51="","",C51)</f>
-        <v>Metals &amp; Mining</v>
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="D76" s="154" t="str">
         <f>IFERROR(VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],EV_Sales_US[],3,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],3,FALSE)+VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],EV_Sales_China[],3,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],4,FALSE)+VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],EV_Sales_Europe[],3,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],5,FALSE)+VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],EV_Sales_India[],3,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],6,FALSE),"")</f>
@@ -8138,17 +9336,17 @@
         <f>IFERROR(Betas_Per_Segment_Region[[#This Row],[Estimated Value]]/Betas_Per_Segment_Region[[#Totals],[Estimated Value]],"")</f>
         <v/>
       </c>
-      <c r="G76" s="125">
+      <c r="G76" s="125" t="str">
         <f>IFERROR(VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],3,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Industry_Average_US[],8,FALSE)+VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],4,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Industry_Average_China[],8,FALSE)+VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],5,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Industry_Average_Europe[],8,FALSE)+VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],6,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Industry_Average_India[],8,FALSE)+VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],7,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Industry_Average_EmergingMarkets[],8,FALSE),"")</f>
-        <v>1.0806756987285682</v>
-      </c>
-      <c r="H76" s="155" t="str">
+        <v/>
+      </c>
+      <c r="H76" s="156" t="str">
         <f>IFERROR(Betas_Per_Segment_Region[[#This Row],[Firm Value Proportion]]*Betas_Per_Segment_Region[[#This Row],[Unlevered beta]],"")</f>
         <v/>
       </c>
-      <c r="I76" s="125">
+      <c r="I76" s="125" t="str">
         <f>IFERROR(Betas_Per_Segment_Region[[#This Row],[Unlevered beta]]*(1+(1-Company_Tax_Rate)*(Company_Debt/Company_Equity)),"")</f>
-        <v>1.6075051018587452</v>
+        <v/>
       </c>
       <c r="J76" s="125"/>
       <c r="K76" s="125"/>
@@ -8157,282 +9355,61 @@
         <v/>
       </c>
     </row>
-    <row r="77" spans="2:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="C77" s="150" t="str">
-        <f t="shared" ref="C77:C82" si="1">IF(C52="","",C52)</f>
-        <v>Chemical (Diversified)</v>
-      </c>
-      <c r="D77" s="154" t="str">
-        <f>IFERROR(VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],EV_Sales_US[],3,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],3,FALSE)+VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],EV_Sales_China[],3,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],4,FALSE)+VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],EV_Sales_Europe[],3,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],5,FALSE)+VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],EV_Sales_India[],3,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],6,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E77" s="72" t="str">
-        <f>IFERROR(Betas_Per_Segment_Region[[#This Row],[EV/Sales]]*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="F77" s="144" t="str">
-        <f>IFERROR(Betas_Per_Segment_Region[[#This Row],[Estimated Value]]/Betas_Per_Segment_Region[[#Totals],[Estimated Value]],"")</f>
-        <v/>
-      </c>
-      <c r="G77" s="125">
-        <f>IFERROR(VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],3,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Industry_Average_US[],8,FALSE)+VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],4,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Industry_Average_China[],8,FALSE)+VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],5,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Industry_Average_Europe[],8,FALSE)+VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],6,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Industry_Average_India[],8,FALSE)+VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],7,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Industry_Average_EmergingMarkets[],8,FALSE),"")</f>
-        <v>0</v>
-      </c>
-      <c r="H77" s="156" t="str">
-        <f>IFERROR(Betas_Per_Segment_Region[[#This Row],[Firm Value Proportion]]*Betas_Per_Segment_Region[[#This Row],[Unlevered beta]],"")</f>
-        <v/>
-      </c>
-      <c r="I77" s="125">
-        <f>IFERROR(Betas_Per_Segment_Region[[#This Row],[Unlevered beta]]*(1+(1-Company_Tax_Rate)*(Company_Debt/Company_Equity)),"")</f>
-        <v>0</v>
-      </c>
-      <c r="J77" s="125"/>
-      <c r="K77" s="125"/>
-      <c r="L77" s="72" t="str">
-        <f>IFERROR(Betas_Per_Segment_Region[[#This Row],[Firm Value Proportion]]*Betas_Per_Segment_Region[[#This Row],[Estimated levered beta]],"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="78" spans="2:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="C78" s="150" t="str">
-        <f t="shared" si="1"/>
-        <v>Coal &amp; Related Energy</v>
-      </c>
-      <c r="D78" s="154" t="str">
-        <f>IFERROR(VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],EV_Sales_US[],3,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],3,FALSE)+VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],EV_Sales_China[],3,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],4,FALSE)+VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],EV_Sales_Europe[],3,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],5,FALSE)+VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],EV_Sales_India[],3,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],6,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E78" s="72" t="str">
-        <f>IFERROR(Betas_Per_Segment_Region[[#This Row],[EV/Sales]]*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="F78" s="144" t="str">
-        <f>IFERROR(Betas_Per_Segment_Region[[#This Row],[Estimated Value]]/Betas_Per_Segment_Region[[#Totals],[Estimated Value]],"")</f>
-        <v/>
-      </c>
-      <c r="G78" s="125">
-        <f>IFERROR(VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],3,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Industry_Average_US[],8,FALSE)+VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],4,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Industry_Average_China[],8,FALSE)+VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],5,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Industry_Average_Europe[],8,FALSE)+VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],6,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Industry_Average_India[],8,FALSE)+VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],7,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Industry_Average_EmergingMarkets[],8,FALSE),"")</f>
-        <v>0</v>
-      </c>
-      <c r="H78" s="156" t="str">
-        <f>IFERROR(Betas_Per_Segment_Region[[#This Row],[Firm Value Proportion]]*Betas_Per_Segment_Region[[#This Row],[Unlevered beta]],"")</f>
-        <v/>
-      </c>
-      <c r="I78" s="125">
-        <f>IFERROR(Betas_Per_Segment_Region[[#This Row],[Unlevered beta]]*(1+(1-Company_Tax_Rate)*(Company_Debt/Company_Equity)),"")</f>
-        <v>0</v>
-      </c>
-      <c r="J78" s="125"/>
-      <c r="K78" s="125"/>
-      <c r="L78" s="72" t="str">
-        <f>IFERROR(Betas_Per_Segment_Region[[#This Row],[Firm Value Proportion]]*Betas_Per_Segment_Region[[#This Row],[Estimated levered beta]],"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="79" spans="2:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="C79" s="150" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="D79" s="154" t="str">
-        <f>IFERROR(VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],EV_Sales_US[],3,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],3,FALSE)+VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],EV_Sales_China[],3,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],4,FALSE)+VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],EV_Sales_Europe[],3,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],5,FALSE)+VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],EV_Sales_India[],3,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],6,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E79" s="72" t="str">
-        <f>IFERROR(Betas_Per_Segment_Region[[#This Row],[EV/Sales]]*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="F79" s="144" t="str">
-        <f>IFERROR(Betas_Per_Segment_Region[[#This Row],[Estimated Value]]/Betas_Per_Segment_Region[[#Totals],[Estimated Value]],"")</f>
-        <v/>
-      </c>
-      <c r="G79" s="125" t="str">
-        <f>IFERROR(VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],3,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Industry_Average_US[],8,FALSE)+VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],4,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Industry_Average_China[],8,FALSE)+VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],5,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Industry_Average_Europe[],8,FALSE)+VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],6,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Industry_Average_India[],8,FALSE)+VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],7,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Industry_Average_EmergingMarkets[],8,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="H79" s="156" t="str">
-        <f>IFERROR(Betas_Per_Segment_Region[[#This Row],[Firm Value Proportion]]*Betas_Per_Segment_Region[[#This Row],[Unlevered beta]],"")</f>
-        <v/>
-      </c>
-      <c r="I79" s="125" t="str">
-        <f>IFERROR(Betas_Per_Segment_Region[[#This Row],[Unlevered beta]]*(1+(1-Company_Tax_Rate)*(Company_Debt/Company_Equity)),"")</f>
-        <v/>
-      </c>
-      <c r="J79" s="125"/>
-      <c r="K79" s="125"/>
-      <c r="L79" s="72" t="str">
-        <f>IFERROR(Betas_Per_Segment_Region[[#This Row],[Firm Value Proportion]]*Betas_Per_Segment_Region[[#This Row],[Estimated levered beta]],"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="80" spans="2:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="C80" s="150" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="D80" s="154" t="str">
-        <f>IFERROR(VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],EV_Sales_US[],3,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],3,FALSE)+VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],EV_Sales_China[],3,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],4,FALSE)+VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],EV_Sales_Europe[],3,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],5,FALSE)+VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],EV_Sales_India[],3,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],6,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E80" s="72" t="str">
-        <f>IFERROR(Betas_Per_Segment_Region[[#This Row],[EV/Sales]]*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="F80" s="144" t="str">
-        <f>IFERROR(Betas_Per_Segment_Region[[#This Row],[Estimated Value]]/Betas_Per_Segment_Region[[#Totals],[Estimated Value]],"")</f>
-        <v/>
-      </c>
-      <c r="G80" s="125" t="str">
-        <f>IFERROR(VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],3,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Industry_Average_US[],8,FALSE)+VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],4,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Industry_Average_China[],8,FALSE)+VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],5,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Industry_Average_Europe[],8,FALSE)+VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],6,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Industry_Average_India[],8,FALSE)+VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],7,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Industry_Average_EmergingMarkets[],8,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="H80" s="156" t="str">
-        <f>IFERROR(Betas_Per_Segment_Region[[#This Row],[Firm Value Proportion]]*Betas_Per_Segment_Region[[#This Row],[Unlevered beta]],"")</f>
-        <v/>
-      </c>
-      <c r="I80" s="125" t="str">
-        <f>IFERROR(Betas_Per_Segment_Region[[#This Row],[Unlevered beta]]*(1+(1-Company_Tax_Rate)*(Company_Debt/Company_Equity)),"")</f>
-        <v/>
-      </c>
-      <c r="J80" s="125"/>
-      <c r="K80" s="125"/>
-      <c r="L80" s="72" t="str">
-        <f>IFERROR(Betas_Per_Segment_Region[[#This Row],[Firm Value Proportion]]*Betas_Per_Segment_Region[[#This Row],[Estimated levered beta]],"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="81" spans="3:12" ht="16.5" thickTop="1" thickBot="1">
-      <c r="C81" s="150" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="D81" s="154" t="str">
-        <f>IFERROR(VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],EV_Sales_US[],3,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],3,FALSE)+VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],EV_Sales_China[],3,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],4,FALSE)+VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],EV_Sales_Europe[],3,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],5,FALSE)+VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],EV_Sales_India[],3,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],6,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E81" s="72" t="str">
-        <f>IFERROR(Betas_Per_Segment_Region[[#This Row],[EV/Sales]]*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="F81" s="144" t="str">
-        <f>IFERROR(Betas_Per_Segment_Region[[#This Row],[Estimated Value]]/Betas_Per_Segment_Region[[#Totals],[Estimated Value]],"")</f>
-        <v/>
-      </c>
-      <c r="G81" s="125" t="str">
-        <f>IFERROR(VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],3,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Industry_Average_US[],8,FALSE)+VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],4,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Industry_Average_China[],8,FALSE)+VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],5,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Industry_Average_Europe[],8,FALSE)+VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],6,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Industry_Average_India[],8,FALSE)+VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],7,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Industry_Average_EmergingMarkets[],8,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="H81" s="156" t="str">
-        <f>IFERROR(Betas_Per_Segment_Region[[#This Row],[Firm Value Proportion]]*Betas_Per_Segment_Region[[#This Row],[Unlevered beta]],"")</f>
-        <v/>
-      </c>
-      <c r="I81" s="125" t="str">
-        <f>IFERROR(Betas_Per_Segment_Region[[#This Row],[Unlevered beta]]*(1+(1-Company_Tax_Rate)*(Company_Debt/Company_Equity)),"")</f>
-        <v/>
-      </c>
-      <c r="J81" s="125"/>
-      <c r="K81" s="125"/>
-      <c r="L81" s="72" t="str">
-        <f>IFERROR(Betas_Per_Segment_Region[[#This Row],[Firm Value Proportion]]*Betas_Per_Segment_Region[[#This Row],[Estimated levered beta]],"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="82" spans="3:12" ht="16.5" thickTop="1" thickBot="1">
-      <c r="C82" s="150" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="D82" s="154" t="str">
-        <f>IFERROR(VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],EV_Sales_US[],3,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],3,FALSE)+VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],EV_Sales_China[],3,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],4,FALSE)+VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],EV_Sales_Europe[],3,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],5,FALSE)+VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],EV_Sales_India[],3,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],6,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E82" s="72" t="str">
-        <f>IFERROR(Betas_Per_Segment_Region[[#This Row],[EV/Sales]]*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="F82" s="144" t="str">
-        <f>IFERROR(Betas_Per_Segment_Region[[#This Row],[Estimated Value]]/Betas_Per_Segment_Region[[#Totals],[Estimated Value]],"")</f>
-        <v/>
-      </c>
-      <c r="G82" s="125" t="str">
-        <f>IFERROR(VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],3,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Industry_Average_US[],8,FALSE)+VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],4,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Industry_Average_China[],8,FALSE)+VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],5,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Industry_Average_Europe[],8,FALSE)+VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],6,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Industry_Average_India[],8,FALSE)+VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Operations_Per_Segment_Region[],7,FALSE)*VLOOKUP(Betas_Per_Segment_Region[[#This Row],[Segment]],Industry_Average_EmergingMarkets[],8,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="H82" s="156" t="str">
-        <f>IFERROR(Betas_Per_Segment_Region[[#This Row],[Firm Value Proportion]]*Betas_Per_Segment_Region[[#This Row],[Unlevered beta]],"")</f>
-        <v/>
-      </c>
-      <c r="I82" s="125" t="str">
-        <f>IFERROR(Betas_Per_Segment_Region[[#This Row],[Unlevered beta]]*(1+(1-Company_Tax_Rate)*(Company_Debt/Company_Equity)),"")</f>
-        <v/>
-      </c>
-      <c r="J82" s="125"/>
-      <c r="K82" s="125"/>
-      <c r="L82" s="72" t="str">
-        <f>IFERROR(Betas_Per_Segment_Region[[#This Row],[Firm Value Proportion]]*Betas_Per_Segment_Region[[#This Row],[Estimated levered beta]],"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="83" spans="3:12" ht="15.75" thickTop="1">
-      <c r="C83" s="5" t="s">
+    <row r="77" spans="2:24" ht="15.75" thickTop="1">
+      <c r="C77" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="E83">
+      <c r="E77">
         <f>SUM(Betas_Per_Segment_Region[Estimated Value])</f>
         <v>0</v>
       </c>
-      <c r="G83" s="158">
+      <c r="G77" s="158">
         <f>SUM(Betas_Per_Segment_Region[Firm value proportion * Unlevered Beta])</f>
         <v>0</v>
       </c>
-      <c r="I83" s="158">
+      <c r="I77" s="158">
         <f>SUM(Betas_Per_Segment_Region[Firm value proportion * Levered Beta])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="3:12" ht="135">
-      <c r="D84" s="40" t="s">
+    <row r="78" spans="2:24" ht="135">
+      <c r="D78" s="40" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="87" spans="3:12">
-      <c r="C87" s="47"/>
-    </row>
-    <row r="88" spans="3:12">
-      <c r="C88" s="47"/>
-    </row>
-    <row r="98" spans="2:4">
-      <c r="B98" t="s">
+    <row r="81" spans="2:3">
+      <c r="C81" s="47"/>
+    </row>
+    <row r="82" spans="2:3">
+      <c r="C82" s="47"/>
+    </row>
+    <row r="92" spans="2:3">
+      <c r="B92" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="99" spans="2:4">
-      <c r="C99" s="132" t="s">
-        <v>427</v>
-      </c>
-      <c r="D99" s="134">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="137" ht="30.75" customHeight="1"/>
+    <row r="131" ht="30.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="S70:X71"/>
-    <mergeCell ref="E49:I49"/>
+    <mergeCell ref="S64:X65"/>
+    <mergeCell ref="E43:I43"/>
     <mergeCell ref="C2:C4"/>
-    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="C56:D56"/>
     <mergeCell ref="C8:D8"/>
-    <mergeCell ref="R65:T66"/>
+    <mergeCell ref="R59:T60"/>
   </mergeCells>
-  <dataValidations count="3">
-    <dataValidation type="decimal" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D46">
+  <dataValidations count="4">
+    <dataValidation type="decimal" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D40">
       <formula1>100</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C51:C57">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C45:C51">
       <formula1>Input_Industries</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F8">
       <formula1>Input_Company_Types</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D10">
+      <formula1>Input_Locations</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -8455,7 +9432,7 @@
           <x14:formula1>
             <xm:f>'Input data &amp; validation'!$B$20:$B$25</xm:f>
           </x14:formula1>
-          <xm:sqref>C62:D62</xm:sqref>
+          <xm:sqref>C56:D56</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -28689,13 +29666,13 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Blad4"/>
-  <dimension ref="B1:AM271"/>
+  <dimension ref="B1:AM297"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="2" ySplit="7" topLeftCell="C137" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="7" topLeftCell="C289" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="F141" sqref="F141"/>
+      <selection pane="bottomRight" activeCell="C297" sqref="C297"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -36393,7 +37370,7 @@
         <v>3.6227526200864911E-2</v>
       </c>
     </row>
-    <row r="145" spans="2:7">
+    <row r="145" spans="2:11">
       <c r="B145" s="56" t="s">
         <v>242</v>
       </c>
@@ -36416,7 +37393,7 @@
         <v>2.9645278372921257E-2</v>
       </c>
     </row>
-    <row r="146" spans="2:7">
+    <row r="146" spans="2:11">
       <c r="B146" s="56" t="s">
         <v>239</v>
       </c>
@@ -36439,7 +37416,7 @@
         <v>1.1438938199844649E-2</v>
       </c>
     </row>
-    <row r="147" spans="2:7">
+    <row r="147" spans="2:11">
       <c r="B147" s="56" t="s">
         <v>238</v>
       </c>
@@ -36462,7 +37439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="2:7">
+    <row r="148" spans="2:11">
       <c r="B148" s="56" t="s">
         <v>240</v>
       </c>
@@ -36485,7 +37462,7 @@
         <v>1.2941063870189749E-2</v>
       </c>
     </row>
-    <row r="149" spans="2:7">
+    <row r="149" spans="2:11">
       <c r="B149" s="58" t="s">
         <v>241</v>
       </c>
@@ -36508,7 +37485,4448 @@
         <v>1.35E-2</v>
       </c>
     </row>
-    <row r="271" ht="30.75" customHeight="1"/>
+    <row r="151" spans="2:11" ht="15.75">
+      <c r="B151" s="198" t="s">
+        <v>529</v>
+      </c>
+      <c r="C151" s="199" t="s">
+        <v>671</v>
+      </c>
+      <c r="D151" s="199" t="s">
+        <v>672</v>
+      </c>
+      <c r="E151" s="199" t="s">
+        <v>673</v>
+      </c>
+      <c r="F151" s="199" t="s">
+        <v>674</v>
+      </c>
+      <c r="G151" s="199" t="s">
+        <v>675</v>
+      </c>
+      <c r="H151" s="199" t="s">
+        <v>676</v>
+      </c>
+      <c r="I151" s="199" t="s">
+        <v>677</v>
+      </c>
+      <c r="J151" s="199" t="s">
+        <v>678</v>
+      </c>
+      <c r="K151" s="200" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="152" spans="2:11" ht="15.75">
+      <c r="B152" s="75" t="s">
+        <v>530</v>
+      </c>
+      <c r="C152" s="194">
+        <v>0</v>
+      </c>
+      <c r="D152" s="194">
+        <v>0.2</v>
+      </c>
+      <c r="E152" s="194">
+        <v>0.2</v>
+      </c>
+      <c r="F152" s="194">
+        <v>0.2</v>
+      </c>
+      <c r="G152" s="194">
+        <v>0.2</v>
+      </c>
+      <c r="H152" s="194">
+        <v>0.2</v>
+      </c>
+      <c r="I152" s="194">
+        <v>0.2</v>
+      </c>
+      <c r="J152" s="194">
+        <v>0.2</v>
+      </c>
+      <c r="K152" s="196">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="153" spans="2:11" ht="15.75">
+      <c r="B153" s="75" t="s">
+        <v>531</v>
+      </c>
+      <c r="C153" s="194">
+        <v>0.2</v>
+      </c>
+      <c r="D153" s="194">
+        <v>0.2</v>
+      </c>
+      <c r="E153" s="194">
+        <v>0.1</v>
+      </c>
+      <c r="F153" s="194">
+        <v>0.1</v>
+      </c>
+      <c r="G153" s="194">
+        <v>0.1</v>
+      </c>
+      <c r="H153" s="194">
+        <v>0.1</v>
+      </c>
+      <c r="I153" s="194">
+        <v>0.1</v>
+      </c>
+      <c r="J153" s="194">
+        <v>0.1</v>
+      </c>
+      <c r="K153" s="196">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="154" spans="2:11" ht="15.75">
+      <c r="B154" s="75" t="s">
+        <v>532</v>
+      </c>
+      <c r="C154" s="193"/>
+      <c r="D154" s="193"/>
+      <c r="E154" s="193"/>
+      <c r="F154" s="193"/>
+      <c r="G154" s="193"/>
+      <c r="H154" s="193"/>
+      <c r="I154" s="193"/>
+      <c r="J154" s="194">
+        <v>0.25</v>
+      </c>
+      <c r="K154" s="196">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="155" spans="2:11" ht="15.75">
+      <c r="B155" s="75" t="s">
+        <v>533</v>
+      </c>
+      <c r="C155" s="194">
+        <v>0.35</v>
+      </c>
+      <c r="D155" s="194">
+        <v>0.35</v>
+      </c>
+      <c r="E155" s="194">
+        <v>0.35</v>
+      </c>
+      <c r="F155" s="194">
+        <v>0.35</v>
+      </c>
+      <c r="G155" s="194">
+        <v>0.35</v>
+      </c>
+      <c r="H155" s="194">
+        <v>0.35</v>
+      </c>
+      <c r="I155" s="194">
+        <v>0.35</v>
+      </c>
+      <c r="J155" s="194">
+        <v>0.35</v>
+      </c>
+      <c r="K155" s="196">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="156" spans="2:11" ht="15.75">
+      <c r="B156" s="75" t="s">
+        <v>534</v>
+      </c>
+      <c r="C156" s="194">
+        <v>0.35</v>
+      </c>
+      <c r="D156" s="194">
+        <v>0.35</v>
+      </c>
+      <c r="E156" s="194">
+        <v>0.35</v>
+      </c>
+      <c r="F156" s="194">
+        <v>0.35</v>
+      </c>
+      <c r="G156" s="194">
+        <v>0.35</v>
+      </c>
+      <c r="H156" s="194">
+        <v>0.35</v>
+      </c>
+      <c r="I156" s="194">
+        <v>0.35</v>
+      </c>
+      <c r="J156" s="194">
+        <v>0.35</v>
+      </c>
+      <c r="K156" s="196">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="157" spans="2:11" ht="15.75">
+      <c r="B157" s="75" t="s">
+        <v>535</v>
+      </c>
+      <c r="C157" s="194">
+        <v>0.2</v>
+      </c>
+      <c r="D157" s="194">
+        <v>0.2</v>
+      </c>
+      <c r="E157" s="194">
+        <v>0.2</v>
+      </c>
+      <c r="F157" s="194">
+        <v>0.2</v>
+      </c>
+      <c r="G157" s="194">
+        <v>0.2</v>
+      </c>
+      <c r="H157" s="194">
+        <v>0.2</v>
+      </c>
+      <c r="I157" s="194">
+        <v>0.2</v>
+      </c>
+      <c r="J157" s="194">
+        <v>0.2</v>
+      </c>
+      <c r="K157" s="196">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="158" spans="2:11" ht="15.75">
+      <c r="B158" s="75" t="s">
+        <v>536</v>
+      </c>
+      <c r="C158" s="194">
+        <v>0.35</v>
+      </c>
+      <c r="D158" s="194">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="E158" s="194">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="F158" s="194">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="G158" s="194">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="H158" s="194">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="I158" s="194">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="J158" s="194">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="K158" s="196">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="159" spans="2:11" ht="15.75">
+      <c r="B159" s="75" t="s">
+        <v>235</v>
+      </c>
+      <c r="C159" s="194">
+        <v>0.3</v>
+      </c>
+      <c r="D159" s="194">
+        <v>0.3</v>
+      </c>
+      <c r="E159" s="194">
+        <v>0.3</v>
+      </c>
+      <c r="F159" s="194">
+        <v>0.3</v>
+      </c>
+      <c r="G159" s="194">
+        <v>0.3</v>
+      </c>
+      <c r="H159" s="194">
+        <v>0.3</v>
+      </c>
+      <c r="I159" s="194">
+        <v>0.3</v>
+      </c>
+      <c r="J159" s="194">
+        <v>0.3</v>
+      </c>
+      <c r="K159" s="196">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="160" spans="2:11" ht="15.75">
+      <c r="B160" s="75" t="s">
+        <v>537</v>
+      </c>
+      <c r="C160" s="194">
+        <v>0.25</v>
+      </c>
+      <c r="D160" s="194">
+        <v>0.25</v>
+      </c>
+      <c r="E160" s="194">
+        <v>0.25</v>
+      </c>
+      <c r="F160" s="194">
+        <v>0.25</v>
+      </c>
+      <c r="G160" s="194">
+        <v>0.25</v>
+      </c>
+      <c r="H160" s="194">
+        <v>0.25</v>
+      </c>
+      <c r="I160" s="194">
+        <v>0.25</v>
+      </c>
+      <c r="J160" s="194">
+        <v>0.25</v>
+      </c>
+      <c r="K160" s="196">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="161" spans="2:11" ht="15.75">
+      <c r="B161" s="75" t="s">
+        <v>538</v>
+      </c>
+      <c r="C161" s="194">
+        <v>0</v>
+      </c>
+      <c r="D161" s="194">
+        <v>0</v>
+      </c>
+      <c r="E161" s="194">
+        <v>0</v>
+      </c>
+      <c r="F161" s="194">
+        <v>0</v>
+      </c>
+      <c r="G161" s="194">
+        <v>0</v>
+      </c>
+      <c r="H161" s="194">
+        <v>0</v>
+      </c>
+      <c r="I161" s="194">
+        <v>0</v>
+      </c>
+      <c r="J161" s="194">
+        <v>0</v>
+      </c>
+      <c r="K161" s="196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="2:11" ht="15.75">
+      <c r="B162" s="75" t="s">
+        <v>539</v>
+      </c>
+      <c r="C162" s="194">
+        <v>0</v>
+      </c>
+      <c r="D162" s="194">
+        <v>0</v>
+      </c>
+      <c r="E162" s="194">
+        <v>0</v>
+      </c>
+      <c r="F162" s="194">
+        <v>0</v>
+      </c>
+      <c r="G162" s="194">
+        <v>0</v>
+      </c>
+      <c r="H162" s="194">
+        <v>0</v>
+      </c>
+      <c r="I162" s="194">
+        <v>0</v>
+      </c>
+      <c r="J162" s="194">
+        <v>0</v>
+      </c>
+      <c r="K162" s="196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="2:11" ht="15.75">
+      <c r="B163" s="75" t="s">
+        <v>540</v>
+      </c>
+      <c r="C163" s="194">
+        <v>0.3</v>
+      </c>
+      <c r="D163" s="194">
+        <v>0.3</v>
+      </c>
+      <c r="E163" s="194">
+        <v>0.3</v>
+      </c>
+      <c r="F163" s="194">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="G163" s="194">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="H163" s="194">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="I163" s="194">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="J163" s="194">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="K163" s="196">
+        <v>0.27500000000000002</v>
+      </c>
+    </row>
+    <row r="164" spans="2:11" ht="15.75">
+      <c r="B164" s="75" t="s">
+        <v>541</v>
+      </c>
+      <c r="C164" s="194">
+        <v>0.25</v>
+      </c>
+      <c r="D164" s="194">
+        <v>0.25</v>
+      </c>
+      <c r="E164" s="194">
+        <v>0.25</v>
+      </c>
+      <c r="F164" s="194">
+        <v>0.25</v>
+      </c>
+      <c r="G164" s="194">
+        <v>0.25</v>
+      </c>
+      <c r="H164" s="194">
+        <v>0.25</v>
+      </c>
+      <c r="I164" s="194">
+        <v>0.25</v>
+      </c>
+      <c r="J164" s="194">
+        <v>0.25</v>
+      </c>
+      <c r="K164" s="196">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="165" spans="2:11" ht="15.75">
+      <c r="B165" s="75" t="s">
+        <v>542</v>
+      </c>
+      <c r="C165" s="194">
+        <v>0.24</v>
+      </c>
+      <c r="D165" s="194">
+        <v>0.24</v>
+      </c>
+      <c r="E165" s="194">
+        <v>0.24</v>
+      </c>
+      <c r="F165" s="194">
+        <v>0.24</v>
+      </c>
+      <c r="G165" s="194">
+        <v>0.24</v>
+      </c>
+      <c r="H165" s="194">
+        <v>0.24</v>
+      </c>
+      <c r="I165" s="194">
+        <v>0.18</v>
+      </c>
+      <c r="J165" s="194">
+        <v>0.18</v>
+      </c>
+      <c r="K165" s="196">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="166" spans="2:11" ht="15.75">
+      <c r="B166" s="75" t="s">
+        <v>543</v>
+      </c>
+      <c r="C166" s="194">
+        <v>0.33990000000000004</v>
+      </c>
+      <c r="D166" s="194">
+        <v>0.33990000000000004</v>
+      </c>
+      <c r="E166" s="194">
+        <v>0.33990000000000004</v>
+      </c>
+      <c r="F166" s="194">
+        <v>0.33990000000000004</v>
+      </c>
+      <c r="G166" s="194">
+        <v>0.33990000000000004</v>
+      </c>
+      <c r="H166" s="194">
+        <v>0.33990000000000004</v>
+      </c>
+      <c r="I166" s="194">
+        <v>0.33990000000000004</v>
+      </c>
+      <c r="J166" s="194">
+        <v>0.33990000000000004</v>
+      </c>
+      <c r="K166" s="196">
+        <v>0.33990000000000004</v>
+      </c>
+    </row>
+    <row r="167" spans="2:11" ht="15.75">
+      <c r="B167" s="75" t="s">
+        <v>544</v>
+      </c>
+      <c r="C167" s="194">
+        <v>0</v>
+      </c>
+      <c r="D167" s="194">
+        <v>0</v>
+      </c>
+      <c r="E167" s="194">
+        <v>0</v>
+      </c>
+      <c r="F167" s="194">
+        <v>0</v>
+      </c>
+      <c r="G167" s="194">
+        <v>0</v>
+      </c>
+      <c r="H167" s="194">
+        <v>0</v>
+      </c>
+      <c r="I167" s="194">
+        <v>0</v>
+      </c>
+      <c r="J167" s="194">
+        <v>0</v>
+      </c>
+      <c r="K167" s="196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="2:11" ht="15.75">
+      <c r="B168" s="75" t="s">
+        <v>545</v>
+      </c>
+      <c r="C168" s="193"/>
+      <c r="D168" s="193"/>
+      <c r="E168" s="193"/>
+      <c r="F168" s="193"/>
+      <c r="G168" s="194">
+        <v>0.25</v>
+      </c>
+      <c r="H168" s="194">
+        <v>0.25</v>
+      </c>
+      <c r="I168" s="194">
+        <v>0.25</v>
+      </c>
+      <c r="J168" s="194">
+        <v>0.25</v>
+      </c>
+      <c r="K168" s="196">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="169" spans="2:11" ht="15.75">
+      <c r="B169" s="75" t="s">
+        <v>546</v>
+      </c>
+      <c r="C169" s="193"/>
+      <c r="D169" s="193"/>
+      <c r="E169" s="193"/>
+      <c r="F169" s="193"/>
+      <c r="G169" s="193"/>
+      <c r="H169" s="193"/>
+      <c r="I169" s="194">
+        <v>0</v>
+      </c>
+      <c r="J169" s="194">
+        <v>0</v>
+      </c>
+      <c r="K169" s="196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="2:11" ht="15.75">
+      <c r="B170" s="75" t="s">
+        <v>547</v>
+      </c>
+      <c r="C170" s="194">
+        <v>0.1</v>
+      </c>
+      <c r="D170" s="194">
+        <v>0.1</v>
+      </c>
+      <c r="E170" s="194">
+        <v>0.1</v>
+      </c>
+      <c r="F170" s="194">
+        <v>0.1</v>
+      </c>
+      <c r="G170" s="194">
+        <v>0.1</v>
+      </c>
+      <c r="H170" s="194">
+        <v>0.1</v>
+      </c>
+      <c r="I170" s="194">
+        <v>0.1</v>
+      </c>
+      <c r="J170" s="194">
+        <v>0.1</v>
+      </c>
+      <c r="K170" s="196">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="171" spans="2:11" ht="15.75">
+      <c r="B171" s="75" t="s">
+        <v>548</v>
+      </c>
+      <c r="C171" s="194">
+        <v>0.25</v>
+      </c>
+      <c r="D171" s="194">
+        <v>0.25</v>
+      </c>
+      <c r="E171" s="194">
+        <v>0.25</v>
+      </c>
+      <c r="F171" s="194">
+        <v>0.25</v>
+      </c>
+      <c r="G171" s="194">
+        <v>0.25</v>
+      </c>
+      <c r="H171" s="194">
+        <v>0.22</v>
+      </c>
+      <c r="I171" s="194">
+        <v>0.22</v>
+      </c>
+      <c r="J171" s="194">
+        <v>0.22</v>
+      </c>
+      <c r="K171" s="196">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="172" spans="2:11" ht="15.75">
+      <c r="B172" s="75" t="s">
+        <v>549</v>
+      </c>
+      <c r="C172" s="194">
+        <v>0.34</v>
+      </c>
+      <c r="D172" s="194">
+        <v>0.34</v>
+      </c>
+      <c r="E172" s="194">
+        <v>0.34</v>
+      </c>
+      <c r="F172" s="194">
+        <v>0.34</v>
+      </c>
+      <c r="G172" s="194">
+        <v>0.34</v>
+      </c>
+      <c r="H172" s="194">
+        <v>0.34</v>
+      </c>
+      <c r="I172" s="194">
+        <v>0.34</v>
+      </c>
+      <c r="J172" s="194">
+        <v>0.34</v>
+      </c>
+      <c r="K172" s="196">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="173" spans="2:11" ht="15.75">
+      <c r="B173" s="75" t="s">
+        <v>550</v>
+      </c>
+      <c r="C173" s="194">
+        <v>0.15</v>
+      </c>
+      <c r="D173" s="194">
+        <v>0.1</v>
+      </c>
+      <c r="E173" s="194">
+        <v>0.1</v>
+      </c>
+      <c r="F173" s="194">
+        <v>0.1</v>
+      </c>
+      <c r="G173" s="194">
+        <v>0.1</v>
+      </c>
+      <c r="H173" s="194">
+        <v>0.1</v>
+      </c>
+      <c r="I173" s="194">
+        <v>0.1</v>
+      </c>
+      <c r="J173" s="194">
+        <v>0.1</v>
+      </c>
+      <c r="K173" s="196">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="174" spans="2:11" ht="15.75">
+      <c r="B174" s="75" t="s">
+        <v>551</v>
+      </c>
+      <c r="C174" s="193"/>
+      <c r="D174" s="193"/>
+      <c r="E174" s="193"/>
+      <c r="F174" s="193"/>
+      <c r="G174" s="194">
+        <v>0.2</v>
+      </c>
+      <c r="H174" s="194">
+        <v>0.2</v>
+      </c>
+      <c r="I174" s="194">
+        <v>0.2</v>
+      </c>
+      <c r="J174" s="194">
+        <v>0.2</v>
+      </c>
+      <c r="K174" s="196">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="175" spans="2:11" ht="15.75">
+      <c r="B175" s="75" t="s">
+        <v>552</v>
+      </c>
+      <c r="C175" s="194">
+        <v>0.36099999999999999</v>
+      </c>
+      <c r="D175" s="194">
+        <v>0.36099999999999999</v>
+      </c>
+      <c r="E175" s="194">
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="F175" s="194">
+        <v>0.33</v>
+      </c>
+      <c r="G175" s="194">
+        <v>0.31</v>
+      </c>
+      <c r="H175" s="194">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="I175" s="194">
+        <v>0.26</v>
+      </c>
+      <c r="J175" s="194">
+        <v>0.26</v>
+      </c>
+      <c r="K175" s="196">
+        <v>0.26500000000000001</v>
+      </c>
+    </row>
+    <row r="176" spans="2:11" ht="15.75">
+      <c r="B176" s="75" t="s">
+        <v>553</v>
+      </c>
+      <c r="C176" s="194">
+        <v>0</v>
+      </c>
+      <c r="D176" s="194">
+        <v>0</v>
+      </c>
+      <c r="E176" s="194">
+        <v>0</v>
+      </c>
+      <c r="F176" s="194">
+        <v>0</v>
+      </c>
+      <c r="G176" s="194">
+        <v>0</v>
+      </c>
+      <c r="H176" s="194">
+        <v>0</v>
+      </c>
+      <c r="I176" s="194">
+        <v>0</v>
+      </c>
+      <c r="J176" s="194">
+        <v>0</v>
+      </c>
+      <c r="K176" s="196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="2:11" ht="15.75">
+      <c r="B177" s="75" t="s">
+        <v>554</v>
+      </c>
+      <c r="C177" s="194">
+        <v>0.17</v>
+      </c>
+      <c r="D177" s="194">
+        <v>0.17</v>
+      </c>
+      <c r="E177" s="194">
+        <v>0.17</v>
+      </c>
+      <c r="F177" s="194">
+        <v>0.17</v>
+      </c>
+      <c r="G177" s="194">
+        <v>0.17</v>
+      </c>
+      <c r="H177" s="194">
+        <v>0.2</v>
+      </c>
+      <c r="I177" s="194">
+        <v>0.185</v>
+      </c>
+      <c r="J177" s="194">
+        <v>0.2</v>
+      </c>
+      <c r="K177" s="196">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="178" spans="2:11" ht="15.75">
+      <c r="B178" s="75" t="s">
+        <v>282</v>
+      </c>
+      <c r="C178" s="194">
+        <v>0.33</v>
+      </c>
+      <c r="D178" s="194">
+        <v>0.33</v>
+      </c>
+      <c r="E178" s="194">
+        <v>0.25</v>
+      </c>
+      <c r="F178" s="194">
+        <v>0.25</v>
+      </c>
+      <c r="G178" s="194">
+        <v>0.25</v>
+      </c>
+      <c r="H178" s="194">
+        <v>0.25</v>
+      </c>
+      <c r="I178" s="194">
+        <v>0.25</v>
+      </c>
+      <c r="J178" s="194">
+        <v>0.25</v>
+      </c>
+      <c r="K178" s="196">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="179" spans="2:11" ht="15.75">
+      <c r="B179" s="75" t="s">
+        <v>555</v>
+      </c>
+      <c r="C179" s="194">
+        <v>0.35</v>
+      </c>
+      <c r="D179" s="194">
+        <v>0.34</v>
+      </c>
+      <c r="E179" s="194">
+        <v>0.33</v>
+      </c>
+      <c r="F179" s="194">
+        <v>0.33</v>
+      </c>
+      <c r="G179" s="194">
+        <v>0.33</v>
+      </c>
+      <c r="H179" s="194">
+        <v>0.33</v>
+      </c>
+      <c r="I179" s="194">
+        <v>0.33</v>
+      </c>
+      <c r="J179" s="194">
+        <v>0.25</v>
+      </c>
+      <c r="K179" s="196">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="180" spans="2:11" ht="15.75">
+      <c r="B180" s="75" t="s">
+        <v>556</v>
+      </c>
+      <c r="C180" s="194">
+        <v>0.3</v>
+      </c>
+      <c r="D180" s="194">
+        <v>0.3</v>
+      </c>
+      <c r="E180" s="194">
+        <v>0.3</v>
+      </c>
+      <c r="F180" s="194">
+        <v>0.3</v>
+      </c>
+      <c r="G180" s="194">
+        <v>0.3</v>
+      </c>
+      <c r="H180" s="194">
+        <v>0.3</v>
+      </c>
+      <c r="I180" s="194">
+        <v>0.3</v>
+      </c>
+      <c r="J180" s="194">
+        <v>0.3</v>
+      </c>
+      <c r="K180" s="196">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="181" spans="2:11" ht="15.75">
+      <c r="B181" s="75" t="s">
+        <v>557</v>
+      </c>
+      <c r="C181" s="194">
+        <v>0.2</v>
+      </c>
+      <c r="D181" s="194">
+        <v>0.2</v>
+      </c>
+      <c r="E181" s="194">
+        <v>0.2</v>
+      </c>
+      <c r="F181" s="194">
+        <v>0.2</v>
+      </c>
+      <c r="G181" s="194">
+        <v>0.2</v>
+      </c>
+      <c r="H181" s="194">
+        <v>0.2</v>
+      </c>
+      <c r="I181" s="194">
+        <v>0.2</v>
+      </c>
+      <c r="J181" s="194">
+        <v>0.2</v>
+      </c>
+      <c r="K181" s="196">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="182" spans="2:11" ht="15.75">
+      <c r="B182" s="75" t="s">
+        <v>558</v>
+      </c>
+      <c r="C182" s="193"/>
+      <c r="D182" s="193"/>
+      <c r="E182" s="193"/>
+      <c r="F182" s="193"/>
+      <c r="G182" s="193"/>
+      <c r="H182" s="194">
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="I182" s="194">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="J182" s="194">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="K182" s="196">
+        <v>0.27500000000000002</v>
+      </c>
+    </row>
+    <row r="183" spans="2:11" ht="15.75">
+      <c r="B183" s="75" t="s">
+        <v>559</v>
+      </c>
+      <c r="C183" s="194">
+        <v>0.1</v>
+      </c>
+      <c r="D183" s="194">
+        <v>0.1</v>
+      </c>
+      <c r="E183" s="194">
+        <v>0.1</v>
+      </c>
+      <c r="F183" s="194">
+        <v>0.1</v>
+      </c>
+      <c r="G183" s="194">
+        <v>0.1</v>
+      </c>
+      <c r="H183" s="194">
+        <v>0.1</v>
+      </c>
+      <c r="I183" s="194">
+        <v>0.1</v>
+      </c>
+      <c r="J183" s="194">
+        <v>0.125</v>
+      </c>
+      <c r="K183" s="196">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="184" spans="2:11" ht="15.75">
+      <c r="B184" s="75" t="s">
+        <v>560</v>
+      </c>
+      <c r="C184" s="194">
+        <v>0.24</v>
+      </c>
+      <c r="D184" s="194">
+        <v>0.24</v>
+      </c>
+      <c r="E184" s="194">
+        <v>0.21</v>
+      </c>
+      <c r="F184" s="194">
+        <v>0.2</v>
+      </c>
+      <c r="G184" s="194">
+        <v>0.19</v>
+      </c>
+      <c r="H184" s="194">
+        <v>0.19</v>
+      </c>
+      <c r="I184" s="194">
+        <v>0.19</v>
+      </c>
+      <c r="J184" s="194">
+        <v>0.19</v>
+      </c>
+      <c r="K184" s="196">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="185" spans="2:11" ht="15.75">
+      <c r="B185" s="75" t="s">
+        <v>561</v>
+      </c>
+      <c r="C185" s="194">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D185" s="194">
+        <v>0.25</v>
+      </c>
+      <c r="E185" s="194">
+        <v>0.25</v>
+      </c>
+      <c r="F185" s="194">
+        <v>0.25</v>
+      </c>
+      <c r="G185" s="194">
+        <v>0.25</v>
+      </c>
+      <c r="H185" s="194">
+        <v>0.25</v>
+      </c>
+      <c r="I185" s="194">
+        <v>0.25</v>
+      </c>
+      <c r="J185" s="194">
+        <v>0.25</v>
+      </c>
+      <c r="K185" s="196">
+        <v>0.245</v>
+      </c>
+    </row>
+    <row r="186" spans="2:11" ht="15.75">
+      <c r="B186" s="75" t="s">
+        <v>562</v>
+      </c>
+      <c r="C186" s="194">
+        <v>0.3</v>
+      </c>
+      <c r="D186" s="194">
+        <v>0.25</v>
+      </c>
+      <c r="E186" s="194">
+        <v>0.25</v>
+      </c>
+      <c r="F186" s="194">
+        <v>0.25</v>
+      </c>
+      <c r="G186" s="194">
+        <v>0.25</v>
+      </c>
+      <c r="H186" s="194">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="I186" s="194">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="J186" s="194">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="K186" s="196">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="187" spans="2:11" ht="15.75">
+      <c r="B187" s="75" t="s">
+        <v>563</v>
+      </c>
+      <c r="C187" s="194">
+        <v>0.25</v>
+      </c>
+      <c r="D187" s="194">
+        <v>0.25</v>
+      </c>
+      <c r="E187" s="194">
+        <v>0.25</v>
+      </c>
+      <c r="F187" s="194">
+        <v>0.25</v>
+      </c>
+      <c r="G187" s="194">
+        <v>0.25</v>
+      </c>
+      <c r="H187" s="194">
+        <v>0.24</v>
+      </c>
+      <c r="I187" s="194">
+        <v>0.23</v>
+      </c>
+      <c r="J187" s="194">
+        <v>0.22</v>
+      </c>
+      <c r="K187" s="196">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="188" spans="2:11" ht="15.75">
+      <c r="B188" s="75" t="s">
+        <v>564</v>
+      </c>
+      <c r="C188" s="194">
+        <v>0.2</v>
+      </c>
+      <c r="D188" s="194">
+        <v>0.2</v>
+      </c>
+      <c r="E188" s="194">
+        <v>0.2</v>
+      </c>
+      <c r="F188" s="194">
+        <v>0.2</v>
+      </c>
+      <c r="G188" s="194">
+        <v>0.2</v>
+      </c>
+      <c r="H188" s="194">
+        <v>0.2</v>
+      </c>
+      <c r="I188" s="194">
+        <v>0.25</v>
+      </c>
+      <c r="J188" s="194">
+        <v>0.25</v>
+      </c>
+      <c r="K188" s="196">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="189" spans="2:11" ht="15.75">
+      <c r="B189" s="75" t="s">
+        <v>565</v>
+      </c>
+      <c r="C189" s="193"/>
+      <c r="D189" s="193"/>
+      <c r="E189" s="193"/>
+      <c r="F189" s="193"/>
+      <c r="G189" s="193"/>
+      <c r="H189" s="193"/>
+      <c r="I189" s="194">
+        <v>0.3</v>
+      </c>
+      <c r="J189" s="194">
+        <v>0.3</v>
+      </c>
+      <c r="K189" s="196">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="190" spans="2:11" ht="15.75">
+      <c r="B190" s="75" t="s">
+        <v>566</v>
+      </c>
+      <c r="C190" s="194">
+        <v>0.23</v>
+      </c>
+      <c r="D190" s="194">
+        <v>0.22</v>
+      </c>
+      <c r="E190" s="194">
+        <v>0.21</v>
+      </c>
+      <c r="F190" s="194">
+        <v>0.21</v>
+      </c>
+      <c r="G190" s="194">
+        <v>0.21</v>
+      </c>
+      <c r="H190" s="194">
+        <v>0.21</v>
+      </c>
+      <c r="I190" s="194">
+        <v>0.21</v>
+      </c>
+      <c r="J190" s="194">
+        <v>0.21</v>
+      </c>
+      <c r="K190" s="196">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="191" spans="2:11" ht="15.75">
+      <c r="B191" s="75" t="s">
+        <v>567</v>
+      </c>
+      <c r="C191" s="194">
+        <v>0.31</v>
+      </c>
+      <c r="D191" s="194">
+        <v>0.31</v>
+      </c>
+      <c r="E191" s="194">
+        <v>0.31</v>
+      </c>
+      <c r="F191" s="194">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="G191" s="194">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="H191" s="194">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="I191" s="194">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="J191" s="194">
+        <v>0.2</v>
+      </c>
+      <c r="K191" s="196">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="192" spans="2:11" ht="15.75">
+      <c r="B192" s="75" t="s">
+        <v>568</v>
+      </c>
+      <c r="C192" s="194">
+        <v>0.26</v>
+      </c>
+      <c r="D192" s="194">
+        <v>0.26</v>
+      </c>
+      <c r="E192" s="194">
+        <v>0.26</v>
+      </c>
+      <c r="F192" s="194">
+        <v>0.26</v>
+      </c>
+      <c r="G192" s="194">
+        <v>0.26</v>
+      </c>
+      <c r="H192" s="194">
+        <v>0.26</v>
+      </c>
+      <c r="I192" s="194">
+        <v>0.245</v>
+      </c>
+      <c r="J192" s="194">
+        <v>0.245</v>
+      </c>
+      <c r="K192" s="196">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="193" spans="2:11" ht="15.75">
+      <c r="B193" s="75" t="s">
+        <v>569</v>
+      </c>
+      <c r="C193" s="194">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="D193" s="194">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="E193" s="194">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="F193" s="194">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="G193" s="194">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="H193" s="194">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="I193" s="194">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="J193" s="194">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="K193" s="196">
+        <v>0.33329999999999999</v>
+      </c>
+    </row>
+    <row r="194" spans="2:11" ht="15.75">
+      <c r="B194" s="75" t="s">
+        <v>570</v>
+      </c>
+      <c r="C194" s="193"/>
+      <c r="D194" s="193"/>
+      <c r="E194" s="193"/>
+      <c r="F194" s="193"/>
+      <c r="G194" s="193"/>
+      <c r="H194" s="193"/>
+      <c r="I194" s="193"/>
+      <c r="J194" s="194">
+        <v>0.15</v>
+      </c>
+      <c r="K194" s="196">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="195" spans="2:11" ht="15.75">
+      <c r="B195" s="75" t="s">
+        <v>571</v>
+      </c>
+      <c r="C195" s="194">
+        <v>0.38340000000000002</v>
+      </c>
+      <c r="D195" s="194">
+        <v>0.3836</v>
+      </c>
+      <c r="E195" s="194">
+        <v>0.29510000000000003</v>
+      </c>
+      <c r="F195" s="194">
+        <v>0.2944</v>
+      </c>
+      <c r="G195" s="194">
+        <v>0.29410000000000003</v>
+      </c>
+      <c r="H195" s="194">
+        <v>0.29370000000000002</v>
+      </c>
+      <c r="I195" s="194">
+        <v>0.29480000000000001</v>
+      </c>
+      <c r="J195" s="194">
+        <v>0.29549999999999998</v>
+      </c>
+      <c r="K195" s="196">
+        <v>0.29580000000000001</v>
+      </c>
+    </row>
+    <row r="196" spans="2:11" ht="15.75">
+      <c r="B196" s="75" t="s">
+        <v>572</v>
+      </c>
+      <c r="C196" s="193"/>
+      <c r="D196" s="193"/>
+      <c r="E196" s="193"/>
+      <c r="F196" s="193"/>
+      <c r="G196" s="193"/>
+      <c r="H196" s="193"/>
+      <c r="I196" s="193"/>
+      <c r="J196" s="194">
+        <v>0.25</v>
+      </c>
+      <c r="K196" s="196">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="197" spans="2:11" ht="15.75">
+      <c r="B197" s="75" t="s">
+        <v>573</v>
+      </c>
+      <c r="C197" s="194">
+        <v>0.35</v>
+      </c>
+      <c r="D197" s="194">
+        <v>0.35</v>
+      </c>
+      <c r="E197" s="194">
+        <v>0.33</v>
+      </c>
+      <c r="F197" s="194">
+        <v>0.27</v>
+      </c>
+      <c r="G197" s="194">
+        <v>0.22</v>
+      </c>
+      <c r="H197" s="194">
+        <v>0.1</v>
+      </c>
+      <c r="I197" s="194">
+        <v>0.1</v>
+      </c>
+      <c r="J197" s="194">
+        <v>0.1</v>
+      </c>
+      <c r="K197" s="196">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="198" spans="2:11" ht="15.75">
+      <c r="B198" s="75" t="s">
+        <v>574</v>
+      </c>
+      <c r="C198" s="194">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="D198" s="194">
+        <v>0.25</v>
+      </c>
+      <c r="E198" s="194">
+        <v>0.25</v>
+      </c>
+      <c r="F198" s="194">
+        <v>0.25</v>
+      </c>
+      <c r="G198" s="194">
+        <v>0.24</v>
+      </c>
+      <c r="H198" s="194">
+        <v>0.2</v>
+      </c>
+      <c r="I198" s="194">
+        <v>0.2</v>
+      </c>
+      <c r="J198" s="194">
+        <v>0.26</v>
+      </c>
+      <c r="K198" s="196">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="199" spans="2:11" ht="15.75">
+      <c r="B199" s="75" t="s">
+        <v>575</v>
+      </c>
+      <c r="C199" s="194">
+        <v>0.31</v>
+      </c>
+      <c r="D199" s="194">
+        <v>0.31</v>
+      </c>
+      <c r="E199" s="194">
+        <v>0.31</v>
+      </c>
+      <c r="F199" s="194">
+        <v>0.31</v>
+      </c>
+      <c r="G199" s="194">
+        <v>0.31</v>
+      </c>
+      <c r="H199" s="194">
+        <v>0.31</v>
+      </c>
+      <c r="I199" s="194">
+        <v>0.31</v>
+      </c>
+      <c r="J199" s="194">
+        <v>0.31</v>
+      </c>
+      <c r="K199" s="196">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="200" spans="2:11" ht="15.75">
+      <c r="B200" s="75" t="s">
+        <v>576</v>
+      </c>
+      <c r="C200" s="194">
+        <v>0</v>
+      </c>
+      <c r="D200" s="194">
+        <v>0</v>
+      </c>
+      <c r="E200" s="194">
+        <v>0</v>
+      </c>
+      <c r="F200" s="194">
+        <v>0</v>
+      </c>
+      <c r="G200" s="194">
+        <v>0</v>
+      </c>
+      <c r="H200" s="194">
+        <v>0</v>
+      </c>
+      <c r="I200" s="194">
+        <v>0</v>
+      </c>
+      <c r="J200" s="194">
+        <v>0</v>
+      </c>
+      <c r="K200" s="196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="2:11" ht="15.75">
+      <c r="B201" s="75" t="s">
+        <v>577</v>
+      </c>
+      <c r="C201" s="194">
+        <v>0.3</v>
+      </c>
+      <c r="D201" s="194">
+        <v>0.3</v>
+      </c>
+      <c r="E201" s="194">
+        <v>0.3</v>
+      </c>
+      <c r="F201" s="194">
+        <v>0.3</v>
+      </c>
+      <c r="G201" s="194">
+        <v>0.25</v>
+      </c>
+      <c r="H201" s="194">
+        <v>0.35</v>
+      </c>
+      <c r="I201" s="194">
+        <v>0.35</v>
+      </c>
+      <c r="J201" s="194">
+        <v>0.35</v>
+      </c>
+      <c r="K201" s="196">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="202" spans="2:11" ht="15.75">
+      <c r="B202" s="75" t="s">
+        <v>578</v>
+      </c>
+      <c r="C202" s="194">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="D202" s="194">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="E202" s="194">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="F202" s="194">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="G202" s="194">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="H202" s="194">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="I202" s="194">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="J202" s="194">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="K202" s="196">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="203" spans="2:11" ht="15.75">
+      <c r="B203" s="75" t="s">
+        <v>579</v>
+      </c>
+      <c r="C203" s="194">
+        <v>0.16</v>
+      </c>
+      <c r="D203" s="194">
+        <v>0.16</v>
+      </c>
+      <c r="E203" s="194">
+        <v>0.16</v>
+      </c>
+      <c r="F203" s="194">
+        <v>0.16</v>
+      </c>
+      <c r="G203" s="194">
+        <v>0.19</v>
+      </c>
+      <c r="H203" s="194">
+        <v>0.19</v>
+      </c>
+      <c r="I203" s="194">
+        <v>0.19</v>
+      </c>
+      <c r="J203" s="194">
+        <v>0.19</v>
+      </c>
+      <c r="K203" s="196">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="204" spans="2:11" ht="15.75">
+      <c r="B204" s="75" t="s">
+        <v>580</v>
+      </c>
+      <c r="C204" s="194">
+        <v>0.18</v>
+      </c>
+      <c r="D204" s="194">
+        <v>0.18</v>
+      </c>
+      <c r="E204" s="194">
+        <v>0.15</v>
+      </c>
+      <c r="F204" s="194">
+        <v>0.15</v>
+      </c>
+      <c r="G204" s="194">
+        <v>0.18</v>
+      </c>
+      <c r="H204" s="194">
+        <v>0.2</v>
+      </c>
+      <c r="I204" s="194">
+        <v>0.2</v>
+      </c>
+      <c r="J204" s="194">
+        <v>0.2</v>
+      </c>
+      <c r="K204" s="196">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="205" spans="2:11" ht="15.75">
+      <c r="B205" s="75" t="s">
+        <v>283</v>
+      </c>
+      <c r="C205" s="194">
+        <v>0.33659999999999995</v>
+      </c>
+      <c r="D205" s="194">
+        <v>0.33990000000000004</v>
+      </c>
+      <c r="E205" s="194">
+        <v>0.33990000000000004</v>
+      </c>
+      <c r="F205" s="194">
+        <v>0.33990000000000004</v>
+      </c>
+      <c r="G205" s="194">
+        <v>0.33990000000000004</v>
+      </c>
+      <c r="H205" s="194">
+        <v>0.32439999999999997</v>
+      </c>
+      <c r="I205" s="194">
+        <v>0.32450000000000001</v>
+      </c>
+      <c r="J205" s="194">
+        <v>0.33990000000000004</v>
+      </c>
+      <c r="K205" s="196">
+        <v>0.33990000000000004</v>
+      </c>
+    </row>
+    <row r="206" spans="2:11" ht="15.75">
+      <c r="B206" s="75" t="s">
+        <v>581</v>
+      </c>
+      <c r="C206" s="194">
+        <v>0.3</v>
+      </c>
+      <c r="D206" s="194">
+        <v>0.3</v>
+      </c>
+      <c r="E206" s="194">
+        <v>0.3</v>
+      </c>
+      <c r="F206" s="194">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="G206" s="194">
+        <v>0.25</v>
+      </c>
+      <c r="H206" s="194">
+        <v>0.25</v>
+      </c>
+      <c r="I206" s="194">
+        <v>0.25</v>
+      </c>
+      <c r="J206" s="194">
+        <v>0.25</v>
+      </c>
+      <c r="K206" s="196">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="207" spans="2:11" ht="15.75">
+      <c r="B207" s="75" t="s">
+        <v>582</v>
+      </c>
+      <c r="C207" s="193"/>
+      <c r="D207" s="193"/>
+      <c r="E207" s="193"/>
+      <c r="F207" s="193"/>
+      <c r="G207" s="193"/>
+      <c r="H207" s="193"/>
+      <c r="I207" s="193"/>
+      <c r="J207" s="194">
+        <v>0.15</v>
+      </c>
+      <c r="K207" s="196">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="208" spans="2:11" ht="15.75">
+      <c r="B208" s="75" t="s">
+        <v>583</v>
+      </c>
+      <c r="C208" s="194">
+        <v>0.125</v>
+      </c>
+      <c r="D208" s="194">
+        <v>0.125</v>
+      </c>
+      <c r="E208" s="194">
+        <v>0.125</v>
+      </c>
+      <c r="F208" s="194">
+        <v>0.125</v>
+      </c>
+      <c r="G208" s="194">
+        <v>0.125</v>
+      </c>
+      <c r="H208" s="194">
+        <v>0.125</v>
+      </c>
+      <c r="I208" s="194">
+        <v>0.125</v>
+      </c>
+      <c r="J208" s="194">
+        <v>0.125</v>
+      </c>
+      <c r="K208" s="196">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="209" spans="2:11" ht="15.75">
+      <c r="B209" s="75" t="s">
+        <v>584</v>
+      </c>
+      <c r="C209" s="194">
+        <v>0</v>
+      </c>
+      <c r="D209" s="194">
+        <v>0</v>
+      </c>
+      <c r="E209" s="194">
+        <v>0</v>
+      </c>
+      <c r="F209" s="194">
+        <v>0</v>
+      </c>
+      <c r="G209" s="194">
+        <v>0</v>
+      </c>
+      <c r="H209" s="194">
+        <v>0</v>
+      </c>
+      <c r="I209" s="194">
+        <v>0</v>
+      </c>
+      <c r="J209" s="194">
+        <v>0</v>
+      </c>
+      <c r="K209" s="196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="2:11" ht="15.75">
+      <c r="B210" s="75" t="s">
+        <v>585</v>
+      </c>
+      <c r="C210" s="194">
+        <v>0.31</v>
+      </c>
+      <c r="D210" s="194">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="E210" s="194">
+        <v>0.27</v>
+      </c>
+      <c r="F210" s="194">
+        <v>0.26</v>
+      </c>
+      <c r="G210" s="194">
+        <v>0.25</v>
+      </c>
+      <c r="H210" s="194">
+        <v>0.24</v>
+      </c>
+      <c r="I210" s="194">
+        <v>0.25</v>
+      </c>
+      <c r="J210" s="194">
+        <v>0.25</v>
+      </c>
+      <c r="K210" s="196">
+        <v>0.26500000000000001</v>
+      </c>
+    </row>
+    <row r="211" spans="2:11" ht="15.75">
+      <c r="B211" s="75" t="s">
+        <v>586</v>
+      </c>
+      <c r="C211" s="194">
+        <v>0.3725</v>
+      </c>
+      <c r="D211" s="194">
+        <v>0.3725</v>
+      </c>
+      <c r="E211" s="194">
+        <v>0.314</v>
+      </c>
+      <c r="F211" s="194">
+        <v>0.314</v>
+      </c>
+      <c r="G211" s="194">
+        <v>0.314</v>
+      </c>
+      <c r="H211" s="194">
+        <v>0.314</v>
+      </c>
+      <c r="I211" s="194">
+        <v>0.314</v>
+      </c>
+      <c r="J211" s="194">
+        <v>0.314</v>
+      </c>
+      <c r="K211" s="196">
+        <v>0.314</v>
+      </c>
+    </row>
+    <row r="212" spans="2:11" ht="15.75">
+      <c r="B212" s="75" t="s">
+        <v>587</v>
+      </c>
+      <c r="C212" s="194">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="D212" s="194">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="E212" s="194">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="F212" s="194">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="G212" s="194">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="H212" s="194">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="I212" s="194">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="J212" s="194">
+        <v>0.25</v>
+      </c>
+      <c r="K212" s="196">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="213" spans="2:11" ht="15.75">
+      <c r="B213" s="75" t="s">
+        <v>588</v>
+      </c>
+      <c r="C213" s="194">
+        <v>0.40689999999999998</v>
+      </c>
+      <c r="D213" s="194">
+        <v>0.40689999999999998</v>
+      </c>
+      <c r="E213" s="194">
+        <v>0.40689999999999998</v>
+      </c>
+      <c r="F213" s="194">
+        <v>0.40689999999999998</v>
+      </c>
+      <c r="G213" s="194">
+        <v>0.40689999999999998</v>
+      </c>
+      <c r="H213" s="194">
+        <v>0.40689999999999998</v>
+      </c>
+      <c r="I213" s="194">
+        <v>0.38009999999999999</v>
+      </c>
+      <c r="J213" s="194">
+        <v>0.38009999999999999</v>
+      </c>
+      <c r="K213" s="196">
+        <v>0.35639999999999999</v>
+      </c>
+    </row>
+    <row r="214" spans="2:11" ht="15.75">
+      <c r="B214" s="75" t="s">
+        <v>589</v>
+      </c>
+      <c r="C214" s="194">
+        <v>0</v>
+      </c>
+      <c r="D214" s="194">
+        <v>0</v>
+      </c>
+      <c r="E214" s="194">
+        <v>0</v>
+      </c>
+      <c r="F214" s="194">
+        <v>0</v>
+      </c>
+      <c r="G214" s="194">
+        <v>0</v>
+      </c>
+      <c r="H214" s="194">
+        <v>0</v>
+      </c>
+      <c r="I214" s="194">
+        <v>0</v>
+      </c>
+      <c r="J214" s="194">
+        <v>0</v>
+      </c>
+      <c r="K214" s="196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="2:11" ht="15.75">
+      <c r="B215" s="75" t="s">
+        <v>590</v>
+      </c>
+      <c r="C215" s="194">
+        <v>0.25</v>
+      </c>
+      <c r="D215" s="194">
+        <v>0.25</v>
+      </c>
+      <c r="E215" s="194">
+        <v>0.25</v>
+      </c>
+      <c r="F215" s="194">
+        <v>0.25</v>
+      </c>
+      <c r="G215" s="194">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H215" s="194">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I215" s="194">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="J215" s="194">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K215" s="196">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="216" spans="2:11" ht="15.75">
+      <c r="B216" s="75" t="s">
+        <v>591</v>
+      </c>
+      <c r="C216" s="194">
+        <v>0.3</v>
+      </c>
+      <c r="D216" s="194">
+        <v>0.3</v>
+      </c>
+      <c r="E216" s="194">
+        <v>0.3</v>
+      </c>
+      <c r="F216" s="194">
+        <v>0.2</v>
+      </c>
+      <c r="G216" s="194">
+        <v>0.2</v>
+      </c>
+      <c r="H216" s="194">
+        <v>0.2</v>
+      </c>
+      <c r="I216" s="194">
+        <v>0.2</v>
+      </c>
+      <c r="J216" s="194">
+        <v>0.2</v>
+      </c>
+      <c r="K216" s="196">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="217" spans="2:11" ht="15.75">
+      <c r="B217" s="75" t="s">
+        <v>592</v>
+      </c>
+      <c r="C217" s="193"/>
+      <c r="D217" s="193"/>
+      <c r="E217" s="193"/>
+      <c r="F217" s="193"/>
+      <c r="G217" s="193"/>
+      <c r="H217" s="193"/>
+      <c r="I217" s="194">
+        <v>0.3</v>
+      </c>
+      <c r="J217" s="194">
+        <v>0.3</v>
+      </c>
+      <c r="K217" s="196">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="218" spans="2:11" ht="15.75">
+      <c r="B218" s="75" t="s">
+        <v>593</v>
+      </c>
+      <c r="C218" s="194">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="D218" s="194">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="E218" s="194">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="F218" s="194">
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="G218" s="194">
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="H218" s="194">
+        <v>0.22</v>
+      </c>
+      <c r="I218" s="194">
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="J218" s="194">
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="K218" s="196">
+        <v>0.24199999999999999</v>
+      </c>
+    </row>
+    <row r="219" spans="2:11" ht="15.75">
+      <c r="B219" s="75" t="s">
+        <v>594</v>
+      </c>
+      <c r="C219" s="194">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D219" s="194">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E219" s="194">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F219" s="194">
+        <v>0.15</v>
+      </c>
+      <c r="G219" s="194">
+        <v>0.15</v>
+      </c>
+      <c r="H219" s="194">
+        <v>0.15</v>
+      </c>
+      <c r="I219" s="194">
+        <v>0.15</v>
+      </c>
+      <c r="J219" s="194">
+        <v>0.15</v>
+      </c>
+      <c r="K219" s="196">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="220" spans="2:11" ht="15.75">
+      <c r="B220" s="75" t="s">
+        <v>595</v>
+      </c>
+      <c r="C220" s="194">
+        <v>0.15</v>
+      </c>
+      <c r="D220" s="194">
+        <v>0.15</v>
+      </c>
+      <c r="E220" s="194">
+        <v>0.15</v>
+      </c>
+      <c r="F220" s="194">
+        <v>0.15</v>
+      </c>
+      <c r="G220" s="194">
+        <v>0.15</v>
+      </c>
+      <c r="H220" s="194">
+        <v>0.15</v>
+      </c>
+      <c r="I220" s="194">
+        <v>0.15</v>
+      </c>
+      <c r="J220" s="194">
+        <v>0.15</v>
+      </c>
+      <c r="K220" s="196">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="221" spans="2:11" ht="15.75">
+      <c r="B221" s="75" t="s">
+        <v>596</v>
+      </c>
+      <c r="C221" s="193"/>
+      <c r="D221" s="193"/>
+      <c r="E221" s="193"/>
+      <c r="F221" s="193"/>
+      <c r="G221" s="193"/>
+      <c r="H221" s="193"/>
+      <c r="I221" s="193"/>
+      <c r="J221" s="194">
+        <v>0.15</v>
+      </c>
+      <c r="K221" s="196">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="222" spans="2:11" ht="15.75">
+      <c r="B222" s="75" t="s">
+        <v>597</v>
+      </c>
+      <c r="C222" s="193"/>
+      <c r="D222" s="194">
+        <v>0.4</v>
+      </c>
+      <c r="E222" s="194">
+        <v>0.4</v>
+      </c>
+      <c r="F222" s="194">
+        <v>0.4</v>
+      </c>
+      <c r="G222" s="194">
+        <v>0.4</v>
+      </c>
+      <c r="H222" s="194">
+        <v>0.2</v>
+      </c>
+      <c r="I222" s="194">
+        <v>0.2</v>
+      </c>
+      <c r="J222" s="194">
+        <v>0.2</v>
+      </c>
+      <c r="K222" s="196">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="223" spans="2:11" ht="15.75">
+      <c r="B223" s="75" t="s">
+        <v>598</v>
+      </c>
+      <c r="C223" s="193"/>
+      <c r="D223" s="193"/>
+      <c r="E223" s="193"/>
+      <c r="F223" s="193"/>
+      <c r="G223" s="193"/>
+      <c r="H223" s="194">
+        <v>0.125</v>
+      </c>
+      <c r="I223" s="194">
+        <v>0.125</v>
+      </c>
+      <c r="J223" s="194">
+        <v>0.125</v>
+      </c>
+      <c r="K223" s="196">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="224" spans="2:11" ht="15.75">
+      <c r="B224" s="75" t="s">
+        <v>599</v>
+      </c>
+      <c r="C224" s="194">
+        <v>0.15</v>
+      </c>
+      <c r="D224" s="194">
+        <v>0.15</v>
+      </c>
+      <c r="E224" s="194">
+        <v>0.15</v>
+      </c>
+      <c r="F224" s="194">
+        <v>0.2</v>
+      </c>
+      <c r="G224" s="194">
+        <v>0.15</v>
+      </c>
+      <c r="H224" s="194">
+        <v>0.15</v>
+      </c>
+      <c r="I224" s="194">
+        <v>0.15</v>
+      </c>
+      <c r="J224" s="194">
+        <v>0.15</v>
+      </c>
+      <c r="K224" s="196">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="225" spans="2:11" ht="15.75">
+      <c r="B225" s="75" t="s">
+        <v>600</v>
+      </c>
+      <c r="C225" s="194">
+        <v>0.29630000000000001</v>
+      </c>
+      <c r="D225" s="194">
+        <v>0.29630000000000001</v>
+      </c>
+      <c r="E225" s="194">
+        <v>0.29630000000000001</v>
+      </c>
+      <c r="F225" s="194">
+        <v>0.28589999999999999</v>
+      </c>
+      <c r="G225" s="194">
+        <v>0.28589999999999999</v>
+      </c>
+      <c r="H225" s="194">
+        <v>0.28800000000000003</v>
+      </c>
+      <c r="I225" s="194">
+        <v>0.28800000000000003</v>
+      </c>
+      <c r="J225" s="194">
+        <v>0.29220000000000002</v>
+      </c>
+      <c r="K225" s="196">
+        <v>0.29220000000000002</v>
+      </c>
+    </row>
+    <row r="226" spans="2:11" ht="15.75">
+      <c r="B226" s="75" t="s">
+        <v>601</v>
+      </c>
+      <c r="C226" s="194">
+        <v>0.12</v>
+      </c>
+      <c r="D226" s="194">
+        <v>0.12</v>
+      </c>
+      <c r="E226" s="194">
+        <v>0.12</v>
+      </c>
+      <c r="F226" s="194">
+        <v>0.12</v>
+      </c>
+      <c r="G226" s="194">
+        <v>0.12</v>
+      </c>
+      <c r="H226" s="194">
+        <v>0.12</v>
+      </c>
+      <c r="I226" s="194">
+        <v>0.12</v>
+      </c>
+      <c r="J226" s="194">
+        <v>0.12</v>
+      </c>
+      <c r="K226" s="196">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="227" spans="2:11" ht="15.75">
+      <c r="B227" s="75" t="s">
+        <v>602</v>
+      </c>
+      <c r="C227" s="194">
+        <v>0.15</v>
+      </c>
+      <c r="D227" s="194">
+        <v>0.12</v>
+      </c>
+      <c r="E227" s="194">
+        <v>0.1</v>
+      </c>
+      <c r="F227" s="194">
+        <v>0.1</v>
+      </c>
+      <c r="G227" s="194">
+        <v>0.1</v>
+      </c>
+      <c r="H227" s="194">
+        <v>0.1</v>
+      </c>
+      <c r="I227" s="194">
+        <v>0.1</v>
+      </c>
+      <c r="J227" s="194">
+        <v>0.1</v>
+      </c>
+      <c r="K227" s="196">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="228" spans="2:11" ht="15.75">
+      <c r="B228" s="75" t="s">
+        <v>603</v>
+      </c>
+      <c r="C228" s="193"/>
+      <c r="D228" s="193"/>
+      <c r="E228" s="193"/>
+      <c r="F228" s="193"/>
+      <c r="G228" s="193"/>
+      <c r="H228" s="193"/>
+      <c r="I228" s="194">
+        <v>0.3</v>
+      </c>
+      <c r="J228" s="194">
+        <v>0.3</v>
+      </c>
+      <c r="K228" s="196">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="229" spans="2:11" ht="15.75">
+      <c r="B229" s="75" t="s">
+        <v>604</v>
+      </c>
+      <c r="C229" s="194">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D229" s="194">
+        <v>0.27</v>
+      </c>
+      <c r="E229" s="194">
+        <v>0.26</v>
+      </c>
+      <c r="F229" s="194">
+        <v>0.25</v>
+      </c>
+      <c r="G229" s="194">
+        <v>0.25</v>
+      </c>
+      <c r="H229" s="194">
+        <v>0.25</v>
+      </c>
+      <c r="I229" s="194">
+        <v>0.25</v>
+      </c>
+      <c r="J229" s="194">
+        <v>0.25</v>
+      </c>
+      <c r="K229" s="196">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="230" spans="2:11" ht="15.75">
+      <c r="B230" s="75" t="s">
+        <v>605</v>
+      </c>
+      <c r="C230" s="194">
+        <v>0.35</v>
+      </c>
+      <c r="D230" s="194">
+        <v>0.35</v>
+      </c>
+      <c r="E230" s="194">
+        <v>0.35</v>
+      </c>
+      <c r="F230" s="194">
+        <v>0.35</v>
+      </c>
+      <c r="G230" s="194">
+        <v>0.35</v>
+      </c>
+      <c r="H230" s="194">
+        <v>0.35</v>
+      </c>
+      <c r="I230" s="194">
+        <v>0.35</v>
+      </c>
+      <c r="J230" s="194">
+        <v>0.35</v>
+      </c>
+      <c r="K230" s="196">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="231" spans="2:11" ht="15.75">
+      <c r="B231" s="75" t="s">
+        <v>606</v>
+      </c>
+      <c r="C231" s="194">
+        <v>0.25</v>
+      </c>
+      <c r="D231" s="194">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="E231" s="194">
+        <v>0.15</v>
+      </c>
+      <c r="F231" s="194">
+        <v>0.15</v>
+      </c>
+      <c r="G231" s="194">
+        <v>0.15</v>
+      </c>
+      <c r="H231" s="194">
+        <v>0.15</v>
+      </c>
+      <c r="I231" s="194">
+        <v>0.15</v>
+      </c>
+      <c r="J231" s="194">
+        <v>0.15</v>
+      </c>
+      <c r="K231" s="196">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="232" spans="2:11" ht="15.75">
+      <c r="B232" s="75" t="s">
+        <v>607</v>
+      </c>
+      <c r="C232" s="194">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="D232" s="194">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="E232" s="194">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="F232" s="194">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="G232" s="194">
+        <v>0.3</v>
+      </c>
+      <c r="H232" s="194">
+        <v>0.3</v>
+      </c>
+      <c r="I232" s="194">
+        <v>0.3</v>
+      </c>
+      <c r="J232" s="194">
+        <v>0.3</v>
+      </c>
+      <c r="K232" s="196">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="233" spans="2:11" ht="15.75">
+      <c r="B233" s="75" t="s">
+        <v>608</v>
+      </c>
+      <c r="C233" s="194">
+        <v>0.09</v>
+      </c>
+      <c r="D233" s="194">
+        <v>0.09</v>
+      </c>
+      <c r="E233" s="194">
+        <v>0.09</v>
+      </c>
+      <c r="F233" s="194">
+        <v>0.09</v>
+      </c>
+      <c r="G233" s="194">
+        <v>0.09</v>
+      </c>
+      <c r="H233" s="194">
+        <v>0.09</v>
+      </c>
+      <c r="I233" s="194">
+        <v>0.09</v>
+      </c>
+      <c r="J233" s="194">
+        <v>0.09</v>
+      </c>
+      <c r="K233" s="196">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="234" spans="2:11" ht="15.75">
+      <c r="B234" s="75" t="s">
+        <v>609</v>
+      </c>
+      <c r="C234" s="193"/>
+      <c r="D234" s="193"/>
+      <c r="E234" s="193"/>
+      <c r="F234" s="193"/>
+      <c r="G234" s="193"/>
+      <c r="H234" s="193"/>
+      <c r="I234" s="193"/>
+      <c r="J234" s="194">
+        <v>0.3</v>
+      </c>
+      <c r="K234" s="196">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="235" spans="2:11" ht="15.75">
+      <c r="B235" s="75" t="s">
+        <v>610</v>
+      </c>
+      <c r="C235" s="194">
+        <v>0.32</v>
+      </c>
+      <c r="D235" s="194">
+        <v>0.32</v>
+      </c>
+      <c r="E235" s="194">
+        <v>0.32</v>
+      </c>
+      <c r="F235" s="194">
+        <v>0.32</v>
+      </c>
+      <c r="G235" s="194">
+        <v>0.32</v>
+      </c>
+      <c r="H235" s="194">
+        <v>0.32</v>
+      </c>
+      <c r="I235" s="194">
+        <v>0.32</v>
+      </c>
+      <c r="J235" s="194">
+        <v>0.32</v>
+      </c>
+      <c r="K235" s="196">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="236" spans="2:11" ht="15.75">
+      <c r="B236" s="75" t="s">
+        <v>611</v>
+      </c>
+      <c r="C236" s="193"/>
+      <c r="D236" s="193"/>
+      <c r="E236" s="193"/>
+      <c r="F236" s="193"/>
+      <c r="G236" s="193"/>
+      <c r="H236" s="194">
+        <v>0.34</v>
+      </c>
+      <c r="I236" s="194">
+        <v>0.34</v>
+      </c>
+      <c r="J236" s="194">
+        <v>0.33</v>
+      </c>
+      <c r="K236" s="196">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="237" spans="2:11" ht="15.75">
+      <c r="B237" s="75" t="s">
+        <v>612</v>
+      </c>
+      <c r="C237" s="194">
+        <v>0.29600000000000004</v>
+      </c>
+      <c r="D237" s="194">
+        <v>0.255</v>
+      </c>
+      <c r="E237" s="194">
+        <v>0.255</v>
+      </c>
+      <c r="F237" s="194">
+        <v>0.255</v>
+      </c>
+      <c r="G237" s="194">
+        <v>0.255</v>
+      </c>
+      <c r="H237" s="194">
+        <v>0.25</v>
+      </c>
+      <c r="I237" s="194">
+        <v>0.25</v>
+      </c>
+      <c r="J237" s="194">
+        <v>0.25</v>
+      </c>
+      <c r="K237" s="196">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="238" spans="2:11" ht="15.75">
+      <c r="B238" s="75" t="s">
+        <v>613</v>
+      </c>
+      <c r="C238" s="194">
+        <v>0.33</v>
+      </c>
+      <c r="D238" s="194">
+        <v>0.33</v>
+      </c>
+      <c r="E238" s="194">
+        <v>0.3</v>
+      </c>
+      <c r="F238" s="194">
+        <v>0.3</v>
+      </c>
+      <c r="G238" s="194">
+        <v>0.3</v>
+      </c>
+      <c r="H238" s="194">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="I238" s="194">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="J238" s="194">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="K238" s="196">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="239" spans="2:11" ht="15.75">
+      <c r="B239" s="75" t="s">
+        <v>614</v>
+      </c>
+      <c r="C239" s="194">
+        <v>0.3</v>
+      </c>
+      <c r="D239" s="194">
+        <v>0.3</v>
+      </c>
+      <c r="E239" s="194">
+        <v>0.3</v>
+      </c>
+      <c r="F239" s="194">
+        <v>0.3</v>
+      </c>
+      <c r="G239" s="194">
+        <v>0.3</v>
+      </c>
+      <c r="H239" s="194">
+        <v>0.3</v>
+      </c>
+      <c r="I239" s="194">
+        <v>0.3</v>
+      </c>
+      <c r="J239" s="194">
+        <v>0.3</v>
+      </c>
+      <c r="K239" s="196">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="240" spans="2:11" ht="15.75">
+      <c r="B240" s="75" t="s">
+        <v>615</v>
+      </c>
+      <c r="C240" s="194">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D240" s="194">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="E240" s="194">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="F240" s="194">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="G240" s="194">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="H240" s="194">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="I240" s="194">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="J240" s="194">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="K240" s="196">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="241" spans="2:11" ht="15.75">
+      <c r="B241" s="75" t="s">
+        <v>616</v>
+      </c>
+      <c r="C241" s="194">
+        <v>0.12</v>
+      </c>
+      <c r="D241" s="194">
+        <v>0.12</v>
+      </c>
+      <c r="E241" s="194">
+        <v>0.12</v>
+      </c>
+      <c r="F241" s="194">
+        <v>0.12</v>
+      </c>
+      <c r="G241" s="194">
+        <v>0.12</v>
+      </c>
+      <c r="H241" s="194">
+        <v>0.12</v>
+      </c>
+      <c r="I241" s="194">
+        <v>0.12</v>
+      </c>
+      <c r="J241" s="194">
+        <v>0.12</v>
+      </c>
+      <c r="K241" s="196">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="242" spans="2:11" ht="15.75">
+      <c r="B242" s="75" t="s">
+        <v>617</v>
+      </c>
+      <c r="C242" s="194">
+        <v>0.35</v>
+      </c>
+      <c r="D242" s="194">
+        <v>0.35</v>
+      </c>
+      <c r="E242" s="194">
+        <v>0.35</v>
+      </c>
+      <c r="F242" s="194">
+        <v>0.35</v>
+      </c>
+      <c r="G242" s="194">
+        <v>0.35</v>
+      </c>
+      <c r="H242" s="194">
+        <v>0.35</v>
+      </c>
+      <c r="I242" s="194">
+        <v>0.35</v>
+      </c>
+      <c r="J242" s="194">
+        <v>0.35</v>
+      </c>
+      <c r="K242" s="196">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="243" spans="2:11" ht="15.75">
+      <c r="B243" s="75" t="s">
+        <v>618</v>
+      </c>
+      <c r="C243" s="194">
+        <v>0.3</v>
+      </c>
+      <c r="D243" s="194">
+        <v>0.3</v>
+      </c>
+      <c r="E243" s="194">
+        <v>0.3</v>
+      </c>
+      <c r="F243" s="194">
+        <v>0.3</v>
+      </c>
+      <c r="G243" s="194">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="H243" s="194">
+        <v>0.25</v>
+      </c>
+      <c r="I243" s="194">
+        <v>0.25</v>
+      </c>
+      <c r="J243" s="194">
+        <v>0.25</v>
+      </c>
+      <c r="K243" s="196">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="244" spans="2:11" ht="15.75">
+      <c r="B244" s="75" t="s">
+        <v>619</v>
+      </c>
+      <c r="C244" s="194">
+        <v>0.3</v>
+      </c>
+      <c r="D244" s="194">
+        <v>0.3</v>
+      </c>
+      <c r="E244" s="194">
+        <v>0.3</v>
+      </c>
+      <c r="F244" s="194">
+        <v>0.3</v>
+      </c>
+      <c r="G244" s="194">
+        <v>0.3</v>
+      </c>
+      <c r="H244" s="194">
+        <v>0.3</v>
+      </c>
+      <c r="I244" s="194">
+        <v>0.3</v>
+      </c>
+      <c r="J244" s="194">
+        <v>0.3</v>
+      </c>
+      <c r="K244" s="196">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="245" spans="2:11" ht="15.75">
+      <c r="B245" s="75" t="s">
+        <v>620</v>
+      </c>
+      <c r="C245" s="194">
+        <v>0.1</v>
+      </c>
+      <c r="D245" s="194">
+        <v>0.1</v>
+      </c>
+      <c r="E245" s="194">
+        <v>0.1</v>
+      </c>
+      <c r="F245" s="194">
+        <v>0.1</v>
+      </c>
+      <c r="G245" s="194">
+        <v>0.1</v>
+      </c>
+      <c r="H245" s="194">
+        <v>0.1</v>
+      </c>
+      <c r="I245" s="194">
+        <v>0.1</v>
+      </c>
+      <c r="J245" s="194">
+        <v>0.1</v>
+      </c>
+      <c r="K245" s="196">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="246" spans="2:11" ht="15.75">
+      <c r="B246" s="75" t="s">
+        <v>621</v>
+      </c>
+      <c r="C246" s="194">
+        <v>0.3</v>
+      </c>
+      <c r="D246" s="194">
+        <v>0.3</v>
+      </c>
+      <c r="E246" s="194">
+        <v>0.3</v>
+      </c>
+      <c r="F246" s="194">
+        <v>0.3</v>
+      </c>
+      <c r="G246" s="194">
+        <v>0.3</v>
+      </c>
+      <c r="H246" s="194">
+        <v>0.3</v>
+      </c>
+      <c r="I246" s="194">
+        <v>0.3</v>
+      </c>
+      <c r="J246" s="194">
+        <v>0.3</v>
+      </c>
+      <c r="K246" s="196">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="247" spans="2:11" ht="15.75">
+      <c r="B247" s="75" t="s">
+        <v>622</v>
+      </c>
+      <c r="C247" s="194">
+        <v>0.35</v>
+      </c>
+      <c r="D247" s="194">
+        <v>0.35</v>
+      </c>
+      <c r="E247" s="194">
+        <v>0.35</v>
+      </c>
+      <c r="F247" s="194">
+        <v>0.3</v>
+      </c>
+      <c r="G247" s="194">
+        <v>0.3</v>
+      </c>
+      <c r="H247" s="194">
+        <v>0.3</v>
+      </c>
+      <c r="I247" s="194">
+        <v>0.3</v>
+      </c>
+      <c r="J247" s="194">
+        <v>0.3</v>
+      </c>
+      <c r="K247" s="196">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="248" spans="2:11" ht="15.75">
+      <c r="B248" s="75" t="s">
+        <v>623</v>
+      </c>
+      <c r="C248" s="194">
+        <v>0.19</v>
+      </c>
+      <c r="D248" s="194">
+        <v>0.19</v>
+      </c>
+      <c r="E248" s="194">
+        <v>0.19</v>
+      </c>
+      <c r="F248" s="194">
+        <v>0.19</v>
+      </c>
+      <c r="G248" s="194">
+        <v>0.19</v>
+      </c>
+      <c r="H248" s="194">
+        <v>0.19</v>
+      </c>
+      <c r="I248" s="194">
+        <v>0.19</v>
+      </c>
+      <c r="J248" s="194">
+        <v>0.19</v>
+      </c>
+      <c r="K248" s="196">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="249" spans="2:11" ht="15.75">
+      <c r="B249" s="75" t="s">
+        <v>624</v>
+      </c>
+      <c r="C249" s="194">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="D249" s="194">
+        <v>0.25</v>
+      </c>
+      <c r="E249" s="194">
+        <v>0.25</v>
+      </c>
+      <c r="F249" s="194">
+        <v>0.25</v>
+      </c>
+      <c r="G249" s="194">
+        <v>0.25</v>
+      </c>
+      <c r="H249" s="194">
+        <v>0.25</v>
+      </c>
+      <c r="I249" s="194">
+        <v>0.25</v>
+      </c>
+      <c r="J249" s="194">
+        <v>0.25</v>
+      </c>
+      <c r="K249" s="196">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="250" spans="2:11" ht="15.75">
+      <c r="B250" s="75" t="s">
+        <v>625</v>
+      </c>
+      <c r="C250" s="194">
+        <v>0.35</v>
+      </c>
+      <c r="D250" s="194">
+        <v>0.35</v>
+      </c>
+      <c r="E250" s="194">
+        <v>0.35</v>
+      </c>
+      <c r="F250" s="194">
+        <v>0.35</v>
+      </c>
+      <c r="G250" s="194">
+        <v>0.1</v>
+      </c>
+      <c r="H250" s="194">
+        <v>0.1</v>
+      </c>
+      <c r="I250" s="194">
+        <v>0.1</v>
+      </c>
+      <c r="J250" s="194">
+        <v>0.1</v>
+      </c>
+      <c r="K250" s="196">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="251" spans="2:11" ht="15.75">
+      <c r="B251" s="75" t="s">
+        <v>626</v>
+      </c>
+      <c r="C251" s="194">
+        <v>0.16</v>
+      </c>
+      <c r="D251" s="194">
+        <v>0.16</v>
+      </c>
+      <c r="E251" s="194">
+        <v>0.16</v>
+      </c>
+      <c r="F251" s="194">
+        <v>0.16</v>
+      </c>
+      <c r="G251" s="194">
+        <v>0.16</v>
+      </c>
+      <c r="H251" s="194">
+        <v>0.16</v>
+      </c>
+      <c r="I251" s="194">
+        <v>0.16</v>
+      </c>
+      <c r="J251" s="194">
+        <v>0.16</v>
+      </c>
+      <c r="K251" s="196">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="252" spans="2:11" ht="15.75">
+      <c r="B252" s="75" t="s">
+        <v>627</v>
+      </c>
+      <c r="C252" s="194">
+        <v>0.24</v>
+      </c>
+      <c r="D252" s="194">
+        <v>0.24</v>
+      </c>
+      <c r="E252" s="194">
+        <v>0.24</v>
+      </c>
+      <c r="F252" s="194">
+        <v>0.2</v>
+      </c>
+      <c r="G252" s="194">
+        <v>0.2</v>
+      </c>
+      <c r="H252" s="194">
+        <v>0.2</v>
+      </c>
+      <c r="I252" s="194">
+        <v>0.2</v>
+      </c>
+      <c r="J252" s="194">
+        <v>0.2</v>
+      </c>
+      <c r="K252" s="196">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="253" spans="2:11" ht="15.75">
+      <c r="B253" s="75" t="s">
+        <v>628</v>
+      </c>
+      <c r="C253" s="194">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="D253" s="194">
+        <v>0.27</v>
+      </c>
+      <c r="E253" s="194">
+        <v>0.27</v>
+      </c>
+      <c r="F253" s="194">
+        <v>0.27</v>
+      </c>
+      <c r="G253" s="194">
+        <v>0.27</v>
+      </c>
+      <c r="H253" s="194">
+        <v>0.27</v>
+      </c>
+      <c r="I253" s="194">
+        <v>0.27</v>
+      </c>
+      <c r="J253" s="194">
+        <v>0.27</v>
+      </c>
+      <c r="K253" s="196">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="254" spans="2:11" ht="15.75">
+      <c r="B254" s="75" t="s">
+        <v>629</v>
+      </c>
+      <c r="C254" s="194">
+        <v>0.2</v>
+      </c>
+      <c r="D254" s="194">
+        <v>0.2</v>
+      </c>
+      <c r="E254" s="194">
+        <v>0.2</v>
+      </c>
+      <c r="F254" s="194">
+        <v>0.2</v>
+      </c>
+      <c r="G254" s="194">
+        <v>0.2</v>
+      </c>
+      <c r="H254" s="194">
+        <v>0.2</v>
+      </c>
+      <c r="I254" s="194">
+        <v>0.2</v>
+      </c>
+      <c r="J254" s="194">
+        <v>0.2</v>
+      </c>
+      <c r="K254" s="196">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="255" spans="2:11" ht="15.75">
+      <c r="B255" s="75" t="s">
+        <v>630</v>
+      </c>
+      <c r="C255" s="194">
+        <v>0.1</v>
+      </c>
+      <c r="D255" s="194">
+        <v>0.1</v>
+      </c>
+      <c r="E255" s="194">
+        <v>0.1</v>
+      </c>
+      <c r="F255" s="194">
+        <v>0.1</v>
+      </c>
+      <c r="G255" s="194">
+        <v>0.1</v>
+      </c>
+      <c r="H255" s="194">
+        <v>0.1</v>
+      </c>
+      <c r="I255" s="194">
+        <v>0.1</v>
+      </c>
+      <c r="J255" s="194">
+        <v>0.15</v>
+      </c>
+      <c r="K255" s="196">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="256" spans="2:11" ht="15.75">
+      <c r="B256" s="75" t="s">
+        <v>631</v>
+      </c>
+      <c r="C256" s="193"/>
+      <c r="D256" s="193"/>
+      <c r="E256" s="193"/>
+      <c r="F256" s="193"/>
+      <c r="G256" s="193"/>
+      <c r="H256" s="193"/>
+      <c r="I256" s="193"/>
+      <c r="J256" s="193"/>
+      <c r="K256" s="196">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="257" spans="2:11" ht="15.75">
+      <c r="B257" s="75" t="s">
+        <v>632</v>
+      </c>
+      <c r="C257" s="194">
+        <v>0.2</v>
+      </c>
+      <c r="D257" s="194">
+        <v>0.2</v>
+      </c>
+      <c r="E257" s="194">
+        <v>0.18</v>
+      </c>
+      <c r="F257" s="194">
+        <v>0.18</v>
+      </c>
+      <c r="G257" s="194">
+        <v>0.17</v>
+      </c>
+      <c r="H257" s="194">
+        <v>0.17</v>
+      </c>
+      <c r="I257" s="194">
+        <v>0.17</v>
+      </c>
+      <c r="J257" s="194">
+        <v>0.17</v>
+      </c>
+      <c r="K257" s="196">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="258" spans="2:11" ht="15.75">
+      <c r="B258" s="75" t="s">
+        <v>633</v>
+      </c>
+      <c r="C258" s="193"/>
+      <c r="D258" s="193"/>
+      <c r="E258" s="193"/>
+      <c r="F258" s="193"/>
+      <c r="G258" s="193"/>
+      <c r="H258" s="194">
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="I258" s="194">
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="J258" s="194">
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="K258" s="196">
+        <v>0.34499999999999997</v>
+      </c>
+    </row>
+    <row r="259" spans="2:11" ht="15.75">
+      <c r="B259" s="75" t="s">
+        <v>634</v>
+      </c>
+      <c r="C259" s="194">
+        <v>0.19</v>
+      </c>
+      <c r="D259" s="194">
+        <v>0.19</v>
+      </c>
+      <c r="E259" s="194">
+        <v>0.19</v>
+      </c>
+      <c r="F259" s="194">
+        <v>0.19</v>
+      </c>
+      <c r="G259" s="194">
+        <v>0.19</v>
+      </c>
+      <c r="H259" s="194">
+        <v>0.19</v>
+      </c>
+      <c r="I259" s="194">
+        <v>0.19</v>
+      </c>
+      <c r="J259" s="194">
+        <v>0.23</v>
+      </c>
+      <c r="K259" s="196">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="260" spans="2:11" ht="15.75">
+      <c r="B260" s="75" t="s">
+        <v>635</v>
+      </c>
+      <c r="C260" s="194">
+        <v>0.25</v>
+      </c>
+      <c r="D260" s="194">
+        <v>0.23</v>
+      </c>
+      <c r="E260" s="194">
+        <v>0.22</v>
+      </c>
+      <c r="F260" s="194">
+        <v>0.21</v>
+      </c>
+      <c r="G260" s="194">
+        <v>0.2</v>
+      </c>
+      <c r="H260" s="194">
+        <v>0.2</v>
+      </c>
+      <c r="I260" s="194">
+        <v>0.18</v>
+      </c>
+      <c r="J260" s="194">
+        <v>0.17</v>
+      </c>
+      <c r="K260" s="196">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="261" spans="2:11" ht="15.75">
+      <c r="B261" s="75" t="s">
+        <v>636</v>
+      </c>
+      <c r="C261" s="194">
+        <v>0.36890000000000001</v>
+      </c>
+      <c r="D261" s="194">
+        <v>0.36890000000000001</v>
+      </c>
+      <c r="E261" s="194">
+        <v>0.34549999999999997</v>
+      </c>
+      <c r="F261" s="194">
+        <v>0.34549999999999997</v>
+      </c>
+      <c r="G261" s="194">
+        <v>0.34549999999999997</v>
+      </c>
+      <c r="H261" s="194">
+        <v>0.34549999999999997</v>
+      </c>
+      <c r="I261" s="194">
+        <v>0.34549999999999997</v>
+      </c>
+      <c r="J261" s="194">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="K261" s="196">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="262" spans="2:11" ht="15.75">
+      <c r="B262" s="75" t="s">
+        <v>637</v>
+      </c>
+      <c r="C262" s="194">
+        <v>0.35</v>
+      </c>
+      <c r="D262" s="194">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="E262" s="194">
+        <v>0.3</v>
+      </c>
+      <c r="F262" s="194">
+        <v>0.3</v>
+      </c>
+      <c r="G262" s="194">
+        <v>0.3</v>
+      </c>
+      <c r="H262" s="194">
+        <v>0.3</v>
+      </c>
+      <c r="I262" s="194">
+        <v>0.3</v>
+      </c>
+      <c r="J262" s="194">
+        <v>0.3</v>
+      </c>
+      <c r="K262" s="196">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="263" spans="2:11" ht="15.75">
+      <c r="B263" s="75" t="s">
+        <v>638</v>
+      </c>
+      <c r="C263" s="194">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="D263" s="194">
+        <v>0.35</v>
+      </c>
+      <c r="E263" s="194">
+        <v>0.35</v>
+      </c>
+      <c r="F263" s="194">
+        <v>0.35</v>
+      </c>
+      <c r="G263" s="194">
+        <v>0.35</v>
+      </c>
+      <c r="H263" s="194">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="I263" s="194">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="J263" s="194">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="K263" s="196">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="264" spans="2:11" ht="15.75">
+      <c r="B264" s="75" t="s">
+        <v>639</v>
+      </c>
+      <c r="C264" s="194">
+        <v>0.35</v>
+      </c>
+      <c r="D264" s="194">
+        <v>0.3</v>
+      </c>
+      <c r="E264" s="194">
+        <v>0.15</v>
+      </c>
+      <c r="F264" s="194">
+        <v>0.15</v>
+      </c>
+      <c r="G264" s="194">
+        <v>0.15</v>
+      </c>
+      <c r="H264" s="194">
+        <v>0.35</v>
+      </c>
+      <c r="I264" s="194">
+        <v>0.35</v>
+      </c>
+      <c r="J264" s="194">
+        <v>0.35</v>
+      </c>
+      <c r="K264" s="196">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="265" spans="2:11" ht="15.75">
+      <c r="B265" s="75" t="s">
+        <v>640</v>
+      </c>
+      <c r="C265" s="193"/>
+      <c r="D265" s="193"/>
+      <c r="E265" s="193"/>
+      <c r="F265" s="193"/>
+      <c r="G265" s="193"/>
+      <c r="H265" s="193"/>
+      <c r="I265" s="193"/>
+      <c r="J265" s="194">
+        <v>0.36</v>
+      </c>
+      <c r="K265" s="196">
+        <v>0.34499999999999997</v>
+      </c>
+    </row>
+    <row r="266" spans="2:11" ht="15.75">
+      <c r="B266" s="75" t="s">
+        <v>641</v>
+      </c>
+      <c r="C266" s="194">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D266" s="194">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="E266" s="194">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="F266" s="194">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="G266" s="194">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="H266" s="194">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="I266" s="194">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="J266" s="194">
+        <v>0.22</v>
+      </c>
+      <c r="K266" s="196">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="267" spans="2:11" ht="15.75">
+      <c r="B267" s="75" t="s">
+        <v>642</v>
+      </c>
+      <c r="C267" s="194">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="D267" s="194">
+        <v>0.20629999999999998</v>
+      </c>
+      <c r="E267" s="194">
+        <v>0.192</v>
+      </c>
+      <c r="F267" s="194">
+        <v>0.18960000000000002</v>
+      </c>
+      <c r="G267" s="194">
+        <v>0.1875</v>
+      </c>
+      <c r="H267" s="194">
+        <v>0.18309999999999998</v>
+      </c>
+      <c r="I267" s="194">
+        <v>0.18059999999999998</v>
+      </c>
+      <c r="J267" s="194">
+        <v>0.18010000000000001</v>
+      </c>
+      <c r="K267" s="196">
+        <v>0.17920000000000003</v>
+      </c>
+    </row>
+    <row r="268" spans="2:11" ht="15.75">
+      <c r="B268" s="75" t="s">
+        <v>643</v>
+      </c>
+      <c r="C268" s="194">
+        <v>0.35</v>
+      </c>
+      <c r="D268" s="194">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="E268" s="194">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="F268" s="194">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="G268" s="194">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="H268" s="194">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="I268" s="194">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="J268" s="194">
+        <v>0.22</v>
+      </c>
+      <c r="K268" s="196">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="269" spans="2:11" ht="15.75">
+      <c r="B269" s="75" t="s">
+        <v>644</v>
+      </c>
+      <c r="C269" s="194">
+        <v>0.25</v>
+      </c>
+      <c r="D269" s="194">
+        <v>0.25</v>
+      </c>
+      <c r="E269" s="194">
+        <v>0.25</v>
+      </c>
+      <c r="F269" s="194">
+        <v>0.25</v>
+      </c>
+      <c r="G269" s="194">
+        <v>0.17</v>
+      </c>
+      <c r="H269" s="194">
+        <v>0.17</v>
+      </c>
+      <c r="I269" s="194">
+        <v>0.17</v>
+      </c>
+      <c r="J269" s="194">
+        <v>0.17</v>
+      </c>
+      <c r="K269" s="196">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="270" spans="2:11" ht="15.75">
+      <c r="B270" s="75" t="s">
+        <v>645</v>
+      </c>
+      <c r="C270" s="193"/>
+      <c r="D270" s="193"/>
+      <c r="E270" s="193"/>
+      <c r="F270" s="194">
+        <v>0.3</v>
+      </c>
+      <c r="G270" s="194">
+        <v>0.3</v>
+      </c>
+      <c r="H270" s="194">
+        <v>0.3</v>
+      </c>
+      <c r="I270" s="194">
+        <v>0.3</v>
+      </c>
+      <c r="J270" s="194">
+        <v>0.3</v>
+      </c>
+      <c r="K270" s="196">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="271" spans="2:11" ht="30.75" customHeight="1">
+      <c r="B271" s="75" t="s">
+        <v>646</v>
+      </c>
+      <c r="C271" s="194">
+        <v>0.3</v>
+      </c>
+      <c r="D271" s="194">
+        <v>0.3</v>
+      </c>
+      <c r="E271" s="194">
+        <v>0.3</v>
+      </c>
+      <c r="F271" s="194">
+        <v>0.3</v>
+      </c>
+      <c r="G271" s="194">
+        <v>0.3</v>
+      </c>
+      <c r="H271" s="194">
+        <v>0.3</v>
+      </c>
+      <c r="I271" s="194">
+        <v>0.23</v>
+      </c>
+      <c r="J271" s="194">
+        <v>0.2</v>
+      </c>
+      <c r="K271" s="196">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="272" spans="2:11" ht="15.75">
+      <c r="B272" s="75" t="s">
+        <v>647</v>
+      </c>
+      <c r="C272" s="193"/>
+      <c r="D272" s="193"/>
+      <c r="E272" s="193"/>
+      <c r="F272" s="193"/>
+      <c r="G272" s="193"/>
+      <c r="H272" s="193"/>
+      <c r="I272" s="194">
+        <v>0.25</v>
+      </c>
+      <c r="J272" s="194">
+        <v>0.25</v>
+      </c>
+      <c r="K272" s="196">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="273" spans="2:11" ht="15.75">
+      <c r="B273" s="75" t="s">
+        <v>648</v>
+      </c>
+      <c r="C273" s="194">
+        <v>0.35</v>
+      </c>
+      <c r="D273" s="194">
+        <v>0.3</v>
+      </c>
+      <c r="E273" s="194">
+        <v>0.3</v>
+      </c>
+      <c r="F273" s="194">
+        <v>0.3</v>
+      </c>
+      <c r="G273" s="194">
+        <v>0.3</v>
+      </c>
+      <c r="H273" s="194">
+        <v>0.3</v>
+      </c>
+      <c r="I273" s="194">
+        <v>0.3</v>
+      </c>
+      <c r="J273" s="194">
+        <v>0.3</v>
+      </c>
+      <c r="K273" s="196">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="274" spans="2:11" ht="15.75">
+      <c r="B274" s="75" t="s">
+        <v>649</v>
+      </c>
+      <c r="C274" s="194">
+        <v>0.2</v>
+      </c>
+      <c r="D274" s="194">
+        <v>0.2</v>
+      </c>
+      <c r="E274" s="194">
+        <v>0.2</v>
+      </c>
+      <c r="F274" s="194">
+        <v>0.2</v>
+      </c>
+      <c r="G274" s="194">
+        <v>0.2</v>
+      </c>
+      <c r="H274" s="194">
+        <v>0.2</v>
+      </c>
+      <c r="I274" s="194">
+        <v>0.2</v>
+      </c>
+      <c r="J274" s="194">
+        <v>0.2</v>
+      </c>
+      <c r="K274" s="196">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="275" spans="2:11" ht="15.75">
+      <c r="B275" s="75" t="s">
+        <v>650</v>
+      </c>
+      <c r="C275" s="194">
+        <v>0.3</v>
+      </c>
+      <c r="D275" s="194">
+        <v>0.3</v>
+      </c>
+      <c r="E275" s="194">
+        <v>0.3</v>
+      </c>
+      <c r="F275" s="194">
+        <v>0.3</v>
+      </c>
+      <c r="G275" s="194">
+        <v>0.3</v>
+      </c>
+      <c r="H275" s="194">
+        <v>0.3</v>
+      </c>
+      <c r="I275" s="194">
+        <v>0.3</v>
+      </c>
+      <c r="J275" s="194">
+        <v>0.3</v>
+      </c>
+      <c r="K275" s="196">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="276" spans="2:11" ht="15.75">
+      <c r="B276" s="75" t="s">
+        <v>651</v>
+      </c>
+      <c r="C276" s="194">
+        <v>0.25</v>
+      </c>
+      <c r="D276" s="194">
+        <v>0.25</v>
+      </c>
+      <c r="E276" s="194">
+        <v>0.25</v>
+      </c>
+      <c r="F276" s="194">
+        <v>0.25</v>
+      </c>
+      <c r="G276" s="194">
+        <v>0.25</v>
+      </c>
+      <c r="H276" s="194">
+        <v>0.25</v>
+      </c>
+      <c r="I276" s="194">
+        <v>0.21</v>
+      </c>
+      <c r="J276" s="194">
+        <v>0.19</v>
+      </c>
+      <c r="K276" s="196">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="277" spans="2:11" ht="15.75">
+      <c r="B277" s="75" t="s">
+        <v>652</v>
+      </c>
+      <c r="C277" s="194">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D277" s="194">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E277" s="194">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F277" s="194">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="G277" s="194">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H277" s="194">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="I277" s="194">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="J277" s="194">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="K277" s="196">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="278" spans="2:11" ht="15.75">
+      <c r="B278" s="75" t="s">
+        <v>653</v>
+      </c>
+      <c r="C278" s="194">
+        <v>0.3</v>
+      </c>
+      <c r="D278" s="194">
+        <v>0.3</v>
+      </c>
+      <c r="E278" s="194">
+        <v>0.3</v>
+      </c>
+      <c r="F278" s="194">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="G278" s="194">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="H278" s="194">
+        <v>0.26</v>
+      </c>
+      <c r="I278" s="194">
+        <v>0.24</v>
+      </c>
+      <c r="J278" s="194">
+        <v>0.23</v>
+      </c>
+      <c r="K278" s="196">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="279" spans="2:11" ht="15.75">
+      <c r="B279" s="75" t="s">
+        <v>224</v>
+      </c>
+      <c r="C279" s="194">
+        <v>0.4</v>
+      </c>
+      <c r="D279" s="194">
+        <v>0.4</v>
+      </c>
+      <c r="E279" s="194">
+        <v>0.4</v>
+      </c>
+      <c r="F279" s="194">
+        <v>0.4</v>
+      </c>
+      <c r="G279" s="194">
+        <v>0.4</v>
+      </c>
+      <c r="H279" s="194">
+        <v>0.4</v>
+      </c>
+      <c r="I279" s="194">
+        <v>0.4</v>
+      </c>
+      <c r="J279" s="194">
+        <v>0.4</v>
+      </c>
+      <c r="K279" s="196">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="280" spans="2:11" ht="15.75">
+      <c r="B280" s="75" t="s">
+        <v>654</v>
+      </c>
+      <c r="C280" s="194">
+        <v>0.3</v>
+      </c>
+      <c r="D280" s="194">
+        <v>0.3</v>
+      </c>
+      <c r="E280" s="194">
+        <v>0.25</v>
+      </c>
+      <c r="F280" s="194">
+        <v>0.25</v>
+      </c>
+      <c r="G280" s="194">
+        <v>0.25</v>
+      </c>
+      <c r="H280" s="194">
+        <v>0.25</v>
+      </c>
+      <c r="I280" s="194">
+        <v>0.25</v>
+      </c>
+      <c r="J280" s="194">
+        <v>0.25</v>
+      </c>
+      <c r="K280" s="196">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="281" spans="2:11" ht="15.75">
+      <c r="B281" s="75" t="s">
+        <v>655</v>
+      </c>
+      <c r="C281" s="194">
+        <v>0</v>
+      </c>
+      <c r="D281" s="194">
+        <v>0</v>
+      </c>
+      <c r="E281" s="194">
+        <v>0</v>
+      </c>
+      <c r="F281" s="194">
+        <v>0</v>
+      </c>
+      <c r="G281" s="194">
+        <v>0</v>
+      </c>
+      <c r="H281" s="194">
+        <v>0</v>
+      </c>
+      <c r="I281" s="194">
+        <v>0</v>
+      </c>
+      <c r="J281" s="194">
+        <v>0</v>
+      </c>
+      <c r="K281" s="196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="2:11" ht="15.75">
+      <c r="B282" s="75" t="s">
+        <v>656</v>
+      </c>
+      <c r="C282" s="194">
+        <v>0.34</v>
+      </c>
+      <c r="D282" s="194">
+        <v>0.34</v>
+      </c>
+      <c r="E282" s="194">
+        <v>0.34</v>
+      </c>
+      <c r="F282" s="194">
+        <v>0.34</v>
+      </c>
+      <c r="G282" s="194">
+        <v>0.34</v>
+      </c>
+      <c r="H282" s="194">
+        <v>0.34</v>
+      </c>
+      <c r="I282" s="194">
+        <v>0.34</v>
+      </c>
+      <c r="J282" s="194">
+        <v>0.34</v>
+      </c>
+      <c r="K282" s="196">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="283" spans="2:11" ht="15.75">
+      <c r="B283" s="75" t="s">
+        <v>657</v>
+      </c>
+      <c r="C283" s="194">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D283" s="194">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="E283" s="194">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="F283" s="194">
+        <v>0.25</v>
+      </c>
+      <c r="G283" s="194">
+        <v>0.25</v>
+      </c>
+      <c r="H283" s="194">
+        <v>0.25</v>
+      </c>
+      <c r="I283" s="194">
+        <v>0.25</v>
+      </c>
+      <c r="J283" s="194">
+        <v>0.25</v>
+      </c>
+      <c r="K283" s="196">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="284" spans="2:11" ht="15.75">
+      <c r="B284" s="75" t="s">
+        <v>658</v>
+      </c>
+      <c r="C284" s="194">
+        <v>0.35</v>
+      </c>
+      <c r="D284" s="194">
+        <v>0.35</v>
+      </c>
+      <c r="E284" s="194">
+        <v>0.35</v>
+      </c>
+      <c r="F284" s="194">
+        <v>0.35</v>
+      </c>
+      <c r="G284" s="194">
+        <v>0.35</v>
+      </c>
+      <c r="H284" s="194">
+        <v>0.2</v>
+      </c>
+      <c r="I284" s="194">
+        <v>0.2</v>
+      </c>
+      <c r="J284" s="194">
+        <v>0.2</v>
+      </c>
+      <c r="K284" s="196">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="285" spans="2:11" ht="15.75">
+      <c r="B285" s="75" t="s">
+        <v>659</v>
+      </c>
+      <c r="C285" s="194">
+        <v>0.35</v>
+      </c>
+      <c r="D285" s="194">
+        <v>0.35</v>
+      </c>
+      <c r="E285" s="194">
+        <v>0.35</v>
+      </c>
+      <c r="F285" s="194">
+        <v>0.35</v>
+      </c>
+      <c r="G285" s="194">
+        <v>0.35</v>
+      </c>
+      <c r="H285" s="194">
+        <v>0.35</v>
+      </c>
+      <c r="I285" s="194">
+        <v>0.35</v>
+      </c>
+      <c r="J285" s="194">
+        <v>0.35</v>
+      </c>
+      <c r="K285" s="196">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="286" spans="2:11" ht="15.75">
+      <c r="B286" s="75" t="s">
+        <v>660</v>
+      </c>
+      <c r="C286" s="194">
+        <v>0.309</v>
+      </c>
+      <c r="D286" s="194">
+        <v>0.309</v>
+      </c>
+      <c r="E286" s="194">
+        <v>0.309</v>
+      </c>
+      <c r="F286" s="194">
+        <v>0.309</v>
+      </c>
+      <c r="G286" s="194">
+        <v>0.25750000000000001</v>
+      </c>
+      <c r="H286" s="194">
+        <v>0.25750000000000001</v>
+      </c>
+      <c r="I286" s="194">
+        <v>0.25750000000000001</v>
+      </c>
+      <c r="J286" s="194">
+        <v>0.25750000000000001</v>
+      </c>
+      <c r="K286" s="196">
+        <v>0.25750000000000001</v>
+      </c>
+    </row>
+    <row r="287" spans="2:11" ht="15.75">
+      <c r="B287" s="192" t="s">
+        <v>661</v>
+      </c>
+      <c r="C287" s="195">
+        <v>0.30820000000000003</v>
+      </c>
+      <c r="D287" s="195">
+        <v>0.30559999999999998</v>
+      </c>
+      <c r="E287" s="195">
+        <v>0.28649999999999998</v>
+      </c>
+      <c r="F287" s="195">
+        <v>0.28749999999999998</v>
+      </c>
+      <c r="G287" s="195">
+        <v>0.2838</v>
+      </c>
+      <c r="H287" s="195">
+        <v>0.28550000000000003</v>
+      </c>
+      <c r="I287" s="195">
+        <v>0.29020000000000001</v>
+      </c>
+      <c r="J287" s="195">
+        <v>0.28289999999999998</v>
+      </c>
+      <c r="K287" s="197">
+        <v>0.27850000000000003</v>
+      </c>
+    </row>
+    <row r="288" spans="2:11" ht="15.75">
+      <c r="B288" s="192" t="s">
+        <v>662</v>
+      </c>
+      <c r="C288" s="195">
+        <v>0.29969999999999997</v>
+      </c>
+      <c r="D288" s="195">
+        <v>0.29270000000000002</v>
+      </c>
+      <c r="E288" s="195">
+        <v>0.28839999999999999</v>
+      </c>
+      <c r="F288" s="195">
+        <v>0.28820000000000001</v>
+      </c>
+      <c r="G288" s="195">
+        <v>0.2828</v>
+      </c>
+      <c r="H288" s="195">
+        <v>0.2928</v>
+      </c>
+      <c r="I288" s="195">
+        <v>0.28670000000000001</v>
+      </c>
+      <c r="J288" s="195">
+        <v>0.28350000000000003</v>
+      </c>
+      <c r="K288" s="197">
+        <v>0.2762</v>
+      </c>
+    </row>
+    <row r="289" spans="2:11" ht="15.75">
+      <c r="B289" s="192" t="s">
+        <v>663</v>
+      </c>
+      <c r="C289" s="195">
+        <v>0.28989999999999999</v>
+      </c>
+      <c r="D289" s="195">
+        <v>0.28460000000000002</v>
+      </c>
+      <c r="E289" s="195">
+        <v>0.27989999999999998</v>
+      </c>
+      <c r="F289" s="195">
+        <v>0.25730000000000003</v>
+      </c>
+      <c r="G289" s="195">
+        <v>0.23960000000000001</v>
+      </c>
+      <c r="H289" s="195">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="I289" s="195">
+        <v>0.22889999999999999</v>
+      </c>
+      <c r="J289" s="195">
+        <v>0.2205</v>
+      </c>
+      <c r="K289" s="197">
+        <v>0.21909999999999999</v>
+      </c>
+    </row>
+    <row r="290" spans="2:11" ht="15.75">
+      <c r="B290" s="192" t="s">
+        <v>664</v>
+      </c>
+      <c r="C290" s="195">
+        <v>0.23699999999999999</v>
+      </c>
+      <c r="D290" s="195">
+        <v>0.22989999999999999</v>
+      </c>
+      <c r="E290" s="195">
+        <v>0.2195</v>
+      </c>
+      <c r="F290" s="195">
+        <v>0.21640000000000001</v>
+      </c>
+      <c r="G290" s="195">
+        <v>0.21460000000000001</v>
+      </c>
+      <c r="H290" s="195">
+        <v>0.20809999999999998</v>
+      </c>
+      <c r="I290" s="195">
+        <v>0.20420000000000002</v>
+      </c>
+      <c r="J290" s="195">
+        <v>0.20600000000000002</v>
+      </c>
+      <c r="K290" s="197">
+        <v>0.1968</v>
+      </c>
+    </row>
+    <row r="291" spans="2:11" ht="15.75">
+      <c r="B291" s="192" t="s">
+        <v>665</v>
+      </c>
+      <c r="C291" s="195">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="D291" s="195">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="E291" s="195">
+        <v>0.29600000000000004</v>
+      </c>
+      <c r="F291" s="195">
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="G291" s="195">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="H291" s="195">
+        <v>0.28600000000000003</v>
+      </c>
+      <c r="I291" s="195">
+        <v>0.28600000000000003</v>
+      </c>
+      <c r="J291" s="195">
+        <v>0.27</v>
+      </c>
+      <c r="K291" s="197">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="292" spans="2:11" ht="15.75">
+      <c r="B292" s="192" t="s">
+        <v>666</v>
+      </c>
+      <c r="C292" s="195">
+        <v>0.38049999999999995</v>
+      </c>
+      <c r="D292" s="195">
+        <v>0.38049999999999995</v>
+      </c>
+      <c r="E292" s="195">
+        <v>0.36749999999999999</v>
+      </c>
+      <c r="F292" s="195">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="G292" s="195">
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="H292" s="195">
+        <v>0.34</v>
+      </c>
+      <c r="I292" s="195">
+        <v>0.33</v>
+      </c>
+      <c r="J292" s="195">
+        <v>0.33</v>
+      </c>
+      <c r="K292" s="197">
+        <v>0.33250000000000002</v>
+      </c>
+    </row>
+    <row r="293" spans="2:11" ht="15.75">
+      <c r="B293" s="192" t="s">
+        <v>667</v>
+      </c>
+      <c r="C293" s="195">
+        <v>0.29070000000000001</v>
+      </c>
+      <c r="D293" s="195">
+        <v>0.28300000000000003</v>
+      </c>
+      <c r="E293" s="195">
+        <v>0.27960000000000002</v>
+      </c>
+      <c r="F293" s="195">
+        <v>0.27960000000000002</v>
+      </c>
+      <c r="G293" s="195">
+        <v>0.2752</v>
+      </c>
+      <c r="H293" s="195">
+        <v>0.2883</v>
+      </c>
+      <c r="I293" s="195">
+        <v>0.28300000000000003</v>
+      </c>
+      <c r="J293" s="195">
+        <v>0.27960000000000002</v>
+      </c>
+      <c r="K293" s="197">
+        <v>0.27149999999999996</v>
+      </c>
+    </row>
+    <row r="294" spans="2:11" ht="15.75">
+      <c r="B294" s="192" t="s">
+        <v>668</v>
+      </c>
+      <c r="C294" s="195">
+        <v>0.24829999999999999</v>
+      </c>
+      <c r="D294" s="195">
+        <v>0.2397</v>
+      </c>
+      <c r="E294" s="195">
+        <v>0.23170000000000002</v>
+      </c>
+      <c r="F294" s="195">
+        <v>0.2311</v>
+      </c>
+      <c r="G294" s="195">
+        <v>0.2293</v>
+      </c>
+      <c r="H294" s="195">
+        <v>0.22699999999999998</v>
+      </c>
+      <c r="I294" s="195">
+        <v>0.22510000000000002</v>
+      </c>
+      <c r="J294" s="195">
+        <v>0.22750000000000001</v>
+      </c>
+      <c r="K294" s="197">
+        <v>0.21340000000000001</v>
+      </c>
+    </row>
+    <row r="295" spans="2:11" ht="15.75">
+      <c r="B295" s="192" t="s">
+        <v>669</v>
+      </c>
+      <c r="C295" s="195">
+        <v>0.2767</v>
+      </c>
+      <c r="D295" s="195">
+        <v>0.27</v>
+      </c>
+      <c r="E295" s="195">
+        <v>0.25989999999999996</v>
+      </c>
+      <c r="F295" s="195">
+        <v>0.25640000000000002</v>
+      </c>
+      <c r="G295" s="195">
+        <v>0.25700000000000001</v>
+      </c>
+      <c r="H295" s="195">
+        <v>0.254</v>
+      </c>
+      <c r="I295" s="195">
+        <v>0.2515</v>
+      </c>
+      <c r="J295" s="195">
+        <v>0.25319999999999998</v>
+      </c>
+      <c r="K295" s="197">
+        <v>0.24109999999999998</v>
+      </c>
+    </row>
+    <row r="296" spans="2:11" ht="15.75">
+      <c r="B296" s="201" t="s">
+        <v>670</v>
+      </c>
+      <c r="C296" s="202">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="D296" s="202">
+        <v>0.26950000000000002</v>
+      </c>
+      <c r="E296" s="202">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="F296" s="202">
+        <v>0.25379999999999997</v>
+      </c>
+      <c r="G296" s="202">
+        <v>0.24690000000000001</v>
+      </c>
+      <c r="H296" s="202">
+        <v>0.245</v>
+      </c>
+      <c r="I296" s="202">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="J296" s="202">
+        <v>0.23710000000000001</v>
+      </c>
+      <c r="K296" s="203">
+        <v>0.23569999999999999</v>
+      </c>
+    </row>
+    <row r="297" spans="2:11" ht="15.75">
+      <c r="B297" t="s">
+        <v>681</v>
+      </c>
+      <c r="C297" s="209" t="s">
+        <v>682</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B2:B4"/>
@@ -36522,11 +41940,12 @@
     <hyperlink ref="E3" location="'Models &amp; inputs'!B3" display="Models &amp;  inputs"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="4">
+  <tableParts count="5">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>
@@ -40791,10 +46210,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:O89"/>
+  <dimension ref="B1:O157"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView showGridLines="0" topLeftCell="D12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12:I157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -40945,6 +46364,9 @@
       <c r="G12" s="75" t="s">
         <v>324</v>
       </c>
+      <c r="I12" t="s">
+        <v>529</v>
+      </c>
     </row>
     <row r="13" spans="2:15" ht="15.75">
       <c r="B13" t="s">
@@ -40956,6 +46378,9 @@
       <c r="G13" s="75" t="s">
         <v>325</v>
       </c>
+      <c r="I13" s="204" t="s">
+        <v>530</v>
+      </c>
     </row>
     <row r="14" spans="2:15" ht="15.75">
       <c r="B14" t="s">
@@ -40967,6 +46392,9 @@
       <c r="G14" s="75" t="s">
         <v>326</v>
       </c>
+      <c r="I14" s="205" t="s">
+        <v>531</v>
+      </c>
     </row>
     <row r="15" spans="2:15" ht="15.75">
       <c r="B15" t="s">
@@ -40978,6 +46406,9 @@
       <c r="G15" s="75" t="s">
         <v>327</v>
       </c>
+      <c r="I15" s="204" t="s">
+        <v>532</v>
+      </c>
     </row>
     <row r="16" spans="2:15" ht="15.75">
       <c r="B16" t="s">
@@ -40989,21 +46420,30 @@
       <c r="G16" s="75" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="17" spans="2:7" ht="15.75">
+      <c r="I16" s="205" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" ht="15.75">
       <c r="B17" t="s">
         <v>239</v>
       </c>
       <c r="G17" s="75" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="18" spans="2:7" ht="15.75">
+      <c r="I17" s="204" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" ht="15.75">
       <c r="G18" s="75" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="19" spans="2:7" ht="15.75">
+      <c r="I18" s="205" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" ht="15.75">
       <c r="B19" t="s">
         <v>419</v>
       </c>
@@ -41016,8 +46456,11 @@
       <c r="G19" s="75" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="20" spans="2:7" ht="15.75">
+      <c r="I19" s="204" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" ht="15.75">
       <c r="B20" t="s">
         <v>241</v>
       </c>
@@ -41030,8 +46473,11 @@
       <c r="G20" s="75" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="21" spans="2:7" ht="15.75">
+      <c r="I20" s="205" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" ht="15.75">
       <c r="B21" t="s">
         <v>420</v>
       </c>
@@ -41044,8 +46490,11 @@
       <c r="G21" s="75" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="22" spans="2:7" ht="15.75">
+      <c r="I21" s="204" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" ht="15.75">
       <c r="B22" t="s">
         <v>415</v>
       </c>
@@ -41058,8 +46507,11 @@
       <c r="G22" s="75" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="23" spans="2:7" ht="15.75">
+      <c r="I22" s="205" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" ht="15.75">
       <c r="B23" t="s">
         <v>408</v>
       </c>
@@ -41072,8 +46524,11 @@
       <c r="G23" s="75" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="24" spans="2:7" ht="15.75">
+      <c r="I23" s="204" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" ht="15.75">
       <c r="B24" t="s">
         <v>282</v>
       </c>
@@ -41086,8 +46541,11 @@
       <c r="G24" s="75" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="25" spans="2:7" ht="15.75">
+      <c r="I24" s="205" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" ht="15.75">
       <c r="B25" t="s">
         <v>283</v>
       </c>
@@ -41100,325 +46558,860 @@
       <c r="G25" s="75" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="26" spans="2:7" ht="15.75">
+      <c r="I25" s="204" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" ht="15.75">
       <c r="G26" s="75" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="27" spans="2:7" ht="15.75">
+      <c r="I26" s="205" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" ht="15.75">
       <c r="G27" s="75" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="28" spans="2:7" ht="15.75">
+      <c r="I27" s="204" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" ht="15.75">
       <c r="G28" s="75" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="29" spans="2:7" ht="15.75">
+      <c r="I28" s="205" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" ht="15.75">
       <c r="G29" s="75" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="30" spans="2:7" ht="15.75">
+      <c r="I29" s="204" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" ht="15.75">
       <c r="G30" s="75" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="31" spans="2:7" ht="15.75">
+      <c r="I30" s="205" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" ht="15.75">
       <c r="G31" s="75" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="32" spans="2:7" ht="15.75">
+      <c r="I31" s="204" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" ht="15.75">
       <c r="G32" s="75" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="33" spans="7:7" ht="15.75">
+      <c r="I32" s="205" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="33" spans="7:9" ht="15.75">
       <c r="G33" s="75" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="34" spans="7:7" ht="15.75">
+      <c r="I33" s="204" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="34" spans="7:9" ht="15.75">
       <c r="G34" s="75" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="35" spans="7:7" ht="15.75">
+      <c r="I34" s="205" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="35" spans="7:9" ht="15.75">
       <c r="G35" s="75" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="36" spans="7:7" ht="15.75">
+      <c r="I35" s="204" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="36" spans="7:9" ht="15.75">
       <c r="G36" s="75" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="37" spans="7:7" ht="15.75">
+      <c r="I36" s="205" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="37" spans="7:9" ht="15.75">
       <c r="G37" s="75" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="38" spans="7:7" ht="15.75">
+      <c r="I37" s="204" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="38" spans="7:9" ht="15.75">
       <c r="G38" s="75" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="39" spans="7:7" ht="15.75">
+      <c r="I38" s="205" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="39" spans="7:9" ht="15.75">
       <c r="G39" s="75" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="40" spans="7:7" ht="15.75">
+      <c r="I39" s="204" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="40" spans="7:9" ht="15.75">
       <c r="G40" s="75" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="41" spans="7:7" ht="15.75">
+      <c r="I40" s="205" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="41" spans="7:9" ht="15.75">
       <c r="G41" s="75" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="42" spans="7:7" ht="15.75">
+      <c r="I41" s="204" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="42" spans="7:9" ht="15.75">
       <c r="G42" s="75" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="43" spans="7:7" ht="15.75">
+      <c r="I42" s="205" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="43" spans="7:9" ht="15.75">
       <c r="G43" s="75" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="44" spans="7:7" ht="15.75">
+      <c r="I43" s="204" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="44" spans="7:9" ht="15.75">
       <c r="G44" s="75" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="45" spans="7:7" ht="15.75">
+      <c r="I44" s="205" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="45" spans="7:9" ht="15.75">
       <c r="G45" s="75" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="46" spans="7:7" ht="15.75">
+      <c r="I45" s="204" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="46" spans="7:9" ht="15.75">
       <c r="G46" s="75" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="47" spans="7:7" ht="15.75">
+      <c r="I46" s="205" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="47" spans="7:9" ht="15.75">
       <c r="G47" s="75" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="48" spans="7:7" ht="15.75">
+      <c r="I47" s="204" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="48" spans="7:9" ht="15.75">
       <c r="G48" s="75" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="49" spans="7:7" ht="15.75">
+      <c r="I48" s="205" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="49" spans="7:9" ht="15.75">
       <c r="G49" s="75" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="50" spans="7:7" ht="15.75">
+      <c r="I49" s="204" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="50" spans="7:9" ht="15.75">
       <c r="G50" s="75" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="51" spans="7:7" ht="15.75">
+      <c r="I50" s="205" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="51" spans="7:9" ht="15.75">
       <c r="G51" s="75" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="52" spans="7:7" ht="15.75">
+      <c r="I51" s="204" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="52" spans="7:9" ht="15.75">
       <c r="G52" s="75" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="53" spans="7:7" ht="15.75">
+      <c r="I52" s="205" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="53" spans="7:9" ht="15.75">
       <c r="G53" s="75" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="54" spans="7:7" ht="15.75">
+      <c r="I53" s="204" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="54" spans="7:9" ht="15.75">
       <c r="G54" s="75" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="55" spans="7:7" ht="15.75">
+      <c r="I54" s="205" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="55" spans="7:9" ht="15.75">
       <c r="G55" s="75" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="56" spans="7:7" ht="15.75">
+      <c r="I55" s="204" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="56" spans="7:9" ht="15.75">
       <c r="G56" s="75" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="57" spans="7:7" ht="15.75">
+      <c r="I56" s="205" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="57" spans="7:9" ht="15.75">
       <c r="G57" s="75" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="58" spans="7:7" ht="15.75">
+      <c r="I57" s="204" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="58" spans="7:9" ht="15.75">
       <c r="G58" s="75" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="59" spans="7:7" ht="15.75">
+      <c r="I58" s="205" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="59" spans="7:9" ht="15.75">
       <c r="G59" s="75" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="60" spans="7:7" ht="15.75">
+      <c r="I59" s="204" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="60" spans="7:9" ht="15.75">
       <c r="G60" s="75" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="61" spans="7:7" ht="15.75">
+      <c r="I60" s="205" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="61" spans="7:9" ht="15.75">
       <c r="G61" s="75" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="62" spans="7:7" ht="15.75">
+      <c r="I61" s="204" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="62" spans="7:9" ht="15.75">
       <c r="G62" s="75" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="63" spans="7:7" ht="15.75">
+      <c r="I62" s="205" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="63" spans="7:9" ht="15.75">
       <c r="G63" s="75" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="64" spans="7:7" ht="15.75">
+      <c r="I63" s="204" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="64" spans="7:9" ht="15.75">
       <c r="G64" s="75" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="65" spans="7:7" ht="15.75">
+      <c r="I64" s="205" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="65" spans="7:9" ht="15.75">
       <c r="G65" s="75" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="66" spans="7:7" ht="15.75">
+      <c r="I65" s="204" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="66" spans="7:9" ht="15.75">
       <c r="G66" s="75" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="67" spans="7:7" ht="15.75">
+      <c r="I66" s="205" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="67" spans="7:9" ht="15.75">
       <c r="G67" s="75" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="68" spans="7:7" ht="15.75">
+      <c r="I67" s="204" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="68" spans="7:9" ht="15.75">
       <c r="G68" s="75" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="69" spans="7:7" ht="15.75">
+      <c r="I68" s="205" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="69" spans="7:9" ht="15.75">
       <c r="G69" s="75" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="70" spans="7:7" ht="15.75">
+      <c r="I69" s="204" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="70" spans="7:9" ht="15.75">
       <c r="G70" s="75" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="71" spans="7:7" ht="15.75">
+      <c r="I70" s="205" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="71" spans="7:9" ht="15.75">
       <c r="G71" s="75" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="72" spans="7:7" ht="15.75">
+      <c r="I71" s="204" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="72" spans="7:9" ht="15.75">
       <c r="G72" s="75" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="73" spans="7:7" ht="15.75">
+      <c r="I72" s="205" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="73" spans="7:9" ht="15.75">
       <c r="G73" s="75" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="74" spans="7:7" ht="15.75">
+      <c r="I73" s="204" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="74" spans="7:9" ht="15.75">
       <c r="G74" s="75" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="75" spans="7:7" ht="15.75">
+      <c r="I74" s="205" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="75" spans="7:9" ht="15.75">
       <c r="G75" s="75" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="76" spans="7:7" ht="30.75" customHeight="1">
+      <c r="I75" s="204" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="76" spans="7:9" ht="30.75" customHeight="1">
       <c r="G76" s="75" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="77" spans="7:7" ht="15.75">
+      <c r="I76" s="205" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="77" spans="7:9" ht="15.75">
       <c r="G77" s="75" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="78" spans="7:7" ht="15.75">
+      <c r="I77" s="204" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="78" spans="7:9" ht="15.75">
       <c r="G78" s="75" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="79" spans="7:7" ht="15.75">
+      <c r="I78" s="205" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="79" spans="7:9" ht="15.75">
       <c r="G79" s="75" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="80" spans="7:7" ht="15.75">
+      <c r="I79" s="204" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="80" spans="7:9" ht="15.75">
       <c r="G80" s="75" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="81" spans="7:7" ht="15.75">
+      <c r="I80" s="205" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="81" spans="7:9" ht="15.75">
       <c r="G81" s="75" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="82" spans="7:7" ht="15.75">
+      <c r="I81" s="204" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="82" spans="7:9" ht="15.75">
       <c r="G82" s="75" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="83" spans="7:7" ht="15.75">
+      <c r="I82" s="205" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="83" spans="7:9" ht="15.75">
       <c r="G83" s="75" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="84" spans="7:7" ht="15.75">
+      <c r="I83" s="204" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="84" spans="7:9" ht="15.75">
       <c r="G84" s="75" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="85" spans="7:7" ht="15.75">
+      <c r="I84" s="205" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="85" spans="7:9" ht="15.75">
       <c r="G85" s="75" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="86" spans="7:7" ht="15.75">
+      <c r="I85" s="204" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="86" spans="7:9" ht="15.75">
       <c r="G86" s="75" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="87" spans="7:7" ht="15.75">
+      <c r="I86" s="205" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="87" spans="7:9" ht="15.75">
       <c r="G87" s="75" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="88" spans="7:7" ht="15.75">
+      <c r="I87" s="204" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="88" spans="7:9" ht="15.75">
       <c r="G88" s="75" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="89" spans="7:7" ht="15.75">
+      <c r="I88" s="205" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="89" spans="7:9" ht="15.75">
       <c r="G89" s="75" t="s">
         <v>401</v>
+      </c>
+      <c r="I89" s="204" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="90" spans="7:9" ht="15.75">
+      <c r="I90" s="205" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="91" spans="7:9" ht="15.75">
+      <c r="I91" s="204" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="92" spans="7:9" ht="15.75">
+      <c r="I92" s="205" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="93" spans="7:9" ht="15.75">
+      <c r="I93" s="204" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="94" spans="7:9" ht="15.75">
+      <c r="I94" s="205" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="95" spans="7:9" ht="15.75">
+      <c r="I95" s="204" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="96" spans="7:9" ht="15.75">
+      <c r="I96" s="205" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="97" spans="9:9" ht="15.75">
+      <c r="I97" s="204" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="98" spans="9:9" ht="15.75">
+      <c r="I98" s="205" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="99" spans="9:9" ht="15.75">
+      <c r="I99" s="204" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="100" spans="9:9" ht="15.75">
+      <c r="I100" s="205" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="101" spans="9:9" ht="15.75">
+      <c r="I101" s="204" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="102" spans="9:9" ht="15.75">
+      <c r="I102" s="205" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="103" spans="9:9" ht="15.75">
+      <c r="I103" s="204" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="104" spans="9:9" ht="15.75">
+      <c r="I104" s="205" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="105" spans="9:9" ht="15.75">
+      <c r="I105" s="204" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="106" spans="9:9" ht="15.75">
+      <c r="I106" s="205" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="107" spans="9:9" ht="15.75">
+      <c r="I107" s="204" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="108" spans="9:9" ht="15.75">
+      <c r="I108" s="205" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="109" spans="9:9" ht="15.75">
+      <c r="I109" s="204" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="110" spans="9:9" ht="15.75">
+      <c r="I110" s="205" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="111" spans="9:9" ht="15.75">
+      <c r="I111" s="204" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="112" spans="9:9" ht="15.75">
+      <c r="I112" s="205" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="113" spans="9:9" ht="15.75">
+      <c r="I113" s="204" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="114" spans="9:9" ht="15.75">
+      <c r="I114" s="205" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="115" spans="9:9" ht="15.75">
+      <c r="I115" s="204" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="116" spans="9:9" ht="15.75">
+      <c r="I116" s="205" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="117" spans="9:9" ht="15.75">
+      <c r="I117" s="204" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="118" spans="9:9" ht="15.75">
+      <c r="I118" s="205" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="119" spans="9:9" ht="15.75">
+      <c r="I119" s="204" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="120" spans="9:9" ht="15.75">
+      <c r="I120" s="205" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="121" spans="9:9" ht="15.75">
+      <c r="I121" s="204" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="122" spans="9:9" ht="15.75">
+      <c r="I122" s="205" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="123" spans="9:9" ht="15.75">
+      <c r="I123" s="204" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="124" spans="9:9" ht="15.75">
+      <c r="I124" s="205" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="125" spans="9:9" ht="15.75">
+      <c r="I125" s="204" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="126" spans="9:9" ht="15.75">
+      <c r="I126" s="205" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="127" spans="9:9" ht="15.75">
+      <c r="I127" s="204" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="128" spans="9:9" ht="15.75">
+      <c r="I128" s="205" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="129" spans="9:9" ht="15.75">
+      <c r="I129" s="204" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="130" spans="9:9" ht="15.75">
+      <c r="I130" s="205" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="131" spans="9:9" ht="15.75">
+      <c r="I131" s="204" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="132" spans="9:9" ht="15.75">
+      <c r="I132" s="205" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="133" spans="9:9" ht="15.75">
+      <c r="I133" s="204" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="134" spans="9:9" ht="15.75">
+      <c r="I134" s="205" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="135" spans="9:9" ht="15.75">
+      <c r="I135" s="204" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="136" spans="9:9" ht="15.75">
+      <c r="I136" s="205" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="137" spans="9:9" ht="15.75">
+      <c r="I137" s="204" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="138" spans="9:9" ht="15.75">
+      <c r="I138" s="205" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="139" spans="9:9" ht="15.75">
+      <c r="I139" s="204" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="140" spans="9:9" ht="15.75">
+      <c r="I140" s="205" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="141" spans="9:9" ht="15.75">
+      <c r="I141" s="204" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="142" spans="9:9" ht="15.75">
+      <c r="I142" s="205" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="143" spans="9:9" ht="15.75">
+      <c r="I143" s="204" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="144" spans="9:9" ht="15.75">
+      <c r="I144" s="205" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="145" spans="9:9" ht="15.75">
+      <c r="I145" s="204" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="146" spans="9:9" ht="15.75">
+      <c r="I146" s="205" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="147" spans="9:9" ht="15.75">
+      <c r="I147" s="204" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="148" spans="9:9" ht="15.75">
+      <c r="I148" s="206" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="149" spans="9:9" ht="15.75">
+      <c r="I149" s="207" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="150" spans="9:9" ht="15.75">
+      <c r="I150" s="206" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="151" spans="9:9" ht="15.75">
+      <c r="I151" s="207" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="152" spans="9:9" ht="15.75">
+      <c r="I152" s="206" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="153" spans="9:9" ht="15.75">
+      <c r="I153" s="207" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="154" spans="9:9" ht="15.75">
+      <c r="I154" s="206" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="155" spans="9:9" ht="15.75">
+      <c r="I155" s="207" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="156" spans="9:9" ht="15.75">
+      <c r="I156" s="206" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="157" spans="9:9" ht="15.75">
+      <c r="I157" s="208" t="s">
+        <v>670</v>
       </c>
     </row>
   </sheetData>
@@ -41432,13 +47425,14 @@
     <hyperlink ref="F3" location="'Models &amp; inputs'!B3" display="Models &amp;  inputs"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="6">
+  <tableParts count="7">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
     <tablePart r:id="rId5"/>
     <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
   </tableParts>
 </worksheet>
 </file>